--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281D742A-B46D-4FAC-A4D7-9F3A551BC235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FED6EA2-6457-4240-B931-021F686F3CB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="171">
   <si>
     <t/>
   </si>
@@ -543,6 +543,21 @@
   </si>
   <si>
     <t>"superlatives_213"</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So far, the identification of demonstrative pronouns is probably still too imprecise. We would need to re-use the extraction for feature 10. </t>
+  </si>
+  <si>
+    <t>Biber says that here he "excludes demonstrative pronouns (no. 10) and that as relative, complementizer, or subordinator." Instead, we look at all words tagged as determiners and then count the ones that are "that, this, these, those"</t>
+  </si>
+  <si>
+    <t>The tag we are using to find prepositions (IN) does probably not overlap 100% with what Biber understood as prepositions</t>
+  </si>
+  <si>
+    <t>Here, Biber also counts "any ADJ not identified as predicative - no. 41)", so far we do not do that</t>
   </si>
 </sst>
 </file>
@@ -930,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6755F629-DA21-419F-A671-900231CF4234}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1255,7 +1270,9 @@
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -1329,7 +1346,9 @@
       <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
@@ -1419,7 +1438,9 @@
       <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -1509,7 +1530,9 @@
       <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
@@ -1536,7 +1559,9 @@
       <c r="B65" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
@@ -1545,7 +1570,9 @@
       <c r="B66" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FED6EA2-6457-4240-B931-021F686F3CB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C248683F-1268-492E-8405-4262B0A0E6EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="172">
   <si>
     <t/>
   </si>
@@ -558,6 +558,9 @@
   </si>
   <si>
     <t>Here, Biber also counts "any ADJ not identified as predicative - no. 41)", so far we do not do that</t>
+  </si>
+  <si>
+    <t>we use the EX tag for this, not the code by Biber</t>
   </si>
 </sst>
 </file>
@@ -945,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6755F629-DA21-419F-A671-900231CF4234}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1153,7 +1156,9 @@
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C248683F-1268-492E-8405-4262B0A0E6EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5C53D9-21CE-4AD7-BEA2-39F0C58C5DFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="176">
   <si>
     <t/>
   </si>
@@ -561,6 +561,18 @@
   </si>
   <si>
     <t>we use the EX tag for this, not the code by Biber</t>
+  </si>
+  <si>
+    <t>the count this gives seems too high or too low in many cases</t>
+  </si>
+  <si>
+    <t>very imprecise, also counts "everything", "something"</t>
+  </si>
+  <si>
+    <t>seems to work fairly well, but also catches stuff like "cities"</t>
+  </si>
+  <si>
+    <t>appears to be workgin well</t>
   </si>
 </sst>
 </file>
@@ -603,7 +615,10 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -628,22 +643,24 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" headers="0" connectionId="1" xr16:uid="{355E3EDC-A711-4EA7-BF39-4E4F5FF40C4F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh headersInLastRefresh="0" nextId="4" unboundColumnsRight="1">
-    <queryTableFields count="3">
+  <queryTableRefresh headersInLastRefresh="0" nextId="5" unboundColumnsRight="2">
+    <queryTableFields count="4">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" dataBound="0" tableColumnId="3"/>
+      <queryTableField id="4" dataBound="0" tableColumnId="4"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E40D99BE-96FE-4629-88D4-1F8802B80194}" name="Appendix_FeatureTags" displayName="Appendix_FeatureTags" ref="A2:C81" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CD1E9984-ECA3-410E-BA89-2B6D8BFFC517}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{D21A4EB7-50A6-4AF1-85B1-4F1BD5983C4D}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{CA1DE6FC-A106-455D-85F9-B24344C1C7FD}" uniqueName="3" name="Spalte1" queryTableFieldId="3" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E40D99BE-96FE-4629-88D4-1F8802B80194}" name="Appendix_FeatureTags" displayName="Appendix_FeatureTags" ref="A2:D81" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{CD1E9984-ECA3-410E-BA89-2B6D8BFFC517}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D21A4EB7-50A6-4AF1-85B1-4F1BD5983C4D}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{CA1DE6FC-A106-455D-85F9-B24344C1C7FD}" uniqueName="3" name="Spalte1" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{25B9C599-A2D1-4D0D-9C03-D14F3D1CE5F2}" uniqueName="4" name="Spalte2" queryTableFieldId="4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -948,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6755F629-DA21-419F-A671-900231CF4234}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -986,6 +1003,7 @@
       <c r="C2" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -995,6 +1013,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1004,6 +1023,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -1013,6 +1033,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -1022,6 +1043,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -1031,6 +1053,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
@@ -1040,6 +1063,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -1049,6 +1073,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -1058,6 +1083,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -1067,6 +1093,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -1076,6 +1103,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -1085,6 +1113,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -1094,6 +1123,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -1103,6 +1133,9 @@
         <v>14</v>
       </c>
       <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -1112,8 +1145,11 @@
         <v>15</v>
       </c>
       <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>101</v>
       </c>
@@ -1121,8 +1157,11 @@
         <v>16</v>
       </c>
       <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>102</v>
       </c>
@@ -1130,8 +1169,9 @@
         <v>17</v>
       </c>
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>103</v>
       </c>
@@ -1139,8 +1179,9 @@
         <v>18</v>
       </c>
       <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>104</v>
       </c>
@@ -1148,8 +1189,9 @@
         <v>19</v>
       </c>
       <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>105</v>
       </c>
@@ -1159,8 +1201,11 @@
       <c r="C21" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>106</v>
       </c>
@@ -1168,8 +1213,9 @@
         <v>21</v>
       </c>
       <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>107</v>
       </c>
@@ -1177,8 +1223,9 @@
         <v>22</v>
       </c>
       <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -1186,8 +1233,9 @@
         <v>23</v>
       </c>
       <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>109</v>
       </c>
@@ -1195,8 +1243,9 @@
         <v>24</v>
       </c>
       <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>110</v>
       </c>
@@ -1204,8 +1253,9 @@
         <v>25</v>
       </c>
       <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>111</v>
       </c>
@@ -1213,8 +1263,9 @@
         <v>26</v>
       </c>
       <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>112</v>
       </c>
@@ -1222,8 +1273,9 @@
         <v>27</v>
       </c>
       <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>113</v>
       </c>
@@ -1231,8 +1283,9 @@
         <v>28</v>
       </c>
       <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>114</v>
       </c>
@@ -1240,8 +1293,9 @@
         <v>29</v>
       </c>
       <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>115</v>
       </c>
@@ -1249,8 +1303,9 @@
         <v>30</v>
       </c>
       <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>116</v>
       </c>
@@ -1258,8 +1313,9 @@
         <v>31</v>
       </c>
       <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>117</v>
       </c>
@@ -1267,8 +1323,9 @@
         <v>32</v>
       </c>
       <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>118</v>
       </c>
@@ -1278,8 +1335,9 @@
       <c r="C34" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>119</v>
       </c>
@@ -1287,8 +1345,9 @@
         <v>34</v>
       </c>
       <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>120</v>
       </c>
@@ -1296,8 +1355,9 @@
         <v>35</v>
       </c>
       <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>121</v>
       </c>
@@ -1305,8 +1365,9 @@
         <v>36</v>
       </c>
       <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>122</v>
       </c>
@@ -1314,8 +1375,9 @@
         <v>37</v>
       </c>
       <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>123</v>
       </c>
@@ -1323,8 +1385,9 @@
         <v>38</v>
       </c>
       <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>124</v>
       </c>
@@ -1334,8 +1397,9 @@
       <c r="C40" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>125</v>
       </c>
@@ -1343,8 +1407,9 @@
         <v>40</v>
       </c>
       <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>126</v>
       </c>
@@ -1354,8 +1419,9 @@
       <c r="C42" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>127</v>
       </c>
@@ -1363,8 +1429,9 @@
         <v>42</v>
       </c>
       <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>128</v>
       </c>
@@ -1372,8 +1439,9 @@
         <v>43</v>
       </c>
       <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>129</v>
       </c>
@@ -1381,8 +1449,9 @@
         <v>44</v>
       </c>
       <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>130</v>
       </c>
@@ -1390,8 +1459,9 @@
         <v>45</v>
       </c>
       <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>131</v>
       </c>
@@ -1399,8 +1469,9 @@
         <v>46</v>
       </c>
       <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>132</v>
       </c>
@@ -1408,8 +1479,9 @@
         <v>47</v>
       </c>
       <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>133</v>
       </c>
@@ -1417,8 +1489,9 @@
         <v>48</v>
       </c>
       <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>134</v>
       </c>
@@ -1426,8 +1499,9 @@
         <v>49</v>
       </c>
       <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>135</v>
       </c>
@@ -1435,8 +1509,9 @@
         <v>50</v>
       </c>
       <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>136</v>
       </c>
@@ -1446,8 +1521,9 @@
       <c r="C52" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>137</v>
       </c>
@@ -1455,8 +1531,9 @@
         <v>52</v>
       </c>
       <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>138</v>
       </c>
@@ -1464,8 +1541,9 @@
         <v>53</v>
       </c>
       <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>139</v>
       </c>
@@ -1473,8 +1551,9 @@
         <v>54</v>
       </c>
       <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>140</v>
       </c>
@@ -1482,8 +1561,9 @@
         <v>55</v>
       </c>
       <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>141</v>
       </c>
@@ -1491,8 +1571,9 @@
         <v>56</v>
       </c>
       <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>142</v>
       </c>
@@ -1500,8 +1581,9 @@
         <v>57</v>
       </c>
       <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>143</v>
       </c>
@@ -1509,8 +1591,9 @@
         <v>58</v>
       </c>
       <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>144</v>
       </c>
@@ -1518,8 +1601,9 @@
         <v>59</v>
       </c>
       <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>145</v>
       </c>
@@ -1527,8 +1611,9 @@
         <v>60</v>
       </c>
       <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>146</v>
       </c>
@@ -1538,8 +1623,9 @@
       <c r="C62" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>147</v>
       </c>
@@ -1547,8 +1633,9 @@
         <v>62</v>
       </c>
       <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>148</v>
       </c>
@@ -1556,8 +1643,9 @@
         <v>63</v>
       </c>
       <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>149</v>
       </c>
@@ -1567,8 +1655,9 @@
       <c r="C65" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>150</v>
       </c>
@@ -1578,8 +1667,9 @@
       <c r="C66" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>151</v>
       </c>
@@ -1587,8 +1677,9 @@
         <v>66</v>
       </c>
       <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>152</v>
       </c>
@@ -1596,8 +1687,9 @@
         <v>67</v>
       </c>
       <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>153</v>
       </c>
@@ -1605,8 +1697,9 @@
         <v>68</v>
       </c>
       <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>154</v>
       </c>
@@ -1614,8 +1707,9 @@
         <v>69</v>
       </c>
       <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>155</v>
       </c>
@@ -1623,8 +1717,9 @@
         <v>70</v>
       </c>
       <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>156</v>
       </c>
@@ -1632,8 +1727,9 @@
         <v>71</v>
       </c>
       <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>157</v>
       </c>
@@ -1641,8 +1737,9 @@
         <v>72</v>
       </c>
       <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>158</v>
       </c>
@@ -1650,8 +1747,9 @@
         <v>0</v>
       </c>
       <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>159</v>
       </c>
@@ -1659,8 +1757,9 @@
         <v>0</v>
       </c>
       <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>160</v>
       </c>
@@ -1668,8 +1767,9 @@
         <v>73</v>
       </c>
       <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>161</v>
       </c>
@@ -1677,8 +1777,9 @@
         <v>74</v>
       </c>
       <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>162</v>
       </c>
@@ -1686,8 +1787,9 @@
         <v>75</v>
       </c>
       <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>163</v>
       </c>
@@ -1695,8 +1797,9 @@
         <v>76</v>
       </c>
       <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>164</v>
       </c>
@@ -1704,8 +1807,9 @@
         <v>77</v>
       </c>
       <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>165</v>
       </c>
@@ -1713,6 +1817,7 @@
         <v>78</v>
       </c>
       <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5C53D9-21CE-4AD7-BEA2-39F0C58C5DFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B8D949-0B6B-494D-9A2D-A1EDA5DC6C6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
+    <workbookView xWindow="7760" yWindow="240" windowWidth="11000" windowHeight="9620" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="180">
   <si>
     <t/>
   </si>
@@ -573,6 +573,18 @@
   </si>
   <si>
     <t>appears to be workgin well</t>
+  </si>
+  <si>
+    <t>seems to work well</t>
+  </si>
+  <si>
+    <t>appears to be 100% accurate</t>
+  </si>
+  <si>
+    <t>for some reason this does not catch "i"</t>
+  </si>
+  <si>
+    <t>doesn't work well, but I don't see why</t>
   </si>
 </sst>
 </file>
@@ -965,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6755F629-DA21-419F-A671-900231CF4234}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1053,7 +1065,9 @@
         <v>6</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
@@ -1063,7 +1077,9 @@
         <v>7</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -1073,7 +1089,9 @@
         <v>8</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -1083,7 +1101,9 @@
         <v>9</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -1355,7 +1375,9 @@
         <v>35</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
@@ -1521,7 +1543,9 @@
       <c r="C52" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -1677,7 +1701,9 @@
         <v>66</v>
       </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B8D949-0B6B-494D-9A2D-A1EDA5DC6C6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962200A5-F356-4667-BE1D-1EB3B1A6176E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7760" yWindow="240" windowWidth="11000" windowHeight="9620" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
+    <workbookView xWindow="8240" yWindow="0" windowWidth="11000" windowHeight="9620" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="187">
   <si>
     <t/>
   </si>
@@ -585,6 +585,27 @@
   </si>
   <si>
     <t>doesn't work well, but I don't see why</t>
+  </si>
+  <si>
+    <t>for some reason this does not catch "if"</t>
+  </si>
+  <si>
+    <t>does not catch everything it should</t>
+  </si>
+  <si>
+    <t>seems to work fairly well.</t>
+  </si>
+  <si>
+    <t>does not catch "better" and not every "more"</t>
+  </si>
+  <si>
+    <t>does not catch every "most"</t>
+  </si>
+  <si>
+    <t>appears to count too much</t>
+  </si>
+  <si>
+    <t>appears to count too little</t>
   </si>
 </sst>
 </file>
@@ -977,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6755F629-DA21-419F-A671-900231CF4234}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1045,7 +1066,9 @@
         <v>4</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -1055,7 +1078,9 @@
         <v>5</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -1397,7 +1422,9 @@
         <v>37</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
@@ -1429,7 +1456,9 @@
         <v>40</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
@@ -1441,7 +1470,9 @@
       <c r="C42" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
@@ -1491,7 +1522,9 @@
         <v>46</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
@@ -1511,7 +1544,9 @@
         <v>48</v>
       </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
@@ -1713,7 +1748,9 @@
         <v>67</v>
       </c>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
@@ -1833,7 +1870,9 @@
         <v>77</v>
       </c>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
@@ -1843,7 +1882,9 @@
         <v>78</v>
       </c>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962200A5-F356-4667-BE1D-1EB3B1A6176E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043CE848-8106-4E2E-9C56-EC8755F5C44F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8240" yWindow="0" windowWidth="11000" windowHeight="9620" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="191">
   <si>
     <t/>
   </si>
@@ -584,15 +584,9 @@
     <t>for some reason this does not catch "i"</t>
   </si>
   <si>
-    <t>doesn't work well, but I don't see why</t>
-  </si>
-  <si>
     <t>for some reason this does not catch "if"</t>
   </si>
   <si>
-    <t>does not catch everything it should</t>
-  </si>
-  <si>
     <t>seems to work fairly well.</t>
   </si>
   <si>
@@ -606,6 +600,24 @@
   </si>
   <si>
     <t>appears to count too little</t>
+  </si>
+  <si>
+    <t>does not catch everything it should, but the reason seems to be the tagging, not the function</t>
+  </si>
+  <si>
+    <t>there are some words that come to mind that could be added to Biber's list of place adverbials: apart, back, here, out, there (HM)</t>
+  </si>
+  <si>
+    <t>there are some words that come to mind that could be added to Biber's list of place adverbials: then, always (HM)</t>
+  </si>
+  <si>
+    <t>does not catch everything it should, but the reason seems to be the tagging, not the function ("because" tagged as IN)</t>
+  </si>
+  <si>
+    <t>does not catch everything it should, but the reason seems to be the tagging, not the function ("though" tagged as IN)</t>
+  </si>
+  <si>
+    <t>also included "tho" as common shortening of "though"</t>
   </si>
 </sst>
 </file>
@@ -998,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6755F629-DA21-419F-A671-900231CF4234}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1065,9 +1077,11 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1077,9 +1091,11 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1399,9 +1415,11 @@
       <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="D36" s="1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -1411,8 +1429,12 @@
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
@@ -1423,7 +1445,7 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1457,7 +1479,7 @@
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1471,7 +1493,7 @@
         <v>170</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1523,7 +1545,7 @@
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -1545,7 +1567,7 @@
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -1871,7 +1893,7 @@
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -1883,7 +1905,7 @@
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043CE848-8106-4E2E-9C56-EC8755F5C44F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B06D9A3-32B2-4372-B101-C5B0D2FA32E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="191">
   <si>
     <t/>
   </si>
@@ -584,12 +584,6 @@
     <t>for some reason this does not catch "i"</t>
   </si>
   <si>
-    <t>for some reason this does not catch "if"</t>
-  </si>
-  <si>
-    <t>seems to work fairly well.</t>
-  </si>
-  <si>
     <t>does not catch "better" and not every "more"</t>
   </si>
   <si>
@@ -611,13 +605,19 @@
     <t>there are some words that come to mind that could be added to Biber's list of place adverbials: then, always (HM)</t>
   </si>
   <si>
-    <t>does not catch everything it should, but the reason seems to be the tagging, not the function ("because" tagged as IN)</t>
-  </si>
-  <si>
-    <t>does not catch everything it should, but the reason seems to be the tagging, not the function ("though" tagged as IN)</t>
-  </si>
-  <si>
     <t>also included "tho" as common shortening of "though"</t>
+  </si>
+  <si>
+    <t>Here we simply count everything that is tagged as an adverb. Biber counts all adverbs in the dictionary, everything that is longer than five letters and ends in -ly, and excludes everything that is counted as a hedge/amplifier/downtoner/placeadverbial/timeadverbial</t>
+  </si>
+  <si>
+    <t>works well</t>
+  </si>
+  <si>
+    <t>there are some words that come to mind that could be added to Biber's list of place adverbials: a little, a bit, a tad (HM)</t>
+  </si>
+  <si>
+    <t>doens't work well yet. Somehow it counted "family members that are RATHER odd" even though that definitely should not be counted. It did not count "ALTOGETHER, this is nice" even though this should be counted.</t>
   </si>
 </sst>
 </file>
@@ -1010,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6755F629-DA21-419F-A671-900231CF4234}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1078,10 +1078,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1092,10 +1092,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1418,9 +1418,7 @@
       <c r="C36" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>188</v>
-      </c>
+      <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
@@ -1430,11 +1428,9 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>189</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
@@ -1444,9 +1440,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="1" t="s">
-        <v>179</v>
-      </c>
+      <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
@@ -1479,7 +1473,7 @@
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1493,7 +1487,7 @@
         <v>170</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1503,7 +1497,9 @@
       <c r="B43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -1534,7 +1530,9 @@
         <v>45</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
@@ -1543,9 +1541,11 @@
       <c r="B47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="D47" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -1588,7 +1588,9 @@
         <v>50</v>
       </c>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
@@ -1771,7 +1773,7 @@
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -1893,7 +1895,7 @@
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -1905,7 +1907,7 @@
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B06D9A3-32B2-4372-B101-C5B0D2FA32E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F606D59-1C0F-497B-8B14-D97965CEBD52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="191">
   <si>
     <t/>
   </si>
@@ -581,9 +581,6 @@
     <t>appears to be 100% accurate</t>
   </si>
   <si>
-    <t>for some reason this does not catch "i"</t>
-  </si>
-  <si>
     <t>does not catch "better" and not every "more"</t>
   </si>
   <si>
@@ -618,6 +615,9 @@
   </si>
   <si>
     <t>doens't work well yet. Somehow it counted "family members that are RATHER odd" even though that definitely should not be counted. It did not count "ALTOGETHER, this is nice" even though this should be counted.</t>
+  </si>
+  <si>
+    <t>this frequently does not catch "i" because it is tagged as NN or JJ</t>
   </si>
 </sst>
 </file>
@@ -1010,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6755F629-DA21-419F-A671-900231CF4234}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1078,10 +1078,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1092,10 +1092,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1154,7 +1154,9 @@
         <v>10</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -1428,7 +1430,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D37" s="1"/>
     </row>
@@ -1473,7 +1475,7 @@
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1487,7 +1489,7 @@
         <v>170</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1498,7 +1500,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D43" s="1"/>
     </row>
@@ -1531,7 +1533,7 @@
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -1542,10 +1544,10 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -1567,7 +1569,7 @@
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -1589,7 +1591,7 @@
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -1773,7 +1775,7 @@
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -1895,7 +1897,7 @@
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -1907,7 +1909,7 @@
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F606D59-1C0F-497B-8B14-D97965CEBD52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97FAA80-3E34-43A5-93D3-4B75C2B366D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="192">
   <si>
     <t/>
   </si>
@@ -563,15 +563,6 @@
     <t>we use the EX tag for this, not the code by Biber</t>
   </si>
   <si>
-    <t>the count this gives seems too high or too low in many cases</t>
-  </si>
-  <si>
-    <t>very imprecise, also counts "everything", "something"</t>
-  </si>
-  <si>
-    <t>seems to work fairly well, but also catches stuff like "cities"</t>
-  </si>
-  <si>
     <t>appears to be workgin well</t>
   </si>
   <si>
@@ -618,6 +609,18 @@
   </si>
   <si>
     <t>this frequently does not catch "i" because it is tagged as NN or JJ</t>
+  </si>
+  <si>
+    <t>edited manually by biber, we just use the ing-ending</t>
+  </si>
+  <si>
+    <t>some problems that result from the tagger (e.g. '*' tagged as noun, 'way' in 'this is way better' tagged as noun, 'professional' in 'he is a professional' tagged as adjective)</t>
+  </si>
+  <si>
+    <t>seems to work fairly well</t>
+  </si>
+  <si>
+    <t>added stopword list to avoid counting of "everything", "something". Many gerunds are not counted but that is due to the tagger classifying them as verbs.</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1014,7 @@
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1078,10 +1081,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1092,10 +1095,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1107,7 +1110,7 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1119,7 +1122,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1131,7 +1134,7 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1143,7 +1146,7 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -1155,7 +1158,7 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -1197,7 +1200,7 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -1207,9 +1210,11 @@
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1221,7 +1226,7 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1265,7 +1270,7 @@
         <v>171</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1430,7 +1435,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D37" s="1"/>
     </row>
@@ -1475,7 +1480,7 @@
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1489,7 +1494,7 @@
         <v>170</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1500,7 +1505,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D43" s="1"/>
     </row>
@@ -1533,7 +1538,7 @@
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -1544,10 +1549,10 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -1569,7 +1574,7 @@
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -1591,7 +1596,7 @@
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -1605,7 +1610,7 @@
         <v>168</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -1763,7 +1768,7 @@
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -1775,7 +1780,7 @@
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -1897,7 +1902,7 @@
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -1909,7 +1914,7 @@
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97FAA80-3E34-43A5-93D3-4B75C2B366D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DA7FE5-6BF8-4615-84BB-5BEDDAAD9878}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
+    <workbookView xWindow="7940" yWindow="5500" windowWidth="11090" windowHeight="4300" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="196">
   <si>
     <t/>
   </si>
@@ -621,6 +621,18 @@
   </si>
   <si>
     <t>added stopword list to avoid counting of "everything", "something". Many gerunds are not counted but that is due to the tagger classifying them as verbs.</t>
+  </si>
+  <si>
+    <t>so far we only use the full forms (can, may, might, could), while Biber also includes the contractions</t>
+  </si>
+  <si>
+    <t>so far we only use the full forms (ought, should, must), while Biber also includes the contractions</t>
+  </si>
+  <si>
+    <t>works well, but open question whether tagger will remove apostrophes as the beginning of clitics? (we currently rely on that for identificaiton)</t>
+  </si>
+  <si>
+    <t>Biber only allows for one or two intervening adverbs, we allow  for more</t>
   </si>
 </sst>
 </file>
@@ -1013,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6755F629-DA21-419F-A671-900231CF4234}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1620,8 +1632,12 @@
       <c r="B53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
@@ -1630,8 +1646,12 @@
       <c r="B54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
@@ -1641,7 +1661,9 @@
         <v>54</v>
       </c>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
@@ -1691,7 +1713,9 @@
         <v>59</v>
       </c>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
@@ -1732,8 +1756,12 @@
       <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DA7FE5-6BF8-4615-84BB-5BEDDAAD9878}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79064713-8F3E-4D20-896A-2EEFD2DCE17A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="5500" windowWidth="11090" windowHeight="4300" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="200">
   <si>
     <t/>
   </si>
@@ -633,6 +633,18 @@
   </si>
   <si>
     <t>Biber only allows for one or two intervening adverbs, we allow  for more</t>
+  </si>
+  <si>
+    <t>appears to work well</t>
+  </si>
+  <si>
+    <t>serious problems here, catches unwanted stuff ("there's nothing good that can come from it", "I'm sure that's a …"), but also ignores some relevant examples without that ("I am glad you liked it")</t>
+  </si>
+  <si>
+    <t>Biber excludes contracted auxiliaries here. I don't see why and our code currently does not exclude them</t>
+  </si>
+  <si>
+    <t>I can't tell because the current taggeer will not tag the "that"s in my example sentences as WH…</t>
   </si>
 </sst>
 </file>
@@ -1025,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6755F629-DA21-419F-A671-900231CF4234}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1200,8 +1212,12 @@
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -1293,7 +1309,9 @@
         <v>21</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -1303,7 +1321,9 @@
         <v>22</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
@@ -1415,7 +1435,9 @@
       <c r="C34" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -1425,7 +1447,9 @@
         <v>34</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79064713-8F3E-4D20-896A-2EEFD2DCE17A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B85BBD-75BC-4DEC-BED7-BB732001FBC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="201">
   <si>
     <t/>
   </si>
@@ -645,6 +645,9 @@
   </si>
   <si>
     <t>I can't tell because the current taggeer will not tag the "that"s in my example sentences as WH…</t>
+  </si>
+  <si>
+    <t>works really well, some problems related to the tagger (catches "fuck that shit" because shit is tagged as a verb… ^^)</t>
   </si>
 </sst>
 </file>
@@ -1037,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6755F629-DA21-419F-A671-900231CF4234}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1393,7 +1396,9 @@
         <v>29</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
@@ -1403,7 +1408,9 @@
         <v>30</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -1413,7 +1420,9 @@
         <v>31</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
@@ -1423,7 +1432,9 @@
         <v>32</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B85BBD-75BC-4DEC-BED7-BB732001FBC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209A7BBF-3D5F-4EFC-B83A-6B580C2EC750}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">Tabelle2!$A$2:$B$81</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">Tabelle2!$A$2:$B$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="209">
   <si>
     <t/>
   </si>
@@ -53,9 +53,6 @@
     <t xml:space="preserve"> verbs in past tense</t>
   </si>
   <si>
-    <t xml:space="preserve"> verbs in perfect aspect</t>
-  </si>
-  <si>
     <t xml:space="preserve"> verbs in present tense</t>
   </si>
   <si>
@@ -299,18 +296,12 @@
     <t>Recall</t>
   </si>
   <si>
-    <t>we intentionally only use the first of the two conditions that Biber proposes for finding past tense verbs</t>
-  </si>
-  <si>
     <t>we use the POS-tag,  Biber suggests a list of prepositions instead</t>
   </si>
   <si>
     <t>"vpast_001"</t>
   </si>
   <si>
-    <t>"vperfect_002"</t>
-  </si>
-  <si>
     <t>"vpresent_003"</t>
   </si>
   <si>
@@ -644,10 +635,43 @@
     <t>Biber excludes contracted auxiliaries here. I don't see why and our code currently does not exclude them</t>
   </si>
   <si>
-    <t>I can't tell because the current taggeer will not tag the "that"s in my example sentences as WH…</t>
-  </si>
-  <si>
     <t>works really well, some problems related to the tagger (catches "fuck that shit" because shit is tagged as a verb… ^^)</t>
+  </si>
+  <si>
+    <t>instead of Biber's conditions we use the tag that identifies past tense verbs</t>
+  </si>
+  <si>
+    <t>"vpresperfect_002a"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> verbs in present perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> verbs in past perfect</t>
+  </si>
+  <si>
+    <t>"vpastperfect_002b"</t>
+  </si>
+  <si>
+    <t>Biber only looks for perfect aspect, we draw a finer distinction between present and past perfect. If we want to we can easily combine them later</t>
+  </si>
+  <si>
+    <t>instead of Biber's condition we use the tag to identify infinitives, which likely also catches some wrong imperatives</t>
+  </si>
+  <si>
+    <t>I can't tell because the current tagger will not tag the "that"s in my example sentences as WH…</t>
+  </si>
+  <si>
+    <t>lots of wrong hits, but all appear to be tagger-related</t>
+  </si>
+  <si>
+    <t>catches what it should, which is not much</t>
+  </si>
+  <si>
+    <t>currently we are implementing this as Biber intended, but it would make sense to look for further instances of ing-forms</t>
+  </si>
+  <si>
+    <t>(not included in Biber)</t>
   </si>
 </sst>
 </file>
@@ -730,7 +754,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E40D99BE-96FE-4629-88D4-1F8802B80194}" name="Appendix_FeatureTags" displayName="Appendix_FeatureTags" ref="A2:D81" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E40D99BE-96FE-4629-88D4-1F8802B80194}" name="Appendix_FeatureTags" displayName="Appendix_FeatureTags" ref="A2:D82" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{CD1E9984-ECA3-410E-BA89-2B6D8BFFC517}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{D21A4EB7-50A6-4AF1-85B1-4F1BD5983C4D}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="2"/>
@@ -1038,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6755F629-DA21-419F-A671-900231CF4234}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1053,862 +1077,878 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>82</v>
-      </c>
-      <c r="E1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>197</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>199</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>179</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="D15" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>188</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>172</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>200</v>
-      </c>
+      <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="D35" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" t="s">
-        <v>85</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>177</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>170</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D43" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>185</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="1" t="s">
-        <v>184</v>
-      </c>
+      <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C51" s="1"/>
-      <c r="D51" s="1" t="s">
-        <v>184</v>
-      </c>
+      <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>168</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="D55" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C60" s="1"/>
-      <c r="D60" s="1" t="s">
-        <v>194</v>
-      </c>
+      <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>184</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D65" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1" t="s">
-        <v>173</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>0</v>
@@ -1918,66 +1958,76 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C80" s="1"/>
-      <c r="D80" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209A7BBF-3D5F-4EFC-B83A-6B580C2EC750}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF760AB-1C86-42E5-A312-F54299095792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="213">
   <si>
     <t/>
   </si>
@@ -672,6 +672,18 @@
   </si>
   <si>
     <t>(not included in Biber)</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>not good, catches unintended stuff like "with prices going up" or "or is the passage saying something quite different" - might need to drop this one</t>
+  </si>
+  <si>
+    <t>currently can't check this due to tagger problems (tags the VBNs we are looking for as VBD)</t>
+  </si>
+  <si>
+    <t>some tagger inaccuracy</t>
   </si>
 </sst>
 </file>
@@ -1064,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6755F629-DA21-419F-A671-900231CF4234}">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1125,7 +1137,9 @@
       <c r="B4" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1135,8 +1149,12 @@
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -1411,8 +1429,12 @@
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
@@ -1421,8 +1443,12 @@
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
@@ -1431,8 +1457,12 @@
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
@@ -1784,7 +1814,9 @@
         <v>57</v>
       </c>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
@@ -1973,7 +2005,9 @@
       <c r="B77" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -1983,7 +2017,9 @@
       <c r="B78" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C78" s="1"/>
+      <c r="C78" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -1993,7 +2029,9 @@
       <c r="B79" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C79" s="1"/>
+      <c r="C79" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -2003,7 +2041,9 @@
       <c r="B80" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -2013,7 +2053,9 @@
       <c r="B81" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="1"/>
+      <c r="C81" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="D81" s="1" t="s">
         <v>172</v>
       </c>
@@ -2025,7 +2067,9 @@
       <c r="B82" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="1"/>
+      <c r="C82" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="D82" s="1" t="s">
         <v>173</v>
       </c>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF760AB-1C86-42E5-A312-F54299095792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAB37FF-4316-4005-8E6D-6D3E6539074F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="217">
   <si>
     <t/>
   </si>
@@ -620,9 +620,6 @@
     <t>so far we only use the full forms (ought, should, must), while Biber also includes the contractions</t>
   </si>
   <si>
-    <t>works well, but open question whether tagger will remove apostrophes as the beginning of clitics? (we currently rely on that for identificaiton)</t>
-  </si>
-  <si>
     <t>Biber only allows for one or two intervening adverbs, we allow  for more</t>
   </si>
   <si>
@@ -684,6 +681,21 @@
   </si>
   <si>
     <t>some tagger inaccuracy</t>
+  </si>
+  <si>
+    <t>Biber only looks for perfect aspect, we draw a finer distinction between present and past perfect. If we want to we can easily combine them later.</t>
+  </si>
+  <si>
+    <t>Biber also includes prepositions as items following BE, we currently don't allow that. Instead we also include nouns.</t>
+  </si>
+  <si>
+    <t>this appears to catch everything it attempts to catch, but we might think about also including adverbs to the list to also count "I am really interested" etc</t>
+  </si>
+  <si>
+    <t>works well (tagger will not remove apostrophes!!)</t>
+  </si>
+  <si>
+    <t>instead of using Biber's elaborate syntax, we simply look for apostrophes</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6755F629-DA21-419F-A671-900231CF4234}">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
@@ -1112,35 +1124,39 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>212</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -1150,10 +1166,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1272,10 +1288,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -1343,8 +1359,12 @@
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -1369,7 +1389,7 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1381,7 +1401,7 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1402,10 +1422,10 @@
         <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1416,10 +1436,10 @@
         <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1430,10 +1450,10 @@
         <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1444,10 +1464,10 @@
         <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1458,10 +1478,10 @@
         <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1473,7 +1493,7 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1485,7 +1505,7 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1497,7 +1517,7 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1509,7 +1529,7 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1523,7 +1543,7 @@
         <v>166</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1535,7 +1555,7 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -1825,9 +1845,11 @@
       <c r="B61" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="D61" s="1" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -1870,7 +1892,7 @@
         <v>62</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>181</v>
@@ -1972,10 +1994,10 @@
         <v>71</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -2006,7 +2028,7 @@
         <v>72</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D77" s="1"/>
     </row>
@@ -2018,7 +2040,7 @@
         <v>73</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D78" s="1"/>
     </row>
@@ -2030,7 +2052,7 @@
         <v>74</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D79" s="1"/>
     </row>
@@ -2042,7 +2064,7 @@
         <v>75</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D80" s="1"/>
     </row>
@@ -2054,7 +2076,7 @@
         <v>76</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>172</v>
@@ -2068,7 +2090,7 @@
         <v>77</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>173</v>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -1,36 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ratos\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAB37FF-4316-4005-8E6D-6D3E6539074F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860834F6-1104-4894-8FB8-FCA26A7E7BAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
+    <workbookView xWindow="593" yWindow="945" windowWidth="11437" windowHeight="11445" activeTab="1" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
+    <sheet name="R's template" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">Tabelle2!$A$2:$B$82</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -45,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="389">
   <si>
     <t/>
   </si>
@@ -696,13 +688,551 @@
   </si>
   <si>
     <t>instead of using Biber's elaborate syntax, we simply look for apostrophes</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>feature_dic</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pre-thought sentence </t>
+  </si>
+  <si>
+    <t>PT_count</t>
+  </si>
+  <si>
+    <t>PoS</t>
+  </si>
+  <si>
+    <t>realistic data</t>
+  </si>
+  <si>
+    <t>RD_count</t>
+  </si>
+  <si>
+    <t>adverb</t>
+  </si>
+  <si>
+    <t>negana_067</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>This is not an example sentence.</t>
+  </si>
+  <si>
+    <t>count = 0</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>Covid-19 patient arrested and charged with attempted murder for not self-quarantining after testing positive</t>
+  </si>
+  <si>
+    <t>That was not a mistake.</t>
+  </si>
+  <si>
+    <t>Trump Is Lying. He Did Not Take Coronavirus Seriously for Weeks.</t>
+  </si>
+  <si>
+    <t>I would not do that if I were you.</t>
+  </si>
+  <si>
+    <t>Michigan medical marijuana seller gets prison: ‘Federal law has not changed,’ judge says</t>
+  </si>
+  <si>
+    <t>isn't</t>
+  </si>
+  <si>
+    <t>This isn't an example sentence.</t>
+  </si>
+  <si>
+    <t>count = 1</t>
+  </si>
+  <si>
+    <r>
+      <t>What is a hated thing that isn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t actually that bad?</t>
+    </r>
+  </si>
+  <si>
+    <t>('isn', 'VBZ'), ('’', 'JJ'), ('t', 'NNS')</t>
+  </si>
+  <si>
+    <t>don't</t>
+  </si>
+  <si>
+    <t>Don't believe that example sentence.</t>
+  </si>
+  <si>
+    <t>STOP REPEATING “DON’T SELL!!!</t>
+  </si>
+  <si>
+    <t>('don', 'NN'), ('’', 'NNP'), ('t', 'NN'), ('sell', 'NN')</t>
+  </si>
+  <si>
+    <t>doesn't</t>
+  </si>
+  <si>
+    <t>From what I've heard, she doesn't like example sentences either.</t>
+  </si>
+  <si>
+    <t>Zach Lowe doesn’t believe the reports that Tyler Herro is 'off the table' for James Harden</t>
+  </si>
+  <si>
+    <t>('doesn', 'NN'), ('’', 'NNP'), ('t', 'NN')</t>
+  </si>
+  <si>
+    <t>won't</t>
+  </si>
+  <si>
+    <t>I won't tell you why but example sentences are everywhere.</t>
+  </si>
+  <si>
+    <t>Your brain knows where all of your organs are, and won’t tell you.</t>
+  </si>
+  <si>
+    <t>('won', 'VBD'), ('’', 'NNP'), ('t', 'NN')</t>
+  </si>
+  <si>
+    <t>advplace_004</t>
+  </si>
+  <si>
+    <t>ahead, beside, behind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look ahead, beside, behind you: example sentences are all around. </t>
+  </si>
+  <si>
+    <t>('ahead', 'RB'), (',', ','), ('beside', 'NN'), (',', ','), ('behind', 'IN') ... ('around', 'IN')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biden says US ‘weeks ahead of schedule’ and will be first country to 100 million vaccinations </t>
+  </si>
+  <si>
+    <t>('ahead', 'RB')</t>
+  </si>
+  <si>
+    <t>below</t>
+  </si>
+  <si>
+    <t>See example sentences below.</t>
+  </si>
+  <si>
+    <t>('below', 'IN')</t>
+  </si>
+  <si>
+    <t>Being below 300 for the first time in 10 years, decided to make lifestyle changes at 405lbs.</t>
+  </si>
+  <si>
+    <t>indoors</t>
+  </si>
+  <si>
+    <t>Writing example sentences is usually an activity done indoors.</t>
+  </si>
+  <si>
+    <t>('indoors', 'NNS')</t>
+  </si>
+  <si>
+    <t>howing off a gun indoors.</t>
+  </si>
+  <si>
+    <t>advtime_005</t>
+  </si>
+  <si>
+    <t>again</t>
+  </si>
+  <si>
+    <t>I went to the beach again.</t>
+  </si>
+  <si>
+    <t>thetinmen once again hitting the nail on the head</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>I am going late to school.</t>
+  </si>
+  <si>
+    <t>('late', 'JJ')</t>
+  </si>
+  <si>
+    <t>i just NOW realised me going late to school everyday in elementary school was NOT my fault.</t>
+  </si>
+  <si>
+    <t>I was running late.</t>
+  </si>
+  <si>
+    <t>People who search ask Reddit/creepy or unexplained late at night what’s the creepiest story out there?</t>
+  </si>
+  <si>
+    <t>recently</t>
+  </si>
+  <si>
+    <t>I've recently eaten my first vegan donut.</t>
+  </si>
+  <si>
+    <t>Ron Johnson falsely claimed Greenland only recently froze</t>
+  </si>
+  <si>
+    <t>tomorrow</t>
+  </si>
+  <si>
+    <t>Wanna stop by the donut shop tomorrow?</t>
+  </si>
+  <si>
+    <t>('tomorrow', 'NN')</t>
+  </si>
+  <si>
+    <t>conjuncts_045</t>
+  </si>
+  <si>
+    <t>consequently</t>
+  </si>
+  <si>
+    <t>He then consequently ate five donuts in a row.</t>
+  </si>
+  <si>
+    <t>primarily The Dark Tower with perhaps a bit of The Mist in there consequently</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>Go buy donuts now else there won't be any left.</t>
+  </si>
+  <si>
+    <t>Be careful or else you’re gonna rip yourself on that edgy</t>
+  </si>
+  <si>
+    <t>else_adj</t>
+  </si>
+  <si>
+    <t>I want something else.</t>
+  </si>
+  <si>
+    <t>Anyone else do this?</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>Go eat a donut instead of complaining.</t>
+  </si>
+  <si>
+    <t>Small pizzeria in Italy sanctioned instead of a Venezuelan oil exporter.</t>
+  </si>
+  <si>
+    <t>rather</t>
+  </si>
+  <si>
+    <t>I would much rather have a donut now than later.</t>
+  </si>
+  <si>
+    <t>Well there it is, hate waiting but i rather have a polished game then a game with bugs.</t>
+  </si>
+  <si>
+    <t>downtoners_046</t>
+  </si>
+  <si>
+    <t>hardly</t>
+  </si>
+  <si>
+    <t>He has hardly any experience with it.</t>
+  </si>
+  <si>
+    <t>As a sign I asked for flamingos because I hardly ever see them but here we are</t>
+  </si>
+  <si>
+    <t>almost</t>
+  </si>
+  <si>
+    <t>I almost fell on my face.</t>
+  </si>
+  <si>
+    <t>Almost had me fooled until I zoomed into the wonky grills.</t>
+  </si>
+  <si>
+    <t>slightly</t>
+  </si>
+  <si>
+    <t>They were slightly irritated with each other.</t>
+  </si>
+  <si>
+    <t>LPT if you’re running even slightly late for work, text your boss and tell them.</t>
+  </si>
+  <si>
+    <t>somewhat</t>
+  </si>
+  <si>
+    <t>Don't you think that's somewhat fucked up?</t>
+  </si>
+  <si>
+    <t>Idk with you guys but they somewhat look similar for me.</t>
+  </si>
+  <si>
+    <t>('somewhat', 'VBP')</t>
+  </si>
+  <si>
+    <t>amplifiers_048</t>
+  </si>
+  <si>
+    <t>absolutely</t>
+  </si>
+  <si>
+    <t>I absolutely agree with you.</t>
+  </si>
+  <si>
+    <t>What is that one book, that absolutely changed your life?</t>
+  </si>
+  <si>
+    <t>completely</t>
+  </si>
+  <si>
+    <t>Isn't that completely insane?</t>
+  </si>
+  <si>
+    <t>What actor/actress was completely 100% wrong for the role?</t>
+  </si>
+  <si>
+    <t>very</t>
+  </si>
+  <si>
+    <t>They seem very displeased.</t>
+  </si>
+  <si>
+    <t>I am not doing very well on here, but it won’t stop me!</t>
+  </si>
+  <si>
+    <t>entirely</t>
+  </si>
+  <si>
+    <t>He is entirely in his right to say that.</t>
+  </si>
+  <si>
+    <t>This entirely crocheted mural of Kamala Harris at the Washington DC warf</t>
+  </si>
+  <si>
+    <t>discpart_050</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>He can paint walls really well.</t>
+  </si>
+  <si>
+    <t>i hadn’t seen my mother in over a month and forgot she doesn’t take jokes well.</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>It's now or never.</t>
+  </si>
+  <si>
+    <t>This amazing McFarlane Space Wolf is now complete.</t>
+  </si>
+  <si>
+    <t>anyway</t>
+  </si>
+  <si>
+    <t>The is in anyway what I was thinking about.</t>
+  </si>
+  <si>
+    <t>So anyway I started blasting...</t>
+  </si>
+  <si>
+    <t>anyways</t>
+  </si>
+  <si>
+    <t>Anyway, that's out of the question.</t>
+  </si>
+  <si>
+    <t>idk how to use this app anyways cat eyes ranboo??</t>
+  </si>
+  <si>
+    <t>('anyways', 'VBZ')</t>
+  </si>
+  <si>
+    <t>adjective</t>
+  </si>
+  <si>
+    <t>adjattr_040</t>
+  </si>
+  <si>
+    <t>"the big horse"</t>
+  </si>
+  <si>
+    <t>Users in /r/AssassinsCreed argue about whether or not Caesar was a great man and hero of the people or a genocidal tyrant</t>
+  </si>
+  <si>
+    <t>count =  0</t>
+  </si>
+  <si>
+    <t>JJ</t>
+  </si>
+  <si>
+    <t>He loves the feeling of my tight jeans</t>
+  </si>
+  <si>
+    <t>Small kitties in the big city!</t>
+  </si>
+  <si>
+    <t>adjpred_041</t>
+  </si>
+  <si>
+    <t>"the horse is big"</t>
+  </si>
+  <si>
+    <t>They are dumb.</t>
+  </si>
+  <si>
+    <t>('dumb', 'JJ')</t>
+  </si>
+  <si>
+    <t>And they say Americans are dumb, UK people, pary this.</t>
+  </si>
+  <si>
+    <t>You seem tired.</t>
+  </si>
+  <si>
+    <t>('tired', 'JJ')</t>
+  </si>
+  <si>
+    <t>11 week old seems tired most of the time and will not eat more than 4-6 times/day</t>
+  </si>
+  <si>
+    <t>She doesn't look so good</t>
+  </si>
+  <si>
+    <t>('good', 'JJ')</t>
+  </si>
+  <si>
+    <t>Great work team! the animation looks so good! That one frame:</t>
+  </si>
+  <si>
+    <t>Example sentences are always silly.</t>
+  </si>
+  <si>
+    <t>('silly', 'RB')</t>
+  </si>
+  <si>
+    <t>They are silly to that think they could actually burn a dragon with fire.</t>
+  </si>
+  <si>
+    <t>emphatics_049</t>
+  </si>
+  <si>
+    <t>a lot</t>
+  </si>
+  <si>
+    <t>I like donuts a lot.</t>
+  </si>
+  <si>
+    <t>('a', 'DT'), ('lot', 'NN')</t>
+  </si>
+  <si>
+    <t>What random luxuries do you have that add a lot of value and you think are rare?</t>
+  </si>
+  <si>
+    <t>for sure</t>
+  </si>
+  <si>
+    <t>I don't know that for sure.</t>
+  </si>
+  <si>
+    <t>('for', 'IN'), ('sure', 'JJ')</t>
+  </si>
+  <si>
+    <t>Although he is projected as a late round pick, if we draft him I would buy his jersey for sure!</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>That is really what she wants.</t>
+  </si>
+  <si>
+    <t>('really', 'RB')</t>
+  </si>
+  <si>
+    <t>I didn’t really want to write it, just had to...</t>
+  </si>
+  <si>
+    <t>comparatives_212</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>higher</t>
+  </si>
+  <si>
+    <t>prettier</t>
+  </si>
+  <si>
+    <t>nicer</t>
+  </si>
+  <si>
+    <t>?more beautiful</t>
+  </si>
+  <si>
+    <t>?more powerful</t>
+  </si>
+  <si>
+    <t>superlatives_213</t>
+  </si>
+  <si>
+    <t>biggest</t>
+  </si>
+  <si>
+    <t>highest</t>
+  </si>
+  <si>
+    <t>prettiest</t>
+  </si>
+  <si>
+    <t>nicest</t>
+  </si>
+  <si>
+    <t>?most beautiful</t>
+  </si>
+  <si>
+    <t>?most powerful</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,13 +1240,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -731,12 +1288,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -790,7 +1363,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1088,18 +1661,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6755F629-DA21-419F-A671-900231CF4234}">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -1116,7 +1689,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
@@ -1130,7 +1703,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>197</v>
       </c>
@@ -1144,7 +1717,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>200</v>
       </c>
@@ -1158,7 +1731,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
@@ -1172,7 +1745,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>86</v>
       </c>
@@ -1186,7 +1759,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
@@ -1200,7 +1773,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
@@ -1212,7 +1785,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>89</v>
       </c>
@@ -1224,7 +1797,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>90</v>
       </c>
@@ -1236,7 +1809,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>91</v>
       </c>
@@ -1248,7 +1821,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>92</v>
       </c>
@@ -1260,7 +1833,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>93</v>
       </c>
@@ -1270,7 +1843,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>94</v>
       </c>
@@ -1280,7 +1853,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>95</v>
       </c>
@@ -1294,7 +1867,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>96</v>
       </c>
@@ -1306,7 +1879,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>97</v>
       </c>
@@ -1320,7 +1893,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>98</v>
       </c>
@@ -1332,7 +1905,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>99</v>
       </c>
@@ -1342,7 +1915,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>100</v>
       </c>
@@ -1352,7 +1925,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>101</v>
       </c>
@@ -1366,7 +1939,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -1380,7 +1953,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>103</v>
       </c>
@@ -1392,7 +1965,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>104</v>
       </c>
@@ -1404,7 +1977,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -1414,7 +1987,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>106</v>
       </c>
@@ -1428,7 +2001,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>107</v>
       </c>
@@ -1442,7 +2015,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>108</v>
       </c>
@@ -1456,7 +2029,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>109</v>
       </c>
@@ -1470,7 +2043,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>110</v>
       </c>
@@ -1484,7 +2057,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>111</v>
       </c>
@@ -1496,7 +2069,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>112</v>
       </c>
@@ -1508,7 +2081,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>113</v>
       </c>
@@ -1520,7 +2093,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>114</v>
       </c>
@@ -1532,7 +2105,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>115</v>
       </c>
@@ -1546,7 +2119,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>116</v>
       </c>
@@ -1558,7 +2131,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>117</v>
       </c>
@@ -1570,7 +2143,7 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>118</v>
       </c>
@@ -1582,7 +2155,7 @@
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>119</v>
       </c>
@@ -1592,7 +2165,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>120</v>
       </c>
@@ -1602,7 +2175,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>121</v>
       </c>
@@ -1614,7 +2187,7 @@
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>122</v>
       </c>
@@ -1626,7 +2199,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>123</v>
       </c>
@@ -1640,7 +2213,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>124</v>
       </c>
@@ -1652,7 +2225,7 @@
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>125</v>
       </c>
@@ -1662,7 +2235,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>126</v>
       </c>
@@ -1672,7 +2245,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>127</v>
       </c>
@@ -1684,7 +2257,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>128</v>
       </c>
@@ -1698,7 +2271,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>129</v>
       </c>
@@ -1708,7 +2281,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>130</v>
       </c>
@@ -1720,7 +2293,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>131</v>
       </c>
@@ -1730,7 +2303,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>132</v>
       </c>
@@ -1742,7 +2315,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>133</v>
       </c>
@@ -1756,7 +2329,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>134</v>
       </c>
@@ -1770,7 +2343,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>135</v>
       </c>
@@ -1784,7 +2357,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>136</v>
       </c>
@@ -1796,7 +2369,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>137</v>
       </c>
@@ -1806,7 +2379,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>138</v>
       </c>
@@ -1816,7 +2389,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>139</v>
       </c>
@@ -1826,7 +2399,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>140</v>
       </c>
@@ -1838,7 +2411,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>141</v>
       </c>
@@ -1852,7 +2425,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>142</v>
       </c>
@@ -1862,7 +2435,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>143</v>
       </c>
@@ -1874,7 +2447,7 @@
       </c>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>144</v>
       </c>
@@ -1884,7 +2457,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>145</v>
       </c>
@@ -1898,7 +2471,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>146</v>
       </c>
@@ -1910,7 +2483,7 @@
       </c>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>147</v>
       </c>
@@ -1922,7 +2495,7 @@
       </c>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>148</v>
       </c>
@@ -1934,7 +2507,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>149</v>
       </c>
@@ -1946,7 +2519,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>150</v>
       </c>
@@ -1956,7 +2529,7 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>151</v>
       </c>
@@ -1966,7 +2539,7 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>152</v>
       </c>
@@ -1976,7 +2549,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>153</v>
       </c>
@@ -1986,7 +2559,7 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>154</v>
       </c>
@@ -2000,7 +2573,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>155</v>
       </c>
@@ -2010,7 +2583,7 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>156</v>
       </c>
@@ -2020,7 +2593,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>157</v>
       </c>
@@ -2032,7 +2605,7 @@
       </c>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>158</v>
       </c>
@@ -2044,7 +2617,7 @@
       </c>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>159</v>
       </c>
@@ -2056,7 +2629,7 @@
       </c>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>160</v>
       </c>
@@ -2068,7 +2641,7 @@
       </c>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>161</v>
       </c>
@@ -2082,7 +2655,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -2107,12 +2680,1203 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49EAFD2-A476-43DD-A56A-ECCAF12AB833}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="12.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="23.28515625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="20.85546875" style="3" customWidth="1"/>
+    <col min="8" max="9" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3"/>
+      <c r="C3" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4"/>
+      <c r="C4" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15"/>
+      <c r="C15" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16"/>
+      <c r="C16" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17"/>
+      <c r="C17" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18"/>
+      <c r="C18" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f>$H$18</f>
+        <v>count = 0</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21"/>
+      <c r="C21" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22"/>
+      <c r="C22" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23"/>
+      <c r="C23" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24"/>
+      <c r="C24" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27"/>
+      <c r="C27" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28"/>
+      <c r="C28" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29"/>
+      <c r="C29" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32"/>
+      <c r="C32" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33"/>
+      <c r="C33" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34"/>
+      <c r="C34" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37"/>
+      <c r="C37" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38"/>
+      <c r="C38" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42"/>
+      <c r="G42" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43"/>
+      <c r="G43" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46"/>
+      <c r="D46" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47"/>
+      <c r="D47" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48"/>
+      <c r="D48" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B50" t="s">
+        <v>362</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B51"/>
+      <c r="C51" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B52"/>
+      <c r="C52" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B53"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B54" t="s">
+        <v>375</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55"/>
+      <c r="C55" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56"/>
+      <c r="C56" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B57"/>
+      <c r="C57" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58"/>
+      <c r="C58" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59"/>
+      <c r="C59" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B60" t="s">
+        <v>382</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C61" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C62" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C63" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C64" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -1,28 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ratos\Documents\GitHub\Reddit_MDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860834F6-1104-4894-8FB8-FCA26A7E7BAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D969062-AD04-47C1-BC39-59D4419F206E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="593" yWindow="945" windowWidth="11437" windowHeight="11445" activeTab="1" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
-    <sheet name="R's template" sheetId="1" r:id="rId2"/>
+    <sheet name="Overview_precision_recall" sheetId="2" r:id="rId1"/>
+    <sheet name="Test_sentences" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">Tabelle2!$A$2:$B$82</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">Overview_precision_recall!$A$2:$B$82</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -37,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="401">
   <si>
     <t/>
   </si>
@@ -697,21 +705,6 @@
   </si>
   <si>
     <t>token</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pre-thought sentence </t>
-  </si>
-  <si>
-    <t>PT_count</t>
-  </si>
-  <si>
-    <t>PoS</t>
-  </si>
-  <si>
-    <t>realistic data</t>
-  </si>
-  <si>
-    <t>RD_count</t>
   </si>
   <si>
     <t>adverb</t>
@@ -1227,12 +1220,63 @@
   <si>
     <t>?most powerful</t>
   </si>
+  <si>
+    <t xml:space="preserve">sentence </t>
+  </si>
+  <si>
+    <t>sentence_type</t>
+  </si>
+  <si>
+    <t>authentic</t>
+  </si>
+  <si>
+    <t>negana_068</t>
+  </si>
+  <si>
+    <t>negana_069</t>
+  </si>
+  <si>
+    <t>negana_070</t>
+  </si>
+  <si>
+    <t>negana_071</t>
+  </si>
+  <si>
+    <t>negana_072</t>
+  </si>
+  <si>
+    <t>negana_073</t>
+  </si>
+  <si>
+    <t>negana_074</t>
+  </si>
+  <si>
+    <t>negana_075</t>
+  </si>
+  <si>
+    <t>negana_076</t>
+  </si>
+  <si>
+    <t>made-up</t>
+  </si>
+  <si>
+    <t>count_expected</t>
+  </si>
+  <si>
+    <t>count_observed</t>
+  </si>
+  <si>
+    <t>POS_expected</t>
+  </si>
+  <si>
+    <t>POS_observed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1255,8 +1299,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1275,6 +1331,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1288,7 +1350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1307,9 +1369,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -1363,7 +1441,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1661,35 +1739,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6755F629-DA21-419F-A671-900231CF4234}">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
@@ -1703,7 +1782,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>197</v>
       </c>
@@ -1717,7 +1796,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>200</v>
       </c>
@@ -1731,7 +1810,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
@@ -1745,7 +1824,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>86</v>
       </c>
@@ -1759,7 +1838,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
@@ -1773,7 +1852,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
@@ -1785,7 +1864,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>89</v>
       </c>
@@ -1797,7 +1876,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>90</v>
       </c>
@@ -1809,7 +1888,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>91</v>
       </c>
@@ -1821,7 +1900,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>92</v>
       </c>
@@ -1833,7 +1912,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>93</v>
       </c>
@@ -1843,7 +1922,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>94</v>
       </c>
@@ -1853,7 +1932,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>95</v>
       </c>
@@ -1867,7 +1946,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>96</v>
       </c>
@@ -1879,7 +1958,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>97</v>
       </c>
@@ -1893,7 +1972,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>98</v>
       </c>
@@ -1905,7 +1984,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>99</v>
       </c>
@@ -1915,7 +1994,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>100</v>
       </c>
@@ -1925,7 +2004,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>101</v>
       </c>
@@ -1939,7 +2018,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -1953,7 +2032,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>103</v>
       </c>
@@ -1965,7 +2044,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>104</v>
       </c>
@@ -1977,7 +2056,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -1987,7 +2066,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>106</v>
       </c>
@@ -2001,7 +2080,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>107</v>
       </c>
@@ -2015,7 +2094,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>108</v>
       </c>
@@ -2029,7 +2108,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>109</v>
       </c>
@@ -2043,7 +2122,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>110</v>
       </c>
@@ -2057,7 +2136,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>111</v>
       </c>
@@ -2069,7 +2148,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>112</v>
       </c>
@@ -2081,7 +2160,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>113</v>
       </c>
@@ -2093,7 +2172,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>114</v>
       </c>
@@ -2105,7 +2184,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>115</v>
       </c>
@@ -2119,7 +2198,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>116</v>
       </c>
@@ -2131,7 +2210,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>117</v>
       </c>
@@ -2143,7 +2222,7 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>118</v>
       </c>
@@ -2155,7 +2234,7 @@
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>119</v>
       </c>
@@ -2165,7 +2244,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>120</v>
       </c>
@@ -2175,7 +2254,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>121</v>
       </c>
@@ -2187,7 +2266,7 @@
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>122</v>
       </c>
@@ -2199,7 +2278,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>123</v>
       </c>
@@ -2213,7 +2292,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>124</v>
       </c>
@@ -2225,7 +2304,7 @@
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>125</v>
       </c>
@@ -2235,7 +2314,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>126</v>
       </c>
@@ -2245,7 +2324,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>127</v>
       </c>
@@ -2257,7 +2336,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>128</v>
       </c>
@@ -2271,7 +2350,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>129</v>
       </c>
@@ -2281,7 +2360,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>130</v>
       </c>
@@ -2293,7 +2372,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>131</v>
       </c>
@@ -2303,7 +2382,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>132</v>
       </c>
@@ -2315,7 +2394,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>133</v>
       </c>
@@ -2329,7 +2408,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>134</v>
       </c>
@@ -2343,7 +2422,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>135</v>
       </c>
@@ -2357,7 +2436,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>136</v>
       </c>
@@ -2369,7 +2448,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>137</v>
       </c>
@@ -2379,7 +2458,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>138</v>
       </c>
@@ -2389,7 +2468,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>139</v>
       </c>
@@ -2399,7 +2478,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>140</v>
       </c>
@@ -2411,7 +2490,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>141</v>
       </c>
@@ -2425,7 +2504,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>142</v>
       </c>
@@ -2435,7 +2514,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>143</v>
       </c>
@@ -2447,7 +2526,7 @@
       </c>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>144</v>
       </c>
@@ -2457,7 +2536,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>145</v>
       </c>
@@ -2471,7 +2550,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>146</v>
       </c>
@@ -2483,7 +2562,7 @@
       </c>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>147</v>
       </c>
@@ -2495,7 +2574,7 @@
       </c>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>148</v>
       </c>
@@ -2507,7 +2586,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>149</v>
       </c>
@@ -2519,7 +2598,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>150</v>
       </c>
@@ -2529,7 +2608,7 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>151</v>
       </c>
@@ -2539,7 +2618,7 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>152</v>
       </c>
@@ -2549,7 +2628,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>153</v>
       </c>
@@ -2559,7 +2638,7 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>154</v>
       </c>
@@ -2573,7 +2652,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>155</v>
       </c>
@@ -2583,7 +2662,7 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>156</v>
       </c>
@@ -2593,7 +2672,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>157</v>
       </c>
@@ -2605,7 +2684,7 @@
       </c>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>158</v>
       </c>
@@ -2617,7 +2696,7 @@
       </c>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>159</v>
       </c>
@@ -2629,7 +2708,7 @@
       </c>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>160</v>
       </c>
@@ -2641,7 +2720,7 @@
       </c>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>161</v>
       </c>
@@ -2655,7 +2734,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -2680,1204 +2759,2348 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49EAFD2-A476-43DD-A56A-ECCAF12AB833}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="12.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="23.28515625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.85546875" style="3" customWidth="1"/>
-    <col min="8" max="9" width="9" style="3"/>
+    <col min="1" max="1" width="10.54296875" style="3" customWidth="1"/>
+    <col min="2" max="3" width="14.54296875" style="3"/>
+    <col min="4" max="4" width="9.81640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="49.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" style="3" customWidth="1"/>
+    <col min="8" max="11" width="14.54296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B16" t="s">
+        <v>370</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B17" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B18" t="s">
+        <v>370</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B19" t="s">
+        <v>370</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B20" t="s">
+        <v>370</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B21" t="s">
+        <v>370</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B22" t="s">
+        <v>370</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B23" t="s">
+        <v>370</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B24" t="s">
+        <v>370</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B25" t="s">
+        <v>370</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B26" t="s">
+        <v>370</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B27" t="s">
+        <v>370</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B28" t="s">
+        <v>357</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B29" t="s">
+        <v>357</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B30" t="s">
+        <v>357</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B31" t="s">
+        <v>357</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B32" t="s">
+        <v>357</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B33" t="s">
+        <v>357</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B34" t="s">
+        <v>377</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B35" t="s">
+        <v>377</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B36" t="s">
+        <v>377</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B37" t="s">
+        <v>377</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B38" t="s">
+        <v>377</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B39" t="s">
+        <v>377</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B40" t="s">
+        <v>377</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B42" t="s">
+        <v>377</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B43" t="s">
+        <v>377</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B44" t="s">
+        <v>377</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B45" t="s">
+        <v>377</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" t="s">
+        <v>248</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49" t="s">
+        <v>248</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B52" t="s">
+        <v>262</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B53" t="s">
+        <v>262</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B54" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B55" t="s">
+        <v>262</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B56" t="s">
+        <v>262</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B57" t="s">
+        <v>262</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B58" t="s">
+        <v>262</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B59" t="s">
+        <v>262</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B60" t="s">
+        <v>262</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E60" s="3">
+        <f>$G$26</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B61" t="s">
+        <v>262</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B96" t="s">
         <v>221</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="C96" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B97" t="s">
+        <v>221</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B98" t="s">
+        <v>221</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B99" t="s">
+        <v>221</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="D99" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B100" t="s">
+        <v>221</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A101" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B101" t="s">
+        <v>387</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B102" t="s">
+        <v>388</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B103" t="s">
+        <v>389</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B104" t="s">
+        <v>390</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B105" t="s">
+        <v>391</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B106" t="s">
+        <v>392</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B107" t="s">
+        <v>393</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E107" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="G107" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A108" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B108" t="s">
+        <v>394</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="D108" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H108" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A109" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B109" t="s">
+        <v>395</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3"/>
-      <c r="C3" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4"/>
-      <c r="C4" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="G109" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H109" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B14" t="s">
-        <v>267</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15"/>
-      <c r="C15" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16"/>
-      <c r="C16" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17"/>
-      <c r="C17" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18"/>
-      <c r="C18" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f>$H$18</f>
-        <v>count = 0</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21"/>
-      <c r="C21" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22"/>
-      <c r="C22" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23"/>
-      <c r="C23" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24"/>
-      <c r="C24" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27"/>
-      <c r="C27" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28"/>
-      <c r="C28" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29"/>
-      <c r="C29" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32"/>
-      <c r="C32" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B33"/>
-      <c r="C33" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B34"/>
-      <c r="C34" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B35"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B37"/>
-      <c r="C37" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B38"/>
-      <c r="C38" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42"/>
-      <c r="G42" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B43"/>
-      <c r="G43" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46"/>
-      <c r="D46" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47"/>
-      <c r="D47" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48"/>
-      <c r="D48" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B50" t="s">
-        <v>362</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B51"/>
-      <c r="C51" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B52"/>
-      <c r="C52" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B53"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B54" t="s">
-        <v>375</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B55"/>
-      <c r="C55" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B56"/>
-      <c r="C56" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B57"/>
-      <c r="C57" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B58"/>
-      <c r="C58" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59"/>
-      <c r="C59" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B60" t="s">
-        <v>382</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C64" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="3" t="s">
-        <v>388</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K138">
+    <sortCondition ref="A2:A138"/>
+    <sortCondition ref="B2:B138"/>
+    <sortCondition ref="C2:C138"/>
+    <sortCondition ref="D2:D138"/>
+  </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D969062-AD04-47C1-BC39-59D4419F206E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF334EB-987E-48C2-804E-C41D8B48D569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="454">
   <si>
     <t/>
   </si>
@@ -1270,6 +1270,165 @@
   </si>
   <si>
     <t>POS_observed</t>
+  </si>
+  <si>
+    <t>verb</t>
+  </si>
+  <si>
+    <t>vsplitaux_063</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>We have ultimately baked quietly.</t>
+  </si>
+  <si>
+    <t>The boat was originally built to last a lifetime</t>
+  </si>
+  <si>
+    <t>The journal had really reported on this for weeks.</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>had</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>I had not broken from my struggles.</t>
+  </si>
+  <si>
+    <t>I've always wondered why they couldn't provide a list</t>
+  </si>
+  <si>
+    <t>VBP</t>
+  </si>
+  <si>
+    <t>I've never seen it</t>
+  </si>
+  <si>
+    <t>VBD</t>
+  </si>
+  <si>
+    <t>I am honestly completely totally cleaning my room.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 've</t>
+  </si>
+  <si>
+    <t>like Biber we here currently only look for one or two intervening adverbs (suggestions on how to improve this are welcome)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is imperative to not be afraid. </t>
+  </si>
+  <si>
+    <t>To openly scold him is foolish.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would like for us to really connect. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He wants to not pee his pants. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I intend for me partens to really not shout. </t>
+  </si>
+  <si>
+    <t>vsplitinf_062</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>scold</t>
+  </si>
+  <si>
+    <t>connect</t>
+  </si>
+  <si>
+    <t>pee</t>
+  </si>
+  <si>
+    <t>shout</t>
+  </si>
+  <si>
+    <t>VB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What he needs is to really honestly talk to him. </t>
+  </si>
+  <si>
+    <t>talk</t>
+  </si>
+  <si>
+    <t>work well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whoever did this should come forward. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once you have done so, continue with the next step. </t>
+  </si>
+  <si>
+    <t>And them my mum did so.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I really did that. </t>
+  </si>
+  <si>
+    <t>pverbdo_012</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>did</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>He really does that.</t>
+  </si>
+  <si>
+    <t>does</t>
+  </si>
+  <si>
+    <t>Instead of Biber's broad criteria we are currently looking for very specific contexts</t>
+  </si>
+  <si>
+    <t>catches most cases I would say</t>
+  </si>
+  <si>
+    <t>VBN</t>
+  </si>
+  <si>
+    <t>VBZ</t>
+  </si>
+  <si>
+    <t>… and very good at what he does</t>
+  </si>
+  <si>
+    <t>I really wish I could do this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I do love ice cream. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And then he really did surprise me. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The plant does not grow. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">But then I did finally recognise him. </t>
+  </si>
+  <si>
+    <t>for the emphatic do + verb we allow for more intervening adverbs than Biber does</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1385,6 +1544,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1740,8 +1902,8 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1929,8 +2091,12 @@
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -2379,8 +2545,12 @@
       <c r="B51" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
@@ -2533,8 +2703,12 @@
       <c r="B64" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
@@ -2759,11 +2933,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49EAFD2-A476-43DD-A56A-ECCAF12AB833}">
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5091,12 +5265,708 @@
         <v>225</v>
       </c>
     </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A110" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F110" s="3">
+        <v>0</v>
+      </c>
+      <c r="G110" s="3">
+        <v>0</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A111" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F111" s="3">
+        <v>1</v>
+      </c>
+      <c r="G111" s="3">
+        <v>1</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A112" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F112" s="3">
+        <v>1</v>
+      </c>
+      <c r="G112" s="3">
+        <v>1</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A113" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F113" s="3">
+        <v>0</v>
+      </c>
+      <c r="G113" s="3">
+        <v>0</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F114" s="3">
+        <v>1</v>
+      </c>
+      <c r="G114" s="3">
+        <v>1</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F115" s="3">
+        <v>1</v>
+      </c>
+      <c r="G115" s="3">
+        <v>1</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F116" s="3">
+        <v>1</v>
+      </c>
+      <c r="G116" s="3">
+        <v>1</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F117" s="3">
+        <v>0</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A118" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F118" s="3">
+        <v>1</v>
+      </c>
+      <c r="G118" s="3">
+        <v>1</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F119" s="3">
+        <v>1</v>
+      </c>
+      <c r="G119" s="3">
+        <v>1</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A120" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F120" s="3">
+        <v>0</v>
+      </c>
+      <c r="G120" s="3">
+        <v>0</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A121" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F121" s="3">
+        <v>0</v>
+      </c>
+      <c r="G121" s="3">
+        <v>0</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A122" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F122" s="3">
+        <v>1</v>
+      </c>
+      <c r="G122" s="3">
+        <v>1</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="F123" s="3">
+        <v>1</v>
+      </c>
+      <c r="G123" s="3">
+        <v>1</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A124" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="F124" s="3">
+        <v>1</v>
+      </c>
+      <c r="G124" s="3">
+        <v>1</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F125" s="3">
+        <v>1</v>
+      </c>
+      <c r="G125" s="3">
+        <v>1</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F126" s="3">
+        <v>0</v>
+      </c>
+      <c r="G126" s="3">
+        <v>0</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A127" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F127" s="3">
+        <v>1</v>
+      </c>
+      <c r="G127" s="3">
+        <v>1</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A128" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="F128" s="3">
+        <v>1</v>
+      </c>
+      <c r="G128" s="3">
+        <v>1</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A129" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F129" s="3">
+        <v>1</v>
+      </c>
+      <c r="G129" s="3">
+        <v>1</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A130" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F130" s="3">
+        <v>1</v>
+      </c>
+      <c r="G130" s="3">
+        <v>1</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F131" s="3">
+        <v>2</v>
+      </c>
+      <c r="G131" s="3">
+        <v>2</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A132" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F132" s="3">
+        <v>0</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F133" s="3">
+        <v>1</v>
+      </c>
+      <c r="G133" s="3">
+        <v>1</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K138">
-    <sortCondition ref="A2:A138"/>
-    <sortCondition ref="B2:B138"/>
-    <sortCondition ref="C2:C138"/>
-    <sortCondition ref="D2:D138"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K137">
+    <sortCondition ref="A2:A137"/>
+    <sortCondition ref="B2:B137"/>
+    <sortCondition ref="C2:C137"/>
+    <sortCondition ref="D2:D137"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF334EB-987E-48C2-804E-C41D8B48D569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA35C3F-AB46-4D31-BEB9-CACAAC152A5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{48FFCA11-554B-42A9-96F9-0993B079C157}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_precision_recall" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="500">
   <si>
     <t/>
   </si>
@@ -1429,6 +1429,144 @@
   </si>
   <si>
     <t>for the emphatic do + verb we allow for more intervening adverbs than Biber does</t>
+  </si>
+  <si>
+    <t>He wrote John would come and stay.</t>
+  </si>
+  <si>
+    <t>Anna has promised my present will arrive in time.</t>
+  </si>
+  <si>
+    <t>He claimed green shorts look good on him.</t>
+  </si>
+  <si>
+    <t>thatdel_060</t>
+  </si>
+  <si>
+    <t>believe</t>
+  </si>
+  <si>
+    <t>wrote</t>
+  </si>
+  <si>
+    <t>claimed</t>
+  </si>
+  <si>
+    <t>promised</t>
+  </si>
+  <si>
+    <t>I've heard some people say they weren't thrilled …</t>
+  </si>
+  <si>
+    <t>I swear she farted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 ??? </t>
+  </si>
+  <si>
+    <t>I think you could share some</t>
+  </si>
+  <si>
+    <t>We heard you were talking shit and…</t>
+  </si>
+  <si>
+    <t>They believe it's their *right* to procreate</t>
+  </si>
+  <si>
+    <t>heard</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>for the third formulae given by Biber we currently don't allow for that additional intervening adjective, otherwise the same</t>
+  </si>
+  <si>
+    <t>works reasonably well</t>
+  </si>
+  <si>
+    <t>none so far</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I know what you want. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He realised who was responsible. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarah was indicating why she didn't want to leave. </t>
+  </si>
+  <si>
+    <t>Just imagine how aweful she was to him.</t>
+  </si>
+  <si>
+    <t>whclause_23</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>realised</t>
+  </si>
+  <si>
+    <t>imagine</t>
+  </si>
+  <si>
+    <t>indicating</t>
+  </si>
+  <si>
+    <t>You can't possibly know how a person feels about…</t>
+  </si>
+  <si>
+    <t>Until I see how this all plays out</t>
+  </si>
+  <si>
+    <t>I don't know why this is such a …</t>
+  </si>
+  <si>
+    <t>VBG</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>catches what it should, which is not everything there is</t>
+  </si>
+  <si>
+    <t>currently we only look for Biber's condition a (the one with the intervening adverbs)</t>
+  </si>
+  <si>
+    <t>passagentl_017</t>
+  </si>
+  <si>
+    <t>He has been revived, had been training</t>
+  </si>
+  <si>
+    <t>It was recorded shortly after the ..</t>
+  </si>
+  <si>
+    <t>if the father isn't named he's not on the hook…</t>
+  </si>
+  <si>
+    <t>Then the men were welcomed</t>
+  </si>
+  <si>
+    <t>VBd</t>
+  </si>
+  <si>
+    <t>been</t>
+  </si>
+  <si>
+    <t>were</t>
+  </si>
+  <si>
+    <t>passby_018</t>
+  </si>
+  <si>
+    <t>I was horribly terribly wounded by this hamster</t>
+  </si>
+  <si>
+    <t>You will be greeted by our delegates</t>
   </si>
 </sst>
 </file>
@@ -1901,9 +2039,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6755F629-DA21-419F-A671-900231CF4234}">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2157,8 +2295,12 @@
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
@@ -2167,8 +2309,12 @@
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
@@ -2229,8 +2375,12 @@
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -2625,8 +2775,12 @@
       <c r="B57" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
@@ -2635,8 +2789,12 @@
       <c r="B58" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
@@ -2645,8 +2803,12 @@
       <c r="B59" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
@@ -2681,8 +2843,12 @@
       <c r="B62" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
@@ -2933,11 +3099,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49EAFD2-A476-43DD-A56A-ECCAF12AB833}">
-  <dimension ref="A1:K133"/>
+  <dimension ref="A1:K154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E134" sqref="E134"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5959,6 +6125,597 @@
       </c>
       <c r="I133" s="3" t="s">
         <v>414</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="F134" s="3">
+        <v>1</v>
+      </c>
+      <c r="G134" s="3">
+        <v>1</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F135" s="3">
+        <v>1</v>
+      </c>
+      <c r="G135" s="3">
+        <v>1</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A136" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F136" s="3">
+        <v>1</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A137" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F137" s="3">
+        <v>1</v>
+      </c>
+      <c r="G137" s="3">
+        <v>1</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F138" s="3">
+        <v>1</v>
+      </c>
+      <c r="G138" s="3">
+        <v>1</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F139" s="3">
+        <v>1</v>
+      </c>
+      <c r="G139" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F140" s="3">
+        <v>1</v>
+      </c>
+      <c r="G140" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A141" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="F141" s="3">
+        <v>1</v>
+      </c>
+      <c r="G141" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A142" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F142" s="3">
+        <v>1</v>
+      </c>
+      <c r="G142" s="3">
+        <v>1</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A143" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F143" s="3">
+        <v>1</v>
+      </c>
+      <c r="G143" s="3">
+        <v>1</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A144" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="F144" s="3">
+        <v>1</v>
+      </c>
+      <c r="G144" s="3">
+        <v>1</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A145" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F145" s="3">
+        <v>1</v>
+      </c>
+      <c r="G145" s="3">
+        <v>1</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A146" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F146" s="3">
+        <v>1</v>
+      </c>
+      <c r="G146" s="3">
+        <v>1</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A147" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="F147" s="3">
+        <v>1</v>
+      </c>
+      <c r="G147" s="3">
+        <v>1</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A148" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F148" s="3">
+        <v>1</v>
+      </c>
+      <c r="G148" s="3">
+        <v>1</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A149" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="F149" s="3">
+        <v>1</v>
+      </c>
+      <c r="G149" s="3">
+        <v>1</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A150" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F150" s="3">
+        <v>1</v>
+      </c>
+      <c r="G150" s="3">
+        <v>1</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A151" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F151" s="3">
+        <v>1</v>
+      </c>
+      <c r="G151" s="3">
+        <v>1</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A152" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="F152" s="3">
+        <v>1</v>
+      </c>
+      <c r="G152" s="3">
+        <v>1</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A153" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F153" s="3">
+        <v>1</v>
+      </c>
+      <c r="G153" s="3">
+        <v>1</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A154" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="F154" s="3">
+        <v>1</v>
+      </c>
+      <c r="G154" s="3">
+        <v>1</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ratos\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3382B5-179B-4792-BBB7-D7FBCC7A887F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2781E6-ADD0-4771-A9FA-275AAD3F10BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8090" yWindow="350" windowWidth="10550" windowHeight="8290" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_precision_recall" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,6 @@
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -37,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="503">
   <si>
     <t>Feature_name</t>
   </si>
@@ -747,9 +739,6 @@
     <t>Users in /r/AssassinsCreed argue about whether or not Caesar was a great man and hero of the people or a genocidal tyrant</t>
   </si>
   <si>
-    <t>count =  0</t>
-  </si>
-  <si>
     <t>JJ</t>
   </si>
   <si>
@@ -768,30 +757,12 @@
     <t>"the horse is big"</t>
   </si>
   <si>
-    <t>And they say Americans are dumb, UK people, pary this.</t>
-  </si>
-  <si>
-    <t>('dumb', 'JJ')</t>
-  </si>
-  <si>
-    <t>11 week old seems tired most of the time and will not eat more than 4-6 times/day</t>
-  </si>
-  <si>
-    <t>('tired', 'JJ')</t>
-  </si>
-  <si>
     <t>Great work team! the animation looks so good! That one frame:</t>
   </si>
   <si>
-    <t>('good', 'JJ')</t>
-  </si>
-  <si>
     <t>They are silly to that think they could actually burn a dragon with fire.</t>
   </si>
   <si>
-    <t>('silly', 'RB')</t>
-  </si>
-  <si>
     <t>They are dumb.</t>
   </si>
   <si>
@@ -858,9 +829,6 @@
     <t>I didn’t really want to write it, just had to...</t>
   </si>
   <si>
-    <t>('really', 'RB')</t>
-  </si>
-  <si>
     <t>That is really what she wants.</t>
   </si>
   <si>
@@ -891,45 +859,21 @@
     <t>advplace_004</t>
   </si>
   <si>
-    <t>ahead, beside, behind</t>
-  </si>
-  <si>
     <t xml:space="preserve">Biden says US ‘weeks ahead of schedule’ and will be first country to 100 million vaccinations </t>
   </si>
   <si>
-    <t>count = 0</t>
-  </si>
-  <si>
-    <t>('ahead', 'RB')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Look ahead, beside, behind you: example sentences are all around. </t>
-  </si>
-  <si>
-    <t>('ahead', 'RB'), (',', ','), ('beside', 'NN'), (',', ','), ('behind', 'IN') ... ('around', 'IN')</t>
-  </si>
-  <si>
     <t>below</t>
   </si>
   <si>
     <t>Being below 300 for the first time in 10 years, decided to make lifestyle changes at 405lbs.</t>
   </si>
   <si>
-    <t>('below', 'IN')</t>
-  </si>
-  <si>
     <t>See example sentences below.</t>
   </si>
   <si>
     <t>indoors</t>
   </si>
   <si>
-    <t>howing off a gun indoors.</t>
-  </si>
-  <si>
-    <t>('indoors', 'NNS')</t>
-  </si>
-  <si>
     <t>Writing example sentences is usually an activity done indoors.</t>
   </si>
   <si>
@@ -954,9 +898,6 @@
     <t>i just NOW realised me going late to school everyday in elementary school was NOT my fault.</t>
   </si>
   <si>
-    <t>('late', 'JJ')</t>
-  </si>
-  <si>
     <t>People who search ask Reddit/creepy or unexplained late at night what’s the creepiest story out there?</t>
   </si>
   <si>
@@ -978,9 +919,6 @@
     <t>tomorrow</t>
   </si>
   <si>
-    <t>('tomorrow', 'NN')</t>
-  </si>
-  <si>
     <t>Wanna stop by the donut shop tomorrow?</t>
   </si>
   <si>
@@ -1059,9 +997,6 @@
     <t>Small pizzeria in Italy sanctioned instead of a Venezuelan oil exporter.</t>
   </si>
   <si>
-    <t>Go eat a donut instead of complaining.</t>
-  </si>
-  <si>
     <t>rather</t>
   </si>
   <si>
@@ -1089,9 +1024,6 @@
     <t>idk how to use this app anyways cat eyes ranboo??</t>
   </si>
   <si>
-    <t>('anyways', 'VBZ')</t>
-  </si>
-  <si>
     <t>Anyway, that's out of the question.</t>
   </si>
   <si>
@@ -1101,9 +1033,6 @@
     <t>This amazing McFarlane Space Wolf is now complete.</t>
   </si>
   <si>
-    <t>It's now or never.</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
@@ -1149,9 +1078,6 @@
     <t>Idk with you guys but they somewhat look similar for me.</t>
   </si>
   <si>
-    <t>('somewhat', 'VBP')</t>
-  </si>
-  <si>
     <t>Don't you think that's somewhat fucked up?</t>
   </si>
   <si>
@@ -1162,9 +1088,6 @@
   </si>
   <si>
     <t>From what I've heard, she doesn't like example sentences either.</t>
-  </si>
-  <si>
-    <t>count = 1</t>
   </si>
   <si>
     <t>don't</t>
@@ -1238,36 +1161,24 @@
     </r>
   </si>
   <si>
-    <t>('isn', 'VBZ'), ('’', 'JJ'), ('t', 'NNS')</t>
-  </si>
-  <si>
     <t>negana_071</t>
   </si>
   <si>
     <t>STOP REPEATING “DON’T SELL!!!</t>
   </si>
   <si>
-    <t>('don', 'NN'), ('’', 'NNP'), ('t', 'NN'), ('sell', 'NN')</t>
-  </si>
-  <si>
     <t>negana_072</t>
   </si>
   <si>
     <t>Zach Lowe doesn’t believe the reports that Tyler Herro is 'off the table' for James Harden</t>
   </si>
   <si>
-    <t>('doesn', 'NN'), ('’', 'NNP'), ('t', 'NN')</t>
-  </si>
-  <si>
     <t>negana_073</t>
   </si>
   <si>
     <t>Your brain knows where all of your organs are, and won’t tell you.</t>
   </si>
   <si>
-    <t>('won', 'VBD'), ('’', 'NNP'), ('t', 'NN')</t>
-  </si>
-  <si>
     <t>negana_074</t>
   </si>
   <si>
@@ -1581,6 +1492,81 @@
   </si>
   <si>
     <t>instead of using Biber's way of distinguishing between predicative/attributive, we proceed like this: for every adjective, check whether it is preceded by a copular verb (and potentially intervening adverbial). If yes, it is counted as predicative. If no, it is counted as attributive</t>
+  </si>
+  <si>
+    <t>That is a hell of a good coffee you had there.</t>
+  </si>
+  <si>
+    <t>I'd rather drink bitter drinks instead of sour drinks.</t>
+  </si>
+  <si>
+    <t>What a tall building, man!</t>
+  </si>
+  <si>
+    <t>And they say Americans are dumb</t>
+  </si>
+  <si>
+    <t>baby seems tired most of the time and will not eat more than 4-6 times/day</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>ahead</t>
+  </si>
+  <si>
+    <t>showing off a gun indoors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look beside you: example sentences are all around. </t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>beside</t>
+  </si>
+  <si>
+    <t>NNS</t>
+  </si>
+  <si>
+    <t>With Bethesda's E3 presentation tomorrow,</t>
+  </si>
+  <si>
+    <t>everyday</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>('instead', 'RB'), ('of', 'IN')</t>
+  </si>
+  <si>
+    <t>I want to do something else instead.</t>
+  </si>
+  <si>
+    <t>Now, what I meant to say was the following.</t>
+  </si>
+  <si>
+    <t>time or discpart??</t>
+  </si>
+  <si>
+    <t>('does', 'VBZ'), ("n't", 'RB')</t>
+  </si>
+  <si>
+    <t>('do', 'VBP'), ("n't", 'RB')</t>
+  </si>
+  <si>
+    <t>('is', 'VBZ'), ("n't", 'RB')</t>
+  </si>
+  <si>
+    <t>('wo', 'MD'), ("n't", 'RB')</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -1638,8 +1624,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF008080"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1655,7 +1641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1668,11 +1654,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1690,9 +1672,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1788,7 +1783,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2086,19 +2081,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="32.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.796875" customWidth="1"/>
+    <col min="2" max="2" width="32.46484375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2115,7 +2110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2129,7 +2124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2143,7 +2138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2157,7 +2152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2171,7 +2166,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2185,7 +2180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -2199,7 +2194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -2211,7 +2206,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -2223,7 +2218,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -2235,7 +2230,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -2247,7 +2242,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -2259,7 +2254,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -2269,7 +2264,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -2283,7 +2278,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -2297,7 +2292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
@@ -2309,7 +2304,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
@@ -2323,7 +2318,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>56</v>
       </c>
@@ -2335,7 +2330,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>59</v>
       </c>
@@ -2349,7 +2344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>62</v>
       </c>
@@ -2363,7 +2358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -2377,7 +2372,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>68</v>
       </c>
@@ -2391,7 +2386,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>72</v>
       </c>
@@ -2403,7 +2398,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>75</v>
       </c>
@@ -2415,7 +2410,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>78</v>
       </c>
@@ -2429,7 +2424,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>82</v>
       </c>
@@ -2443,7 +2438,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>86</v>
       </c>
@@ -2457,7 +2452,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>90</v>
       </c>
@@ -2471,7 +2466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>92</v>
       </c>
@@ -2485,7 +2480,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>95</v>
       </c>
@@ -2499,7 +2494,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>98</v>
       </c>
@@ -2511,7 +2506,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>101</v>
       </c>
@@ -2523,7 +2518,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>103</v>
       </c>
@@ -2535,7 +2530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>105</v>
       </c>
@@ -2547,7 +2542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>107</v>
       </c>
@@ -2561,7 +2556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>110</v>
       </c>
@@ -2573,7 +2568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>112</v>
       </c>
@@ -2585,7 +2580,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>115</v>
       </c>
@@ -2597,7 +2592,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>118</v>
       </c>
@@ -2607,7 +2602,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>120</v>
       </c>
@@ -2619,7 +2614,7 @@
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>123</v>
       </c>
@@ -2631,7 +2626,7 @@
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>126</v>
       </c>
@@ -2639,13 +2634,13 @@
         <v>127</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>129</v>
       </c>
@@ -2653,13 +2648,13 @@
         <v>130</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>132</v>
       </c>
@@ -2671,7 +2666,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>135</v>
       </c>
@@ -2681,7 +2676,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>137</v>
       </c>
@@ -2691,7 +2686,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>139</v>
       </c>
@@ -2699,13 +2694,13 @@
         <v>140</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>142</v>
       </c>
@@ -2719,7 +2714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>145</v>
       </c>
@@ -2729,7 +2724,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>147</v>
       </c>
@@ -2741,7 +2736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>149</v>
       </c>
@@ -2755,7 +2750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>152</v>
       </c>
@@ -2767,7 +2762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>154</v>
       </c>
@@ -2781,7 +2776,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>157</v>
       </c>
@@ -2795,7 +2790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>160</v>
       </c>
@@ -2809,7 +2804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>163</v>
       </c>
@@ -2821,7 +2816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>165</v>
       </c>
@@ -2835,7 +2830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>167</v>
       </c>
@@ -2849,7 +2844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>169</v>
       </c>
@@ -2863,7 +2858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>171</v>
       </c>
@@ -2875,7 +2870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>173</v>
       </c>
@@ -2889,7 +2884,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>177</v>
       </c>
@@ -2903,7 +2898,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>181</v>
       </c>
@@ -2915,7 +2910,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>183</v>
       </c>
@@ -2929,7 +2924,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>187</v>
       </c>
@@ -2943,7 +2938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>190</v>
       </c>
@@ -2955,7 +2950,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>192</v>
       </c>
@@ -2967,7 +2962,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>195</v>
       </c>
@@ -2979,7 +2974,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>197</v>
       </c>
@@ -2991,7 +2986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>199</v>
       </c>
@@ -3001,7 +2996,7 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>201</v>
       </c>
@@ -3011,7 +3006,7 @@
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>203</v>
       </c>
@@ -3021,7 +3016,7 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>205</v>
       </c>
@@ -3031,7 +3026,7 @@
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>207</v>
       </c>
@@ -3045,7 +3040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>210</v>
       </c>
@@ -3053,7 +3048,7 @@
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>211</v>
       </c>
@@ -3061,7 +3056,7 @@
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>212</v>
       </c>
@@ -3073,7 +3068,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>214</v>
       </c>
@@ -3085,7 +3080,7 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>216</v>
       </c>
@@ -3097,7 +3092,7 @@
       </c>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>218</v>
       </c>
@@ -3109,12 +3104,12 @@
       </c>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>500</v>
+        <v>473</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>209</v>
@@ -3123,12 +3118,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>501</v>
+        <v>474</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>209</v>
@@ -3137,23 +3132,23 @@
         <v>221</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="B83" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B84" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>209</v>
@@ -3170,25 +3165,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K154"/>
+  <dimension ref="A1:K156"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A155" sqref="A155"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J111" sqref="J111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="3" customWidth="1"/>
-    <col min="2" max="3" width="14.54296875" style="3"/>
-    <col min="4" max="4" width="9.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="49.81640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" style="3" customWidth="1"/>
-    <col min="8" max="11" width="14.54296875" style="3"/>
+    <col min="1" max="1" width="9.73046875" style="3" customWidth="1"/>
+    <col min="2" max="3" width="14.53125" style="3"/>
+    <col min="4" max="4" width="9.06640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="51.9296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.53125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.06640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8" style="3" customWidth="1"/>
+    <col min="10" max="11" width="14.53125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>222</v>
       </c>
@@ -3216,14 +3213,16 @@
       <c r="I1" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="J1" s="5"/>
+      <c r="J1" s="5" t="s">
+        <v>501</v>
+      </c>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="13" t="s">
         <v>232</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -3235,18 +3234,24 @@
       <c r="E2" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12">
+        <v>2</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I2" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="13" t="s">
         <v>232</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -3256,20 +3261,26 @@
         <v>234</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="G3" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I3" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="13" t="s">
         <v>232</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -3279,3108 +3290,3635 @@
         <v>234</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="12">
+        <v>2</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I4" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="13" t="s">
         <v>232</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>233</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="13" t="s">
         <v>232</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>233</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="13" t="s">
         <v>232</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>233</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G8" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I8" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G9" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I9" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G10" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I10" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I11" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G12" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I12" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="G13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I13" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="G14" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I14" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="G15" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I15" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>255</v>
+      <c r="B16" s="10" t="s">
+        <v>248</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D16" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D20" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D22" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D24" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D26" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="12">
+        <v>0</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+      <c r="F33" s="8">
+        <v>1</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+      <c r="E41" s="3" t="str">
+        <f>E50</f>
+        <v>showing off a gun indoors.</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="C46" s="3" t="s">
-        <v>284</v>
+        <v>484</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+      <c r="F46" s="14">
+        <v>1</v>
+      </c>
+      <c r="G46" s="12">
+        <v>1</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>284</v>
+        <v>488</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+        <v>486</v>
+      </c>
+      <c r="F47" s="14">
+        <v>1</v>
+      </c>
+      <c r="G47" s="12">
+        <v>0</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+      <c r="F48" s="14">
+        <v>1</v>
+      </c>
+      <c r="G48" s="12">
+        <v>0</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+      <c r="F49" s="14">
+        <v>1</v>
+      </c>
+      <c r="G49" s="12">
+        <v>0</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+        <v>485</v>
+      </c>
+      <c r="F50" s="14">
+        <v>1</v>
+      </c>
+      <c r="G50" s="12">
+        <v>0</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F51" s="14">
+        <v>1</v>
+      </c>
+      <c r="G51" s="12">
+        <v>0</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A52" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="G52" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2</v>
+      </c>
+      <c r="G52" s="12">
+        <v>2</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A53" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="H52" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="12">
+        <v>1</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A54" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="C54" s="3" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="12">
+        <v>1</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="C55" s="3" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="D55" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="12">
+        <v>0</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A56" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="12">
+        <v>1</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A57" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
+      <c r="E57" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F57" s="8">
+        <v>1</v>
+      </c>
+      <c r="G57" s="12">
+        <v>1</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A58" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+      <c r="C58" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F58" s="8">
+        <v>1</v>
+      </c>
+      <c r="G58" s="12">
+        <v>0</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A59" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+      <c r="C59" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+      <c r="G59" s="12">
+        <v>1</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A60" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="C60" s="3" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E60" s="3">
-        <f>$G$26</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E60" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" s="12">
+        <v>1</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="C61" s="3" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" s="12">
+        <v>1</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="C62" s="3" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="12">
+        <v>0</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="C63" s="3" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+        <v>296</v>
+      </c>
+      <c r="F63" s="8">
+        <v>1</v>
+      </c>
+      <c r="G63" s="12">
+        <v>0</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>315</v>
+        <v>274</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>297</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H64" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="F64" s="8">
+        <v>1</v>
+      </c>
+      <c r="G64" s="8">
+        <v>1</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A65" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F65" s="8">
+        <v>1</v>
+      </c>
+      <c r="G65" s="8">
+        <v>1</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A66" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H66" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F66" s="8">
+        <v>1</v>
+      </c>
+      <c r="G66" s="8">
+        <v>1</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A67" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>322</v>
-      </c>
       <c r="D67" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+        <v>303</v>
+      </c>
+      <c r="F67" s="8">
+        <v>1</v>
+      </c>
+      <c r="G67" s="8">
+        <v>1</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>315</v>
+        <v>274</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>297</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E68" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F68" s="8">
+        <v>1</v>
+      </c>
+      <c r="G68" s="8">
+        <v>1</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A69" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F69" s="8">
+        <v>1</v>
+      </c>
+      <c r="G69" s="8">
+        <v>1</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A70" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F70" s="8">
+        <v>1</v>
+      </c>
+      <c r="G70" s="8">
+        <v>1</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A71" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F71" s="8">
+        <v>1</v>
+      </c>
+      <c r="G71" s="8">
+        <v>1</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A72" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1</v>
+      </c>
+      <c r="G72" s="12">
+        <v>1</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A73" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1</v>
+      </c>
+      <c r="G73" s="12">
+        <v>1</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A74" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F74" s="3">
+        <v>1</v>
+      </c>
+      <c r="G74" s="12">
+        <v>1</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I74" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A75" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F75" s="3">
+        <v>1</v>
+      </c>
+      <c r="G75" s="12">
+        <v>1</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A76" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1</v>
+      </c>
+      <c r="G76" s="12">
+        <v>1</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A77" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
+      <c r="G77" s="12">
+        <v>1</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A78" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="12">
+        <v>1</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A79" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1</v>
+      </c>
+      <c r="G79" s="12">
+        <v>1</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I79" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A80" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1</v>
+      </c>
+      <c r="G80" s="12">
+        <v>1</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A81" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1</v>
+      </c>
+      <c r="G81" s="12">
+        <v>1</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A82" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+      <c r="F82" s="15">
+        <v>1</v>
+      </c>
+      <c r="G82" s="16">
+        <v>0</v>
+      </c>
+      <c r="H82" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="I82" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>344</v>
+        <v>274</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>325</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+      <c r="F83" s="15">
+        <v>1</v>
+      </c>
+      <c r="G83" s="16">
+        <v>0</v>
+      </c>
+      <c r="H83" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="I83" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>344</v>
+        <v>274</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>325</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+        <v>330</v>
+      </c>
+      <c r="F84" s="3">
+        <v>1</v>
+      </c>
+      <c r="G84" s="12">
+        <v>0</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>344</v>
+        <v>274</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>325</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+      <c r="F85" s="15">
+        <v>1</v>
+      </c>
+      <c r="G85" s="16">
+        <v>0</v>
+      </c>
+      <c r="H85" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="I85" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="J85" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>344</v>
+        <v>274</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>325</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+        <v>333</v>
+      </c>
+      <c r="F86" s="15">
+        <v>1</v>
+      </c>
+      <c r="G86" s="16">
+        <v>0</v>
+      </c>
+      <c r="H86" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="I86" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="J86" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>344</v>
+        <v>274</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>325</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+        <v>495</v>
+      </c>
+      <c r="F87" s="15">
+        <v>1</v>
+      </c>
+      <c r="G87" s="16">
+        <v>0</v>
+      </c>
+      <c r="H87" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="I87" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="J87" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="K87" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>358</v>
+        <v>274</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>325</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H88" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+        <v>335</v>
+      </c>
+      <c r="F88" s="15">
+        <v>1</v>
+      </c>
+      <c r="G88" s="16">
+        <v>0</v>
+      </c>
+      <c r="H88" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="I88" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="J88" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>358</v>
+        <v>274</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>325</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H89" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+        <v>336</v>
+      </c>
+      <c r="F89" s="15">
+        <v>1</v>
+      </c>
+      <c r="G89" s="16">
+        <v>0</v>
+      </c>
+      <c r="H89" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="I89" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>358</v>
+        <v>274</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>337</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H90" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+      <c r="F90" s="3">
+        <v>1</v>
+      </c>
+      <c r="G90" s="12">
+        <v>1</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I90" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>358</v>
+        <v>274</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>337</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H91" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+      <c r="F91" s="3">
+        <v>1</v>
+      </c>
+      <c r="G91" s="12">
+        <v>1</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>358</v>
+        <v>274</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>337</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H92" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+      <c r="F92" s="3">
+        <v>1</v>
+      </c>
+      <c r="G92" s="12">
+        <v>1</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I92" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>358</v>
+        <v>274</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>337</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+        <v>343</v>
+      </c>
+      <c r="F93" s="3">
+        <v>1</v>
+      </c>
+      <c r="G93" s="12">
+        <v>1</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>358</v>
+        <v>274</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>337</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+      <c r="F94" s="3">
+        <v>1</v>
+      </c>
+      <c r="G94" s="12">
+        <v>1</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I94" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>358</v>
+        <v>274</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>337</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H95" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="F95" s="3">
+        <v>1</v>
+      </c>
+      <c r="G95" s="12">
+        <v>1</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>372</v>
+        <v>274</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>337</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+      <c r="F96" s="3">
+        <v>1</v>
+      </c>
+      <c r="G96" s="12">
+        <v>0</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>372</v>
+        <v>274</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>337</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+        <v>349</v>
+      </c>
+      <c r="F97" s="3">
+        <v>1</v>
+      </c>
+      <c r="G97" s="12">
+        <v>1</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="H98" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+        <v>352</v>
+      </c>
+      <c r="F98" s="3">
+        <v>1</v>
+      </c>
+      <c r="G98" s="12">
+        <v>0</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H99" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="I99" s="13"/>
-      <c r="J99" s="13"/>
-      <c r="K99" s="13"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+        <v>354</v>
+      </c>
+      <c r="F99" s="3">
+        <v>1</v>
+      </c>
+      <c r="G99" s="12">
+        <v>0</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="H100" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+        <v>356</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1</v>
+      </c>
+      <c r="G100" s="12">
+        <v>0</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H101" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="I101" s="13"/>
-      <c r="J101" s="13"/>
-      <c r="K101" s="13"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+        <v>358</v>
+      </c>
+      <c r="F101" s="15">
+        <v>1</v>
+      </c>
+      <c r="G101" s="16">
+        <v>0</v>
+      </c>
+      <c r="H101" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="I101" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="J101" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="K101" s="11"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H102" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
-      <c r="K102" s="13"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+        <v>360</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1</v>
+      </c>
+      <c r="G102" s="12">
+        <v>0</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="I103" s="13"/>
-      <c r="J103" s="13"/>
-      <c r="K103" s="13"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+        <v>362</v>
+      </c>
+      <c r="F103" s="3">
+        <v>1</v>
+      </c>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="I104" s="13"/>
-      <c r="J104" s="13"/>
-      <c r="K104" s="13"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+        <v>364</v>
+      </c>
+      <c r="F104" s="3">
+        <v>1</v>
+      </c>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="I105" s="13"/>
-      <c r="J105" s="13"/>
-      <c r="K105" s="13"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+        <v>366</v>
+      </c>
+      <c r="F105" s="3">
+        <v>1</v>
+      </c>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="11"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E106" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F106" s="3">
+        <v>1</v>
+      </c>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A107" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F107" s="3">
+        <v>1</v>
+      </c>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A108" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F108" s="3">
+        <v>1</v>
+      </c>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A109" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F109" s="3">
+        <v>1</v>
+      </c>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A110" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F110" s="3">
+        <v>1</v>
+      </c>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A111" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F111" s="3">
+        <v>1</v>
+      </c>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A112" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F112" s="3">
+        <v>0</v>
+      </c>
+      <c r="G112" s="3">
+        <v>0</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A113" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F113" s="3">
+        <v>1</v>
+      </c>
+      <c r="G113" s="3">
+        <v>1</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A114" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F114" s="3">
+        <v>1</v>
+      </c>
+      <c r="G114" s="3">
+        <v>1</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A115" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F115" s="3">
+        <v>0</v>
+      </c>
+      <c r="G115" s="3">
+        <v>0</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A116" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F116" s="3">
+        <v>1</v>
+      </c>
+      <c r="G116" s="3">
+        <v>1</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A117" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F117" s="3">
+        <v>1</v>
+      </c>
+      <c r="G117" s="3">
+        <v>1</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A118" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F118" s="3">
+        <v>1</v>
+      </c>
+      <c r="G118" s="3">
+        <v>1</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A119" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F119" s="3">
+        <v>0</v>
+      </c>
+      <c r="G119" s="3">
+        <v>0</v>
+      </c>
+      <c r="H119" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="G106" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H106" s="7" t="s">
+      <c r="I119" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A120" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="I106" s="13"/>
-      <c r="J106" s="13"/>
-      <c r="K106" s="13"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A107" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B107" s="3" t="s">
+      <c r="D120" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E120" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E107" s="3" t="s">
+      <c r="F120" s="3">
+        <v>1</v>
+      </c>
+      <c r="G120" s="3">
+        <v>1</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A121" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="G107" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H107" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A108" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B108" s="3" t="s">
+      <c r="D121" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E121" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E108" s="3" t="s">
+      <c r="F121" s="3">
+        <v>1</v>
+      </c>
+      <c r="G121" s="3">
+        <v>1</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A122" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="G108" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H108" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A109" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B109" s="3" t="s">
+      <c r="D122" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E122" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E109" s="3" t="s">
+      <c r="F122" s="3">
+        <v>0</v>
+      </c>
+      <c r="G122" s="3">
+        <v>0</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A123" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G109" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H109" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A110" s="3" t="s">
+      <c r="D123" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E123" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="F123" s="3">
+        <v>0</v>
+      </c>
+      <c r="G123" s="3">
+        <v>0</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A124" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="D124" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E124" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E110" s="3" t="s">
+      <c r="F124" s="3">
+        <v>1</v>
+      </c>
+      <c r="G124" s="3">
+        <v>1</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A125" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="F110" s="3">
+      <c r="C125" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F125" s="3">
+        <v>1</v>
+      </c>
+      <c r="G125" s="3">
+        <v>1</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A126" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F126" s="3">
+        <v>1</v>
+      </c>
+      <c r="G126" s="3">
+        <v>1</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A127" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F127" s="3">
+        <v>1</v>
+      </c>
+      <c r="G127" s="3">
+        <v>1</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A128" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F128" s="3">
         <v>0</v>
       </c>
-      <c r="G110" s="3">
+      <c r="G128" s="3">
         <v>0</v>
       </c>
-      <c r="H110" s="3" t="s">
+      <c r="H128" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A129" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F129" s="3">
+        <v>1</v>
+      </c>
+      <c r="G129" s="3">
+        <v>1</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A130" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="I110" s="3" t="s">
+      <c r="D130" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F130" s="3">
+        <v>1</v>
+      </c>
+      <c r="G130" s="3">
+        <v>1</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A131" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F131" s="3">
+        <v>1</v>
+      </c>
+      <c r="G131" s="3">
+        <v>1</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A132" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F132" s="3">
+        <v>1</v>
+      </c>
+      <c r="G132" s="3">
+        <v>1</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A133" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F133" s="3">
+        <v>2</v>
+      </c>
+      <c r="G133" s="3">
+        <v>2</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A134" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A111" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E111" s="3" t="s">
+      <c r="D134" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F134" s="3">
+        <v>0</v>
+      </c>
+      <c r="G134" s="3">
+        <v>0</v>
+      </c>
+      <c r="H134" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="F111" s="3">
-        <v>1</v>
-      </c>
-      <c r="G111" s="3">
-        <v>1</v>
-      </c>
-      <c r="H111" s="3" t="s">
+      <c r="I134" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A135" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="I111" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A112" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="F112" s="3">
-        <v>1</v>
-      </c>
-      <c r="G112" s="3">
-        <v>1</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A113" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F113" s="3">
-        <v>0</v>
-      </c>
-      <c r="G113" s="3">
-        <v>0</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A114" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F114" s="3">
-        <v>1</v>
-      </c>
-      <c r="G114" s="3">
-        <v>1</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A115" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="F115" s="3">
-        <v>1</v>
-      </c>
-      <c r="G115" s="3">
-        <v>1</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="F116" s="3">
-        <v>1</v>
-      </c>
-      <c r="G116" s="3">
-        <v>1</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="F117" s="3">
-        <v>0</v>
-      </c>
-      <c r="G117" s="3">
-        <v>0</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A118" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C118" s="3" t="s">
+      <c r="D135" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E135" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E118" s="3" t="s">
+      <c r="F135" s="3">
+        <v>1</v>
+      </c>
+      <c r="G135" s="3">
+        <v>1</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A136" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="F118" s="3">
-        <v>1</v>
-      </c>
-      <c r="G118" s="3">
-        <v>1</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A119" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C119" s="3" t="s">
+      <c r="C136" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E119" s="3" t="s">
+      <c r="D136" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E136" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="F119" s="3">
-        <v>1</v>
-      </c>
-      <c r="G119" s="3">
-        <v>1</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A120" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C120" s="3" t="s">
+      <c r="F136" s="3">
+        <v>1</v>
+      </c>
+      <c r="G136" s="3">
+        <v>1</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A137" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D120" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E120" s="3" t="s">
+      <c r="D137" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E137" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="F120" s="3">
-        <v>0</v>
-      </c>
-      <c r="G120" s="3">
-        <v>0</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A121" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C121" s="3" t="s">
+      <c r="F137" s="3">
+        <v>1</v>
+      </c>
+      <c r="G137" s="3">
+        <v>1</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A138" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="D121" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E121" s="3" t="s">
+      <c r="D138" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E138" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="F121" s="3">
-        <v>0</v>
-      </c>
-      <c r="G121" s="3">
-        <v>0</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A122" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C122" s="3" t="s">
+      <c r="F138" s="3">
+        <v>1</v>
+      </c>
+      <c r="G138" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="D122" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E122" s="3" t="s">
+      <c r="H138" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A139" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="F122" s="3">
-        <v>1</v>
-      </c>
-      <c r="G122" s="3">
-        <v>1</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A123" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B123" s="3" t="s">
+      <c r="D139" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E139" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="F139" s="3">
+        <v>1</v>
+      </c>
+      <c r="G139" s="3">
+        <v>1</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A140" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>437</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="F123" s="3">
-        <v>1</v>
-      </c>
-      <c r="G123" s="3">
-        <v>1</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A124" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="F124" s="3">
-        <v>1</v>
-      </c>
-      <c r="G124" s="3">
-        <v>1</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A125" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="F125" s="3">
-        <v>1</v>
-      </c>
-      <c r="G125" s="3">
-        <v>1</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A126" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="F126" s="3">
-        <v>0</v>
-      </c>
-      <c r="G126" s="3">
-        <v>0</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="I126" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A127" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="F127" s="3">
-        <v>1</v>
-      </c>
-      <c r="G127" s="3">
-        <v>1</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A128" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="F128" s="3">
-        <v>1</v>
-      </c>
-      <c r="G128" s="3">
-        <v>1</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="I128" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A129" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="F129" s="3">
-        <v>1</v>
-      </c>
-      <c r="G129" s="3">
-        <v>1</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="I129" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A130" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F130" s="3">
-        <v>1</v>
-      </c>
-      <c r="G130" s="3">
-        <v>1</v>
-      </c>
-      <c r="H130" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A131" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="F131" s="3">
-        <v>2</v>
-      </c>
-      <c r="G131" s="3">
-        <v>2</v>
-      </c>
-      <c r="H131" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A132" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="F132" s="3">
-        <v>0</v>
-      </c>
-      <c r="G132" s="3">
-        <v>0</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A133" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="F133" s="3">
-        <v>1</v>
-      </c>
-      <c r="G133" s="3">
-        <v>1</v>
-      </c>
-      <c r="H133" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A134" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="F134" s="3">
-        <v>1</v>
-      </c>
-      <c r="G134" s="3">
-        <v>1</v>
-      </c>
-      <c r="H134" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A135" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="F135" s="3">
-        <v>1</v>
-      </c>
-      <c r="G135" s="3">
-        <v>1</v>
-      </c>
-      <c r="H135" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A136" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F136" s="3">
-        <v>1</v>
-      </c>
-      <c r="G136" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="H136" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A137" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="F137" s="3">
-        <v>1</v>
-      </c>
-      <c r="G137" s="3">
-        <v>1</v>
-      </c>
-      <c r="H137" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="I137" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A138" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="F138" s="3">
-        <v>1</v>
-      </c>
-      <c r="G138" s="3">
-        <v>1</v>
-      </c>
-      <c r="H138" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A139" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="F139" s="3">
-        <v>1</v>
-      </c>
-      <c r="G139" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A140" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>464</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
       <c r="F140" s="3">
         <v>1</v>
@@ -6388,22 +6926,28 @@
       <c r="G140" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H140" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="F141" s="3">
         <v>1</v>
@@ -6412,21 +6956,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>470</v>
+        <v>427</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>471</v>
+        <v>437</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="F142" s="3">
         <v>1</v>
@@ -6434,28 +6978,22 @@
       <c r="G142" s="3">
         <v>1</v>
       </c>
-      <c r="H142" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>470</v>
+        <v>427</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>473</v>
+        <v>428</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="F143" s="3">
         <v>1</v>
@@ -6463,28 +7001,22 @@
       <c r="G143" s="3">
         <v>1</v>
       </c>
-      <c r="H143" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="F144" s="3">
         <v>1</v>
@@ -6493,27 +7025,27 @@
         <v>1</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>477</v>
+        <v>383</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>479</v>
+        <v>447</v>
       </c>
       <c r="F145" s="3">
         <v>1</v>
@@ -6522,27 +7054,27 @@
         <v>1</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="F146" s="3">
         <v>1</v>
@@ -6551,27 +7083,27 @@
         <v>1</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="F147" s="3">
         <v>1</v>
@@ -6580,27 +7112,27 @@
         <v>1</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="F148" s="3">
         <v>1</v>
@@ -6609,27 +7141,27 @@
         <v>1</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>484</v>
+        <v>443</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>486</v>
+        <v>455</v>
       </c>
       <c r="F149" s="3">
         <v>1</v>
@@ -6638,27 +7170,27 @@
         <v>1</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>439</v>
+        <v>383</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>484</v>
+        <v>443</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>487</v>
+        <v>456</v>
       </c>
       <c r="F150" s="3">
         <v>1</v>
@@ -6667,27 +7199,27 @@
         <v>1</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>378</v>
+        <v>458</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="F151" s="3">
         <v>1</v>
@@ -6696,27 +7228,27 @@
         <v>1</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>489</v>
+        <v>387</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="F152" s="3">
         <v>1</v>
@@ -6725,27 +7257,27 @@
         <v>1</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>491</v>
+        <v>386</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>492</v>
+        <v>457</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>414</v>
+        <v>355</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>493</v>
+        <v>461</v>
       </c>
       <c r="F153" s="3">
         <v>1</v>
@@ -6754,27 +7286,27 @@
         <v>1</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>492</v>
+        <v>457</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>423</v>
+        <v>462</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
@@ -6783,14 +7315,72 @@
         <v>1</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>425</v>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A155" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F155" s="3">
+        <v>1</v>
+      </c>
+      <c r="G155" s="3">
+        <v>1</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A156" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="F156" s="3">
+        <v>1</v>
+      </c>
+      <c r="G156" s="3">
+        <v>1</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ratos\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2781E6-ADD0-4771-A9FA-275AAD3F10BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EC3168-51E2-4065-B93B-DEBF68EE6C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="544">
   <si>
     <t>Feature_name</t>
   </si>
@@ -775,15 +775,6 @@
     <t>Example sentences are always silly.</t>
   </si>
   <si>
-    <t>comparatives_212</t>
-  </si>
-  <si>
-    <t>?more beautiful</t>
-  </si>
-  <si>
-    <t>?more powerful</t>
-  </si>
-  <si>
     <t>greater</t>
   </si>
   <si>
@@ -832,21 +823,9 @@
     <t>That is really what she wants.</t>
   </si>
   <si>
-    <t>superlatives_213</t>
-  </si>
-  <si>
-    <t>?most beautiful</t>
-  </si>
-  <si>
-    <t>?most powerful</t>
-  </si>
-  <si>
     <t>biggest</t>
   </si>
   <si>
-    <t>highest</t>
-  </si>
-  <si>
     <t>nicest</t>
   </si>
   <si>
@@ -982,9 +961,6 @@
     <t>Go buy donuts now else there won't be any left.</t>
   </si>
   <si>
-    <t>else_adj</t>
-  </si>
-  <si>
     <t>Anyone else do this?</t>
   </si>
   <si>
@@ -1114,86 +1090,27 @@
     <t>I won't tell you why but example sentences are everywhere.</t>
   </si>
   <si>
-    <t>negana_068</t>
-  </si>
-  <si>
     <t>Trump Is Lying. He Did Not Take Coronavirus Seriously for Weeks.</t>
   </si>
   <si>
-    <t>negana_069</t>
-  </si>
-  <si>
     <t>Michigan medical marijuana seller gets prison: ‘Federal law has not changed,’ judge says</t>
   </si>
   <si>
-    <t>negana_070</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>What is a hated thing that isn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>’</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>t actually that bad?</t>
-    </r>
-  </si>
-  <si>
-    <t>negana_071</t>
-  </si>
-  <si>
     <t>STOP REPEATING “DON’T SELL!!!</t>
   </si>
   <si>
-    <t>negana_072</t>
-  </si>
-  <si>
     <t>Zach Lowe doesn’t believe the reports that Tyler Herro is 'off the table' for James Harden</t>
   </si>
   <si>
-    <t>negana_073</t>
-  </si>
-  <si>
     <t>Your brain knows where all of your organs are, and won’t tell you.</t>
   </si>
   <si>
-    <t>negana_074</t>
-  </si>
-  <si>
     <t>This is not an example sentence.</t>
   </si>
   <si>
-    <t>negana_075</t>
-  </si>
-  <si>
     <t>That was not a mistake.</t>
   </si>
   <si>
-    <t>negana_076</t>
-  </si>
-  <si>
     <t>I would not do that if I were you.</t>
   </si>
   <si>
@@ -1362,9 +1279,6 @@
     <t>Anna has promised my present will arrive in time.</t>
   </si>
   <si>
-    <t xml:space="preserve">0 ??? </t>
-  </si>
-  <si>
     <t>claimed</t>
   </si>
   <si>
@@ -1567,13 +1481,193 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>which POS to expect here??</t>
+  </si>
+  <si>
+    <t>does' tagged incorrectly as VBZ (verb be in 3rd per. Sg. Pres.); changed all ’ for '</t>
+  </si>
+  <si>
+    <t>untaggable</t>
+  </si>
+  <si>
+    <t>preposition</t>
+  </si>
+  <si>
+    <t>advsubcause_035</t>
+  </si>
+  <si>
+    <t>advsubconc_036</t>
+  </si>
+  <si>
+    <t>advsubcond_037</t>
+  </si>
+  <si>
+    <t>advsubother_038</t>
+  </si>
+  <si>
+    <t>prepositions_039</t>
+  </si>
+  <si>
+    <t>hedges_047</t>
+  </si>
+  <si>
+    <t>strandprep_061</t>
+  </si>
+  <si>
+    <t>more powerful</t>
+  </si>
+  <si>
+    <t>Your computer is definitely more powerful than mine.</t>
+  </si>
+  <si>
+    <t>Social media has a greater influence on gen z than on boomers.</t>
+  </si>
+  <si>
+    <t>I remember the platform being higher.</t>
+  </si>
+  <si>
+    <t>Your painting is nicer than mine.</t>
+  </si>
+  <si>
+    <t>The plant looks prettier by the window.</t>
+  </si>
+  <si>
+    <t>most powerful</t>
+  </si>
+  <si>
+    <t>Who is the most powerful woman in politics?</t>
+  </si>
+  <si>
+    <t>Who is the biggest asshole in politics?</t>
+  </si>
+  <si>
+    <t>tallest</t>
+  </si>
+  <si>
+    <t>The tallest trees are found in California.</t>
+  </si>
+  <si>
+    <t>That guy in the blue hat is the nicest guest we've ever had.</t>
+  </si>
+  <si>
+    <t>The prettiest house plants can be bought at Karen's store.</t>
+  </si>
+  <si>
+    <t>else(adj)</t>
+  </si>
+  <si>
+    <t>What is a hated thing that isn’t actually that bad?</t>
+  </si>
+  <si>
+    <t>more fucked up</t>
+  </si>
+  <si>
+    <t>That's more fucked up than I thought it was.</t>
+  </si>
+  <si>
+    <t>ID Verification- It just gets more and more fucked up</t>
+  </si>
+  <si>
+    <t>Comic/manga that by only reading the text it sounds way more fucked</t>
+  </si>
+  <si>
+    <t>The more fucked up, the better.</t>
+  </si>
+  <si>
+    <t>Don't get me wrong , friendship is still far more powerful</t>
+  </si>
+  <si>
+    <t>What are the worst "big" stadiums in college football? "Big" being greater than 80k capacity</t>
+  </si>
+  <si>
+    <t>European countries with higher Human Development Index (HDI) than the USA</t>
+  </si>
+  <si>
+    <t>I made a nicer looking world border for Tommy and people inspired by him to use in their worlds.</t>
+  </si>
+  <si>
+    <t>One of my prettier collections, all found on my walk this morning</t>
+  </si>
+  <si>
+    <t>most fucked up</t>
+  </si>
+  <si>
+    <t>That is the most fucked up movie I've ever seen.</t>
+  </si>
+  <si>
+    <t>What is the most fucked up thing you overheard in public?</t>
+  </si>
+  <si>
+    <t>Even the most powerful weapon would be meaningless if its wielder is weak.</t>
+  </si>
+  <si>
+    <t>What is your biggest non-academic, non work-related accomplishment?</t>
+  </si>
+  <si>
+    <t>The shortest, tallest and fattest man of europe playing a game of cards, 1913.</t>
+  </si>
+  <si>
+    <t>WHO is the RUDEST/NICEST FILIPINO CELEBRITY you've met?</t>
+  </si>
+  <si>
+    <t>Both of these actresses are some of the prettiest around. Amazing characters as well</t>
+  </si>
+  <si>
+    <t>superlatives_syn_213</t>
+  </si>
+  <si>
+    <t>comparatives_syn_212</t>
+  </si>
+  <si>
+    <t>JJR</t>
+  </si>
+  <si>
+    <t>RBR</t>
+  </si>
+  <si>
+    <t>Didn't count because interpreted "fucked" as JJ instead of V</t>
+  </si>
+  <si>
+    <t>JJR?</t>
+  </si>
+  <si>
+    <t>RBS</t>
+  </si>
+  <si>
+    <t>the code orients on finding JJR (adj comparative) but shouldn't it be RBR (adv comparative)?</t>
+  </si>
+  <si>
+    <t>RBS?</t>
+  </si>
+  <si>
+    <t>"powerful" tagged as JJ</t>
+  </si>
+  <si>
+    <t>"fucked" tagged as  V</t>
+  </si>
+  <si>
+    <t>RBS means adv superlative; JJS means adj superlative</t>
+  </si>
+  <si>
+    <t>JJS</t>
+  </si>
+  <si>
+    <t>('rudest/nicest', 'JJS')</t>
+  </si>
+  <si>
+    <t>JJS?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1591,19 +1685,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1614,18 +1701,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1641,7 +1716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1654,9 +1729,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1666,23 +1738,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2634,7 +2706,7 @@
         <v>127</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>128</v>
@@ -2648,7 +2720,7 @@
         <v>130</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>131</v>
@@ -2694,7 +2766,7 @@
         <v>140</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>141</v>
@@ -3106,10 +3178,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>209</v>
@@ -3120,10 +3192,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>209</v>
@@ -3134,10 +3206,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="B83" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>209</v>
@@ -3145,10 +3217,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="B84" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>209</v>
@@ -3165,24 +3237,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K156"/>
+  <dimension ref="A1:K173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J111" sqref="J111"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.73046875" style="3" customWidth="1"/>
-    <col min="2" max="3" width="14.53125" style="3"/>
+    <col min="2" max="2" width="17.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.53125" style="3"/>
     <col min="4" max="4" width="9.06640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="51.9296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.53125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8" style="3" customWidth="1"/>
+    <col min="5" max="5" width="55.06640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.46484375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.9296875" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.06640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8" style="3" customWidth="1"/>
-    <col min="10" max="11" width="14.53125" style="3"/>
+    <col min="9" max="9" width="11.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.73046875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.86328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -3214,15 +3288,17 @@
         <v>230</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="K1" s="5"/>
+        <v>482</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>232</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -3237,13 +3313,13 @@
       <c r="F2" s="3">
         <v>2</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="10">
         <v>2</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3251,7 +3327,7 @@
       <c r="A3" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>232</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -3266,13 +3342,13 @@
       <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="12">
-        <v>1</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3280,7 +3356,7 @@
       <c r="A4" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>232</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -3295,13 +3371,13 @@
       <c r="F4" s="3">
         <v>2</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>2</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="10" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3309,7 +3385,7 @@
       <c r="A5" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>232</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -3319,7 +3395,7 @@
         <v>239</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -3327,10 +3403,10 @@
       <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="10" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3338,7 +3414,7 @@
       <c r="A6" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>232</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -3348,7 +3424,7 @@
         <v>239</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
@@ -3356,10 +3432,10 @@
       <c r="G6" s="3">
         <v>2</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="10" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3367,7 +3443,7 @@
       <c r="A7" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>232</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -3377,7 +3453,7 @@
         <v>239</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -3385,10 +3461,10 @@
       <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="10" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3396,7 +3472,7 @@
       <c r="A8" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -3405,30 +3481,30 @@
       <c r="D8" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="F8" s="15">
-        <v>1</v>
-      </c>
-      <c r="G8" s="16">
+      <c r="E8" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="12" t="s">
         <v>236</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -3437,30 +3513,30 @@
       <c r="D9" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F9" s="15">
-        <v>1</v>
-      </c>
-      <c r="G9" s="16">
+      <c r="E9" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
         <v>0</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>502</v>
+      <c r="J9" s="7" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -3469,30 +3545,30 @@
       <c r="D10" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="F10" s="15">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16">
+      <c r="F10" s="12">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
         <v>0</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>502</v>
+      <c r="J10" s="7" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -3501,27 +3577,27 @@
       <c r="D11" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="12">
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10">
         <v>0</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>285</v>
+      <c r="I11" s="12" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -3530,30 +3606,30 @@
       <c r="D12" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="F12" s="15">
-        <v>1</v>
-      </c>
-      <c r="G12" s="16">
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10">
         <v>0</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>502</v>
+      <c r="J12" s="7" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -3562,30 +3638,30 @@
       <c r="D13" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="F13" s="15">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16">
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10">
         <v>0</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>502</v>
+      <c r="J13" s="7" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -3594,19 +3670,19 @@
       <c r="D14" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="12">
-        <v>1</v>
-      </c>
-      <c r="H14" s="14" t="s">
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="12" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3614,7 +3690,7 @@
       <c r="A15" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -3629,2600 +3705,3008 @@
       <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <v>0</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="12" t="s">
         <v>236</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>248</v>
+      <c r="B16" s="8" t="s">
+        <v>453</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D16" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
+      <c r="E16" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="B18" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E18" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>248</v>
+      <c r="B19" s="8" t="s">
+        <v>453</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>250</v>
+        <v>511</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E19" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>248</v>
+      <c r="B20" s="8" t="s">
+        <v>453</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D20" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E20" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>248</v>
+      <c r="B21" s="8" t="s">
+        <v>453</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>251</v>
+        <v>496</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E21" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E22" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>252</v>
-      </c>
       <c r="D23" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E23" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>248</v>
+      <c r="B24" s="7" t="s">
+        <v>530</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D24" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E24" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>248</v>
+      <c r="B25" s="7" t="s">
+        <v>530</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E25" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>248</v>
+      <c r="B26" s="7" t="s">
+        <v>530</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D26" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E26" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>248</v>
+      <c r="B27" s="7" t="s">
+        <v>530</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E27" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>255</v>
+      <c r="B28" s="7" t="s">
+        <v>530</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D28" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="12">
+      <c r="E28" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7">
         <v>0</v>
       </c>
-      <c r="H28" s="12" t="s">
-        <v>483</v>
+      <c r="H28" s="7" t="s">
+        <v>534</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>255</v>
+      <c r="B29" s="7" t="s">
+        <v>530</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="12">
-        <v>0</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+        <v>501</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="10">
         <v>0</v>
       </c>
-      <c r="H30" s="12" t="s">
-        <v>483</v>
+      <c r="H30" s="10" t="s">
+        <v>464</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+        <v>255</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="12">
-        <v>0</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="10">
         <v>0</v>
       </c>
-      <c r="H32" s="12" t="s">
-        <v>483</v>
+      <c r="H32" s="10" t="s">
+        <v>464</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F33" s="8">
-        <v>1</v>
-      </c>
-      <c r="G33" s="12">
+        <v>260</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="10">
         <v>0</v>
       </c>
-      <c r="H33" s="12" t="s">
-        <v>483</v>
+      <c r="H33" s="10" t="s">
+        <v>464</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E34" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E35" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>267</v>
+        <v>452</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>269</v>
+        <v>521</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E36" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>269</v>
+      <c r="B37" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>521</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E37" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>267</v>
+      <c r="B38" s="7" t="s">
+        <v>452</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>270</v>
+        <v>502</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E38" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="F38" s="7">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>267</v>
+      <c r="B39" s="7" t="s">
+        <v>452</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>270</v>
+        <v>502</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E39" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="F39" s="7">
+        <v>1</v>
+      </c>
+      <c r="G39" s="7">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>267</v>
+        <v>529</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E40" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>267</v>
+      <c r="B41" s="7" t="s">
+        <v>529</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E41" s="3" t="str">
-        <f>E50</f>
-        <v>showing off a gun indoors.</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E41" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="F41" s="7">
+        <v>1</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>267</v>
+      <c r="B42" s="7" t="s">
+        <v>529</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>272</v>
+        <v>505</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E42" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F42" s="3">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3">
+        <v>3</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>267</v>
+      <c r="B43" s="7" t="s">
+        <v>529</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>272</v>
+        <v>505</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E43" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F43" s="7">
+        <v>1</v>
+      </c>
+      <c r="G43" s="7">
+        <v>1</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>267</v>
+      <c r="B44" s="7" t="s">
+        <v>529</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E44" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>267</v>
+      <c r="B45" s="7" t="s">
+        <v>529</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E45" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7">
+        <v>1</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>275</v>
+        <v>231</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>529</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>484</v>
+        <v>266</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F46" s="14">
-        <v>1</v>
-      </c>
-      <c r="G46" s="12">
-        <v>1</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+        <v>528</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="7">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>275</v>
+        <v>231</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>529</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>488</v>
+        <v>266</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="F47" s="14">
-        <v>1</v>
-      </c>
-      <c r="G47" s="12">
-        <v>0</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+        <v>508</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="7">
+        <v>1</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>277</v>
+        <v>465</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F48" s="14">
-        <v>1</v>
-      </c>
-      <c r="G48" s="12">
-        <v>0</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>487</v>
+        <v>269</v>
+      </c>
+      <c r="F48" s="12">
+        <v>1</v>
+      </c>
+      <c r="G48" s="10">
+        <v>1</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>277</v>
+        <v>469</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="F49" s="14">
-        <v>1</v>
-      </c>
-      <c r="G49" s="12">
+        <v>467</v>
+      </c>
+      <c r="F49" s="12">
+        <v>1</v>
+      </c>
+      <c r="G49" s="10">
         <v>0</v>
       </c>
-      <c r="H49" s="12" t="s">
-        <v>285</v>
+      <c r="H49" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="F50" s="14">
-        <v>1</v>
-      </c>
-      <c r="G50" s="12">
+        <v>271</v>
+      </c>
+      <c r="F50" s="12">
+        <v>1</v>
+      </c>
+      <c r="G50" s="10">
         <v>0</v>
       </c>
-      <c r="H50" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>489</v>
+      <c r="H50" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F51" s="14">
-        <v>1</v>
-      </c>
-      <c r="G51" s="12">
+        <v>272</v>
+      </c>
+      <c r="F51" s="12">
+        <v>1</v>
+      </c>
+      <c r="G51" s="10">
         <v>0</v>
       </c>
-      <c r="H51" s="12" t="s">
-        <v>285</v>
+      <c r="H51" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2</v>
-      </c>
-      <c r="G52" s="12">
-        <v>2</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>285</v>
+        <v>466</v>
+      </c>
+      <c r="F52" s="12">
+        <v>1</v>
+      </c>
+      <c r="G52" s="10">
+        <v>0</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F53" s="3">
-        <v>1</v>
-      </c>
-      <c r="G53" s="12">
-        <v>1</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>285</v>
+      <c r="F53" s="12">
+        <v>1</v>
+      </c>
+      <c r="G53" s="10">
+        <v>0</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>285</v>
+        <v>470</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F54" s="3">
-        <v>1</v>
-      </c>
-      <c r="G54" s="12">
-        <v>1</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>285</v>
+        <v>2</v>
+      </c>
+      <c r="G54" s="10">
+        <v>2</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="F55" s="3">
         <v>1</v>
       </c>
-      <c r="G55" s="12">
-        <v>0</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>285</v>
+      <c r="G55" s="10">
+        <v>1</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>291</v>
-      </c>
       <c r="F56" s="3">
         <v>1</v>
       </c>
-      <c r="G56" s="12">
-        <v>1</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>285</v>
+      <c r="G56" s="10">
+        <v>1</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A57" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D57" s="7" t="s">
+      <c r="A57" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="10">
+        <v>0</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A58" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="10">
+        <v>1</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A59" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E57" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F57" s="8">
-        <v>1</v>
-      </c>
-      <c r="G57" s="12">
-        <v>1</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A58" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="D58" s="7" t="s">
+      <c r="E59" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F59" s="7">
+        <v>1</v>
+      </c>
+      <c r="G59" s="10">
+        <v>1</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A60" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E58" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F58" s="8">
-        <v>1</v>
-      </c>
-      <c r="G58" s="12">
+      <c r="E60" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F60" s="7">
+        <v>1</v>
+      </c>
+      <c r="G60" s="10">
         <v>0</v>
       </c>
-      <c r="H58" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A59" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1</v>
-      </c>
-      <c r="G59" s="12">
-        <v>1</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I59" s="12" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A60" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1</v>
-      </c>
-      <c r="G60" s="12">
-        <v>1</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>285</v>
-      </c>
+      <c r="H60" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="F61" s="3">
         <v>1</v>
       </c>
-      <c r="G61" s="12">
-        <v>1</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>285</v>
+      <c r="G61" s="10">
+        <v>1</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>490</v>
+        <v>286</v>
       </c>
       <c r="F62" s="3">
         <v>1</v>
       </c>
-      <c r="G62" s="12">
-        <v>0</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>285</v>
+      <c r="G62" s="10">
+        <v>1</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>492</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F63" s="8">
-        <v>1</v>
-      </c>
-      <c r="G63" s="12">
-        <v>0</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>285</v>
+        <v>287</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="10">
+        <v>1</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>492</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>297</v>
+        <v>267</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F64" s="8">
-        <v>1</v>
-      </c>
-      <c r="G64" s="8">
-        <v>1</v>
-      </c>
-      <c r="H64" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>285</v>
+        <v>471</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="10">
+        <v>0</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>297</v>
+        <v>267</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F65" s="8">
-        <v>1</v>
-      </c>
-      <c r="G65" s="8">
-        <v>1</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I65" s="12" t="s">
-        <v>285</v>
+        <v>289</v>
+      </c>
+      <c r="F65" s="7">
+        <v>1</v>
+      </c>
+      <c r="G65" s="10">
+        <v>0</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>297</v>
+        <v>267</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>290</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F66" s="8">
-        <v>1</v>
-      </c>
-      <c r="G66" s="8">
-        <v>1</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>285</v>
+        <v>292</v>
+      </c>
+      <c r="F66" s="7">
+        <v>1</v>
+      </c>
+      <c r="G66" s="7">
+        <v>1</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>297</v>
+        <v>267</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>290</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F67" s="8">
-        <v>1</v>
-      </c>
-      <c r="G67" s="8">
-        <v>1</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I67" s="12" t="s">
-        <v>285</v>
+        <v>293</v>
+      </c>
+      <c r="F67" s="7">
+        <v>1</v>
+      </c>
+      <c r="G67" s="7">
+        <v>1</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>297</v>
+        <v>267</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>290</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F68" s="8">
-        <v>1</v>
-      </c>
-      <c r="G68" s="8">
-        <v>1</v>
-      </c>
-      <c r="H68" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>285</v>
+        <v>295</v>
+      </c>
+      <c r="F68" s="7">
+        <v>1</v>
+      </c>
+      <c r="G68" s="7">
+        <v>1</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>297</v>
+        <v>267</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>290</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F69" s="8">
-        <v>1</v>
-      </c>
-      <c r="G69" s="8">
-        <v>1</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>285</v>
+        <v>296</v>
+      </c>
+      <c r="F69" s="7">
+        <v>1</v>
+      </c>
+      <c r="G69" s="7">
+        <v>1</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B70" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F70" s="8">
-        <v>1</v>
-      </c>
-      <c r="G70" s="8">
-        <v>1</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I70" s="12" t="s">
-        <v>285</v>
+        <v>298</v>
+      </c>
+      <c r="F70" s="7">
+        <v>1</v>
+      </c>
+      <c r="G70" s="7">
+        <v>1</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B71" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>307</v>
-      </c>
       <c r="D71" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="F71" s="8">
-        <v>1</v>
-      </c>
-      <c r="G71" s="8">
-        <v>1</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I71" s="12" t="s">
-        <v>285</v>
+        <v>299</v>
+      </c>
+      <c r="F71" s="7">
+        <v>1</v>
+      </c>
+      <c r="G71" s="7">
+        <v>1</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>310</v>
+        <v>267</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>290</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D72" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F72" s="3">
-        <v>1</v>
-      </c>
-      <c r="G72" s="12">
-        <v>1</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I72" s="12" t="s">
-        <v>285</v>
+        <v>301</v>
+      </c>
+      <c r="F72" s="7">
+        <v>1</v>
+      </c>
+      <c r="G72" s="7">
+        <v>1</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>310</v>
+        <v>267</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>290</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F73" s="3">
-        <v>1</v>
-      </c>
-      <c r="G73" s="12">
-        <v>1</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I73" s="12" t="s">
-        <v>285</v>
+        <v>302</v>
+      </c>
+      <c r="F73" s="7">
+        <v>1</v>
+      </c>
+      <c r="G73" s="7">
+        <v>1</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>310</v>
+        <v>267</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>303</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D74" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>234</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F74" s="3">
         <v>1</v>
       </c>
-      <c r="G74" s="12">
-        <v>1</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I74" s="12" t="s">
-        <v>285</v>
+      <c r="G74" s="10">
+        <v>1</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>310</v>
+        <v>267</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>303</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F75" s="3">
         <v>1</v>
       </c>
-      <c r="G75" s="12">
-        <v>1</v>
-      </c>
-      <c r="H75" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I75" s="12" t="s">
-        <v>285</v>
+      <c r="G75" s="10">
+        <v>1</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="D76" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>234</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F76" s="3">
         <v>1</v>
       </c>
-      <c r="G76" s="12">
-        <v>1</v>
-      </c>
-      <c r="H76" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I76" s="12" t="s">
-        <v>285</v>
+      <c r="G76" s="10">
+        <v>1</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="D77" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F77" s="3">
         <v>1</v>
       </c>
-      <c r="G77" s="12">
-        <v>1</v>
-      </c>
-      <c r="H77" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I77" s="12" t="s">
-        <v>285</v>
+      <c r="G77" s="10">
+        <v>1</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B78" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>321</v>
-      </c>
       <c r="F78" s="3">
         <v>1</v>
       </c>
-      <c r="G78" s="12">
-        <v>1</v>
-      </c>
-      <c r="H78" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I78" s="12" t="s">
-        <v>493</v>
+      <c r="G78" s="10">
+        <v>1</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D79" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="D79" s="8" t="s">
         <v>239</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>494</v>
+        <v>311</v>
       </c>
       <c r="F79" s="3">
         <v>1</v>
       </c>
-      <c r="G79" s="12">
-        <v>1</v>
-      </c>
-      <c r="H79" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I79" s="12" t="s">
-        <v>285</v>
+      <c r="G79" s="10">
+        <v>1</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D80" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>234</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F80" s="3">
         <v>1</v>
       </c>
-      <c r="G80" s="12">
-        <v>1</v>
-      </c>
-      <c r="H80" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>285</v>
+      <c r="G80" s="10">
+        <v>1</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>310</v>
+        <v>267</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>303</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1</v>
-      </c>
-      <c r="G81" s="12">
-        <v>1</v>
-      </c>
-      <c r="H81" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>285</v>
+      <c r="E81" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="F81" s="12">
+        <v>1</v>
+      </c>
+      <c r="G81" s="10">
+        <v>1</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>325</v>
+        <v>267</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>303</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D82" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="F82" s="15">
-        <v>1</v>
-      </c>
-      <c r="G82" s="16">
-        <v>0</v>
-      </c>
-      <c r="H82" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="I82" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="J82" s="8" t="s">
-        <v>502</v>
+      <c r="E82" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F82" s="12">
+        <v>1</v>
+      </c>
+      <c r="G82" s="10">
+        <v>1</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I82" s="12" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>325</v>
+        <v>267</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>303</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F83" s="15">
-        <v>1</v>
-      </c>
-      <c r="G83" s="16">
-        <v>0</v>
-      </c>
-      <c r="H83" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="I83" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="J83" s="8" t="s">
-        <v>502</v>
+      <c r="E83" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F83" s="12">
+        <v>1</v>
+      </c>
+      <c r="G83" s="10">
+        <v>1</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I83" s="12" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>325</v>
+        <v>267</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F84" s="3">
-        <v>1</v>
-      </c>
-      <c r="G84" s="12">
+      <c r="E84" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="F84" s="12">
+        <v>1</v>
+      </c>
+      <c r="G84" s="10">
         <v>0</v>
       </c>
-      <c r="H84" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>412</v>
+      <c r="H84" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I84" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>325</v>
+        <v>267</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F85" s="15">
-        <v>1</v>
-      </c>
-      <c r="G85" s="16">
+      <c r="E85" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="F85" s="12">
+        <v>1</v>
+      </c>
+      <c r="G85" s="10">
         <v>0</v>
       </c>
-      <c r="H85" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="I85" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="J85" s="8" t="s">
-        <v>502</v>
+      <c r="H85" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>325</v>
+        <v>267</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F86" s="15">
-        <v>1</v>
-      </c>
-      <c r="G86" s="16">
+      <c r="E86" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="F86" s="12">
+        <v>1</v>
+      </c>
+      <c r="G86" s="10">
         <v>0</v>
       </c>
-      <c r="H86" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="I86" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="J86" s="8" t="s">
-        <v>502</v>
+      <c r="H86" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I86" s="12" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>325</v>
+        <v>267</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="F87" s="15">
-        <v>1</v>
-      </c>
-      <c r="G87" s="16">
+      <c r="E87" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="F87" s="12">
+        <v>1</v>
+      </c>
+      <c r="G87" s="10">
         <v>0</v>
       </c>
-      <c r="H87" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="I87" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="J87" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="K87" s="8" t="s">
-        <v>496</v>
+      <c r="H87" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I87" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>325</v>
+        <v>267</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F88" s="15">
-        <v>1</v>
-      </c>
-      <c r="G88" s="16">
+      <c r="E88" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="F88" s="12">
+        <v>1</v>
+      </c>
+      <c r="G88" s="10">
         <v>0</v>
       </c>
-      <c r="H88" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="I88" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="J88" s="8" t="s">
-        <v>502</v>
+      <c r="H88" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I88" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>325</v>
+        <v>267</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F89" s="15">
-        <v>1</v>
-      </c>
-      <c r="G89" s="16">
+      <c r="E89" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="F89" s="12">
+        <v>1</v>
+      </c>
+      <c r="G89" s="10">
         <v>0</v>
       </c>
-      <c r="H89" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="I89" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="J89" s="8" t="s">
-        <v>502</v>
+      <c r="H89" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I89" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>337</v>
+        <v>267</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="F90" s="3">
-        <v>1</v>
-      </c>
-      <c r="G90" s="12">
-        <v>1</v>
-      </c>
-      <c r="H90" s="12" t="s">
-        <v>285</v>
+      <c r="E90" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="F90" s="12">
+        <v>1</v>
+      </c>
+      <c r="G90" s="10">
+        <v>0</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>285</v>
+        <v>278</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>337</v>
+        <v>267</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F91" s="3">
-        <v>1</v>
-      </c>
-      <c r="G91" s="12">
-        <v>1</v>
-      </c>
-      <c r="H91" s="12" t="s">
-        <v>285</v>
+      <c r="E91" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="F91" s="12">
+        <v>1</v>
+      </c>
+      <c r="G91" s="10">
+        <v>0</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>285</v>
+        <v>278</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>337</v>
+        <v>267</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>329</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F92" s="3">
-        <v>1</v>
-      </c>
-      <c r="G92" s="12">
-        <v>1</v>
-      </c>
-      <c r="H92" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I92" s="12" t="s">
-        <v>285</v>
+      <c r="E92" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="F92" s="12">
+        <v>1</v>
+      </c>
+      <c r="G92" s="10">
+        <v>1</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I92" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>337</v>
+        <v>267</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>329</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F93" s="3">
-        <v>1</v>
-      </c>
-      <c r="G93" s="12">
-        <v>1</v>
-      </c>
-      <c r="H93" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I93" s="12" t="s">
-        <v>285</v>
+      <c r="E93" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="F93" s="12">
+        <v>1</v>
+      </c>
+      <c r="G93" s="10">
+        <v>1</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I93" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>337</v>
+        <v>267</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>329</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="F94" s="3">
-        <v>1</v>
-      </c>
-      <c r="G94" s="12">
-        <v>1</v>
-      </c>
-      <c r="H94" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I94" s="12" t="s">
-        <v>285</v>
+      <c r="E94" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="F94" s="12">
+        <v>1</v>
+      </c>
+      <c r="G94" s="10">
+        <v>1</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>337</v>
+        <v>267</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>329</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F95" s="3">
         <v>1</v>
       </c>
-      <c r="G95" s="12">
-        <v>1</v>
-      </c>
-      <c r="H95" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I95" s="12" t="s">
-        <v>285</v>
+      <c r="G95" s="10">
+        <v>1</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I95" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>337</v>
+        <v>267</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>329</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
       </c>
-      <c r="G96" s="12">
-        <v>0</v>
-      </c>
-      <c r="H96" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>383</v>
+      <c r="G96" s="10">
+        <v>1</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I96" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>337</v>
+        <v>267</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>329</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F97" s="3">
         <v>1</v>
       </c>
-      <c r="G97" s="12">
-        <v>1</v>
-      </c>
-      <c r="H97" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I97" s="12" t="s">
-        <v>285</v>
+      <c r="G97" s="10">
+        <v>1</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I97" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>350</v>
+        <v>267</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>329</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
       </c>
-      <c r="G98" s="12">
+      <c r="G98" s="10">
         <v>0</v>
       </c>
-      <c r="H98" s="12" t="s">
-        <v>285</v>
+      <c r="H98" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>497</v>
+        <v>365</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>350</v>
+        <v>267</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>329</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="F99" s="3">
         <v>1</v>
       </c>
-      <c r="G99" s="12">
-        <v>0</v>
-      </c>
-      <c r="H99" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>498</v>
+      <c r="G99" s="10">
+        <v>1</v>
+      </c>
+      <c r="H99" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I99" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
       </c>
-      <c r="G100" s="12">
-        <v>0</v>
-      </c>
-      <c r="H100" s="12" t="s">
-        <v>285</v>
+      <c r="G100" s="10">
+        <v>1</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>499</v>
+        <v>478</v>
+      </c>
+      <c r="K100" s="13" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F101" s="15">
-        <v>1</v>
-      </c>
-      <c r="G101" s="16">
-        <v>0</v>
-      </c>
-      <c r="H101" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="I101" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="J101" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="K101" s="11"/>
+        <v>239</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F101" s="12">
+        <v>1</v>
+      </c>
+      <c r="G101" s="10">
+        <v>1</v>
+      </c>
+      <c r="H101" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I101" s="12" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F102" s="3">
-        <v>1</v>
-      </c>
-      <c r="G102" s="12">
-        <v>0</v>
-      </c>
-      <c r="H102" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>500</v>
+      <c r="E102" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="F102" s="12">
+        <v>1</v>
+      </c>
+      <c r="G102" s="10">
+        <v>1</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I102" s="12" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="F103" s="3">
-        <v>1</v>
-      </c>
-      <c r="G103" s="12"/>
-      <c r="H103" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I103" s="11"/>
-      <c r="J103" s="11"/>
-      <c r="K103" s="11"/>
+      <c r="E103" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F103" s="12">
+        <v>1</v>
+      </c>
+      <c r="G103" s="10">
+        <v>1</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I103" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="J103" s="7"/>
+      <c r="K103" s="9"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="F104" s="3">
-        <v>1</v>
-      </c>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I104" s="11"/>
-      <c r="J104" s="11"/>
-      <c r="K104" s="11"/>
+        <v>239</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="F104" s="12">
+        <v>1</v>
+      </c>
+      <c r="G104" s="10">
+        <v>1</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I104" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="J104" s="7"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>365</v>
+        <v>267</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>342</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="F105" s="3">
-        <v>1</v>
-      </c>
-      <c r="G105" s="12"/>
-      <c r="H105" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I105" s="11"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="11"/>
+      <c r="E105" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="F105" s="12">
+        <v>1</v>
+      </c>
+      <c r="G105" s="10">
+        <v>1</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I105" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="J105" s="7"/>
+      <c r="K105" s="9"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>367</v>
+        <v>267</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>342</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="F106" s="3">
-        <v>1</v>
-      </c>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I106" s="11"/>
-      <c r="J106" s="11"/>
-      <c r="K106" s="11"/>
+      <c r="E106" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="F106" s="12">
+        <v>1</v>
+      </c>
+      <c r="G106" s="10">
+        <v>1</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I106" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="J106" s="7"/>
+      <c r="K106" s="9"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>369</v>
+        <v>267</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>342</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="F107" s="3">
-        <v>1</v>
-      </c>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I107" s="11"/>
-      <c r="J107" s="11"/>
-      <c r="K107" s="11"/>
+      <c r="E107" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="F107" s="12">
+        <v>1</v>
+      </c>
+      <c r="G107" s="10">
+        <v>1</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I107" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="J107" s="7"/>
+      <c r="K107" s="9"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>371</v>
+        <v>267</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>342</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E108" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="F108" s="3">
-        <v>1</v>
-      </c>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I108" s="11"/>
-      <c r="J108" s="11"/>
-      <c r="K108" s="11"/>
+      <c r="E108" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F108" s="12">
+        <v>1</v>
+      </c>
+      <c r="G108" s="10">
+        <v>1</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I108" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>373</v>
+        <v>267</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>342</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="F109" s="3">
-        <v>1</v>
-      </c>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12" t="s">
-        <v>285</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="F109" s="12">
+        <v>1</v>
+      </c>
+      <c r="G109" s="10">
+        <v>1</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I109" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>375</v>
+        <v>267</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>342</v>
       </c>
       <c r="C110" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>376</v>
-      </c>
       <c r="F110" s="3">
         <v>1</v>
       </c>
-      <c r="G110" s="12"/>
-      <c r="H110" s="12" t="s">
-        <v>285</v>
-      </c>
+      <c r="G110" s="10">
+        <v>1</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I110" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>377</v>
+        <v>267</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>342</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="F111" s="3">
         <v>1</v>
       </c>
-      <c r="G111" s="12"/>
-      <c r="H111" s="12" t="s">
-        <v>285</v>
+      <c r="G111" s="10">
+        <v>1</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I111" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>380</v>
+        <v>267</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>342</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="F112" s="3">
-        <v>0</v>
-      </c>
-      <c r="G112" s="3">
-        <v>0</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>383</v>
+        <v>1</v>
+      </c>
+      <c r="G112" s="10">
+        <v>1</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I112" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>380</v>
+        <v>267</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>342</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="F113" s="3">
         <v>1</v>
       </c>
-      <c r="G113" s="3">
-        <v>1</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>386</v>
+      <c r="G113" s="10">
+        <v>1</v>
+      </c>
+      <c r="H113" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I113" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="F114" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="F115" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -6231,56 +6715,56 @@
         <v>1</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="F117" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
@@ -6289,56 +6773,56 @@
         <v>1</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="F119" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="F120" s="3">
         <v>1</v>
@@ -6347,172 +6831,172 @@
         <v>1</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E121" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>402</v>
-      </c>
       <c r="F121" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="F122" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="F123" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="F124" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="F125" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -6521,27 +7005,27 @@
         <v>1</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="F127" s="3">
         <v>1</v>
@@ -6550,450 +7034,465 @@
         <v>1</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F128" s="3">
+        <v>1</v>
+      </c>
+      <c r="G128" s="3">
+        <v>1</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A129" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F129" s="3">
+        <v>1</v>
+      </c>
+      <c r="G129" s="3">
+        <v>1</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A130" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F130" s="3">
+        <v>0</v>
+      </c>
+      <c r="G130" s="3">
+        <v>0</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A131" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F131" s="3">
+        <v>1</v>
+      </c>
+      <c r="G131" s="3">
+        <v>1</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A132" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F132" s="3">
+        <v>1</v>
+      </c>
+      <c r="G132" s="3">
+        <v>1</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A133" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F133" s="3">
+        <v>1</v>
+      </c>
+      <c r="G133" s="3">
+        <v>1</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A134" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F134" s="3">
+        <v>1</v>
+      </c>
+      <c r="G134" s="3">
+        <v>1</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A135" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F135" s="3">
+        <v>2</v>
+      </c>
+      <c r="G135" s="3">
+        <v>2</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A136" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F136" s="3">
+        <v>0</v>
+      </c>
+      <c r="G136" s="3">
+        <v>0</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A137" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F137" s="3">
+        <v>1</v>
+      </c>
+      <c r="G137" s="3">
+        <v>1</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A138" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C138" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F138" s="3">
+        <v>1</v>
+      </c>
+      <c r="G138" s="3">
+        <v>1</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="I138" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A139" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E139" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="D128" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E128" s="3" t="s">
+      <c r="F139" s="3">
+        <v>1</v>
+      </c>
+      <c r="G139" s="3">
+        <v>1</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="I139" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A140" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F140" s="3">
+        <v>1</v>
+      </c>
+      <c r="G140" s="10">
+        <v>0</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A141" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="F128" s="3">
-        <v>0</v>
-      </c>
-      <c r="G128" s="3">
-        <v>0</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="I128" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A129" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B129" s="3" t="s">
+      <c r="D141" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F141" s="3">
+        <v>1</v>
+      </c>
+      <c r="G141" s="3">
+        <v>1</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="I141" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A142" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E129" s="3" t="s">
+      <c r="C142" s="3" t="s">
         <v>418</v>
-      </c>
-      <c r="F129" s="3">
-        <v>1</v>
-      </c>
-      <c r="G129" s="3">
-        <v>1</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="I129" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A130" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="F130" s="3">
-        <v>1</v>
-      </c>
-      <c r="G130" s="3">
-        <v>1</v>
-      </c>
-      <c r="H130" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A131" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="F131" s="3">
-        <v>1</v>
-      </c>
-      <c r="G131" s="3">
-        <v>1</v>
-      </c>
-      <c r="H131" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A132" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="F132" s="3">
-        <v>1</v>
-      </c>
-      <c r="G132" s="3">
-        <v>1</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A133" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="F133" s="3">
-        <v>2</v>
-      </c>
-      <c r="G133" s="3">
-        <v>2</v>
-      </c>
-      <c r="H133" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A134" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="F134" s="3">
-        <v>0</v>
-      </c>
-      <c r="G134" s="3">
-        <v>0</v>
-      </c>
-      <c r="H134" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A135" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="F135" s="3">
-        <v>1</v>
-      </c>
-      <c r="G135" s="3">
-        <v>1</v>
-      </c>
-      <c r="H135" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A136" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="F136" s="3">
-        <v>1</v>
-      </c>
-      <c r="G136" s="3">
-        <v>1</v>
-      </c>
-      <c r="H136" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A137" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="F137" s="3">
-        <v>1</v>
-      </c>
-      <c r="G137" s="3">
-        <v>1</v>
-      </c>
-      <c r="H137" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="I137" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A138" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F138" s="3">
-        <v>1</v>
-      </c>
-      <c r="G138" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="H138" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A139" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="F139" s="3">
-        <v>1</v>
-      </c>
-      <c r="G139" s="3">
-        <v>1</v>
-      </c>
-      <c r="H139" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A140" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="F140" s="3">
-        <v>1</v>
-      </c>
-      <c r="G140" s="3">
-        <v>1</v>
-      </c>
-      <c r="H140" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A141" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="F141" s="3">
-        <v>1</v>
-      </c>
-      <c r="G141" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A142" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>437</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="F142" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G142" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="I142" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="F143" s="3">
         <v>1</v>
@@ -7001,22 +7500,28 @@
       <c r="G143" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H143" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="I143" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="F144" s="3">
         <v>1</v>
@@ -7024,28 +7529,28 @@
       <c r="G144" s="3">
         <v>1</v>
       </c>
-      <c r="H144" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H144" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="I144" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="F145" s="3">
         <v>1</v>
@@ -7053,28 +7558,28 @@
       <c r="G145" s="3">
         <v>1</v>
       </c>
-      <c r="H145" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H145" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="I145" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="F146" s="3">
         <v>1</v>
@@ -7083,27 +7588,27 @@
         <v>1</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>450</v>
+        <v>365</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="F147" s="3">
         <v>1</v>
@@ -7112,27 +7617,27 @@
         <v>1</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="F148" s="3">
         <v>1</v>
@@ -7141,27 +7646,27 @@
         <v>1</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="F149" s="3">
         <v>1</v>
@@ -7170,27 +7675,27 @@
         <v>1</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="F150" s="3">
         <v>1</v>
@@ -7199,27 +7704,27 @@
         <v>1</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="F151" s="3">
         <v>1</v>
@@ -7228,27 +7733,27 @@
         <v>1</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>412</v>
+        <v>365</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>387</v>
+        <v>425</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="F152" s="3">
         <v>1</v>
@@ -7257,27 +7762,27 @@
         <v>1</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>355</v>
+        <v>439</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="F153" s="3">
         <v>1</v>
@@ -7286,27 +7791,27 @@
         <v>1</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>462</v>
+        <v>369</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
@@ -7315,27 +7820,27 @@
         <v>1</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>464</v>
+        <v>368</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="F155" s="3">
         <v>1</v>
@@ -7344,27 +7849,27 @@
         <v>1</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="F156" s="3">
         <v>1</v>
@@ -7373,10 +7878,202 @@
         <v>1</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>398</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A157" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="F157" s="3">
+        <v>1</v>
+      </c>
+      <c r="G157" s="3">
+        <v>1</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A158" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F158" s="3">
+        <v>1</v>
+      </c>
+      <c r="G158" s="3">
+        <v>1</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A159" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A160" s="7"/>
+      <c r="B160" s="14"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="7"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B161" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A162" s="7"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="7"/>
+      <c r="J162" s="7"/>
+      <c r="K162" s="7"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B163" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A164" s="7"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="7"/>
+      <c r="J164" s="7"/>
+      <c r="K164" s="7"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B165" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A166" s="7"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="7"/>
+      <c r="J166" s="7"/>
+      <c r="K166" s="7"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B167" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A168" s="7"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7"/>
+      <c r="J168" s="7"/>
+      <c r="K168" s="7"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B169" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A170" s="7"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="7"/>
+      <c r="J170" s="7"/>
+      <c r="K170" s="7"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B171" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A172" s="7"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="7"/>
+      <c r="J172" s="7"/>
+      <c r="K172" s="7"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B173" s="3" t="s">
+        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A882262-05A5-42F5-A56B-6F8A738838D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A95053-F1E5-4169-A49F-BA24AEBBDA8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="1330" windowWidth="12630" windowHeight="8470" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="570" windowWidth="5900" windowHeight="9630" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_precision_recall" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Test_sentences" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="0">Overview_precision_recall!$A$2:$B$82</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0">Overview_precision_recall!$A$2:$B$85</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="556">
   <si>
     <t>Feature_name</t>
   </si>
@@ -1688,6 +1688,24 @@
   </si>
   <si>
     <t>RT</t>
+  </si>
+  <si>
+    <t>emoticons</t>
+  </si>
+  <si>
+    <t>"emoticons_207"</t>
+  </si>
+  <si>
+    <t>strategic lenghtening</t>
+  </si>
+  <si>
+    <t>"lengthening_206"</t>
+  </si>
+  <si>
+    <t>community-specific acronyms or lexical items</t>
+  </si>
+  <si>
+    <t>"reddit_vocab_216"</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +1902,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Appendix_FeatureTags" displayName="Appendix_FeatureTags" ref="A2:D82" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Appendix_FeatureTags" displayName="Appendix_FeatureTags" ref="A2:D85" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -2192,18 +2210,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="A1:B82"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.81640625" customWidth="1"/>
     <col min="2" max="2" width="32.453125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -3155,34 +3173,30 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>210</v>
+        <v>553</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>209</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>212</v>
+        <v>551</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>209</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>209</v>
@@ -3191,10 +3205,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>209</v>
@@ -3203,52 +3217,84 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>448</v>
+        <v>214</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>452</v>
+        <v>215</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>218</v>
-      </c>
+      <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>449</v>
+        <v>216</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>453</v>
+        <v>217</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>451</v>
-      </c>
-      <c r="B81" t="s">
-        <v>454</v>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>452</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>450</v>
-      </c>
-      <c r="B82" t="s">
-        <v>455</v>
+      <c r="D81" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>453</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>209</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>451</v>
+      </c>
+      <c r="B83" t="s">
+        <v>454</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>450</v>
+      </c>
+      <c r="B84" t="s">
+        <v>455</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>555</v>
+      </c>
+      <c r="B85" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -3264,14 +3310,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7223C10B-8642-4163-B1BD-0866630178C4}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="21.36328125" customWidth="1"/>
     <col min="2" max="2" width="20.453125" customWidth="1"/>
     <col min="3" max="3" width="7.36328125" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
@@ -4770,15 +4816,15 @@
         <v>206</v>
       </c>
       <c r="H73" t="e">
-        <f t="shared" ref="H73:H83" si="6">D73/(D73+F73)</f>
+        <f t="shared" ref="H73:H82" si="6">D73/(D73+F73)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I73" t="e">
-        <f t="shared" ref="I73:I83" si="7">D73/(D73+G73)</f>
+        <f t="shared" ref="I73:I82" si="7">D73/(D73+G73)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J73" t="e">
-        <f t="shared" ref="J73:J83" si="8">2*((H73*I73)/(H73+I73))</f>
+        <f t="shared" ref="J73:J82" si="8">2*((H73*I73)/(H73+I73))</f>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A95053-F1E5-4169-A49F-BA24AEBBDA8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEE6725-C5B0-4C6C-98E5-CFB127A96DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="570" windowWidth="5900" windowHeight="9630" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_precision_recall" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Test_sentences" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="0">Overview_precision_recall!$A$2:$B$85</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0">Overview_precision_recall!$A$2:$B$87</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="560">
   <si>
     <t>Feature_name</t>
   </si>
@@ -1706,6 +1706,18 @@
   </si>
   <si>
     <t>"reddit_vocab_216"</t>
+  </si>
+  <si>
+    <t>verb phrases in the progressive aspect</t>
+  </si>
+  <si>
+    <t>"vprogressive_217"</t>
+  </si>
+  <si>
+    <t>emojis (counted separately from emoticons)</t>
+  </si>
+  <si>
+    <t>"emojis_218"</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1914,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Appendix_FeatureTags" displayName="Appendix_FeatureTags" ref="A2:D85" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Appendix_FeatureTags" displayName="Appendix_FeatureTags" ref="A2:D87" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -2210,11 +2222,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3296,6 +3308,28 @@
       <c r="B85" t="s">
         <v>554</v>
       </c>
+      <c r="C85" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>557</v>
+      </c>
+      <c r="B86" t="s">
+        <v>556</v>
+      </c>
+      <c r="C86" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>559</v>
+      </c>
+      <c r="B87" t="s">
+        <v>558</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3308,11 +3342,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7223C10B-8642-4163-B1BD-0866630178C4}">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J84" sqref="J84"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="A87:B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4850,10 +4884,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>210</v>
+        <v>553</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>211</v>
+        <v>552</v>
       </c>
       <c r="H75" t="e">
         <f t="shared" si="6"/>
@@ -4870,10 +4904,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>212</v>
+        <v>551</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>213</v>
+        <v>550</v>
       </c>
       <c r="H76" t="e">
         <f t="shared" si="6"/>
@@ -4890,10 +4924,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H77" t="e">
         <f t="shared" si="6"/>
@@ -4910,10 +4944,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H78" t="e">
         <f t="shared" si="6"/>
@@ -4930,10 +4964,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>448</v>
+        <v>214</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>452</v>
+        <v>215</v>
       </c>
       <c r="H79" t="e">
         <f t="shared" si="6"/>
@@ -4950,10 +4984,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>449</v>
+        <v>216</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>453</v>
+        <v>217</v>
       </c>
       <c r="H80" t="e">
         <f t="shared" si="6"/>
@@ -4969,11 +5003,11 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>451</v>
-      </c>
-      <c r="B81" t="s">
-        <v>454</v>
+      <c r="A81" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>452</v>
       </c>
       <c r="H81" t="e">
         <f t="shared" si="6"/>
@@ -4989,11 +5023,11 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>450</v>
-      </c>
-      <c r="B82" t="s">
-        <v>455</v>
+      <c r="A82" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>453</v>
       </c>
       <c r="H82" t="e">
         <f t="shared" si="6"/>
@@ -5006,6 +5040,46 @@
       <c r="J82" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>451</v>
+      </c>
+      <c r="B83" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>450</v>
+      </c>
+      <c r="B84" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>555</v>
+      </c>
+      <c r="B85" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>557</v>
+      </c>
+      <c r="B86" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>559</v>
+      </c>
+      <c r="B87" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEE6725-C5B0-4C6C-98E5-CFB127A96DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8C7A99-4C38-4891-B388-0E20325DDE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="561">
   <si>
     <t>Feature_name</t>
   </si>
@@ -1718,6 +1718,9 @@
   </si>
   <si>
     <t>"emojis_218"</t>
+  </si>
+  <si>
+    <t>included within various POS-functions to make sure we catch all of them</t>
   </si>
 </sst>
 </file>
@@ -2226,7 +2229,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2900,7 +2903,9 @@
       <c r="B52" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>560</v>
+      </c>
       <c r="D52" s="2" t="s">
         <v>12</v>
       </c>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8C7A99-4C38-4891-B388-0E20325DDE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D289469-96A2-4FDE-97CF-231B20A7C1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="5950" windowWidth="17860" windowHeight="5150" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_precision_recall" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="561">
   <si>
     <t>Feature_name</t>
   </si>
@@ -1381,9 +1381,6 @@
     <t>You will be greeted by our delegates</t>
   </si>
   <si>
-    <t>for "rather", "else", and "altogether" we only look for them as part of the conjunct list (not separately whether they are ininital position followed by a comma as Biber does)</t>
-  </si>
-  <si>
     <t>"comparatives_syn_212"</t>
   </si>
   <si>
@@ -1721,6 +1718,9 @@
   </si>
   <si>
     <t>included within various POS-functions to make sure we catch all of them</t>
+  </si>
+  <si>
+    <t>for "rather" we only look for sentence-initial cases followed by a comma (Biber also looks for sentence-initial cases of "rather" followed by everything other than adj/adv)</t>
   </si>
 </sst>
 </file>
@@ -2228,8 +2228,8 @@
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2780,7 +2780,7 @@
         <v>127</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>128</v>
@@ -2794,7 +2794,7 @@
         <v>130</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>131</v>
@@ -2840,7 +2840,7 @@
         <v>140</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>447</v>
+        <v>560</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>141</v>
@@ -2904,7 +2904,7 @@
         <v>153</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>12</v>
@@ -3190,20 +3190,20 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3258,10 +3258,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>209</v>
@@ -3272,10 +3272,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>209</v>
@@ -3286,10 +3286,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B83" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>209</v>
@@ -3297,10 +3297,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B84" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>209</v>
@@ -3308,10 +3308,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B85" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C85" t="s">
         <v>209</v>
@@ -3319,10 +3319,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B86" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C86" t="s">
         <v>209</v>
@@ -3330,10 +3330,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B87" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -3373,19 +3373,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>545</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>546</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>3</v>
@@ -3394,7 +3394,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -3405,7 +3405,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D2">
         <v>75</v>
@@ -3440,7 +3440,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D3">
         <v>60</v>
@@ -4889,10 +4889,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H75" t="e">
         <f t="shared" si="6"/>
@@ -4909,10 +4909,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H76" t="e">
         <f t="shared" si="6"/>
@@ -5009,10 +5009,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H81" t="e">
         <f t="shared" si="6"/>
@@ -5029,10 +5029,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H82" t="e">
         <f t="shared" si="6"/>
@@ -5049,42 +5049,42 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B83" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B84" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B85" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B86" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B87" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -5145,10 +5145,10 @@
         <v>228</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -5252,7 +5252,7 @@
         <v>237</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -5281,7 +5281,7 @@
         <v>237</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
@@ -5310,7 +5310,7 @@
         <v>237</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -5339,7 +5339,7 @@
         <v>232</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F8" s="12">
         <v>1</v>
@@ -5354,7 +5354,7 @@
         <v>234</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -5371,7 +5371,7 @@
         <v>232</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F9" s="12">
         <v>1</v>
@@ -5386,7 +5386,7 @@
         <v>234</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -5418,7 +5418,7 @@
         <v>234</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -5479,7 +5479,7 @@
         <v>234</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -5511,7 +5511,7 @@
         <v>234</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -5569,7 +5569,7 @@
         <v>234</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -5577,16 +5577,16 @@
         <v>229</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>232</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F16" s="7">
         <v>1</v>
@@ -5595,13 +5595,13 @@
         <v>0</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -5609,16 +5609,16 @@
         <v>229</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>232</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F17" s="7">
         <v>1</v>
@@ -5627,10 +5627,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -5640,16 +5640,16 @@
         <v>229</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>232</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F18" s="7">
         <v>1</v>
@@ -5658,14 +5658,14 @@
         <v>0</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -5673,16 +5673,16 @@
         <v>229</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>237</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F19" s="7">
         <v>1</v>
@@ -5691,10 +5691,10 @@
         <v>0</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J19" s="7"/>
     </row>
@@ -5703,16 +5703,16 @@
         <v>229</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>232</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F20" s="7">
         <v>1</v>
@@ -5721,10 +5721,10 @@
         <v>1</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -5732,16 +5732,16 @@
         <v>229</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>237</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F21" s="7">
         <v>1</v>
@@ -5750,10 +5750,10 @@
         <v>1</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -5761,7 +5761,7 @@
         <v>229</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>246</v>
@@ -5770,7 +5770,7 @@
         <v>232</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F22" s="7">
         <v>1</v>
@@ -5779,13 +5779,13 @@
         <v>1</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -5793,7 +5793,7 @@
         <v>229</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>246</v>
@@ -5802,7 +5802,7 @@
         <v>237</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F23" s="7">
         <v>1</v>
@@ -5811,10 +5811,10 @@
         <v>1</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -5822,7 +5822,7 @@
         <v>229</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>247</v>
@@ -5831,7 +5831,7 @@
         <v>232</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F24" s="7">
         <v>1</v>
@@ -5840,10 +5840,10 @@
         <v>1</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -5851,7 +5851,7 @@
         <v>229</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>247</v>
@@ -5860,7 +5860,7 @@
         <v>237</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F25" s="7">
         <v>1</v>
@@ -5869,10 +5869,10 @@
         <v>1</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -5880,7 +5880,7 @@
         <v>229</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>248</v>
@@ -5889,7 +5889,7 @@
         <v>232</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F26" s="7">
         <v>1</v>
@@ -5898,10 +5898,10 @@
         <v>0</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -5909,7 +5909,7 @@
         <v>229</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>248</v>
@@ -5918,7 +5918,7 @@
         <v>237</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F27" s="7">
         <v>1</v>
@@ -5927,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>276</v>
@@ -5938,7 +5938,7 @@
         <v>229</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>249</v>
@@ -5947,7 +5947,7 @@
         <v>232</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F28" s="7">
         <v>1</v>
@@ -5956,10 +5956,10 @@
         <v>0</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -5967,7 +5967,7 @@
         <v>229</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>249</v>
@@ -5976,7 +5976,7 @@
         <v>237</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F29" s="7">
         <v>1</v>
@@ -5985,10 +5985,10 @@
         <v>1</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -6014,13 +6014,13 @@
         <v>0</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>253</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>253</v>
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>257</v>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>257</v>
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>276</v>
@@ -6162,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>276</v>
@@ -6173,16 +6173,16 @@
         <v>229</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>232</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F36" s="7">
         <v>1</v>
@@ -6191,13 +6191,13 @@
         <v>0</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -6205,16 +6205,16 @@
         <v>229</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>237</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F37" s="7">
         <v>1</v>
@@ -6223,13 +6223,13 @@
         <v>0</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -6237,16 +6237,16 @@
         <v>229</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>232</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F38" s="7">
         <v>1</v>
@@ -6255,13 +6255,13 @@
         <v>1</v>
       </c>
       <c r="H38" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>535</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -6269,16 +6269,16 @@
         <v>229</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>237</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F39" s="7">
         <v>1</v>
@@ -6287,13 +6287,13 @@
         <v>1</v>
       </c>
       <c r="H39" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -6301,7 +6301,7 @@
         <v>229</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>262</v>
@@ -6310,7 +6310,7 @@
         <v>232</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F40" s="7">
         <v>1</v>
@@ -6319,10 +6319,10 @@
         <v>1</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -6330,7 +6330,7 @@
         <v>229</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>262</v>
@@ -6339,7 +6339,7 @@
         <v>237</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F41" s="7">
         <v>1</v>
@@ -6348,10 +6348,10 @@
         <v>1</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -6359,16 +6359,16 @@
         <v>229</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>232</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F42" s="3">
         <v>3</v>
@@ -6377,10 +6377,10 @@
         <v>3</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
@@ -6388,16 +6388,16 @@
         <v>229</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>237</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F43" s="7">
         <v>1</v>
@@ -6406,10 +6406,10 @@
         <v>1</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
@@ -6417,7 +6417,7 @@
         <v>229</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>263</v>
@@ -6426,7 +6426,7 @@
         <v>232</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F44" s="3">
         <v>2</v>
@@ -6435,13 +6435,13 @@
         <v>1</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I44" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K44" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
@@ -6449,7 +6449,7 @@
         <v>229</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>263</v>
@@ -6458,7 +6458,7 @@
         <v>237</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F45" s="3">
         <v>1</v>
@@ -6467,10 +6467,10 @@
         <v>1</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
@@ -6478,7 +6478,7 @@
         <v>229</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>264</v>
@@ -6487,7 +6487,7 @@
         <v>232</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F46" s="3">
         <v>1</v>
@@ -6496,10 +6496,10 @@
         <v>1</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
@@ -6507,7 +6507,7 @@
         <v>229</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>264</v>
@@ -6516,7 +6516,7 @@
         <v>237</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F47" s="3">
         <v>1</v>
@@ -6525,10 +6525,10 @@
         <v>1</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
@@ -6539,7 +6539,7 @@
         <v>266</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>232</v>
@@ -6568,13 +6568,13 @@
         <v>266</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>237</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F49" s="12">
         <v>1</v>
@@ -6586,7 +6586,7 @@
         <v>276</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
@@ -6615,7 +6615,7 @@
         <v>276</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
@@ -6644,7 +6644,7 @@
         <v>276</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
@@ -6661,7 +6661,7 @@
         <v>232</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F52" s="12">
         <v>1</v>
@@ -6673,7 +6673,7 @@
         <v>276</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
@@ -6702,7 +6702,7 @@
         <v>276</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
@@ -6889,7 +6889,7 @@
         <v>273</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>232</v>
@@ -6907,7 +6907,7 @@
         <v>276</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
@@ -7013,7 +7013,7 @@
         <v>232</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F64" s="3">
         <v>1</v>
@@ -7025,7 +7025,7 @@
         <v>276</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -7054,7 +7054,7 @@
         <v>276</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -7413,7 +7413,7 @@
         <v>301</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>232</v>
@@ -7442,7 +7442,7 @@
         <v>301</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>237</v>
@@ -7489,7 +7489,7 @@
         <v>276</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
@@ -7506,7 +7506,7 @@
         <v>237</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F81" s="12">
         <v>1</v>
@@ -7608,7 +7608,7 @@
         <v>276</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
@@ -7640,7 +7640,7 @@
         <v>276</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
@@ -7701,7 +7701,7 @@
         <v>276</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
@@ -7733,7 +7733,7 @@
         <v>276</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
@@ -7750,7 +7750,7 @@
         <v>237</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F89" s="12">
         <v>1</v>
@@ -7765,10 +7765,10 @@
         <v>276</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
@@ -7800,7 +7800,7 @@
         <v>276</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
@@ -7832,7 +7832,7 @@
         <v>276</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
@@ -8093,10 +8093,10 @@
         <v>276</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K100" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
@@ -8125,7 +8125,7 @@
         <v>276</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
@@ -8154,7 +8154,7 @@
         <v>276</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
@@ -8214,7 +8214,7 @@
         <v>276</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J104" s="7"/>
     </row>
@@ -8294,7 +8294,7 @@
         <v>232</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F107" s="12">
         <v>1</v>
@@ -9210,10 +9210,10 @@
         <v>1</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I138" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
@@ -9239,10 +9239,10 @@
         <v>1</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I139" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
@@ -9268,13 +9268,13 @@
         <v>0</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I140" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
@@ -9300,10 +9300,10 @@
         <v>1</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I141" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
@@ -9329,10 +9329,10 @@
         <v>2</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I142" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
@@ -9358,10 +9358,10 @@
         <v>1</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I143" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
@@ -9387,10 +9387,10 @@
         <v>1</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I144" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
@@ -9416,10 +9416,10 @@
         <v>1</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I145" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
@@ -9801,10 +9801,10 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B159" s="14" t="s">
         <v>486</v>
-      </c>
-      <c r="B159" s="14" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
@@ -9822,7 +9822,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B161" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.35">
@@ -9840,7 +9840,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B163" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.35">
@@ -9858,7 +9858,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B165" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.35">
@@ -9876,7 +9876,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B167" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.35">
@@ -9912,7 +9912,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B171" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.35">
@@ -9930,7 +9930,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B173" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D289469-96A2-4FDE-97CF-231B20A7C1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41244EE-131D-4B93-A1A6-9F1984390D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="5950" windowWidth="17860" windowHeight="5150" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="370" yWindow="4860" windowWidth="17860" windowHeight="5150" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_precision_recall" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="564">
   <si>
     <t>Feature_name</t>
   </si>
@@ -73,9 +73,6 @@
     <t xml:space="preserve"> verbs in present perfect</t>
   </si>
   <si>
-    <t>Biber only looks for perfect aspect, we draw a finer distinction between present and past perfect. If we want to we can easily combine them later.</t>
-  </si>
-  <si>
     <t>works well</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t xml:space="preserve"> verbs in past perfect</t>
   </si>
   <si>
-    <t>Biber only looks for perfect aspect, we draw a finer distinction between present and past perfect. If we want to we can easily combine them later</t>
-  </si>
-  <si>
     <t>"vpresent_003"</t>
   </si>
   <si>
@@ -238,9 +232,6 @@
     <t xml:space="preserve"> main verb use of "be"</t>
   </si>
   <si>
-    <t>Biber also includes prepositions as items following BE, we currently don't allow that. Instead we also include nouns.</t>
-  </si>
-  <si>
     <t>this appears to catch everything it attempts to catch, but we might think about also including adverbs to the list to also count "I am really interested" etc</t>
   </si>
   <si>
@@ -415,9 +406,6 @@
     <t xml:space="preserve"> prepositions</t>
   </si>
   <si>
-    <t>we use the POS-tag,  Biber suggests a list of prepositions instead</t>
-  </si>
-  <si>
     <t>"adjattr_040"</t>
   </si>
   <si>
@@ -607,9 +595,6 @@
     <t xml:space="preserve"> split auxiliaries</t>
   </si>
   <si>
-    <t>Biber only allows for one or two intervening adverbs, we allow  for more</t>
-  </si>
-  <si>
     <t>"coordphras_064"</t>
   </si>
   <si>
@@ -1717,10 +1702,34 @@
     <t>"emojis_218"</t>
   </si>
   <si>
-    <t>included within various POS-functions to make sure we catch all of them</t>
-  </si>
-  <si>
     <t>for "rather" we only look for sentence-initial cases followed by a comma (Biber also looks for sentence-initial cases of "rather" followed by everything other than adj/adv)</t>
+  </si>
+  <si>
+    <t>included within various POS-functions to make sure we catch all of them, also added "though" to the list of discourse particles</t>
+  </si>
+  <si>
+    <t>we use the POS-tag (which includes both prepositions and subordinators, so we exclude obvious subordinators for the count of prepositions),  Biber suggests a list of prepositions instead</t>
+  </si>
+  <si>
+    <t>Biber also includes prepositions as items following BE, we currently don't allow that (since it seems to catch too many false positives). Instead we also include nouns.</t>
+  </si>
+  <si>
+    <t>Biber only allows for one or two intervening adverbs, we allow  for more. In his formula Biber gives "AUX + ADV + VB" (and VB stands for the base form of the verb). However, in his example sentence "they are objectively shown to" the verb in question is a past participle, not a base form. In our code we allow for all verb forms following aux + adv (e.g. past participles, present participles).</t>
+  </si>
+  <si>
+    <t>(not included in Biber), added to catch finite progressive verb phrases (with or without intervening adverb), e.g. I am laughing, I am really laughing.</t>
+  </si>
+  <si>
+    <t>(not included in Biber). We currently count base forms as imperatives when they are sentence-initial or when they are preceded by a comma. This is not ideal, but a start.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(not included in Biber), keywords generated by comparing raw Reddit texts from 2013 to Frown corpus, and taken from Mahler (2020) </t>
+  </si>
+  <si>
+    <t>Biber only looks for perfect aspect, we draw a finer distinction between present and past perfect. If we want to we can easily combine them later. Coordinated perfect verb phrases are only counted once (e.g. "has considered, debated, but ultimately rejected a different search strategy")</t>
+  </si>
+  <si>
+    <t>Biber only looks for perfect aspect, we draw a finer distinction between present and past perfect. If we want to we can easily combine them later. Coordinated perfect verb phrases are only counted once (e.g. "has considered, debated, but ultimately rejected a different search strategy"). We currently do not count cases that include 's (for "has") since there is no reliable way to distinguish them from "is" (unless we lemmatize)</t>
   </si>
 </sst>
 </file>
@@ -2228,8 +2237,8 @@
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2278,161 +2287,161 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>562</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>8</v>
@@ -2440,173 +2449,173 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>8</v>
@@ -2614,62 +2623,62 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
@@ -2678,10 +2687,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
@@ -2690,13 +2699,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>8</v>
@@ -2704,10 +2713,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
@@ -2716,263 +2725,263 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>556</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>8</v>
@@ -2980,13 +2989,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>8</v>
@@ -2994,13 +3003,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>8</v>
@@ -3008,181 +3017,181 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>189</v>
+        <v>558</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>209</v>
+        <v>560</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>8</v>
@@ -3190,150 +3199,150 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D77" s="2"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D80" s="2"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B83" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>444</v>
+      </c>
+      <c r="B84" t="s">
         <v>449</v>
       </c>
-      <c r="B84" t="s">
-        <v>454</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B85" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C85" t="s">
-        <v>209</v>
+        <v>561</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B86" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C86" t="s">
-        <v>209</v>
+        <v>559</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B87" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -3373,19 +3382,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>3</v>
@@ -3394,7 +3403,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -3405,7 +3414,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D2">
         <v>75</v>
@@ -3440,7 +3449,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D3">
         <v>60</v>
@@ -3469,10 +3478,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="H4" t="e">
         <f t="shared" ref="H4:H8" si="0">D4/(D4+F4)</f>
@@ -3489,10 +3498,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5" t="e">
         <f t="shared" si="0"/>
@@ -3509,10 +3518,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" t="e">
         <f t="shared" si="0"/>
@@ -3529,10 +3538,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H7" t="e">
         <f t="shared" si="0"/>
@@ -3549,10 +3558,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H8" t="e">
         <f t="shared" si="0"/>
@@ -3569,10 +3578,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9" t="e">
         <f t="shared" ref="H9:H72" si="3">D9/(D9+F9)</f>
@@ -3589,10 +3598,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10" t="e">
         <f t="shared" si="3"/>
@@ -3609,10 +3618,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" t="e">
         <f t="shared" si="3"/>
@@ -3629,10 +3638,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H12" t="e">
         <f t="shared" si="3"/>
@@ -3649,10 +3658,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H13" t="e">
         <f t="shared" si="3"/>
@@ -3669,10 +3678,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H14" t="e">
         <f t="shared" si="3"/>
@@ -3689,10 +3698,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H15" t="e">
         <f t="shared" si="3"/>
@@ -3709,10 +3718,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H16" t="e">
         <f t="shared" si="3"/>
@@ -3729,10 +3738,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H17" t="e">
         <f t="shared" si="3"/>
@@ -3749,10 +3758,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H18" t="e">
         <f t="shared" si="3"/>
@@ -3769,10 +3778,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H19" t="e">
         <f t="shared" si="3"/>
@@ -3789,10 +3798,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H20" t="e">
         <f t="shared" si="3"/>
@@ -3809,10 +3818,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H21" t="e">
         <f t="shared" si="3"/>
@@ -3829,10 +3838,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H22" t="e">
         <f t="shared" si="3"/>
@@ -3849,10 +3858,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H23" t="e">
         <f t="shared" si="3"/>
@@ -3869,10 +3878,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H24" t="e">
         <f t="shared" si="3"/>
@@ -3889,10 +3898,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H25" t="e">
         <f t="shared" si="3"/>
@@ -3909,10 +3918,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H26" t="e">
         <f t="shared" si="3"/>
@@ -3929,10 +3938,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H27" t="e">
         <f t="shared" si="3"/>
@@ -3949,10 +3958,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H28" t="e">
         <f t="shared" si="3"/>
@@ -3969,10 +3978,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H29" t="e">
         <f t="shared" si="3"/>
@@ -3989,10 +3998,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H30" t="e">
         <f t="shared" si="3"/>
@@ -4009,10 +4018,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H31" t="e">
         <f t="shared" si="3"/>
@@ -4029,10 +4038,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H32" t="e">
         <f t="shared" si="3"/>
@@ -4049,10 +4058,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H33" t="e">
         <f t="shared" si="3"/>
@@ -4069,10 +4078,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H34" t="e">
         <f t="shared" si="3"/>
@@ -4089,10 +4098,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H35" t="e">
         <f t="shared" si="3"/>
@@ -4109,10 +4118,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H36" t="e">
         <f t="shared" si="3"/>
@@ -4129,10 +4138,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H37" t="e">
         <f t="shared" si="3"/>
@@ -4149,10 +4158,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H38" t="e">
         <f t="shared" si="3"/>
@@ -4169,10 +4178,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H39" t="e">
         <f t="shared" si="3"/>
@@ -4189,10 +4198,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H40" t="e">
         <f t="shared" si="3"/>
@@ -4209,10 +4218,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H41" t="e">
         <f t="shared" si="3"/>
@@ -4229,10 +4238,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H42" t="e">
         <f t="shared" si="3"/>
@@ -4249,10 +4258,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H43" t="e">
         <f t="shared" si="3"/>
@@ -4269,10 +4278,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H44" t="e">
         <f t="shared" si="3"/>
@@ -4289,10 +4298,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H45" t="e">
         <f t="shared" si="3"/>
@@ -4309,10 +4318,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H46" t="e">
         <f t="shared" si="3"/>
@@ -4329,10 +4338,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H47" t="e">
         <f t="shared" si="3"/>
@@ -4349,10 +4358,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H48" t="e">
         <f t="shared" si="3"/>
@@ -4369,10 +4378,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H49" t="e">
         <f t="shared" si="3"/>
@@ -4389,10 +4398,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H50" t="e">
         <f t="shared" si="3"/>
@@ -4409,10 +4418,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H51" t="e">
         <f t="shared" si="3"/>
@@ -4429,10 +4438,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H52" t="e">
         <f t="shared" si="3"/>
@@ -4449,10 +4458,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H53" t="e">
         <f t="shared" si="3"/>
@@ -4469,10 +4478,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H54" t="e">
         <f t="shared" si="3"/>
@@ -4489,10 +4498,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H55" t="e">
         <f t="shared" si="3"/>
@@ -4509,10 +4518,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H56" t="e">
         <f t="shared" si="3"/>
@@ -4529,10 +4538,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H57" t="e">
         <f t="shared" si="3"/>
@@ -4549,10 +4558,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H58" t="e">
         <f t="shared" si="3"/>
@@ -4569,10 +4578,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H59" t="e">
         <f t="shared" si="3"/>
@@ -4589,10 +4598,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H60" t="e">
         <f t="shared" si="3"/>
@@ -4609,10 +4618,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H61" t="e">
         <f t="shared" si="3"/>
@@ -4629,10 +4638,10 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H62" t="e">
         <f t="shared" si="3"/>
@@ -4649,10 +4658,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H63" t="e">
         <f t="shared" si="3"/>
@@ -4669,10 +4678,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H64" t="e">
         <f t="shared" si="3"/>
@@ -4689,10 +4698,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H65" t="e">
         <f t="shared" si="3"/>
@@ -4709,10 +4718,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H66" t="e">
         <f t="shared" si="3"/>
@@ -4729,10 +4738,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H67" t="e">
         <f t="shared" si="3"/>
@@ -4749,10 +4758,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H68" t="e">
         <f t="shared" si="3"/>
@@ -4769,10 +4778,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H69" t="e">
         <f t="shared" si="3"/>
@@ -4789,10 +4798,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H70" t="e">
         <f t="shared" si="3"/>
@@ -4809,10 +4818,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H71" t="e">
         <f t="shared" si="3"/>
@@ -4829,10 +4838,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H72" t="e">
         <f t="shared" si="3"/>
@@ -4849,10 +4858,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H73" t="e">
         <f t="shared" ref="H73:H82" si="6">D73/(D73+F73)</f>
@@ -4869,10 +4878,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H74" t="e">
         <f t="shared" si="6"/>
@@ -4889,10 +4898,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H75" t="e">
         <f t="shared" si="6"/>
@@ -4909,10 +4918,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="H76" t="e">
         <f t="shared" si="6"/>
@@ -4929,10 +4938,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H77" t="e">
         <f t="shared" si="6"/>
@@ -4949,10 +4958,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H78" t="e">
         <f t="shared" si="6"/>
@@ -4969,10 +4978,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H79" t="e">
         <f t="shared" si="6"/>
@@ -4989,10 +4998,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H80" t="e">
         <f t="shared" si="6"/>
@@ -5009,10 +5018,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="H81" t="e">
         <f t="shared" si="6"/>
@@ -5029,10 +5038,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="H82" t="e">
         <f t="shared" si="6"/>
@@ -5049,42 +5058,42 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B83" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>444</v>
+      </c>
+      <c r="B84" t="s">
         <v>449</v>
-      </c>
-      <c r="B84" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B85" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B86" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B87" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -5118,54 +5127,54 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>228</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F2" s="3">
         <v>2</v>
@@ -5174,56 +5183,56 @@
         <v>2</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10">
-        <v>1</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>234</v>
-      </c>
       <c r="I3" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
@@ -5232,56 +5241,56 @@
         <v>2</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>234</v>
-      </c>
       <c r="I5" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
@@ -5290,56 +5299,56 @@
         <v>2</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>234</v>
-      </c>
       <c r="I7" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F8" s="12">
         <v>1</v>
@@ -5348,30 +5357,30 @@
         <v>0</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="F9" s="12">
         <v>1</v>
@@ -5380,30 +5389,30 @@
         <v>0</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F10" s="12">
         <v>1</v>
@@ -5412,30 +5421,30 @@
         <v>0</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F11" s="12">
         <v>1</v>
@@ -5444,27 +5453,27 @@
         <v>0</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>237</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>242</v>
       </c>
       <c r="F12" s="12">
         <v>1</v>
@@ -5473,30 +5482,30 @@
         <v>0</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>238</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>243</v>
       </c>
       <c r="F13" s="12">
         <v>1</v>
@@ -5505,59 +5514,59 @@
         <v>0</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="F14" s="12">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>234</v>
-      </c>
       <c r="I14" s="12" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -5566,27 +5575,27 @@
         <v>0</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F16" s="7">
         <v>1</v>
@@ -5595,30 +5604,30 @@
         <v>0</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F17" s="7">
         <v>1</v>
@@ -5627,29 +5636,29 @@
         <v>0</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F18" s="7">
         <v>1</v>
@@ -5658,31 +5667,31 @@
         <v>0</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F19" s="7">
         <v>1</v>
@@ -5691,28 +5700,28 @@
         <v>0</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F20" s="7">
         <v>1</v>
@@ -5721,27 +5730,27 @@
         <v>1</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F21" s="7">
         <v>1</v>
@@ -5750,27 +5759,27 @@
         <v>1</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F22" s="7">
         <v>1</v>
@@ -5779,30 +5788,30 @@
         <v>1</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="I22" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F23" s="7">
         <v>1</v>
@@ -5811,27 +5820,27 @@
         <v>1</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F24" s="7">
         <v>1</v>
@@ -5840,27 +5849,27 @@
         <v>1</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F25" s="7">
         <v>1</v>
@@ -5869,27 +5878,27 @@
         <v>1</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F26" s="7">
         <v>1</v>
@@ -5898,27 +5907,27 @@
         <v>0</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F27" s="7">
         <v>1</v>
@@ -5927,27 +5936,27 @@
         <v>0</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F28" s="7">
         <v>1</v>
@@ -5956,27 +5965,27 @@
         <v>0</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="F29" s="7">
         <v>1</v>
@@ -5985,27 +5994,27 @@
         <v>1</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
@@ -6014,30 +6023,30 @@
         <v>0</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
@@ -6046,27 +6055,27 @@
         <v>0</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>255</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
@@ -6075,27 +6084,27 @@
         <v>0</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>255</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F33" s="3">
         <v>1</v>
@@ -6104,27 +6113,27 @@
         <v>0</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
@@ -6133,27 +6142,27 @@
         <v>0</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F35" s="7">
         <v>1</v>
@@ -6162,27 +6171,27 @@
         <v>0</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F36" s="7">
         <v>1</v>
@@ -6191,30 +6200,30 @@
         <v>0</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="I36" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>532</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F37" s="7">
         <v>1</v>
@@ -6223,30 +6232,30 @@
         <v>0</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F38" s="7">
         <v>1</v>
@@ -6255,30 +6264,30 @@
         <v>1</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F39" s="7">
         <v>1</v>
@@ -6287,30 +6296,30 @@
         <v>1</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F40" s="7">
         <v>1</v>
@@ -6319,27 +6328,27 @@
         <v>1</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F41" s="7">
         <v>1</v>
@@ -6348,27 +6357,27 @@
         <v>1</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F42" s="3">
         <v>3</v>
@@ -6377,27 +6386,27 @@
         <v>3</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F43" s="7">
         <v>1</v>
@@ -6406,27 +6415,27 @@
         <v>1</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F44" s="3">
         <v>2</v>
@@ -6435,30 +6444,30 @@
         <v>1</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="F45" s="3">
         <v>1</v>
@@ -6467,27 +6476,27 @@
         <v>1</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F46" s="3">
         <v>1</v>
@@ -6496,27 +6505,27 @@
         <v>1</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F47" s="3">
         <v>1</v>
@@ -6525,27 +6534,27 @@
         <v>1</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F48" s="12">
         <v>1</v>
@@ -6554,27 +6563,27 @@
         <v>1</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F49" s="12">
         <v>1</v>
@@ -6583,27 +6592,27 @@
         <v>0</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F50" s="12">
         <v>1</v>
@@ -6612,27 +6621,27 @@
         <v>0</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="F51" s="12">
         <v>1</v>
@@ -6641,27 +6650,27 @@
         <v>0</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="D52" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F52" s="12">
         <v>1</v>
@@ -6670,27 +6679,27 @@
         <v>0</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="D53" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F53" s="12">
         <v>1</v>
@@ -6699,27 +6708,27 @@
         <v>0</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F54" s="3">
         <v>2</v>
@@ -6728,27 +6737,27 @@
         <v>2</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F55" s="3">
         <v>1</v>
@@ -6757,27 +6766,27 @@
         <v>1</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>278</v>
-      </c>
       <c r="D56" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F56" s="3">
         <v>1</v>
@@ -6786,27 +6795,27 @@
         <v>1</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>278</v>
-      </c>
       <c r="D57" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F57" s="3">
         <v>1</v>
@@ -6815,27 +6824,27 @@
         <v>0</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>278</v>
-      </c>
       <c r="D58" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F58" s="3">
         <v>1</v>
@@ -6844,27 +6853,27 @@
         <v>1</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F59" s="7">
         <v>1</v>
@@ -6873,29 +6882,29 @@
         <v>1</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F60" s="7">
         <v>1</v>
@@ -6904,29 +6913,29 @@
         <v>0</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>278</v>
-      </c>
       <c r="D61" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F61" s="3">
         <v>1</v>
@@ -6935,27 +6944,27 @@
         <v>1</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F62" s="3">
         <v>1</v>
@@ -6964,27 +6973,27 @@
         <v>1</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F63" s="3">
         <v>1</v>
@@ -6993,27 +7002,27 @@
         <v>1</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F64" s="3">
         <v>1</v>
@@ -7022,27 +7031,27 @@
         <v>0</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F65" s="7">
         <v>1</v>
@@ -7051,27 +7060,27 @@
         <v>0</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F66" s="7">
         <v>1</v>
@@ -7080,27 +7089,27 @@
         <v>1</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F67" s="7">
         <v>1</v>
@@ -7109,28 +7118,28 @@
         <v>1</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B68" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>293</v>
-      </c>
       <c r="F68" s="7">
         <v>1</v>
       </c>
@@ -7138,27 +7147,27 @@
         <v>1</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F69" s="7">
         <v>1</v>
@@ -7167,27 +7176,27 @@
         <v>1</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F70" s="7">
         <v>1</v>
@@ -7196,27 +7205,27 @@
         <v>1</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F71" s="7">
         <v>1</v>
@@ -7225,27 +7234,27 @@
         <v>1</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F72" s="7">
         <v>1</v>
@@ -7254,27 +7263,27 @@
         <v>1</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F73" s="7">
         <v>1</v>
@@ -7283,27 +7292,27 @@
         <v>1</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F74" s="3">
         <v>1</v>
@@ -7312,27 +7321,27 @@
         <v>1</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F75" s="3">
         <v>1</v>
@@ -7341,28 +7350,28 @@
         <v>1</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B76" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>306</v>
-      </c>
       <c r="F76" s="3">
         <v>1</v>
       </c>
@@ -7370,27 +7379,27 @@
         <v>1</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F77" s="3">
         <v>1</v>
@@ -7399,27 +7408,27 @@
         <v>1</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F78" s="3">
         <v>1</v>
@@ -7428,27 +7437,27 @@
         <v>1</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F79" s="3">
         <v>1</v>
@@ -7457,27 +7466,27 @@
         <v>1</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F80" s="3">
         <v>1</v>
@@ -7486,27 +7495,27 @@
         <v>1</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F81" s="12">
         <v>1</v>
@@ -7515,27 +7524,27 @@
         <v>1</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F82" s="12">
         <v>1</v>
@@ -7544,27 +7553,27 @@
         <v>1</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F83" s="12">
         <v>1</v>
@@ -7573,27 +7582,27 @@
         <v>1</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F84" s="12">
         <v>1</v>
@@ -7602,30 +7611,30 @@
         <v>0</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F85" s="12">
         <v>1</v>
@@ -7634,30 +7643,30 @@
         <v>0</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B86" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E86" s="12" t="s">
         <v>315</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>320</v>
       </c>
       <c r="F86" s="12">
         <v>1</v>
@@ -7666,27 +7675,27 @@
         <v>0</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F87" s="12">
         <v>1</v>
@@ -7695,30 +7704,30 @@
         <v>0</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F88" s="12">
         <v>1</v>
@@ -7727,30 +7736,30 @@
         <v>0</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F89" s="12">
         <v>1</v>
@@ -7759,33 +7768,33 @@
         <v>0</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F90" s="12">
         <v>1</v>
@@ -7794,30 +7803,30 @@
         <v>0</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F91" s="12">
         <v>1</v>
@@ -7826,30 +7835,30 @@
         <v>0</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F92" s="12">
         <v>1</v>
@@ -7858,27 +7867,27 @@
         <v>1</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F93" s="12">
         <v>1</v>
@@ -7887,28 +7896,28 @@
         <v>1</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B94" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E94" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>332</v>
-      </c>
       <c r="F94" s="12">
         <v>1</v>
       </c>
@@ -7916,27 +7925,27 @@
         <v>1</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F95" s="3">
         <v>1</v>
@@ -7945,27 +7954,27 @@
         <v>1</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
@@ -7974,27 +7983,27 @@
         <v>1</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F97" s="3">
         <v>1</v>
@@ -8003,27 +8012,27 @@
         <v>1</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
@@ -8032,27 +8041,27 @@
         <v>0</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F99" s="3">
         <v>1</v>
@@ -8061,27 +8070,27 @@
         <v>1</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
@@ -8090,30 +8099,30 @@
         <v>1</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="K100" s="13" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F101" s="12">
         <v>1</v>
@@ -8122,27 +8131,27 @@
         <v>1</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B102" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>345</v>
-      </c>
       <c r="D102" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F102" s="12">
         <v>1</v>
@@ -8151,27 +8160,27 @@
         <v>1</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F103" s="12">
         <v>1</v>
@@ -8180,29 +8189,29 @@
         <v>1</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J103" s="7"/>
       <c r="K103" s="9"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F104" s="12">
         <v>1</v>
@@ -8211,28 +8220,28 @@
         <v>1</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="J104" s="7"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F105" s="12">
         <v>1</v>
@@ -8241,30 +8250,30 @@
         <v>1</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J105" s="7"/>
       <c r="K105" s="9"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C106" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E106" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E106" s="15" t="s">
-        <v>352</v>
-      </c>
       <c r="F106" s="12">
         <v>1</v>
       </c>
@@ -8272,29 +8281,29 @@
         <v>1</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J106" s="7"/>
       <c r="K106" s="9"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B107" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>345</v>
-      </c>
       <c r="D107" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F107" s="12">
         <v>1</v>
@@ -8303,29 +8312,29 @@
         <v>1</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J107" s="7"/>
       <c r="K107" s="9"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F108" s="12">
         <v>1</v>
@@ -8334,29 +8343,29 @@
         <v>1</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F109" s="12">
         <v>1</v>
@@ -8365,29 +8374,29 @@
         <v>1</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
@@ -8396,29 +8405,29 @@
         <v>1</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F111" s="3">
         <v>1</v>
@@ -8427,27 +8436,27 @@
         <v>1</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
@@ -8456,27 +8465,27 @@
         <v>1</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F113" s="3">
         <v>1</v>
@@ -8485,27 +8494,27 @@
         <v>1</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F114" s="3">
         <v>0</v>
@@ -8514,28 +8523,28 @@
         <v>0</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="D115" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E115" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="C115" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>365</v>
-      </c>
       <c r="F115" s="3">
         <v>1</v>
       </c>
@@ -8543,27 +8552,27 @@
         <v>1</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -8572,27 +8581,27 @@
         <v>1</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F117" s="3">
         <v>0</v>
@@ -8601,27 +8610,27 @@
         <v>0</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
@@ -8630,27 +8639,27 @@
         <v>1</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F119" s="3">
         <v>1</v>
@@ -8659,27 +8668,27 @@
         <v>1</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F120" s="3">
         <v>1</v>
@@ -8688,27 +8697,27 @@
         <v>1</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F121" s="3">
         <v>0</v>
@@ -8717,28 +8726,28 @@
         <v>0</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E122" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>380</v>
-      </c>
       <c r="F122" s="3">
         <v>1</v>
       </c>
@@ -8746,27 +8755,27 @@
         <v>1</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F123" s="3">
         <v>1</v>
@@ -8775,27 +8784,27 @@
         <v>1</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F124" s="3">
         <v>0</v>
@@ -8804,27 +8813,27 @@
         <v>0</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F125" s="3">
         <v>0</v>
@@ -8833,27 +8842,27 @@
         <v>0</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -8862,27 +8871,27 @@
         <v>1</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F127" s="3">
         <v>1</v>
@@ -8891,28 +8900,28 @@
         <v>1</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E128" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>394</v>
-      </c>
       <c r="F128" s="3">
         <v>1</v>
       </c>
@@ -8920,27 +8929,27 @@
         <v>1</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F129" s="3">
         <v>1</v>
@@ -8949,27 +8958,27 @@
         <v>1</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F130" s="3">
         <v>0</v>
@@ -8978,27 +8987,27 @@
         <v>0</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F131" s="3">
         <v>1</v>
@@ -9007,27 +9016,27 @@
         <v>1</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
@@ -9036,27 +9045,27 @@
         <v>1</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F133" s="3">
         <v>1</v>
@@ -9065,27 +9074,27 @@
         <v>1</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F134" s="3">
         <v>1</v>
@@ -9094,27 +9103,27 @@
         <v>1</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F135" s="3">
         <v>2</v>
@@ -9123,27 +9132,27 @@
         <v>2</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F136" s="3">
         <v>0</v>
@@ -9152,27 +9161,27 @@
         <v>0</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F137" s="3">
         <v>1</v>
@@ -9181,27 +9190,27 @@
         <v>1</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F138" s="3">
         <v>1</v>
@@ -9210,27 +9219,27 @@
         <v>1</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="I138" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F139" s="3">
         <v>1</v>
@@ -9239,27 +9248,27 @@
         <v>1</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="I139" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>412</v>
-      </c>
       <c r="D140" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F140" s="3">
         <v>1</v>
@@ -9268,30 +9277,30 @@
         <v>0</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="I140" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F141" s="3">
         <v>1</v>
@@ -9300,27 +9309,27 @@
         <v>1</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="I141" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F142" s="3">
         <v>2</v>
@@ -9329,27 +9338,27 @@
         <v>2</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="I142" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F143" s="3">
         <v>1</v>
@@ -9358,27 +9367,27 @@
         <v>1</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="I143" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F144" s="3">
         <v>1</v>
@@ -9387,27 +9396,27 @@
         <v>1</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="I144" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F145" s="3">
         <v>1</v>
@@ -9416,27 +9425,27 @@
         <v>1</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="I145" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F146" s="3">
         <v>1</v>
@@ -9445,27 +9454,27 @@
         <v>1</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F147" s="3">
         <v>1</v>
@@ -9474,27 +9483,27 @@
         <v>1</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C148" s="3" t="s">
-        <v>427</v>
-      </c>
       <c r="D148" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F148" s="3">
         <v>1</v>
@@ -9503,27 +9512,27 @@
         <v>1</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F149" s="3">
         <v>1</v>
@@ -9532,27 +9541,27 @@
         <v>1</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F150" s="3">
         <v>1</v>
@@ -9561,27 +9570,27 @@
         <v>1</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F151" s="3">
         <v>1</v>
@@ -9590,27 +9599,27 @@
         <v>1</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F152" s="3">
         <v>1</v>
@@ -9619,27 +9628,27 @@
         <v>1</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F153" s="3">
         <v>1</v>
@@ -9648,27 +9657,27 @@
         <v>1</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
@@ -9677,27 +9686,27 @@
         <v>1</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F155" s="3">
         <v>1</v>
@@ -9706,27 +9715,27 @@
         <v>1</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B156" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>441</v>
-      </c>
       <c r="D156" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F156" s="3">
         <v>1</v>
@@ -9735,27 +9744,27 @@
         <v>1</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F157" s="3">
         <v>1</v>
@@ -9764,27 +9773,27 @@
         <v>1</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F158" s="3">
         <v>1</v>
@@ -9793,18 +9802,18 @@
         <v>1</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
@@ -9822,7 +9831,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B161" s="3" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.35">
@@ -9840,7 +9849,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B163" s="3" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.35">
@@ -9858,7 +9867,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B165" s="3" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.35">
@@ -9876,7 +9885,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B167" s="3" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.35">
@@ -9894,7 +9903,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B169" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.35">
@@ -9912,7 +9921,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B171" s="3" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.35">
@@ -9930,7 +9939,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B173" s="3" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41244EE-131D-4B93-A1A6-9F1984390D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44CD973-77C9-4761-A8AF-2AF56D9AD02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="370" yWindow="4860" windowWidth="17860" windowHeight="5150" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_precision_recall" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="564">
   <si>
     <t>Feature_name</t>
   </si>
@@ -2236,8 +2236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3358,9 +3358,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7223C10B-8642-4163-B1BD-0866630178C4}">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A87" sqref="A87:B87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3803,17 +3803,23 @@
       <c r="B20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H20" t="e">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>99</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" t="e">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" t="e">
+        <v>1</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -4603,17 +4609,23 @@
       <c r="B60" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H60" t="e">
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>95</v>
+      </c>
+      <c r="H60">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I60" t="e">
+        <v>1</v>
+      </c>
+      <c r="I60">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J60" t="e">
+        <v>1</v>
+      </c>
+      <c r="J60">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
@@ -4802,6 +4814,15 @@
       </c>
       <c r="B70" s="2" t="s">
         <v>195</v>
+      </c>
+      <c r="C70" t="s">
+        <v>542</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>100</v>
       </c>
       <c r="H70" t="e">
         <f t="shared" si="3"/>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44CD973-77C9-4761-A8AF-2AF56D9AD02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D0C762-867C-4174-BDA2-0BFD2624BEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="563">
   <si>
     <t>Feature_name</t>
   </si>
@@ -1667,9 +1667,6 @@
   </si>
   <si>
     <t>HM</t>
-  </si>
-  <si>
-    <t>RT</t>
   </si>
   <si>
     <t>emoticons</t>
@@ -2287,7 +2284,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -2301,7 +2298,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -2521,7 +2518,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>64</v>
@@ -2777,7 +2774,7 @@
         <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D41" s="2"/>
     </row>
@@ -2849,7 +2846,7 @@
         <v>136</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>137</v>
@@ -2913,7 +2910,7 @@
         <v>149</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>11</v>
@@ -3089,7 +3086,7 @@
         <v>184</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>11</v>
@@ -3191,7 +3188,7 @@
         <v>203</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>8</v>
@@ -3199,20 +3196,20 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3317,32 +3314,32 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B85" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C85" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B86" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C86" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B87" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -3359,8 +3356,8 @@
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3416,29 +3413,17 @@
       <c r="C2" t="s">
         <v>542</v>
       </c>
-      <c r="D2">
-        <v>75</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
+      <c r="H2" t="e">
         <f>D2/(D2+F2)</f>
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="I2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I2" t="e">
         <f>D2/(D2+G2)</f>
-        <v>0.9375</v>
-      </c>
-      <c r="J2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J2" t="e">
         <f>2*((H2*I2)/(H2+I2))</f>
-        <v>0.90909090909090906</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -3448,32 +3433,17 @@
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>543</v>
-      </c>
-      <c r="D3">
-        <v>60</v>
-      </c>
-      <c r="E3">
-        <v>30</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
+      <c r="H3" t="e">
         <f>D3/(D3+F3)</f>
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="I3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I3" t="e">
         <f>D3/(D3+G3)</f>
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="J3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3" t="e">
         <f>2*((H3*I3)/(H3+I3))</f>
-        <v>0.92307692307692313</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -3803,23 +3773,17 @@
       <c r="B20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>99</v>
-      </c>
-      <c r="H20">
+      <c r="H20" t="e">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I20">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" t="e">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J20">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" t="e">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -4609,23 +4573,17 @@
       <c r="B60" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D60">
-        <v>5</v>
-      </c>
-      <c r="E60">
-        <v>95</v>
-      </c>
-      <c r="H60">
+      <c r="H60" t="e">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I60">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I60" t="e">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J60">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J60" t="e">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
@@ -4815,15 +4773,6 @@
       <c r="B70" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C70" t="s">
-        <v>542</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>100</v>
-      </c>
       <c r="H70" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4919,10 +4868,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H75" t="e">
         <f t="shared" si="6"/>
@@ -4939,10 +4888,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H76" t="e">
         <f t="shared" si="6"/>
@@ -5095,26 +5044,26 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B85" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B86" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B87" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D0C762-867C-4174-BDA2-0BFD2624BEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63B8A74-8113-4D29-95E9-CF90E2133EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8750" yWindow="60" windowWidth="10320" windowHeight="9860" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_precision_recall" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="563">
   <si>
     <t>Feature_name</t>
   </si>
@@ -3356,8 +3356,8 @@
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3433,6 +3433,9 @@
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C3" t="s">
+        <v>542</v>
+      </c>
       <c r="H3" t="e">
         <f>D3/(D3+F3)</f>
         <v>#DIV/0!</v>
@@ -3533,6 +3536,9 @@
       <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="C8" t="s">
+        <v>542</v>
+      </c>
       <c r="H8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3553,6 +3559,9 @@
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C9" t="s">
+        <v>542</v>
+      </c>
       <c r="H9" t="e">
         <f t="shared" ref="H9:H72" si="3">D9/(D9+F9)</f>
         <v>#DIV/0!</v>
@@ -3813,6 +3822,9 @@
       <c r="B22" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="C22" t="s">
+        <v>542</v>
+      </c>
       <c r="H22" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4792,6 +4804,9 @@
       </c>
       <c r="B71" s="2" t="s">
         <v>197</v>
+      </c>
+      <c r="C71" t="s">
+        <v>542</v>
       </c>
       <c r="H71" t="e">
         <f t="shared" si="3"/>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63B8A74-8113-4D29-95E9-CF90E2133EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B1D151-BA4D-4160-AE6A-996C089C36A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8750" yWindow="60" windowWidth="10320" windowHeight="9860" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="563">
   <si>
     <t>Feature_name</t>
   </si>
@@ -3356,8 +3356,8 @@
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3582,6 +3582,9 @@
       <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="C10" t="s">
+        <v>542</v>
+      </c>
       <c r="H10" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -3601,6 +3604,9 @@
       </c>
       <c r="B11" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>542</v>
       </c>
       <c r="H11" t="e">
         <f t="shared" si="3"/>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B1D151-BA4D-4160-AE6A-996C089C36A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C697E04-F138-4609-BAFF-67E8CE527F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8750" yWindow="60" windowWidth="10320" windowHeight="9860" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="563">
   <si>
     <t>Feature_name</t>
   </si>
@@ -3357,7 +3357,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4791,6 +4791,9 @@
       <c r="B70" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="C70" t="s">
+        <v>542</v>
+      </c>
       <c r="H70" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4934,6 +4937,9 @@
       <c r="B77" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="C77" t="s">
+        <v>542</v>
+      </c>
       <c r="H77" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -4953,6 +4959,9 @@
       </c>
       <c r="B78" s="2" t="s">
         <v>208</v>
+      </c>
+      <c r="C78" t="s">
+        <v>542</v>
       </c>
       <c r="H78" t="e">
         <f t="shared" si="6"/>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ratos\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C697E04-F138-4609-BAFF-67E8CE527F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D8A9C9-0BC2-48DE-A8C9-5CD981EE17C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8750" yWindow="60" windowWidth="10320" windowHeight="9860" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_precision_recall" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="564">
   <si>
     <t>Feature_name</t>
   </si>
@@ -1727,6 +1725,9 @@
   </si>
   <si>
     <t>Biber only looks for perfect aspect, we draw a finer distinction between present and past perfect. If we want to we can easily combine them later. Coordinated perfect verb phrases are only counted once (e.g. "has considered, debated, but ultimately rejected a different search strategy"). We currently do not count cases that include 's (for "has") since there is no reliable way to distinguish them from "is" (unless we lemmatize)</t>
+  </si>
+  <si>
+    <t>RT</t>
   </si>
 </sst>
 </file>
@@ -1839,7 +1840,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1935,7 +1936,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2238,14 +2239,14 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="32.453125" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.796875" customWidth="1"/>
+    <col min="2" max="2" width="32.46484375" customWidth="1"/>
+    <col min="3" max="3" width="23.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2262,7 +2263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2276,7 +2277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2290,7 +2291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2304,7 +2305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2318,7 +2319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -2332,7 +2333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2346,7 +2347,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2358,7 +2359,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -2370,7 +2371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -2382,7 +2383,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -2394,7 +2395,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -2416,7 +2417,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -2430,7 +2431,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2444,7 +2445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2456,7 +2457,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2470,7 +2471,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -2482,7 +2483,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -2510,7 +2511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2539,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -2550,7 +2551,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -2562,7 +2563,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
@@ -2590,7 +2591,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
@@ -2604,7 +2605,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -2618,7 +2619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -2646,7 +2647,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
@@ -2658,7 +2659,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>98</v>
       </c>
@@ -2670,7 +2671,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -2682,7 +2683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>102</v>
       </c>
@@ -2694,7 +2695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -2708,7 +2709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>107</v>
       </c>
@@ -2720,7 +2721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -2732,7 +2733,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -2744,7 +2745,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
@@ -2754,7 +2755,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>117</v>
       </c>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>120</v>
       </c>
@@ -2778,7 +2779,7 @@
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>122</v>
       </c>
@@ -2792,7 +2793,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>125</v>
       </c>
@@ -2806,7 +2807,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>128</v>
       </c>
@@ -2818,7 +2819,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>131</v>
       </c>
@@ -2828,7 +2829,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>133</v>
       </c>
@@ -2838,7 +2839,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>135</v>
       </c>
@@ -2852,7 +2853,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>138</v>
       </c>
@@ -2866,7 +2867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>141</v>
       </c>
@@ -2876,7 +2877,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>143</v>
       </c>
@@ -2888,7 +2889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>145</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>148</v>
       </c>
@@ -2916,7 +2917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>150</v>
       </c>
@@ -2930,7 +2931,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>153</v>
       </c>
@@ -2944,7 +2945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>156</v>
       </c>
@@ -2958,7 +2959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>159</v>
       </c>
@@ -2970,7 +2971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>161</v>
       </c>
@@ -2984,7 +2985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>163</v>
       </c>
@@ -2998,7 +2999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>165</v>
       </c>
@@ -3012,7 +3013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>167</v>
       </c>
@@ -3024,7 +3025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>169</v>
       </c>
@@ -3038,7 +3039,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>173</v>
       </c>
@@ -3052,7 +3053,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>177</v>
       </c>
@@ -3064,7 +3065,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>179</v>
       </c>
@@ -3078,7 +3079,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>183</v>
       </c>
@@ -3092,7 +3093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>185</v>
       </c>
@@ -3104,7 +3105,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>187</v>
       </c>
@@ -3116,7 +3117,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>190</v>
       </c>
@@ -3128,7 +3129,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>192</v>
       </c>
@@ -3140,7 +3141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>194</v>
       </c>
@@ -3150,7 +3151,7 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>196</v>
       </c>
@@ -3160,7 +3161,7 @@
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>198</v>
       </c>
@@ -3170,7 +3171,7 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>200</v>
       </c>
@@ -3180,7 +3181,7 @@
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>202</v>
       </c>
@@ -3194,7 +3195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>546</v>
       </c>
@@ -3204,7 +3205,7 @@
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>544</v>
       </c>
@@ -3214,7 +3215,7 @@
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>205</v>
       </c>
@@ -3226,7 +3227,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>207</v>
       </c>
@@ -3238,7 +3239,7 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>209</v>
       </c>
@@ -3250,7 +3251,7 @@
       </c>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>211</v>
       </c>
@@ -3262,7 +3263,7 @@
       </c>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>442</v>
       </c>
@@ -3276,7 +3277,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
         <v>443</v>
       </c>
@@ -3290,7 +3291,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>445</v>
       </c>
@@ -3301,7 +3302,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>444</v>
       </c>
@@ -3312,7 +3313,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>548</v>
       </c>
@@ -3323,7 +3324,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>550</v>
       </c>
@@ -3334,7 +3335,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>552</v>
       </c>
@@ -3357,21 +3358,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.46484375" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.46484375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3403,7 +3404,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3469,7 +3470,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3489,13 +3490,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C6" t="s">
+        <v>563</v>
+      </c>
       <c r="H6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3509,13 +3513,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C7" t="s">
+        <v>563</v>
+      </c>
       <c r="H7" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3529,7 +3536,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -3552,7 +3559,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -3575,7 +3582,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -3598,7 +3605,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -3621,7 +3628,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -3641,7 +3648,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -3661,7 +3668,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -3681,7 +3688,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -3701,13 +3708,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="C16" t="s">
+        <v>563</v>
+      </c>
       <c r="H16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -3721,7 +3731,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -3741,7 +3751,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -3761,7 +3771,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -3781,7 +3791,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -3801,7 +3811,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -3821,7 +3831,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -3844,7 +3854,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -3864,7 +3874,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -3884,7 +3894,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
@@ -3904,7 +3914,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
@@ -3924,7 +3934,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
@@ -3944,7 +3954,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -3964,7 +3974,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
@@ -3984,7 +3994,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -4004,7 +4014,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
@@ -4024,7 +4034,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>98</v>
       </c>
@@ -4044,7 +4054,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -4064,7 +4074,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>102</v>
       </c>
@@ -4084,7 +4094,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -4104,7 +4114,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>107</v>
       </c>
@@ -4124,7 +4134,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -4144,7 +4154,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -4164,7 +4174,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
@@ -4184,7 +4194,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>117</v>
       </c>
@@ -4204,7 +4214,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>120</v>
       </c>
@@ -4224,7 +4234,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>122</v>
       </c>
@@ -4244,7 +4254,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>125</v>
       </c>
@@ -4264,7 +4274,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>128</v>
       </c>
@@ -4284,7 +4294,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>131</v>
       </c>
@@ -4304,7 +4314,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>133</v>
       </c>
@@ -4324,7 +4334,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>135</v>
       </c>
@@ -4344,7 +4354,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>138</v>
       </c>
@@ -4364,7 +4374,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>141</v>
       </c>
@@ -4384,7 +4394,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>143</v>
       </c>
@@ -4404,7 +4414,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>145</v>
       </c>
@@ -4424,7 +4434,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>148</v>
       </c>
@@ -4444,7 +4454,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>150</v>
       </c>
@@ -4464,7 +4474,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>153</v>
       </c>
@@ -4484,7 +4494,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>156</v>
       </c>
@@ -4504,7 +4514,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>159</v>
       </c>
@@ -4524,7 +4534,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>161</v>
       </c>
@@ -4544,7 +4554,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>163</v>
       </c>
@@ -4564,7 +4574,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>165</v>
       </c>
@@ -4584,7 +4594,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>167</v>
       </c>
@@ -4604,7 +4614,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>169</v>
       </c>
@@ -4624,7 +4634,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>173</v>
       </c>
@@ -4644,7 +4654,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>177</v>
       </c>
@@ -4664,7 +4674,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>179</v>
       </c>
@@ -4684,7 +4694,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>183</v>
       </c>
@@ -4704,7 +4714,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>185</v>
       </c>
@@ -4724,7 +4734,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>187</v>
       </c>
@@ -4744,7 +4754,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>190</v>
       </c>
@@ -4764,7 +4774,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>192</v>
       </c>
@@ -4784,7 +4794,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>194</v>
       </c>
@@ -4807,7 +4817,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>196</v>
       </c>
@@ -4830,7 +4840,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>198</v>
       </c>
@@ -4850,7 +4860,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>200</v>
       </c>
@@ -4870,7 +4880,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>202</v>
       </c>
@@ -4890,7 +4900,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>546</v>
       </c>
@@ -4910,7 +4920,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>544</v>
       </c>
@@ -4930,7 +4940,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>205</v>
       </c>
@@ -4953,7 +4963,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>207</v>
       </c>
@@ -4976,7 +4986,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>209</v>
       </c>
@@ -4996,7 +5006,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>211</v>
       </c>
@@ -5016,7 +5026,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>442</v>
       </c>
@@ -5036,7 +5046,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
         <v>443</v>
       </c>
@@ -5056,7 +5066,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>445</v>
       </c>
@@ -5064,7 +5074,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>444</v>
       </c>
@@ -5072,7 +5082,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>548</v>
       </c>
@@ -5080,7 +5090,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>550</v>
       </c>
@@ -5088,7 +5098,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>552</v>
       </c>
@@ -5110,22 +5120,22 @@
       <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" style="3"/>
-    <col min="4" max="4" width="9.08984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="55.08984375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.08984375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.73046875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.53125" style="3"/>
+    <col min="4" max="4" width="9.06640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="55.06640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.46484375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.9296875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.06640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.73046875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.796875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>215</v>
       </c>
@@ -5160,7 +5170,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>224</v>
       </c>
@@ -5189,7 +5199,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>224</v>
       </c>
@@ -5218,7 +5228,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>224</v>
       </c>
@@ -5247,7 +5257,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>224</v>
       </c>
@@ -5276,7 +5286,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>224</v>
       </c>
@@ -5305,7 +5315,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>224</v>
       </c>
@@ -5334,7 +5344,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>224</v>
       </c>
@@ -5366,7 +5376,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>224</v>
       </c>
@@ -5398,7 +5408,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>224</v>
       </c>
@@ -5430,7 +5440,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>224</v>
       </c>
@@ -5459,7 +5469,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>224</v>
       </c>
@@ -5491,7 +5501,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>224</v>
       </c>
@@ -5523,7 +5533,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>224</v>
       </c>
@@ -5552,7 +5562,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>224</v>
       </c>
@@ -5581,7 +5591,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>224</v>
       </c>
@@ -5613,7 +5623,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>224</v>
       </c>
@@ -5644,7 +5654,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>224</v>
       </c>
@@ -5677,7 +5687,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>224</v>
       </c>
@@ -5707,7 +5717,7 @@
       </c>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>224</v>
       </c>
@@ -5736,7 +5746,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>224</v>
       </c>
@@ -5765,7 +5775,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>224</v>
       </c>
@@ -5797,7 +5807,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>224</v>
       </c>
@@ -5826,7 +5836,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>224</v>
       </c>
@@ -5855,7 +5865,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>224</v>
       </c>
@@ -5884,7 +5894,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>224</v>
       </c>
@@ -5913,7 +5923,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>224</v>
       </c>
@@ -5942,7 +5952,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>224</v>
       </c>
@@ -5971,7 +5981,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>224</v>
       </c>
@@ -6000,7 +6010,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>224</v>
       </c>
@@ -6032,7 +6042,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>224</v>
       </c>
@@ -6061,7 +6071,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>224</v>
       </c>
@@ -6090,7 +6100,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>224</v>
       </c>
@@ -6119,7 +6129,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>224</v>
       </c>
@@ -6148,7 +6158,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>224</v>
       </c>
@@ -6177,7 +6187,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>224</v>
       </c>
@@ -6209,7 +6219,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>224</v>
       </c>
@@ -6241,7 +6251,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>224</v>
       </c>
@@ -6273,7 +6283,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>224</v>
       </c>
@@ -6305,7 +6315,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>224</v>
       </c>
@@ -6334,7 +6344,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>224</v>
       </c>
@@ -6363,7 +6373,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>224</v>
       </c>
@@ -6392,7 +6402,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>224</v>
       </c>
@@ -6421,7 +6431,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>224</v>
       </c>
@@ -6453,7 +6463,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>224</v>
       </c>
@@ -6482,7 +6492,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>224</v>
       </c>
@@ -6511,7 +6521,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>224</v>
       </c>
@@ -6540,7 +6550,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>260</v>
       </c>
@@ -6569,7 +6579,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>260</v>
       </c>
@@ -6598,7 +6608,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>260</v>
       </c>
@@ -6627,7 +6637,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>260</v>
       </c>
@@ -6656,7 +6666,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>260</v>
       </c>
@@ -6685,7 +6695,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>260</v>
       </c>
@@ -6714,7 +6724,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>260</v>
       </c>
@@ -6743,7 +6753,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>260</v>
       </c>
@@ -6772,7 +6782,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>260</v>
       </c>
@@ -6801,7 +6811,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>260</v>
       </c>
@@ -6830,7 +6840,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>260</v>
       </c>
@@ -6859,7 +6869,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="7" t="s">
         <v>260</v>
       </c>
@@ -6890,7 +6900,7 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="7" t="s">
         <v>260</v>
       </c>
@@ -6921,7 +6931,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>260</v>
       </c>
@@ -6950,7 +6960,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>260</v>
       </c>
@@ -6979,7 +6989,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>260</v>
       </c>
@@ -7008,7 +7018,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>260</v>
       </c>
@@ -7037,7 +7047,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>260</v>
       </c>
@@ -7066,7 +7076,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>260</v>
       </c>
@@ -7095,7 +7105,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>260</v>
       </c>
@@ -7124,7 +7134,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>260</v>
       </c>
@@ -7153,7 +7163,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>260</v>
       </c>
@@ -7182,7 +7192,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>260</v>
       </c>
@@ -7211,7 +7221,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>260</v>
       </c>
@@ -7240,7 +7250,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>260</v>
       </c>
@@ -7269,7 +7279,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>260</v>
       </c>
@@ -7298,7 +7308,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>260</v>
       </c>
@@ -7327,7 +7337,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>260</v>
       </c>
@@ -7356,7 +7366,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>260</v>
       </c>
@@ -7385,7 +7395,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>260</v>
       </c>
@@ -7414,7 +7424,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>260</v>
       </c>
@@ -7443,7 +7453,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>260</v>
       </c>
@@ -7472,7 +7482,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>260</v>
       </c>
@@ -7501,7 +7511,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>260</v>
       </c>
@@ -7530,7 +7540,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>260</v>
       </c>
@@ -7559,7 +7569,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>260</v>
       </c>
@@ -7588,7 +7598,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>260</v>
       </c>
@@ -7620,7 +7630,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>260</v>
       </c>
@@ -7652,7 +7662,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>260</v>
       </c>
@@ -7681,7 +7691,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>260</v>
       </c>
@@ -7713,7 +7723,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>260</v>
       </c>
@@ -7745,7 +7755,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>260</v>
       </c>
@@ -7780,7 +7790,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>260</v>
       </c>
@@ -7812,7 +7822,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>260</v>
       </c>
@@ -7844,7 +7854,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>260</v>
       </c>
@@ -7873,7 +7883,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>260</v>
       </c>
@@ -7902,7 +7912,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>260</v>
       </c>
@@ -7931,7 +7941,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>260</v>
       </c>
@@ -7960,7 +7970,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>260</v>
       </c>
@@ -7989,7 +7999,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>260</v>
       </c>
@@ -8018,7 +8028,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>260</v>
       </c>
@@ -8047,7 +8057,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>260</v>
       </c>
@@ -8076,7 +8086,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>260</v>
       </c>
@@ -8108,7 +8118,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
         <v>260</v>
       </c>
@@ -8137,7 +8147,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>260</v>
       </c>
@@ -8166,7 +8176,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
         <v>260</v>
       </c>
@@ -8197,7 +8207,7 @@
       <c r="J103" s="7"/>
       <c r="K103" s="9"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>260</v>
       </c>
@@ -8227,7 +8237,7 @@
       </c>
       <c r="J104" s="7"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>260</v>
       </c>
@@ -8258,7 +8268,7 @@
       <c r="J105" s="7"/>
       <c r="K105" s="9"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>260</v>
       </c>
@@ -8289,7 +8299,7 @@
       <c r="J106" s="7"/>
       <c r="K106" s="9"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
         <v>260</v>
       </c>
@@ -8320,7 +8330,7 @@
       <c r="J107" s="7"/>
       <c r="K107" s="9"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>260</v>
       </c>
@@ -8351,7 +8361,7 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>260</v>
       </c>
@@ -8382,7 +8392,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>260</v>
       </c>
@@ -8413,7 +8423,7 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
         <v>260</v>
       </c>
@@ -8442,7 +8452,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>260</v>
       </c>
@@ -8471,7 +8481,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
         <v>260</v>
       </c>
@@ -8500,7 +8510,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>354</v>
       </c>
@@ -8529,7 +8539,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
         <v>354</v>
       </c>
@@ -8558,7 +8568,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>354</v>
       </c>
@@ -8587,7 +8597,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
         <v>354</v>
       </c>
@@ -8616,7 +8626,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>354</v>
       </c>
@@ -8645,7 +8655,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
         <v>354</v>
       </c>
@@ -8674,7 +8684,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>354</v>
       </c>
@@ -8703,7 +8713,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
         <v>354</v>
       </c>
@@ -8732,7 +8742,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>354</v>
       </c>
@@ -8761,7 +8771,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
         <v>354</v>
       </c>
@@ -8790,7 +8800,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>354</v>
       </c>
@@ -8819,7 +8829,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
         <v>354</v>
       </c>
@@ -8848,7 +8858,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>354</v>
       </c>
@@ -8877,7 +8887,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
         <v>354</v>
       </c>
@@ -8906,7 +8916,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>354</v>
       </c>
@@ -8935,7 +8945,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
         <v>354</v>
       </c>
@@ -8964,7 +8974,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>354</v>
       </c>
@@ -8993,7 +9003,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
         <v>354</v>
       </c>
@@ -9022,7 +9032,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>354</v>
       </c>
@@ -9051,7 +9061,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
         <v>354</v>
       </c>
@@ -9080,7 +9090,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>354</v>
       </c>
@@ -9109,7 +9119,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
         <v>354</v>
       </c>
@@ -9138,7 +9148,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>354</v>
       </c>
@@ -9167,7 +9177,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
         <v>354</v>
       </c>
@@ -9196,7 +9206,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>354</v>
       </c>
@@ -9225,7 +9235,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A139" s="3" t="s">
         <v>354</v>
       </c>
@@ -9254,7 +9264,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>354</v>
       </c>
@@ -9286,7 +9296,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
         <v>354</v>
       </c>
@@ -9315,7 +9325,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>354</v>
       </c>
@@ -9344,7 +9354,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
         <v>354</v>
       </c>
@@ -9373,7 +9383,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>354</v>
       </c>
@@ -9402,7 +9412,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
         <v>354</v>
       </c>
@@ -9431,7 +9441,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>354</v>
       </c>
@@ -9460,7 +9470,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
         <v>354</v>
       </c>
@@ -9489,7 +9499,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>354</v>
       </c>
@@ -9518,7 +9528,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
         <v>354</v>
       </c>
@@ -9547,7 +9557,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
         <v>354</v>
       </c>
@@ -9576,7 +9586,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
         <v>354</v>
       </c>
@@ -9605,7 +9615,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
         <v>354</v>
       </c>
@@ -9634,7 +9644,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
         <v>354</v>
       </c>
@@ -9663,7 +9673,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
         <v>354</v>
       </c>
@@ -9692,7 +9702,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="s">
         <v>354</v>
       </c>
@@ -9721,7 +9731,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
         <v>354</v>
       </c>
@@ -9750,7 +9760,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A157" s="3" t="s">
         <v>354</v>
       </c>
@@ -9779,7 +9789,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="s">
         <v>354</v>
       </c>
@@ -9808,7 +9818,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A159" s="3" t="s">
         <v>480</v>
       </c>
@@ -9816,7 +9826,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A160" s="7"/>
       <c r="B160" s="14"/>
       <c r="C160" s="7"/>
@@ -9829,12 +9839,12 @@
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B161" s="3" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -9847,12 +9857,12 @@
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B163" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -9865,12 +9875,12 @@
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B165" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -9883,12 +9893,12 @@
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B167" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -9901,12 +9911,12 @@
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B169" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -9919,12 +9929,12 @@
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B171" s="3" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -9937,7 +9947,7 @@
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B173" s="3" t="s">
         <v>487</v>
       </c>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16407092-1612-44B5-B615-964F2C410167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAC42F2-2E8D-4033-AFC0-9F865D051178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="569">
   <si>
     <t>Feature_name</t>
   </si>
@@ -1731,9 +1731,6 @@
   </si>
   <si>
     <t>same. Progressive verb phrases should also be considered present tense verb phrases. Will/going to should not be counted as present tense verb phrases.</t>
-  </si>
-  <si>
-    <t>HM (might need re-doing)</t>
   </si>
   <si>
     <t>combined with amplifiers into one feature! [for the emphatic do + verb we allow for more intervening adverbs than Biber does]</t>
@@ -1757,6 +1754,9 @@
   </si>
   <si>
     <t xml:space="preserve"> amplifiers (+emphatics)</t>
+  </si>
+  <si>
+    <t>HM (needs re-doing, code aborted with Decoding-Error before sufficient hits found)</t>
   </si>
 </sst>
 </file>
@@ -2275,7 +2275,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2924,7 +2924,7 @@
         <v>144</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>11</v>
@@ -2938,13 +2938,13 @@
         <v>146</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -3401,8 +3401,8 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3723,7 +3723,7 @@
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>541</v>
+        <v>568</v>
       </c>
       <c r="H14" t="e">
         <f t="shared" si="3"/>
@@ -3869,7 +3869,7 @@
         <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>564</v>
+        <v>541</v>
       </c>
       <c r="H21" t="e">
         <f t="shared" si="3"/>
@@ -4435,7 +4435,7 @@
         <v>143</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H49" t="e">
         <f t="shared" si="3"/>
@@ -4497,6 +4497,9 @@
       <c r="B52" s="2" t="s">
         <v>153</v>
       </c>
+      <c r="C52" t="s">
+        <v>541</v>
+      </c>
       <c r="H52" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4537,6 +4540,9 @@
       <c r="B54" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="C54" t="s">
+        <v>541</v>
+      </c>
       <c r="H54" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4557,6 +4563,9 @@
       <c r="B55" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="C55" t="s">
+        <v>541</v>
+      </c>
       <c r="H55" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4577,6 +4586,9 @@
       <c r="B56" s="2" t="s">
         <v>163</v>
       </c>
+      <c r="C56" t="s">
+        <v>541</v>
+      </c>
       <c r="H56" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4597,6 +4609,9 @@
       <c r="B57" s="2" t="s">
         <v>165</v>
       </c>
+      <c r="C57" t="s">
+        <v>568</v>
+      </c>
       <c r="H57" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4618,7 +4633,7 @@
         <v>167</v>
       </c>
       <c r="C58" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="H58" t="e">
         <f t="shared" si="3"/>
@@ -4639,6 +4654,9 @@
       </c>
       <c r="B59" s="2" t="s">
         <v>169</v>
+      </c>
+      <c r="C59" t="s">
+        <v>541</v>
       </c>
       <c r="H59" t="e">
         <f t="shared" si="3"/>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAC42F2-2E8D-4033-AFC0-9F865D051178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3761E3-9EAF-4699-87E9-49087927CEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8970" yWindow="1610" windowWidth="10320" windowHeight="6940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_precision_recall" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="570">
   <si>
     <t>Feature_name</t>
   </si>
@@ -1758,12 +1758,15 @@
   <si>
     <t>HM (needs re-doing, code aborted with Decoding-Error before sufficient hits found)</t>
   </si>
+  <si>
+    <t>missing??</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1788,6 +1791,13 @@
     <font>
       <sz val="11"/>
       <color theme="6" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1831,7 +1841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1876,6 +1886,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2274,8 +2285,8 @@
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2446,15 +2457,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="20" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
@@ -3389,9 +3401,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3401,8 +3413,8 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3702,6 +3714,9 @@
       <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="C13" t="s">
+        <v>541</v>
+      </c>
       <c r="H13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4194,6 +4209,9 @@
       <c r="B37" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="C37" t="s">
+        <v>568</v>
+      </c>
       <c r="H37" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4297,6 +4315,9 @@
       <c r="B42" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="C42" t="s">
+        <v>541</v>
+      </c>
       <c r="H42" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4316,6 +4337,9 @@
       </c>
       <c r="B43" s="2" t="s">
         <v>126</v>
+      </c>
+      <c r="C43" t="s">
+        <v>541</v>
       </c>
       <c r="H43" t="e">
         <f t="shared" si="3"/>
@@ -5154,7 +5178,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ratos\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3761E3-9EAF-4699-87E9-49087927CEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A41A2B0-2C5D-4CB9-86E5-B5E708830FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8970" yWindow="1610" windowWidth="10320" windowHeight="6940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_precision_recall" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="577">
   <si>
     <t>Feature_name</t>
   </si>
@@ -1761,12 +1759,33 @@
   <si>
     <t>missing??</t>
   </si>
+  <si>
+    <t>RT (re-do once Axel is done wiht the new function)</t>
+  </si>
+  <si>
+    <t>things to discuss</t>
+  </si>
+  <si>
+    <t>good to go</t>
+  </si>
+  <si>
+    <t>"comparatives_ana_214"</t>
+  </si>
+  <si>
+    <t>"superlatives_ana_215"</t>
+  </si>
+  <si>
+    <t>good to go?</t>
+  </si>
+  <si>
+    <t>things to discuss (or have we discussed this one already?)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1798,6 +1817,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1841,7 +1874,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1887,9 +1920,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1986,7 +2021,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2289,14 +2324,14 @@
       <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="32.453125" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.796875" customWidth="1"/>
+    <col min="2" max="2" width="32.46484375" customWidth="1"/>
+    <col min="3" max="3" width="23.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2313,7 +2348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2327,7 +2362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2341,7 +2376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2355,7 +2390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2369,7 +2404,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -2383,7 +2418,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2397,7 +2432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2409,7 +2444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -2421,7 +2456,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -2433,7 +2468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -2445,7 +2480,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2457,7 +2492,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="20" t="s">
         <v>38</v>
       </c>
@@ -2468,7 +2503,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -2482,7 +2517,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2496,7 +2531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2508,7 +2543,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2522,7 +2557,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -2534,7 +2569,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -2548,7 +2583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -2562,7 +2597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -2576,7 +2611,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -2590,7 +2625,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -2602,7 +2637,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -2614,7 +2649,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
@@ -2628,7 +2663,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
@@ -2642,7 +2677,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
@@ -2656,7 +2691,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -2670,7 +2705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
@@ -2684,7 +2719,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -2698,7 +2733,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
@@ -2710,7 +2745,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>98</v>
       </c>
@@ -2722,7 +2757,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -2734,7 +2769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>102</v>
       </c>
@@ -2746,7 +2781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -2760,7 +2795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>107</v>
       </c>
@@ -2772,7 +2807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -2784,7 +2819,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -2796,7 +2831,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
@@ -2806,7 +2841,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>117</v>
       </c>
@@ -2818,7 +2853,7 @@
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>120</v>
       </c>
@@ -2830,7 +2865,7 @@
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>122</v>
       </c>
@@ -2844,7 +2879,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>125</v>
       </c>
@@ -2858,7 +2893,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>128</v>
       </c>
@@ -2870,7 +2905,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>131</v>
       </c>
@@ -2880,7 +2915,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>133</v>
       </c>
@@ -2890,7 +2925,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>135</v>
       </c>
@@ -2904,7 +2939,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>138</v>
       </c>
@@ -2918,7 +2953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>141</v>
       </c>
@@ -2928,7 +2963,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>143</v>
       </c>
@@ -2942,7 +2977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="18" t="s">
         <v>145</v>
       </c>
@@ -2959,7 +2994,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>147</v>
       </c>
@@ -2973,7 +3008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>149</v>
       </c>
@@ -2987,7 +3022,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>152</v>
       </c>
@@ -3001,7 +3036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>155</v>
       </c>
@@ -3015,7 +3050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>158</v>
       </c>
@@ -3027,7 +3062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>160</v>
       </c>
@@ -3041,7 +3076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>162</v>
       </c>
@@ -3055,7 +3090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>164</v>
       </c>
@@ -3069,7 +3104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>166</v>
       </c>
@@ -3081,7 +3116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>168</v>
       </c>
@@ -3095,7 +3130,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>172</v>
       </c>
@@ -3109,7 +3144,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>176</v>
       </c>
@@ -3121,7 +3156,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>178</v>
       </c>
@@ -3135,7 +3170,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>182</v>
       </c>
@@ -3149,7 +3184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>184</v>
       </c>
@@ -3161,7 +3196,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>186</v>
       </c>
@@ -3173,7 +3208,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>189</v>
       </c>
@@ -3185,7 +3220,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>191</v>
       </c>
@@ -3197,7 +3232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>193</v>
       </c>
@@ -3207,7 +3242,7 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>195</v>
       </c>
@@ -3217,7 +3252,7 @@
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>197</v>
       </c>
@@ -3227,7 +3262,7 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>199</v>
       </c>
@@ -3237,7 +3272,7 @@
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>201</v>
       </c>
@@ -3251,7 +3286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>545</v>
       </c>
@@ -3261,7 +3296,7 @@
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>543</v>
       </c>
@@ -3271,7 +3306,7 @@
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>204</v>
       </c>
@@ -3283,7 +3318,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>206</v>
       </c>
@@ -3295,7 +3330,7 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>208</v>
       </c>
@@ -3307,7 +3342,7 @@
       </c>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>210</v>
       </c>
@@ -3319,7 +3354,7 @@
       </c>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>441</v>
       </c>
@@ -3333,7 +3368,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
         <v>442</v>
       </c>
@@ -3347,7 +3382,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>444</v>
       </c>
@@ -3358,7 +3393,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>443</v>
       </c>
@@ -3369,7 +3404,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>547</v>
       </c>
@@ -3380,7 +3415,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>549</v>
       </c>
@@ -3391,7 +3426,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>551</v>
       </c>
@@ -3413,22 +3448,22 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.46484375" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.46484375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3460,7 +3495,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3483,7 +3518,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3506,7 +3541,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3526,7 +3561,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3549,7 +3584,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -3572,7 +3607,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -3580,7 +3615,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="H7" t="e">
         <f t="shared" si="0"/>
@@ -3595,7 +3630,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -3618,7 +3653,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -3641,7 +3676,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -3664,7 +3699,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -3687,13 +3722,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="C12" s="20" t="s">
+        <v>571</v>
+      </c>
       <c r="H12" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -3707,7 +3745,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -3730,7 +3768,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -3753,13 +3791,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="C15" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H15" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -3773,7 +3814,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -3796,13 +3837,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="C17" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H17" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -3816,13 +3860,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="C18" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H18" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -3836,13 +3883,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="C19" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H19" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -3856,13 +3906,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="C20" s="20" t="s">
+        <v>571</v>
+      </c>
       <c r="H20" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -3876,7 +3929,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -3899,7 +3952,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -3922,7 +3975,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -3942,13 +3995,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="C24" s="20" t="s">
+        <v>571</v>
+      </c>
       <c r="H24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -3962,13 +4018,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="C25" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H25" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -3982,13 +4041,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="C26" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H26" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4002,13 +4064,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="C27" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H27" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4022,13 +4087,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="C28" s="20" t="s">
+        <v>571</v>
+      </c>
       <c r="H28" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4042,13 +4110,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="C29" s="20" t="s">
+        <v>571</v>
+      </c>
       <c r="H29" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4062,13 +4133,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="C30" s="20" t="s">
+        <v>571</v>
+      </c>
       <c r="H30" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4082,13 +4156,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="C31" s="20" t="s">
+        <v>571</v>
+      </c>
       <c r="H31" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4102,13 +4179,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>99</v>
       </c>
+      <c r="C32" s="20" t="s">
+        <v>571</v>
+      </c>
       <c r="H32" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4122,13 +4202,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="C33" s="20" t="s">
+        <v>571</v>
+      </c>
       <c r="H33" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4142,13 +4225,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="C34" s="20" t="s">
+        <v>571</v>
+      </c>
       <c r="H34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4162,13 +4248,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="C35" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H35" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4182,13 +4271,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="C36" s="20" t="s">
+        <v>571</v>
+      </c>
       <c r="H36" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4202,14 +4294,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>568</v>
       </c>
       <c r="H37" t="e">
@@ -4225,13 +4317,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="C38" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H38" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4245,13 +4340,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="C39" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4265,13 +4363,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="C40" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H40" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4285,7 +4386,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>120</v>
       </c>
@@ -4308,7 +4409,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>122</v>
       </c>
@@ -4331,7 +4432,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>125</v>
       </c>
@@ -4354,13 +4455,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="C44" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H44" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4374,13 +4478,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="C45" s="20" t="s">
+        <v>571</v>
+      </c>
       <c r="H45" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4394,13 +4501,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="C46" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H46" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4414,13 +4524,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="C47" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H47" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4434,13 +4547,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>142</v>
       </c>
+      <c r="C48" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H48" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4454,13 +4570,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>567</v>
       </c>
+      <c r="C49" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H49" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4474,13 +4593,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="C50" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H50" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4494,13 +4616,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>150</v>
       </c>
+      <c r="C51" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H51" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4514,7 +4639,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>152</v>
       </c>
@@ -4537,13 +4662,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="C53" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H53" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4557,7 +4685,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>158</v>
       </c>
@@ -4580,7 +4708,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>160</v>
       </c>
@@ -4603,7 +4731,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>162</v>
       </c>
@@ -4626,7 +4754,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>164</v>
       </c>
@@ -4649,7 +4777,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>166</v>
       </c>
@@ -4672,7 +4800,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>168</v>
       </c>
@@ -4695,13 +4823,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="C60" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H60" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4715,13 +4846,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>177</v>
       </c>
+      <c r="C61" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H61" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4735,13 +4869,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>179</v>
       </c>
+      <c r="C62" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H62" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4755,13 +4892,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="C63" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H63" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4775,13 +4915,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="C64" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H64" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4795,13 +4938,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>187</v>
       </c>
+      <c r="C65" s="20" t="s">
+        <v>576</v>
+      </c>
       <c r="H65" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4815,13 +4961,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>190</v>
       </c>
+      <c r="C66" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H66" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4835,13 +4984,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>192</v>
       </c>
+      <c r="C67" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H67" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4855,7 +5007,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>193</v>
       </c>
@@ -4878,7 +5030,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>195</v>
       </c>
@@ -4901,13 +5053,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>198</v>
       </c>
+      <c r="C70" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H70" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4921,13 +5076,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="C71" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H71" t="e">
         <f t="shared" ref="H71:H80" si="6">D71/(D71+F71)</f>
         <v>#DIV/0!</v>
@@ -4941,13 +5099,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>202</v>
       </c>
+      <c r="C72" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H72" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -4961,13 +5122,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>545</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>544</v>
       </c>
+      <c r="C73" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H73" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -4981,13 +5145,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>543</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>542</v>
       </c>
+      <c r="C74" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H74" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -5001,7 +5168,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>204</v>
       </c>
@@ -5024,7 +5191,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>206</v>
       </c>
@@ -5047,13 +5214,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>209</v>
       </c>
+      <c r="C77" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H77" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -5067,13 +5237,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>211</v>
       </c>
+      <c r="C78" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H78" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -5087,13 +5260,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>441</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>445</v>
       </c>
+      <c r="C79" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -5107,13 +5283,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>442</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>446</v>
       </c>
+      <c r="C80" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="H80" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -5127,48 +5306,64 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>444</v>
+        <v>573</v>
       </c>
       <c r="B81" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C81" s="21" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>443</v>
+        <v>574</v>
       </c>
       <c r="B82" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C82" s="21" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>547</v>
       </c>
       <c r="B83" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C83" s="21" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>549</v>
       </c>
       <c r="B84" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C84" s="21" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>551</v>
       </c>
       <c r="B85" t="s">
         <v>550</v>
       </c>
+      <c r="C85" s="22" t="s">
+        <v>575</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5181,22 +5376,22 @@
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" style="3"/>
-    <col min="4" max="4" width="9.08984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="55.08984375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.08984375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.73046875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.53125" style="3"/>
+    <col min="4" max="4" width="9.06640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="55.06640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.46484375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.9296875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.06640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.73046875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.796875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>214</v>
       </c>
@@ -5231,7 +5426,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>223</v>
       </c>
@@ -5260,7 +5455,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>223</v>
       </c>
@@ -5289,7 +5484,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>223</v>
       </c>
@@ -5318,7 +5513,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>223</v>
       </c>
@@ -5347,7 +5542,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>223</v>
       </c>
@@ -5376,7 +5571,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>223</v>
       </c>
@@ -5405,7 +5600,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>223</v>
       </c>
@@ -5437,7 +5632,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>223</v>
       </c>
@@ -5469,7 +5664,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>223</v>
       </c>
@@ -5501,7 +5696,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>223</v>
       </c>
@@ -5530,7 +5725,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>223</v>
       </c>
@@ -5562,7 +5757,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>223</v>
       </c>
@@ -5594,7 +5789,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>223</v>
       </c>
@@ -5623,7 +5818,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>223</v>
       </c>
@@ -5652,7 +5847,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>223</v>
       </c>
@@ -5684,7 +5879,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>223</v>
       </c>
@@ -5715,7 +5910,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>223</v>
       </c>
@@ -5748,7 +5943,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>223</v>
       </c>
@@ -5778,7 +5973,7 @@
       </c>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>223</v>
       </c>
@@ -5807,7 +6002,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>223</v>
       </c>
@@ -5836,7 +6031,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>223</v>
       </c>
@@ -5868,7 +6063,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>223</v>
       </c>
@@ -5897,7 +6092,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>223</v>
       </c>
@@ -5926,7 +6121,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>223</v>
       </c>
@@ -5955,7 +6150,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>223</v>
       </c>
@@ -5984,7 +6179,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>223</v>
       </c>
@@ -6013,7 +6208,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>223</v>
       </c>
@@ -6042,7 +6237,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>223</v>
       </c>
@@ -6071,7 +6266,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>223</v>
       </c>
@@ -6103,7 +6298,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>223</v>
       </c>
@@ -6132,7 +6327,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>223</v>
       </c>
@@ -6161,7 +6356,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>223</v>
       </c>
@@ -6190,7 +6385,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>223</v>
       </c>
@@ -6219,7 +6414,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>223</v>
       </c>
@@ -6248,7 +6443,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>223</v>
       </c>
@@ -6280,7 +6475,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>223</v>
       </c>
@@ -6312,7 +6507,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>223</v>
       </c>
@@ -6344,7 +6539,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>223</v>
       </c>
@@ -6376,7 +6571,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>223</v>
       </c>
@@ -6405,7 +6600,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>223</v>
       </c>
@@ -6434,7 +6629,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>223</v>
       </c>
@@ -6463,7 +6658,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>223</v>
       </c>
@@ -6492,7 +6687,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>223</v>
       </c>
@@ -6524,7 +6719,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>223</v>
       </c>
@@ -6553,7 +6748,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>223</v>
       </c>
@@ -6582,7 +6777,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>223</v>
       </c>
@@ -6611,7 +6806,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>259</v>
       </c>
@@ -6640,7 +6835,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>259</v>
       </c>
@@ -6669,7 +6864,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>259</v>
       </c>
@@ -6698,7 +6893,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>259</v>
       </c>
@@ -6727,7 +6922,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>259</v>
       </c>
@@ -6756,7 +6951,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>259</v>
       </c>
@@ -6785,7 +6980,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>259</v>
       </c>
@@ -6814,7 +7009,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>259</v>
       </c>
@@ -6843,7 +7038,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>259</v>
       </c>
@@ -6872,7 +7067,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>259</v>
       </c>
@@ -6901,7 +7096,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>259</v>
       </c>
@@ -6930,7 +7125,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="7" t="s">
         <v>259</v>
       </c>
@@ -6961,7 +7156,7 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="7" t="s">
         <v>259</v>
       </c>
@@ -6992,7 +7187,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>259</v>
       </c>
@@ -7021,7 +7216,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>259</v>
       </c>
@@ -7050,7 +7245,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>259</v>
       </c>
@@ -7079,7 +7274,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>259</v>
       </c>
@@ -7108,7 +7303,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>259</v>
       </c>
@@ -7137,7 +7332,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>259</v>
       </c>
@@ -7166,7 +7361,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>259</v>
       </c>
@@ -7195,7 +7390,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>259</v>
       </c>
@@ -7224,7 +7419,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>259</v>
       </c>
@@ -7253,7 +7448,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>259</v>
       </c>
@@ -7282,7 +7477,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>259</v>
       </c>
@@ -7311,7 +7506,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>259</v>
       </c>
@@ -7340,7 +7535,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>259</v>
       </c>
@@ -7369,7 +7564,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>259</v>
       </c>
@@ -7398,7 +7593,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>259</v>
       </c>
@@ -7427,7 +7622,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>259</v>
       </c>
@@ -7456,7 +7651,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>259</v>
       </c>
@@ -7485,7 +7680,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>259</v>
       </c>
@@ -7514,7 +7709,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>259</v>
       </c>
@@ -7543,7 +7738,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>259</v>
       </c>
@@ -7572,7 +7767,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>259</v>
       </c>
@@ -7601,7 +7796,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>259</v>
       </c>
@@ -7630,7 +7825,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>259</v>
       </c>
@@ -7659,7 +7854,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>259</v>
       </c>
@@ -7691,7 +7886,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>259</v>
       </c>
@@ -7723,7 +7918,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>259</v>
       </c>
@@ -7752,7 +7947,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>259</v>
       </c>
@@ -7784,7 +7979,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>259</v>
       </c>
@@ -7816,7 +8011,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>259</v>
       </c>
@@ -7851,7 +8046,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>259</v>
       </c>
@@ -7883,7 +8078,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>259</v>
       </c>
@@ -7915,7 +8110,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>259</v>
       </c>
@@ -7944,7 +8139,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>259</v>
       </c>
@@ -7973,7 +8168,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>259</v>
       </c>
@@ -8002,7 +8197,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>259</v>
       </c>
@@ -8031,7 +8226,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>259</v>
       </c>
@@ -8060,7 +8255,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>259</v>
       </c>
@@ -8089,7 +8284,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>259</v>
       </c>
@@ -8118,7 +8313,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>259</v>
       </c>
@@ -8147,7 +8342,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>259</v>
       </c>
@@ -8179,7 +8374,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
         <v>259</v>
       </c>
@@ -8208,7 +8403,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>259</v>
       </c>
@@ -8237,7 +8432,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
         <v>259</v>
       </c>
@@ -8268,7 +8463,7 @@
       <c r="J103" s="7"/>
       <c r="K103" s="9"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>259</v>
       </c>
@@ -8298,7 +8493,7 @@
       </c>
       <c r="J104" s="7"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>259</v>
       </c>
@@ -8329,7 +8524,7 @@
       <c r="J105" s="7"/>
       <c r="K105" s="9"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>259</v>
       </c>
@@ -8360,7 +8555,7 @@
       <c r="J106" s="7"/>
       <c r="K106" s="9"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
         <v>259</v>
       </c>
@@ -8391,7 +8586,7 @@
       <c r="J107" s="7"/>
       <c r="K107" s="9"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>259</v>
       </c>
@@ -8422,7 +8617,7 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>259</v>
       </c>
@@ -8453,7 +8648,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>259</v>
       </c>
@@ -8484,7 +8679,7 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
         <v>259</v>
       </c>
@@ -8513,7 +8708,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>259</v>
       </c>
@@ -8542,7 +8737,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
         <v>259</v>
       </c>
@@ -8571,7 +8766,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>353</v>
       </c>
@@ -8600,7 +8795,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
         <v>353</v>
       </c>
@@ -8629,7 +8824,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>353</v>
       </c>
@@ -8658,7 +8853,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
         <v>353</v>
       </c>
@@ -8687,7 +8882,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>353</v>
       </c>
@@ -8716,7 +8911,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
         <v>353</v>
       </c>
@@ -8745,7 +8940,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>353</v>
       </c>
@@ -8774,7 +8969,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
         <v>353</v>
       </c>
@@ -8803,7 +8998,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>353</v>
       </c>
@@ -8832,7 +9027,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
         <v>353</v>
       </c>
@@ -8861,7 +9056,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>353</v>
       </c>
@@ -8890,7 +9085,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
         <v>353</v>
       </c>
@@ -8919,7 +9114,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>353</v>
       </c>
@@ -8948,7 +9143,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
         <v>353</v>
       </c>
@@ -8977,7 +9172,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>353</v>
       </c>
@@ -9006,7 +9201,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
         <v>353</v>
       </c>
@@ -9035,7 +9230,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>353</v>
       </c>
@@ -9064,7 +9259,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
         <v>353</v>
       </c>
@@ -9093,7 +9288,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>353</v>
       </c>
@@ -9122,7 +9317,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
         <v>353</v>
       </c>
@@ -9151,7 +9346,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>353</v>
       </c>
@@ -9180,7 +9375,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
         <v>353</v>
       </c>
@@ -9209,7 +9404,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>353</v>
       </c>
@@ -9238,7 +9433,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
         <v>353</v>
       </c>
@@ -9267,7 +9462,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>353</v>
       </c>
@@ -9296,7 +9491,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A139" s="3" t="s">
         <v>353</v>
       </c>
@@ -9325,7 +9520,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>353</v>
       </c>
@@ -9357,7 +9552,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
         <v>353</v>
       </c>
@@ -9386,7 +9581,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>353</v>
       </c>
@@ -9415,7 +9610,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
         <v>353</v>
       </c>
@@ -9444,7 +9639,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>353</v>
       </c>
@@ -9473,7 +9668,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
         <v>353</v>
       </c>
@@ -9502,7 +9697,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>353</v>
       </c>
@@ -9531,7 +9726,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
         <v>353</v>
       </c>
@@ -9560,7 +9755,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>353</v>
       </c>
@@ -9589,7 +9784,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
         <v>353</v>
       </c>
@@ -9618,7 +9813,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
         <v>353</v>
       </c>
@@ -9647,7 +9842,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
         <v>353</v>
       </c>
@@ -9676,7 +9871,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
         <v>353</v>
       </c>
@@ -9705,7 +9900,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
         <v>353</v>
       </c>
@@ -9734,7 +9929,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
         <v>353</v>
       </c>
@@ -9763,7 +9958,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="s">
         <v>353</v>
       </c>
@@ -9792,7 +9987,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
         <v>353</v>
       </c>
@@ -9821,7 +10016,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A157" s="3" t="s">
         <v>353</v>
       </c>
@@ -9850,7 +10045,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="s">
         <v>353</v>
       </c>
@@ -9879,7 +10074,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A159" s="3" t="s">
         <v>479</v>
       </c>
@@ -9887,7 +10082,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A160" s="7"/>
       <c r="B160" s="14"/>
       <c r="C160" s="7"/>
@@ -9900,12 +10095,12 @@
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B161" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -9918,12 +10113,12 @@
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B163" s="3" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -9936,12 +10131,12 @@
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B165" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -9954,12 +10149,12 @@
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B167" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -9972,12 +10167,12 @@
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B169" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -9990,12 +10185,12 @@
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B171" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -10008,7 +10203,7 @@
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B173" s="3" t="s">
         <v>486</v>
       </c>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ratos\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A41A2B0-2C5D-4CB9-86E5-B5E708830FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA663F12-48A9-4316-83B9-DEB3159E9FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="577">
   <si>
     <t>Feature_name</t>
   </si>
@@ -3449,7 +3449,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3547,6 +3547,9 @@
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>572</v>
       </c>
       <c r="H4" t="e">
         <f t="shared" ref="H4:H8" si="0">D4/(D4+F4)</f>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ratos\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA663F12-48A9-4316-83B9-DEB3159E9FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E2CAA4-165A-4390-B723-C8ED376892C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1778,7 +1778,7 @@
     <t>good to go?</t>
   </si>
   <si>
-    <t>things to discuss (or have we discussed this one already?)</t>
+    <t xml:space="preserve">good to go (check meeting 01.04.2022 after testing if necessary) </t>
   </si>
 </sst>
 </file>
@@ -3448,14 +3448,14 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.46484375" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.53125" bestFit="1" customWidth="1"/>
@@ -3732,8 +3732,8 @@
       <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>571</v>
+      <c r="C12" s="21" t="s">
+        <v>572</v>
       </c>
       <c r="H12" t="e">
         <f t="shared" si="3"/>
@@ -3916,8 +3916,8 @@
       <c r="B20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>571</v>
+      <c r="C20" s="22" t="s">
+        <v>576</v>
       </c>
       <c r="H20" t="e">
         <f t="shared" si="3"/>
@@ -4005,8 +4005,8 @@
       <c r="B24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>571</v>
+      <c r="C24" s="22" t="s">
+        <v>576</v>
       </c>
       <c r="H24" t="e">
         <f t="shared" si="3"/>
@@ -4097,8 +4097,8 @@
       <c r="B28" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>571</v>
+      <c r="C28" s="22" t="s">
+        <v>576</v>
       </c>
       <c r="H28" t="e">
         <f t="shared" si="3"/>
@@ -4120,8 +4120,8 @@
       <c r="B29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>571</v>
+      <c r="C29" s="22" t="s">
+        <v>576</v>
       </c>
       <c r="H29" t="e">
         <f t="shared" si="3"/>
@@ -4143,8 +4143,8 @@
       <c r="B30" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>571</v>
+      <c r="C30" s="22" t="s">
+        <v>576</v>
       </c>
       <c r="H30" t="e">
         <f t="shared" si="3"/>
@@ -4948,8 +4948,8 @@
       <c r="B65" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C65" s="20" t="s">
-        <v>576</v>
+      <c r="C65" s="21" t="s">
+        <v>572</v>
       </c>
       <c r="H65" t="e">
         <f t="shared" si="3"/>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ratos\Documents\GitHub\Reddit_MDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E2CAA4-165A-4390-B723-C8ED376892C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1926BBC-EA29-465D-9D4C-3D6CE81AA713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_precision_recall" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1924,7 +1926,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2021,7 +2023,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2324,14 +2326,14 @@
       <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.796875" customWidth="1"/>
-    <col min="2" max="2" width="32.46484375" customWidth="1"/>
-    <col min="3" max="3" width="23.265625" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2348,7 +2350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2362,7 +2364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2376,7 +2378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2390,7 +2392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2404,7 +2406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -2418,7 +2420,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2432,7 +2434,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2444,7 +2446,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -2456,7 +2458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -2468,7 +2470,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -2480,7 +2482,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2492,7 +2494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
         <v>38</v>
       </c>
@@ -2503,7 +2505,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -2517,7 +2519,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2531,7 +2533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2543,7 +2545,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2557,7 +2559,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -2569,7 +2571,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -2583,7 +2585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -2597,7 +2599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -2611,7 +2613,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -2625,7 +2627,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -2637,7 +2639,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -2649,7 +2651,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
@@ -2663,7 +2665,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
@@ -2677,7 +2679,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
@@ -2691,7 +2693,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -2705,7 +2707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
@@ -2719,7 +2721,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -2733,7 +2735,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
@@ -2745,7 +2747,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>98</v>
       </c>
@@ -2757,7 +2759,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -2769,7 +2771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>102</v>
       </c>
@@ -2781,7 +2783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -2795,7 +2797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>107</v>
       </c>
@@ -2807,7 +2809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -2819,7 +2821,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -2831,7 +2833,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
@@ -2841,7 +2843,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>117</v>
       </c>
@@ -2853,7 +2855,7 @@
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>120</v>
       </c>
@@ -2865,7 +2867,7 @@
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>122</v>
       </c>
@@ -2879,7 +2881,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>125</v>
       </c>
@@ -2893,7 +2895,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>128</v>
       </c>
@@ -2905,7 +2907,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>131</v>
       </c>
@@ -2915,7 +2917,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>133</v>
       </c>
@@ -2925,7 +2927,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>135</v>
       </c>
@@ -2939,7 +2941,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>138</v>
       </c>
@@ -2953,7 +2955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>141</v>
       </c>
@@ -2963,7 +2965,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>143</v>
       </c>
@@ -2977,7 +2979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
         <v>145</v>
       </c>
@@ -2994,7 +2996,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>147</v>
       </c>
@@ -3008,7 +3010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>149</v>
       </c>
@@ -3022,7 +3024,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>152</v>
       </c>
@@ -3036,7 +3038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>155</v>
       </c>
@@ -3050,7 +3052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>158</v>
       </c>
@@ -3062,7 +3064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>160</v>
       </c>
@@ -3076,7 +3078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>162</v>
       </c>
@@ -3090,7 +3092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>164</v>
       </c>
@@ -3104,7 +3106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>166</v>
       </c>
@@ -3116,7 +3118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>168</v>
       </c>
@@ -3130,7 +3132,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>172</v>
       </c>
@@ -3144,7 +3146,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>176</v>
       </c>
@@ -3156,7 +3158,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>178</v>
       </c>
@@ -3170,7 +3172,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>182</v>
       </c>
@@ -3184,7 +3186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>184</v>
       </c>
@@ -3196,7 +3198,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>186</v>
       </c>
@@ -3208,7 +3210,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>189</v>
       </c>
@@ -3220,7 +3222,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>191</v>
       </c>
@@ -3232,7 +3234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>193</v>
       </c>
@@ -3242,7 +3244,7 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>195</v>
       </c>
@@ -3252,7 +3254,7 @@
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>197</v>
       </c>
@@ -3262,7 +3264,7 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>199</v>
       </c>
@@ -3272,7 +3274,7 @@
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>201</v>
       </c>
@@ -3286,7 +3288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>545</v>
       </c>
@@ -3296,7 +3298,7 @@
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>543</v>
       </c>
@@ -3306,7 +3308,7 @@
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>204</v>
       </c>
@@ -3318,7 +3320,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>206</v>
       </c>
@@ -3330,7 +3332,7 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>208</v>
       </c>
@@ -3342,7 +3344,7 @@
       </c>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>210</v>
       </c>
@@ -3354,7 +3356,7 @@
       </c>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>441</v>
       </c>
@@ -3368,7 +3370,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>442</v>
       </c>
@@ -3382,7 +3384,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>444</v>
       </c>
@@ -3393,7 +3395,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>443</v>
       </c>
@@ -3404,7 +3406,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>547</v>
       </c>
@@ -3415,7 +3417,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>549</v>
       </c>
@@ -3426,7 +3428,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>551</v>
       </c>
@@ -3448,22 +3450,22 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3495,7 +3497,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3518,7 +3520,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3541,7 +3543,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3564,7 +3566,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3587,7 +3589,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -3610,7 +3612,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -3633,7 +3635,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -3656,7 +3658,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -3679,7 +3681,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -3702,7 +3704,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -3725,7 +3727,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -3748,7 +3750,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -3771,7 +3773,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -3794,7 +3796,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -3817,7 +3819,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -3840,7 +3842,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -3863,7 +3865,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -3886,7 +3888,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -3909,7 +3911,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -3932,7 +3934,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -3955,7 +3957,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -3978,7 +3980,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -3998,7 +4000,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -4021,7 +4023,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
@@ -4044,7 +4046,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
@@ -4067,7 +4069,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
@@ -4090,7 +4092,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -4113,7 +4115,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
@@ -4136,7 +4138,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -4159,7 +4161,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
@@ -4182,7 +4184,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>98</v>
       </c>
@@ -4205,7 +4207,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -4228,7 +4230,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>102</v>
       </c>
@@ -4251,7 +4253,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -4274,7 +4276,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>107</v>
       </c>
@@ -4297,7 +4299,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -4305,7 +4307,7 @@
         <v>110</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="H37" t="e">
         <f t="shared" si="3"/>
@@ -4320,15 +4322,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>572</v>
+      <c r="C38" s="11" t="s">
+        <v>541</v>
       </c>
       <c r="H38" t="e">
         <f t="shared" si="3"/>
@@ -4343,15 +4345,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="21" t="s">
-        <v>572</v>
+      <c r="C39" s="11" t="s">
+        <v>541</v>
       </c>
       <c r="H39" t="e">
         <f t="shared" si="3"/>
@@ -4366,15 +4368,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="21" t="s">
-        <v>572</v>
+      <c r="C40" s="11" t="s">
+        <v>541</v>
       </c>
       <c r="H40" t="e">
         <f t="shared" si="3"/>
@@ -4389,7 +4391,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>120</v>
       </c>
@@ -4412,7 +4414,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>122</v>
       </c>
@@ -4435,7 +4437,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>125</v>
       </c>
@@ -4458,7 +4460,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>128</v>
       </c>
@@ -4481,7 +4483,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>133</v>
       </c>
@@ -4504,7 +4506,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>135</v>
       </c>
@@ -4527,7 +4529,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>138</v>
       </c>
@@ -4550,7 +4552,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>141</v>
       </c>
@@ -4573,7 +4575,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>143</v>
       </c>
@@ -4596,7 +4598,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>147</v>
       </c>
@@ -4619,7 +4621,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>149</v>
       </c>
@@ -4642,7 +4644,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>152</v>
       </c>
@@ -4665,7 +4667,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>155</v>
       </c>
@@ -4688,7 +4690,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>158</v>
       </c>
@@ -4711,7 +4713,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>160</v>
       </c>
@@ -4734,7 +4736,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>162</v>
       </c>
@@ -4757,7 +4759,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>164</v>
       </c>
@@ -4780,7 +4782,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>166</v>
       </c>
@@ -4803,7 +4805,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>168</v>
       </c>
@@ -4826,7 +4828,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -4849,7 +4851,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>176</v>
       </c>
@@ -4872,7 +4874,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>178</v>
       </c>
@@ -4895,7 +4897,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>182</v>
       </c>
@@ -4918,7 +4920,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>184</v>
       </c>
@@ -4941,7 +4943,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>186</v>
       </c>
@@ -4964,7 +4966,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>189</v>
       </c>
@@ -4987,7 +4989,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>191</v>
       </c>
@@ -5010,7 +5012,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>193</v>
       </c>
@@ -5033,7 +5035,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>195</v>
       </c>
@@ -5056,7 +5058,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>197</v>
       </c>
@@ -5079,7 +5081,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>199</v>
       </c>
@@ -5102,7 +5104,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>201</v>
       </c>
@@ -5125,7 +5127,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>545</v>
       </c>
@@ -5148,7 +5150,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>543</v>
       </c>
@@ -5171,7 +5173,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>204</v>
       </c>
@@ -5194,7 +5196,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>206</v>
       </c>
@@ -5217,7 +5219,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>208</v>
       </c>
@@ -5240,7 +5242,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>210</v>
       </c>
@@ -5263,7 +5265,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>441</v>
       </c>
@@ -5286,7 +5288,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>442</v>
       </c>
@@ -5309,7 +5311,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>573</v>
       </c>
@@ -5320,7 +5322,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>574</v>
       </c>
@@ -5331,7 +5333,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>547</v>
       </c>
@@ -5342,7 +5344,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>549</v>
       </c>
@@ -5353,7 +5355,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>551</v>
       </c>
@@ -5379,22 +5381,22 @@
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.73046875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.53125" style="3"/>
-    <col min="4" max="4" width="9.06640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="55.06640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.46484375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.9296875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.06640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.73046875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" style="3"/>
+    <col min="4" max="4" width="9.08984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="55.08984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.08984375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>214</v>
       </c>
@@ -5429,7 +5431,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>223</v>
       </c>
@@ -5458,7 +5460,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>223</v>
       </c>
@@ -5487,7 +5489,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>223</v>
       </c>
@@ -5516,7 +5518,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>223</v>
       </c>
@@ -5545,7 +5547,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>223</v>
       </c>
@@ -5574,7 +5576,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>223</v>
       </c>
@@ -5603,7 +5605,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>223</v>
       </c>
@@ -5635,7 +5637,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>223</v>
       </c>
@@ -5667,7 +5669,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>223</v>
       </c>
@@ -5699,7 +5701,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>223</v>
       </c>
@@ -5728,7 +5730,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>223</v>
       </c>
@@ -5760,7 +5762,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>223</v>
       </c>
@@ -5792,7 +5794,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>223</v>
       </c>
@@ -5821,7 +5823,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>223</v>
       </c>
@@ -5850,7 +5852,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>223</v>
       </c>
@@ -5882,7 +5884,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>223</v>
       </c>
@@ -5913,7 +5915,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>223</v>
       </c>
@@ -5946,7 +5948,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>223</v>
       </c>
@@ -5976,7 +5978,7 @@
       </c>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>223</v>
       </c>
@@ -6005,7 +6007,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>223</v>
       </c>
@@ -6034,7 +6036,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>223</v>
       </c>
@@ -6066,7 +6068,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>223</v>
       </c>
@@ -6095,7 +6097,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>223</v>
       </c>
@@ -6124,7 +6126,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>223</v>
       </c>
@@ -6153,7 +6155,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>223</v>
       </c>
@@ -6182,7 +6184,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>223</v>
       </c>
@@ -6211,7 +6213,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>223</v>
       </c>
@@ -6240,7 +6242,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>223</v>
       </c>
@@ -6269,7 +6271,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>223</v>
       </c>
@@ -6301,7 +6303,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>223</v>
       </c>
@@ -6330,7 +6332,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>223</v>
       </c>
@@ -6359,7 +6361,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>223</v>
       </c>
@@ -6388,7 +6390,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>223</v>
       </c>
@@ -6417,7 +6419,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>223</v>
       </c>
@@ -6446,7 +6448,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>223</v>
       </c>
@@ -6478,7 +6480,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>223</v>
       </c>
@@ -6510,7 +6512,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>223</v>
       </c>
@@ -6542,7 +6544,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>223</v>
       </c>
@@ -6574,7 +6576,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>223</v>
       </c>
@@ -6603,7 +6605,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>223</v>
       </c>
@@ -6632,7 +6634,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>223</v>
       </c>
@@ -6661,7 +6663,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>223</v>
       </c>
@@ -6690,7 +6692,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>223</v>
       </c>
@@ -6722,7 +6724,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>223</v>
       </c>
@@ -6751,7 +6753,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>223</v>
       </c>
@@ -6780,7 +6782,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>223</v>
       </c>
@@ -6809,7 +6811,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>259</v>
       </c>
@@ -6838,7 +6840,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>259</v>
       </c>
@@ -6867,7 +6869,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>259</v>
       </c>
@@ -6896,7 +6898,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>259</v>
       </c>
@@ -6925,7 +6927,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>259</v>
       </c>
@@ -6954,7 +6956,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>259</v>
       </c>
@@ -6983,7 +6985,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>259</v>
       </c>
@@ -7012,7 +7014,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>259</v>
       </c>
@@ -7041,7 +7043,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>259</v>
       </c>
@@ -7070,7 +7072,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>259</v>
       </c>
@@ -7099,7 +7101,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>259</v>
       </c>
@@ -7128,7 +7130,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>259</v>
       </c>
@@ -7159,7 +7161,7 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>259</v>
       </c>
@@ -7190,7 +7192,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>259</v>
       </c>
@@ -7219,7 +7221,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>259</v>
       </c>
@@ -7248,7 +7250,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>259</v>
       </c>
@@ -7277,7 +7279,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>259</v>
       </c>
@@ -7306,7 +7308,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>259</v>
       </c>
@@ -7335,7 +7337,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>259</v>
       </c>
@@ -7364,7 +7366,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>259</v>
       </c>
@@ -7393,7 +7395,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>259</v>
       </c>
@@ -7422,7 +7424,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>259</v>
       </c>
@@ -7451,7 +7453,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>259</v>
       </c>
@@ -7480,7 +7482,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>259</v>
       </c>
@@ -7509,7 +7511,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>259</v>
       </c>
@@ -7538,7 +7540,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>259</v>
       </c>
@@ -7567,7 +7569,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>259</v>
       </c>
@@ -7596,7 +7598,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>259</v>
       </c>
@@ -7625,7 +7627,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>259</v>
       </c>
@@ -7654,7 +7656,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>259</v>
       </c>
@@ -7683,7 +7685,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>259</v>
       </c>
@@ -7712,7 +7714,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>259</v>
       </c>
@@ -7741,7 +7743,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>259</v>
       </c>
@@ -7770,7 +7772,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>259</v>
       </c>
@@ -7799,7 +7801,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>259</v>
       </c>
@@ -7828,7 +7830,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>259</v>
       </c>
@@ -7857,7 +7859,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>259</v>
       </c>
@@ -7889,7 +7891,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>259</v>
       </c>
@@ -7921,7 +7923,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>259</v>
       </c>
@@ -7950,7 +7952,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>259</v>
       </c>
@@ -7982,7 +7984,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>259</v>
       </c>
@@ -8014,7 +8016,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>259</v>
       </c>
@@ -8049,7 +8051,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>259</v>
       </c>
@@ -8081,7 +8083,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>259</v>
       </c>
@@ -8113,7 +8115,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>259</v>
       </c>
@@ -8142,7 +8144,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>259</v>
       </c>
@@ -8171,7 +8173,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>259</v>
       </c>
@@ -8200,7 +8202,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>259</v>
       </c>
@@ -8229,7 +8231,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>259</v>
       </c>
@@ -8258,7 +8260,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>259</v>
       </c>
@@ -8287,7 +8289,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>259</v>
       </c>
@@ -8316,7 +8318,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>259</v>
       </c>
@@ -8345,7 +8347,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>259</v>
       </c>
@@ -8377,7 +8379,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>259</v>
       </c>
@@ -8406,7 +8408,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>259</v>
       </c>
@@ -8435,7 +8437,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>259</v>
       </c>
@@ -8466,7 +8468,7 @@
       <c r="J103" s="7"/>
       <c r="K103" s="9"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>259</v>
       </c>
@@ -8496,7 +8498,7 @@
       </c>
       <c r="J104" s="7"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>259</v>
       </c>
@@ -8527,7 +8529,7 @@
       <c r="J105" s="7"/>
       <c r="K105" s="9"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>259</v>
       </c>
@@ -8558,7 +8560,7 @@
       <c r="J106" s="7"/>
       <c r="K106" s="9"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>259</v>
       </c>
@@ -8589,7 +8591,7 @@
       <c r="J107" s="7"/>
       <c r="K107" s="9"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>259</v>
       </c>
@@ -8620,7 +8622,7 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>259</v>
       </c>
@@ -8651,7 +8653,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>259</v>
       </c>
@@ -8682,7 +8684,7 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>259</v>
       </c>
@@ -8711,7 +8713,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>259</v>
       </c>
@@ -8740,7 +8742,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>259</v>
       </c>
@@ -8769,7 +8771,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>353</v>
       </c>
@@ -8798,7 +8800,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>353</v>
       </c>
@@ -8827,7 +8829,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>353</v>
       </c>
@@ -8856,7 +8858,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>353</v>
       </c>
@@ -8885,7 +8887,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>353</v>
       </c>
@@ -8914,7 +8916,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>353</v>
       </c>
@@ -8943,7 +8945,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>353</v>
       </c>
@@ -8972,7 +8974,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>353</v>
       </c>
@@ -9001,7 +9003,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>353</v>
       </c>
@@ -9030,7 +9032,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>353</v>
       </c>
@@ -9059,7 +9061,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>353</v>
       </c>
@@ -9088,7 +9090,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>353</v>
       </c>
@@ -9117,7 +9119,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>353</v>
       </c>
@@ -9146,7 +9148,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>353</v>
       </c>
@@ -9175,7 +9177,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>353</v>
       </c>
@@ -9204,7 +9206,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>353</v>
       </c>
@@ -9233,7 +9235,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>353</v>
       </c>
@@ -9262,7 +9264,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>353</v>
       </c>
@@ -9291,7 +9293,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>353</v>
       </c>
@@ -9320,7 +9322,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>353</v>
       </c>
@@ -9349,7 +9351,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>353</v>
       </c>
@@ -9378,7 +9380,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>353</v>
       </c>
@@ -9407,7 +9409,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>353</v>
       </c>
@@ -9436,7 +9438,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>353</v>
       </c>
@@ -9465,7 +9467,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>353</v>
       </c>
@@ -9494,7 +9496,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>353</v>
       </c>
@@ -9523,7 +9525,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>353</v>
       </c>
@@ -9555,7 +9557,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>353</v>
       </c>
@@ -9584,7 +9586,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>353</v>
       </c>
@@ -9613,7 +9615,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>353</v>
       </c>
@@ -9642,7 +9644,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>353</v>
       </c>
@@ -9671,7 +9673,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>353</v>
       </c>
@@ -9700,7 +9702,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>353</v>
       </c>
@@ -9729,7 +9731,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>353</v>
       </c>
@@ -9758,7 +9760,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>353</v>
       </c>
@@ -9787,7 +9789,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>353</v>
       </c>
@@ -9816,7 +9818,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>353</v>
       </c>
@@ -9845,7 +9847,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>353</v>
       </c>
@@ -9874,7 +9876,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>353</v>
       </c>
@@ -9903,7 +9905,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>353</v>
       </c>
@@ -9932,7 +9934,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>353</v>
       </c>
@@ -9961,7 +9963,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>353</v>
       </c>
@@ -9990,7 +9992,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>353</v>
       </c>
@@ -10019,7 +10021,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>353</v>
       </c>
@@ -10048,7 +10050,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>353</v>
       </c>
@@ -10077,7 +10079,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>479</v>
       </c>
@@ -10085,7 +10087,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="7"/>
       <c r="B160" s="14"/>
       <c r="C160" s="7"/>
@@ -10098,12 +10100,12 @@
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B161" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -10116,12 +10118,12 @@
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B163" s="3" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -10134,12 +10136,12 @@
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B165" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -10152,12 +10154,12 @@
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B167" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -10170,12 +10172,12 @@
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B169" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -10188,12 +10190,12 @@
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B171" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -10206,7 +10208,7 @@
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B173" s="3" t="s">
         <v>486</v>
       </c>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1926BBC-EA29-465D-9D4C-3D6CE81AA713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2546EA9E-50E1-4012-BEA5-294F362FFFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3450,8 +3450,8 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5088,8 +5088,8 @@
       <c r="B71" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C71" s="21" t="s">
-        <v>572</v>
+      <c r="C71" s="11" t="s">
+        <v>541</v>
       </c>
       <c r="H71" t="e">
         <f t="shared" ref="H71:H80" si="6">D71/(D71+F71)</f>
@@ -5134,8 +5134,8 @@
       <c r="B73" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C73" s="21" t="s">
-        <v>572</v>
+      <c r="C73" s="11" t="s">
+        <v>541</v>
       </c>
       <c r="H73" t="e">
         <f t="shared" si="6"/>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2546EA9E-50E1-4012-BEA5-294F362FFFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036A574F-B7B9-4F05-83CD-206C9F54B985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="575">
   <si>
     <t>Feature_name</t>
   </si>
@@ -675,12 +675,6 @@
   </si>
   <si>
     <t xml:space="preserve"> length of sentence in words</t>
-  </si>
-  <si>
-    <t>does not catch "better" and not every "more"</t>
-  </si>
-  <si>
-    <t>does not catch every "most"</t>
   </si>
   <si>
     <t>function</t>
@@ -2322,8 +2316,8 @@
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2372,7 +2366,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -2386,7 +2380,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -2400,7 +2394,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -2502,7 +2496,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -2607,7 +2601,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>64</v>
@@ -2863,7 +2857,7 @@
         <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D41" s="2"/>
     </row>
@@ -2875,7 +2869,7 @@
         <v>123</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>124</v>
@@ -2889,7 +2883,7 @@
         <v>126</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>127</v>
@@ -2935,7 +2929,7 @@
         <v>136</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>137</v>
@@ -2973,7 +2967,7 @@
         <v>144</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>11</v>
@@ -2987,13 +2981,13 @@
         <v>146</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -3004,7 +2998,7 @@
         <v>148</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>11</v>
@@ -3180,7 +3174,7 @@
         <v>183</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>11</v>
@@ -3282,7 +3276,7 @@
         <v>202</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>8</v>
@@ -3290,20 +3284,20 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3358,38 +3352,34 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="D81" s="2"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="D82" s="2"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B83" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>203</v>
@@ -3397,10 +3387,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B84" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>203</v>
@@ -3408,32 +3398,32 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B85" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C85" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B86" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C86" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B87" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -3450,8 +3440,8 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3473,19 +3463,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>535</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>536</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>537</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>538</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>539</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>3</v>
@@ -3494,7 +3484,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -3505,7 +3495,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H2" t="e">
         <f>D2/(D2+F2)</f>
@@ -3528,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H3" t="e">
         <f>D3/(D3+F3)</f>
@@ -3551,7 +3541,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H4" t="e">
         <f t="shared" ref="H4:H8" si="0">D4/(D4+F4)</f>
@@ -3574,7 +3564,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H5" t="e">
         <f t="shared" si="0"/>
@@ -3597,7 +3587,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H6" t="e">
         <f t="shared" si="0"/>
@@ -3620,7 +3610,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H7" t="e">
         <f t="shared" si="0"/>
@@ -3643,7 +3633,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H8" t="e">
         <f t="shared" si="0"/>
@@ -3666,7 +3656,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H9" t="e">
         <f t="shared" ref="H9:H70" si="3">D9/(D9+F9)</f>
@@ -3689,7 +3679,7 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H10" t="e">
         <f t="shared" si="3"/>
@@ -3712,7 +3702,7 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H11" t="e">
         <f t="shared" si="3"/>
@@ -3735,7 +3725,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H12" t="e">
         <f t="shared" si="3"/>
@@ -3758,7 +3748,7 @@
         <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H13" t="e">
         <f t="shared" si="3"/>
@@ -3781,7 +3771,7 @@
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H14" t="e">
         <f t="shared" si="3"/>
@@ -3804,7 +3794,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H15" t="e">
         <f t="shared" si="3"/>
@@ -3827,7 +3817,7 @@
         <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H16" t="e">
         <f t="shared" si="3"/>
@@ -3850,7 +3840,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H17" t="e">
         <f t="shared" si="3"/>
@@ -3873,7 +3863,7 @@
         <v>55</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H18" t="e">
         <f t="shared" si="3"/>
@@ -3896,7 +3886,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H19" t="e">
         <f t="shared" si="3"/>
@@ -3919,7 +3909,7 @@
         <v>61</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H20" t="e">
         <f t="shared" si="3"/>
@@ -3942,7 +3932,7 @@
         <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H21" t="e">
         <f t="shared" si="3"/>
@@ -3965,7 +3955,7 @@
         <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H22" t="e">
         <f t="shared" si="3"/>
@@ -4008,7 +3998,7 @@
         <v>73</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H24" t="e">
         <f t="shared" si="3"/>
@@ -4031,7 +4021,7 @@
         <v>76</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H25" t="e">
         <f t="shared" si="3"/>
@@ -4054,7 +4044,7 @@
         <v>80</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H26" t="e">
         <f t="shared" si="3"/>
@@ -4077,7 +4067,7 @@
         <v>84</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H27" t="e">
         <f t="shared" si="3"/>
@@ -4100,7 +4090,7 @@
         <v>88</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H28" t="e">
         <f t="shared" si="3"/>
@@ -4123,7 +4113,7 @@
         <v>90</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H29" t="e">
         <f t="shared" si="3"/>
@@ -4146,7 +4136,7 @@
         <v>93</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H30" t="e">
         <f t="shared" si="3"/>
@@ -4169,7 +4159,7 @@
         <v>96</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H31" t="e">
         <f t="shared" si="3"/>
@@ -4192,7 +4182,7 @@
         <v>99</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H32" t="e">
         <f t="shared" si="3"/>
@@ -4215,7 +4205,7 @@
         <v>101</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H33" t="e">
         <f t="shared" si="3"/>
@@ -4238,7 +4228,7 @@
         <v>103</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H34" t="e">
         <f t="shared" si="3"/>
@@ -4261,7 +4251,7 @@
         <v>105</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H35" t="e">
         <f t="shared" si="3"/>
@@ -4284,7 +4274,7 @@
         <v>108</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H36" t="e">
         <f t="shared" si="3"/>
@@ -4307,7 +4297,7 @@
         <v>110</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H37" t="e">
         <f t="shared" si="3"/>
@@ -4330,7 +4320,7 @@
         <v>113</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H38" t="e">
         <f t="shared" si="3"/>
@@ -4353,7 +4343,7 @@
         <v>116</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H39" t="e">
         <f t="shared" si="3"/>
@@ -4376,7 +4366,7 @@
         <v>118</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H40" t="e">
         <f t="shared" si="3"/>
@@ -4399,7 +4389,7 @@
         <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H41" t="e">
         <f t="shared" si="3"/>
@@ -4422,7 +4412,7 @@
         <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H42" t="e">
         <f t="shared" si="3"/>
@@ -4445,7 +4435,7 @@
         <v>126</v>
       </c>
       <c r="C43" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H43" t="e">
         <f t="shared" si="3"/>
@@ -4468,7 +4458,7 @@
         <v>129</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H44" t="e">
         <f t="shared" si="3"/>
@@ -4491,7 +4481,7 @@
         <v>134</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H45" t="e">
         <f t="shared" si="3"/>
@@ -4514,7 +4504,7 @@
         <v>136</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H46" t="e">
         <f t="shared" si="3"/>
@@ -4537,7 +4527,7 @@
         <v>139</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H47" t="e">
         <f t="shared" si="3"/>
@@ -4560,7 +4550,7 @@
         <v>142</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H48" t="e">
         <f t="shared" si="3"/>
@@ -4580,10 +4570,10 @@
         <v>143</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H49" t="e">
         <f t="shared" si="3"/>
@@ -4606,7 +4596,7 @@
         <v>148</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H50" t="e">
         <f t="shared" si="3"/>
@@ -4629,7 +4619,7 @@
         <v>150</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H51" t="e">
         <f t="shared" si="3"/>
@@ -4652,7 +4642,7 @@
         <v>153</v>
       </c>
       <c r="C52" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H52" t="e">
         <f t="shared" si="3"/>
@@ -4674,8 +4664,8 @@
       <c r="B53" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>572</v>
+      <c r="C53" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="H53" t="e">
         <f t="shared" si="3"/>
@@ -4698,7 +4688,7 @@
         <v>159</v>
       </c>
       <c r="C54" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H54" t="e">
         <f t="shared" si="3"/>
@@ -4721,7 +4711,7 @@
         <v>161</v>
       </c>
       <c r="C55" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H55" t="e">
         <f t="shared" si="3"/>
@@ -4744,7 +4734,7 @@
         <v>163</v>
       </c>
       <c r="C56" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H56" t="e">
         <f t="shared" si="3"/>
@@ -4767,7 +4757,7 @@
         <v>165</v>
       </c>
       <c r="C57" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H57" t="e">
         <f t="shared" si="3"/>
@@ -4790,7 +4780,7 @@
         <v>167</v>
       </c>
       <c r="C58" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H58" t="e">
         <f t="shared" si="3"/>
@@ -4813,7 +4803,7 @@
         <v>169</v>
       </c>
       <c r="C59" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H59" t="e">
         <f t="shared" si="3"/>
@@ -4836,7 +4826,7 @@
         <v>173</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H60" t="e">
         <f t="shared" si="3"/>
@@ -4859,7 +4849,7 @@
         <v>177</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H61" t="e">
         <f t="shared" si="3"/>
@@ -4882,7 +4872,7 @@
         <v>179</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H62" t="e">
         <f t="shared" si="3"/>
@@ -4905,7 +4895,7 @@
         <v>183</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H63" t="e">
         <f t="shared" si="3"/>
@@ -4928,7 +4918,7 @@
         <v>185</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H64" t="e">
         <f t="shared" si="3"/>
@@ -4951,7 +4941,7 @@
         <v>187</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H65" t="e">
         <f t="shared" si="3"/>
@@ -4974,7 +4964,7 @@
         <v>190</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H66" t="e">
         <f t="shared" si="3"/>
@@ -4997,7 +4987,7 @@
         <v>192</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H67" t="e">
         <f t="shared" si="3"/>
@@ -5020,7 +5010,7 @@
         <v>194</v>
       </c>
       <c r="C68" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H68" t="e">
         <f t="shared" si="3"/>
@@ -5043,7 +5033,7 @@
         <v>196</v>
       </c>
       <c r="C69" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H69" t="e">
         <f t="shared" si="3"/>
@@ -5065,8 +5055,8 @@
       <c r="B70" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C70" s="21" t="s">
-        <v>572</v>
+      <c r="C70" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="H70" t="e">
         <f t="shared" si="3"/>
@@ -5089,7 +5079,7 @@
         <v>200</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H71" t="e">
         <f t="shared" ref="H71:H80" si="6">D71/(D71+F71)</f>
@@ -5111,8 +5101,8 @@
       <c r="B72" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C72" s="21" t="s">
-        <v>572</v>
+      <c r="C72" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="H72" t="e">
         <f t="shared" si="6"/>
@@ -5129,13 +5119,13 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H73" t="e">
         <f t="shared" si="6"/>
@@ -5152,13 +5142,13 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>572</v>
+        <v>540</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="H74" t="e">
         <f t="shared" si="6"/>
@@ -5181,7 +5171,7 @@
         <v>205</v>
       </c>
       <c r="C75" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H75" t="e">
         <f t="shared" si="6"/>
@@ -5204,7 +5194,7 @@
         <v>207</v>
       </c>
       <c r="C76" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H76" t="e">
         <f t="shared" si="6"/>
@@ -5227,7 +5217,7 @@
         <v>209</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H77" t="e">
         <f t="shared" si="6"/>
@@ -5250,7 +5240,7 @@
         <v>211</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H78" t="e">
         <f t="shared" si="6"/>
@@ -5267,13 +5257,13 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>572</v>
+        <v>443</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="H79" t="e">
         <f t="shared" si="6"/>
@@ -5290,13 +5280,13 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H80" t="e">
         <f t="shared" si="6"/>
@@ -5313,57 +5303,57 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B81" t="s">
-        <v>447</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>572</v>
+        <v>445</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B82" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B83" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B84" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B85" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -5398,54 +5388,54 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="J1" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>473</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="D2" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="F2" s="3">
         <v>2</v>
@@ -5454,56 +5444,56 @@
         <v>2</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="D3" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10">
-        <v>1</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>228</v>
-      </c>
       <c r="I3" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="D4" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>226</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
@@ -5512,27 +5502,27 @@
         <v>2</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -5541,27 +5531,27 @@
         <v>1</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
@@ -5570,27 +5560,27 @@
         <v>2</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -5599,27 +5589,27 @@
         <v>1</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F8" s="12">
         <v>1</v>
@@ -5628,30 +5618,30 @@
         <v>0</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F9" s="12">
         <v>1</v>
@@ -5660,30 +5650,30 @@
         <v>0</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>234</v>
       </c>
       <c r="F10" s="12">
         <v>1</v>
@@ -5692,30 +5682,30 @@
         <v>0</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>233</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>235</v>
       </c>
       <c r="F11" s="12">
         <v>1</v>
@@ -5724,27 +5714,27 @@
         <v>0</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F12" s="12">
         <v>1</v>
@@ -5753,30 +5743,30 @@
         <v>0</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F13" s="12">
         <v>1</v>
@@ -5785,30 +5775,30 @@
         <v>0</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F14" s="12">
         <v>1</v>
@@ -5817,27 +5807,27 @@
         <v>1</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -5846,27 +5836,27 @@
         <v>0</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="F16" s="7">
         <v>1</v>
@@ -5875,30 +5865,30 @@
         <v>0</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F17" s="7">
         <v>1</v>
@@ -5907,29 +5897,29 @@
         <v>0</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F18" s="7">
         <v>1</v>
@@ -5938,31 +5928,31 @@
         <v>0</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F19" s="7">
         <v>1</v>
@@ -5971,28 +5961,28 @@
         <v>0</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F20" s="7">
         <v>1</v>
@@ -6001,27 +5991,27 @@
         <v>1</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F21" s="7">
         <v>1</v>
@@ -6030,27 +6020,27 @@
         <v>1</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F22" s="7">
         <v>1</v>
@@ -6059,30 +6049,30 @@
         <v>1</v>
       </c>
       <c r="H22" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>525</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F23" s="7">
         <v>1</v>
@@ -6091,27 +6081,27 @@
         <v>1</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F24" s="7">
         <v>1</v>
@@ -6120,27 +6110,27 @@
         <v>1</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F25" s="7">
         <v>1</v>
@@ -6149,27 +6139,27 @@
         <v>1</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F26" s="7">
         <v>1</v>
@@ -6178,27 +6168,27 @@
         <v>0</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F27" s="7">
         <v>1</v>
@@ -6207,27 +6197,27 @@
         <v>0</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F28" s="7">
         <v>1</v>
@@ -6236,27 +6226,27 @@
         <v>0</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F29" s="7">
         <v>1</v>
@@ -6265,27 +6255,27 @@
         <v>1</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
@@ -6294,30 +6284,30 @@
         <v>0</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
@@ -6326,27 +6316,27 @@
         <v>0</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
@@ -6355,27 +6345,27 @@
         <v>0</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F33" s="3">
         <v>1</v>
@@ -6384,27 +6374,27 @@
         <v>0</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
@@ -6413,27 +6403,27 @@
         <v>0</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="F35" s="7">
         <v>1</v>
@@ -6442,27 +6432,27 @@
         <v>0</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>514</v>
       </c>
       <c r="F36" s="7">
         <v>1</v>
@@ -6471,30 +6461,30 @@
         <v>0</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F37" s="7">
         <v>1</v>
@@ -6503,30 +6493,30 @@
         <v>0</v>
       </c>
       <c r="H37" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="K37" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F38" s="7">
         <v>1</v>
@@ -6535,30 +6525,30 @@
         <v>1</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F39" s="7">
         <v>1</v>
@@ -6567,30 +6557,30 @@
         <v>1</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F40" s="7">
         <v>1</v>
@@ -6599,27 +6589,27 @@
         <v>1</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F41" s="7">
         <v>1</v>
@@ -6628,27 +6618,27 @@
         <v>1</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F42" s="3">
         <v>3</v>
@@ -6657,27 +6647,27 @@
         <v>3</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F43" s="7">
         <v>1</v>
@@ -6686,27 +6676,27 @@
         <v>1</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F44" s="3">
         <v>2</v>
@@ -6715,30 +6705,30 @@
         <v>1</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F45" s="3">
         <v>1</v>
@@ -6747,27 +6737,27 @@
         <v>1</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F46" s="3">
         <v>1</v>
@@ -6776,27 +6766,27 @@
         <v>1</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F47" s="3">
         <v>1</v>
@@ -6805,28 +6795,28 @@
         <v>1</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>261</v>
-      </c>
       <c r="F48" s="12">
         <v>1</v>
       </c>
@@ -6834,27 +6824,27 @@
         <v>1</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F49" s="12">
         <v>1</v>
@@ -6863,27 +6853,27 @@
         <v>0</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>262</v>
-      </c>
       <c r="D50" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F50" s="12">
         <v>1</v>
@@ -6892,27 +6882,27 @@
         <v>0</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="F51" s="12">
         <v>1</v>
@@ -6921,27 +6911,27 @@
         <v>0</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F52" s="12">
         <v>1</v>
@@ -6950,27 +6940,27 @@
         <v>0</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F53" s="12">
         <v>1</v>
@@ -6979,27 +6969,27 @@
         <v>0</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="F54" s="3">
         <v>2</v>
@@ -7008,27 +6998,27 @@
         <v>2</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F55" s="3">
         <v>1</v>
@@ -7037,28 +7027,28 @@
         <v>1</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="F56" s="3">
         <v>1</v>
       </c>
@@ -7066,27 +7056,27 @@
         <v>1</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F57" s="3">
         <v>1</v>
@@ -7095,27 +7085,27 @@
         <v>0</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F58" s="3">
         <v>1</v>
@@ -7124,27 +7114,27 @@
         <v>1</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F59" s="7">
         <v>1</v>
@@ -7153,29 +7143,29 @@
         <v>1</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F60" s="7">
         <v>1</v>
@@ -7184,29 +7174,29 @@
         <v>0</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F61" s="3">
         <v>1</v>
@@ -7215,27 +7205,27 @@
         <v>1</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F62" s="3">
         <v>1</v>
@@ -7244,28 +7234,28 @@
         <v>1</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="F63" s="3">
         <v>1</v>
       </c>
@@ -7273,27 +7263,27 @@
         <v>1</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F64" s="3">
         <v>1</v>
@@ -7302,27 +7292,27 @@
         <v>0</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F65" s="7">
         <v>1</v>
@@ -7331,28 +7321,28 @@
         <v>0</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B66" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="F66" s="7">
         <v>1</v>
       </c>
@@ -7360,28 +7350,28 @@
         <v>1</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="F67" s="7">
         <v>1</v>
       </c>
@@ -7389,27 +7379,27 @@
         <v>1</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F68" s="7">
         <v>1</v>
@@ -7418,28 +7408,28 @@
         <v>1</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="F69" s="7">
         <v>1</v>
       </c>
@@ -7447,27 +7437,27 @@
         <v>1</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F70" s="7">
         <v>1</v>
@@ -7476,28 +7466,28 @@
         <v>1</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>291</v>
-      </c>
       <c r="F71" s="7">
         <v>1</v>
       </c>
@@ -7505,27 +7495,27 @@
         <v>1</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F72" s="7">
         <v>1</v>
@@ -7534,28 +7524,28 @@
         <v>1</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="F73" s="7">
         <v>1</v>
       </c>
@@ -7563,28 +7553,28 @@
         <v>1</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B74" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="F74" s="3">
         <v>1</v>
       </c>
@@ -7592,28 +7582,28 @@
         <v>1</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="F75" s="3">
         <v>1</v>
       </c>
@@ -7621,27 +7611,27 @@
         <v>1</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F76" s="3">
         <v>1</v>
@@ -7650,28 +7640,28 @@
         <v>1</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>301</v>
-      </c>
       <c r="F77" s="3">
         <v>1</v>
       </c>
@@ -7679,27 +7669,27 @@
         <v>1</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F78" s="3">
         <v>1</v>
@@ -7708,27 +7698,27 @@
         <v>1</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F79" s="3">
         <v>1</v>
@@ -7737,27 +7727,27 @@
         <v>1</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F80" s="3">
         <v>1</v>
@@ -7766,27 +7756,27 @@
         <v>1</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F81" s="12">
         <v>1</v>
@@ -7795,27 +7785,27 @@
         <v>1</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F82" s="12">
         <v>1</v>
@@ -7824,28 +7814,28 @@
         <v>1</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E83" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>308</v>
-      </c>
       <c r="F83" s="12">
         <v>1</v>
       </c>
@@ -7853,27 +7843,27 @@
         <v>1</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B84" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E84" s="12" t="s">
         <v>309</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>311</v>
       </c>
       <c r="F84" s="12">
         <v>1</v>
@@ -7882,30 +7872,30 @@
         <v>0</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E85" s="12" t="s">
         <v>310</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>312</v>
       </c>
       <c r="F85" s="12">
         <v>1</v>
@@ -7914,30 +7904,30 @@
         <v>0</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F86" s="12">
         <v>1</v>
@@ -7946,27 +7936,27 @@
         <v>0</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C87" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E87" s="12" t="s">
         <v>313</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>315</v>
       </c>
       <c r="F87" s="12">
         <v>1</v>
@@ -7975,30 +7965,30 @@
         <v>0</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F88" s="12">
         <v>1</v>
@@ -8007,30 +7997,30 @@
         <v>0</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F89" s="12">
         <v>1</v>
@@ -8039,33 +8029,33 @@
         <v>0</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F90" s="12">
         <v>1</v>
@@ -8074,30 +8064,30 @@
         <v>0</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C91" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E91" s="12" t="s">
         <v>318</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>320</v>
       </c>
       <c r="F91" s="12">
         <v>1</v>
@@ -8106,31 +8096,31 @@
         <v>0</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B92" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E92" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>323</v>
-      </c>
       <c r="F92" s="12">
         <v>1</v>
       </c>
@@ -8138,28 +8128,28 @@
         <v>1</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C93" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E93" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>324</v>
-      </c>
       <c r="F93" s="12">
         <v>1</v>
       </c>
@@ -8167,27 +8157,27 @@
         <v>1</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F94" s="12">
         <v>1</v>
@@ -8196,28 +8186,28 @@
         <v>1</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>327</v>
-      </c>
       <c r="F95" s="3">
         <v>1</v>
       </c>
@@ -8225,27 +8215,27 @@
         <v>1</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
@@ -8254,28 +8244,28 @@
         <v>1</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C97" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="F97" s="3">
         <v>1</v>
       </c>
@@ -8283,27 +8273,27 @@
         <v>1</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
@@ -8312,28 +8302,28 @@
         <v>0</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C99" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="F99" s="3">
         <v>1</v>
       </c>
@@ -8341,28 +8331,28 @@
         <v>1</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>336</v>
-      </c>
       <c r="F100" s="3">
         <v>1</v>
       </c>
@@ -8370,30 +8360,30 @@
         <v>1</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K100" s="13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F101" s="12">
         <v>1</v>
@@ -8402,27 +8392,27 @@
         <v>1</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F102" s="12">
         <v>1</v>
@@ -8431,27 +8421,27 @@
         <v>1</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F103" s="12">
         <v>1</v>
@@ -8460,29 +8450,29 @@
         <v>1</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J103" s="7"/>
       <c r="K103" s="9"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F104" s="12">
         <v>1</v>
@@ -8491,28 +8481,28 @@
         <v>1</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J104" s="7"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F105" s="12">
         <v>1</v>
@@ -8521,29 +8511,29 @@
         <v>1</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J105" s="7"/>
       <c r="K105" s="9"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F106" s="12">
         <v>1</v>
@@ -8552,29 +8542,29 @@
         <v>1</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J106" s="7"/>
       <c r="K106" s="9"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F107" s="12">
         <v>1</v>
@@ -8583,29 +8573,29 @@
         <v>1</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J107" s="7"/>
       <c r="K107" s="9"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F108" s="12">
         <v>1</v>
@@ -8614,29 +8604,29 @@
         <v>1</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F109" s="12">
         <v>1</v>
@@ -8645,29 +8635,29 @@
         <v>1</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
@@ -8676,29 +8666,29 @@
         <v>1</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F111" s="3">
         <v>1</v>
@@ -8707,27 +8697,27 @@
         <v>1</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
@@ -8736,27 +8726,27 @@
         <v>1</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F113" s="3">
         <v>1</v>
@@ -8765,27 +8755,27 @@
         <v>1</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="D114" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E114" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="F114" s="3">
         <v>0</v>
@@ -8794,56 +8784,56 @@
         <v>0</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C115" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F115" s="3">
+        <v>1</v>
+      </c>
+      <c r="G115" s="3">
+        <v>1</v>
+      </c>
+      <c r="H115" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="F115" s="3">
-        <v>1</v>
-      </c>
-      <c r="G115" s="3">
-        <v>1</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>360</v>
-      </c>
       <c r="I115" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -8852,27 +8842,27 @@
         <v>1</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F117" s="3">
         <v>0</v>
@@ -8881,28 +8871,28 @@
         <v>0</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C118" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E118" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>365</v>
-      </c>
       <c r="F118" s="3">
         <v>1</v>
       </c>
@@ -8910,27 +8900,27 @@
         <v>1</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F119" s="3">
         <v>1</v>
@@ -8939,28 +8929,28 @@
         <v>1</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C120" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E120" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D120" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>368</v>
-      </c>
       <c r="F120" s="3">
         <v>1</v>
       </c>
@@ -8968,27 +8958,27 @@
         <v>1</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B121" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E121" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>371</v>
       </c>
       <c r="F121" s="3">
         <v>0</v>
@@ -8997,27 +8987,27 @@
         <v>0</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -9026,27 +9016,27 @@
         <v>1</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F123" s="3">
         <v>1</v>
@@ -9055,27 +9045,27 @@
         <v>1</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F124" s="3">
         <v>0</v>
@@ -9084,27 +9074,27 @@
         <v>0</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F125" s="3">
         <v>0</v>
@@ -9113,27 +9103,27 @@
         <v>0</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -9142,56 +9132,56 @@
         <v>1</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B127" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E127" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="F127" s="3">
+        <v>1</v>
+      </c>
+      <c r="G127" s="3">
+        <v>1</v>
+      </c>
+      <c r="H127" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="D127" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="F127" s="3">
-        <v>1</v>
-      </c>
-      <c r="G127" s="3">
-        <v>1</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>386</v>
-      </c>
       <c r="I127" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -9200,28 +9190,28 @@
         <v>1</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C129" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E129" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="D129" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>389</v>
-      </c>
       <c r="F129" s="3">
         <v>1</v>
       </c>
@@ -9229,27 +9219,27 @@
         <v>1</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F130" s="3">
         <v>0</v>
@@ -9258,85 +9248,85 @@
         <v>0</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C131" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F131" s="3">
+        <v>1</v>
+      </c>
+      <c r="G131" s="3">
+        <v>1</v>
+      </c>
+      <c r="H131" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D131" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="F131" s="3">
-        <v>1</v>
-      </c>
-      <c r="G131" s="3">
-        <v>1</v>
-      </c>
-      <c r="H131" s="3" t="s">
-        <v>393</v>
-      </c>
       <c r="I131" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C132" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F132" s="3">
+        <v>1</v>
+      </c>
+      <c r="G132" s="3">
+        <v>1</v>
+      </c>
+      <c r="H132" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="D132" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="F132" s="3">
-        <v>1</v>
-      </c>
-      <c r="G132" s="3">
-        <v>1</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>386</v>
-      </c>
       <c r="I132" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F133" s="3">
         <v>1</v>
@@ -9345,28 +9335,28 @@
         <v>1</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C134" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E134" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="D134" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>397</v>
-      </c>
       <c r="F134" s="3">
         <v>1</v>
       </c>
@@ -9374,27 +9364,27 @@
         <v>1</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F135" s="3">
         <v>2</v>
@@ -9403,27 +9393,27 @@
         <v>2</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F136" s="3">
         <v>0</v>
@@ -9432,27 +9422,27 @@
         <v>0</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F137" s="3">
         <v>1</v>
@@ -9461,28 +9451,28 @@
         <v>1</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B138" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E138" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>403</v>
-      </c>
       <c r="F138" s="3">
         <v>1</v>
       </c>
@@ -9490,27 +9480,27 @@
         <v>1</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I138" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F139" s="3">
         <v>1</v>
@@ -9519,27 +9509,27 @@
         <v>1</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I139" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F140" s="3">
         <v>1</v>
@@ -9548,30 +9538,30 @@
         <v>0</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I140" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F141" s="3">
         <v>1</v>
@@ -9580,27 +9570,27 @@
         <v>1</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I141" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F142" s="3">
         <v>2</v>
@@ -9609,27 +9599,27 @@
         <v>2</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I142" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F143" s="3">
         <v>1</v>
@@ -9638,27 +9628,27 @@
         <v>1</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I143" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F144" s="3">
         <v>1</v>
@@ -9667,27 +9657,27 @@
         <v>1</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I144" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F145" s="3">
         <v>1</v>
@@ -9696,28 +9686,28 @@
         <v>1</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I145" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E146" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>418</v>
-      </c>
       <c r="F146" s="3">
         <v>1</v>
       </c>
@@ -9725,27 +9715,27 @@
         <v>1</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F147" s="3">
         <v>1</v>
@@ -9754,56 +9744,56 @@
         <v>1</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C148" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F148" s="3">
+        <v>1</v>
+      </c>
+      <c r="G148" s="3">
+        <v>1</v>
+      </c>
+      <c r="H148" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="D148" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="F148" s="3">
-        <v>1</v>
-      </c>
-      <c r="G148" s="3">
-        <v>1</v>
-      </c>
-      <c r="H148" s="3" t="s">
-        <v>423</v>
-      </c>
       <c r="I148" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F149" s="3">
         <v>1</v>
@@ -9812,27 +9802,27 @@
         <v>1</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F150" s="3">
         <v>1</v>
@@ -9841,27 +9831,27 @@
         <v>1</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F151" s="3">
         <v>1</v>
@@ -9870,27 +9860,27 @@
         <v>1</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F152" s="3">
         <v>1</v>
@@ -9899,28 +9889,28 @@
         <v>1</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B153" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E153" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>432</v>
-      </c>
       <c r="F153" s="3">
         <v>1</v>
       </c>
@@ -9928,27 +9918,27 @@
         <v>1</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
@@ -9957,27 +9947,27 @@
         <v>1</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F155" s="3">
         <v>1</v>
@@ -9986,56 +9976,56 @@
         <v>1</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C156" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F156" s="3">
+        <v>1</v>
+      </c>
+      <c r="G156" s="3">
+        <v>1</v>
+      </c>
+      <c r="H156" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="D156" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="F156" s="3">
-        <v>1</v>
-      </c>
-      <c r="G156" s="3">
-        <v>1</v>
-      </c>
-      <c r="H156" s="3" t="s">
-        <v>437</v>
-      </c>
       <c r="I156" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F157" s="3">
         <v>1</v>
@@ -10044,47 +10034,47 @@
         <v>1</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B158" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E158" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="F158" s="3">
+        <v>1</v>
+      </c>
+      <c r="G158" s="3">
+        <v>1</v>
+      </c>
+      <c r="H158" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D158" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="F158" s="3">
-        <v>1</v>
-      </c>
-      <c r="G158" s="3">
-        <v>1</v>
-      </c>
-      <c r="H158" s="3" t="s">
-        <v>372</v>
-      </c>
       <c r="I158" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
@@ -10102,7 +10092,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B161" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.35">
@@ -10120,7 +10110,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B163" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.35">
@@ -10138,7 +10128,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B165" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.35">
@@ -10156,7 +10146,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B167" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.35">
@@ -10174,7 +10164,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B169" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.35">
@@ -10192,7 +10182,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B171" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.35">
@@ -10210,7 +10200,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B173" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036A574F-B7B9-4F05-83CD-206C9F54B985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD13995B-1E63-40DC-AFDE-26EA13BB46A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3440,8 +3440,8 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4526,8 +4526,8 @@
       <c r="B47" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="21" t="s">
-        <v>570</v>
+      <c r="C47" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="H47" t="e">
         <f t="shared" si="3"/>
@@ -4595,8 +4595,8 @@
       <c r="B50" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="21" t="s">
-        <v>570</v>
+      <c r="C50" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="H50" t="e">
         <f t="shared" si="3"/>
@@ -4757,7 +4757,7 @@
         <v>165</v>
       </c>
       <c r="C57" t="s">
-        <v>566</v>
+        <v>539</v>
       </c>
       <c r="H57" t="e">
         <f t="shared" si="3"/>
@@ -4780,7 +4780,7 @@
         <v>167</v>
       </c>
       <c r="C58" t="s">
-        <v>566</v>
+        <v>539</v>
       </c>
       <c r="H58" t="e">
         <f t="shared" si="3"/>
@@ -4963,8 +4963,8 @@
       <c r="B66" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C66" s="21" t="s">
-        <v>570</v>
+      <c r="C66" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="H66" t="e">
         <f t="shared" si="3"/>
@@ -4986,8 +4986,8 @@
       <c r="B67" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C67" s="21" t="s">
-        <v>570</v>
+      <c r="C67" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="H67" t="e">
         <f t="shared" si="3"/>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ratos\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD13995B-1E63-40DC-AFDE-26EA13BB46A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96070FBB-F3B8-4CC1-B857-56DF382D752A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_precision_recall" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="576">
   <si>
     <t>Feature_name</t>
   </si>
@@ -1759,9 +1757,6 @@
     <t>RT (re-do once Axel is done wiht the new function)</t>
   </si>
   <si>
-    <t>things to discuss</t>
-  </si>
-  <si>
     <t>good to go</t>
   </si>
   <si>
@@ -1771,10 +1766,16 @@
     <t>"superlatives_ana_215"</t>
   </si>
   <si>
-    <t>good to go?</t>
-  </si>
-  <si>
     <t xml:space="preserve">good to go (check meeting 01.04.2022 after testing if necessary) </t>
+  </si>
+  <si>
+    <t>Axel is checking the function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">good to go (discard in the likely case it is very innacurate) </t>
+  </si>
+  <si>
+    <t>doesn't need manual checking</t>
   </si>
 </sst>
 </file>
@@ -1920,7 +1921,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2017,7 +2018,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2320,14 +2321,14 @@
       <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="32.453125" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.796875" customWidth="1"/>
+    <col min="2" max="2" width="32.46484375" customWidth="1"/>
+    <col min="3" max="3" width="23.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2344,7 +2345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2358,7 +2359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2372,7 +2373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2386,7 +2387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -2414,7 +2415,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2428,7 +2429,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2440,7 +2441,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -2452,7 +2453,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -2464,7 +2465,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -2476,7 +2477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2488,7 +2489,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="20" t="s">
         <v>38</v>
       </c>
@@ -2499,7 +2500,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -2513,7 +2514,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2527,7 +2528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2539,7 +2540,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2553,7 +2554,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -2579,7 +2580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -2593,7 +2594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -2607,7 +2608,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -2621,7 +2622,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -2633,7 +2634,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -2645,7 +2646,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
@@ -2659,7 +2660,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
@@ -2673,7 +2674,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
@@ -2687,7 +2688,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -2701,7 +2702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
@@ -2715,7 +2716,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -2729,7 +2730,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
@@ -2741,7 +2742,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>98</v>
       </c>
@@ -2753,7 +2754,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -2765,7 +2766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>102</v>
       </c>
@@ -2777,7 +2778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -2791,7 +2792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>107</v>
       </c>
@@ -2803,7 +2804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -2815,7 +2816,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -2827,7 +2828,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
@@ -2837,7 +2838,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>117</v>
       </c>
@@ -2849,7 +2850,7 @@
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>120</v>
       </c>
@@ -2861,7 +2862,7 @@
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>122</v>
       </c>
@@ -2875,7 +2876,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>125</v>
       </c>
@@ -2889,7 +2890,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>128</v>
       </c>
@@ -2901,7 +2902,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>131</v>
       </c>
@@ -2911,7 +2912,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>133</v>
       </c>
@@ -2921,7 +2922,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>135</v>
       </c>
@@ -2935,7 +2936,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>138</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>141</v>
       </c>
@@ -2959,7 +2960,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>143</v>
       </c>
@@ -2973,7 +2974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="18" t="s">
         <v>145</v>
       </c>
@@ -2990,7 +2991,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>147</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>149</v>
       </c>
@@ -3018,7 +3019,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>152</v>
       </c>
@@ -3032,7 +3033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>155</v>
       </c>
@@ -3046,7 +3047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>158</v>
       </c>
@@ -3058,7 +3059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>160</v>
       </c>
@@ -3072,7 +3073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>162</v>
       </c>
@@ -3086,7 +3087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>164</v>
       </c>
@@ -3100,7 +3101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>166</v>
       </c>
@@ -3112,7 +3113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>168</v>
       </c>
@@ -3126,7 +3127,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>172</v>
       </c>
@@ -3140,7 +3141,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>176</v>
       </c>
@@ -3152,7 +3153,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>178</v>
       </c>
@@ -3166,7 +3167,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>182</v>
       </c>
@@ -3180,7 +3181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>184</v>
       </c>
@@ -3192,7 +3193,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>186</v>
       </c>
@@ -3204,7 +3205,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>189</v>
       </c>
@@ -3216,7 +3217,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>191</v>
       </c>
@@ -3228,7 +3229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>193</v>
       </c>
@@ -3238,7 +3239,7 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>195</v>
       </c>
@@ -3248,7 +3249,7 @@
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>197</v>
       </c>
@@ -3258,7 +3259,7 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>199</v>
       </c>
@@ -3268,7 +3269,7 @@
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>201</v>
       </c>
@@ -3282,7 +3283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>543</v>
       </c>
@@ -3292,7 +3293,7 @@
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>541</v>
       </c>
@@ -3302,7 +3303,7 @@
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>204</v>
       </c>
@@ -3314,7 +3315,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>206</v>
       </c>
@@ -3326,7 +3327,7 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>208</v>
       </c>
@@ -3338,7 +3339,7 @@
       </c>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>210</v>
       </c>
@@ -3350,7 +3351,7 @@
       </c>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>439</v>
       </c>
@@ -3362,7 +3363,7 @@
       </c>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
         <v>440</v>
       </c>
@@ -3374,7 +3375,7 @@
       </c>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>442</v>
       </c>
@@ -3385,7 +3386,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>441</v>
       </c>
@@ -3396,7 +3397,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>545</v>
       </c>
@@ -3407,7 +3408,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>547</v>
       </c>
@@ -3418,7 +3419,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>549</v>
       </c>
@@ -3440,22 +3441,22 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.46484375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3510,7 +3511,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3533,7 +3534,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3541,7 +3542,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H4" t="e">
         <f t="shared" ref="H4:H8" si="0">D4/(D4+F4)</f>
@@ -3556,7 +3557,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3579,7 +3580,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -3602,14 +3603,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="21" t="s">
         <v>568</v>
       </c>
       <c r="H7" t="e">
@@ -3625,7 +3626,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -3648,7 +3649,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -3671,7 +3672,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -3694,7 +3695,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -3717,7 +3718,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -3725,7 +3726,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H12" t="e">
         <f t="shared" si="3"/>
@@ -3740,7 +3741,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -3763,7 +3764,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -3786,7 +3787,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -3794,7 +3795,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H15" t="e">
         <f t="shared" si="3"/>
@@ -3809,7 +3810,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -3832,7 +3833,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -3840,7 +3841,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H17" t="e">
         <f t="shared" si="3"/>
@@ -3855,7 +3856,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -3863,7 +3864,7 @@
         <v>55</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H18" t="e">
         <f t="shared" si="3"/>
@@ -3878,7 +3879,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -3886,7 +3887,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H19" t="e">
         <f t="shared" si="3"/>
@@ -3901,7 +3902,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -3909,7 +3910,7 @@
         <v>61</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H20" t="e">
         <f t="shared" si="3"/>
@@ -3924,7 +3925,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -3947,7 +3948,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -3970,13 +3971,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="C23" s="21" t="s">
+        <v>569</v>
+      </c>
       <c r="H23" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -3990,7 +3994,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -3998,7 +4002,7 @@
         <v>73</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H24" t="e">
         <f t="shared" si="3"/>
@@ -4013,7 +4017,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
@@ -4021,7 +4025,7 @@
         <v>76</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H25" t="e">
         <f t="shared" si="3"/>
@@ -4036,7 +4040,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
@@ -4044,7 +4048,7 @@
         <v>80</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H26" t="e">
         <f t="shared" si="3"/>
@@ -4059,7 +4063,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
@@ -4067,7 +4071,7 @@
         <v>84</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H27" t="e">
         <f t="shared" si="3"/>
@@ -4082,7 +4086,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -4090,7 +4094,7 @@
         <v>88</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H28" t="e">
         <f t="shared" si="3"/>
@@ -4105,7 +4109,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
@@ -4113,7 +4117,7 @@
         <v>90</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H29" t="e">
         <f t="shared" si="3"/>
@@ -4128,7 +4132,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -4136,7 +4140,7 @@
         <v>93</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H30" t="e">
         <f t="shared" si="3"/>
@@ -4151,14 +4155,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="21" t="s">
         <v>569</v>
       </c>
       <c r="H31" t="e">
@@ -4174,14 +4178,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="21" t="s">
         <v>569</v>
       </c>
       <c r="H32" t="e">
@@ -4197,7 +4201,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -4205,7 +4209,7 @@
         <v>101</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="H33" t="e">
         <f t="shared" si="3"/>
@@ -4220,7 +4224,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>102</v>
       </c>
@@ -4228,7 +4232,7 @@
         <v>103</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="H34" t="e">
         <f t="shared" si="3"/>
@@ -4243,7 +4247,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -4251,7 +4255,7 @@
         <v>105</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H35" t="e">
         <f t="shared" si="3"/>
@@ -4266,15 +4270,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="20" t="s">
-        <v>569</v>
+      <c r="C36" s="22" t="s">
+        <v>574</v>
       </c>
       <c r="H36" t="e">
         <f t="shared" si="3"/>
@@ -4289,7 +4293,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -4312,7 +4316,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -4335,7 +4339,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
@@ -4358,7 +4362,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>117</v>
       </c>
@@ -4381,7 +4385,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>120</v>
       </c>
@@ -4404,7 +4408,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>122</v>
       </c>
@@ -4427,7 +4431,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>125</v>
       </c>
@@ -4450,7 +4454,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>128</v>
       </c>
@@ -4458,7 +4462,7 @@
         <v>129</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H44" t="e">
         <f t="shared" si="3"/>
@@ -4473,15 +4477,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C45" s="20" t="s">
-        <v>569</v>
+      <c r="C45" s="11" t="s">
+        <v>575</v>
       </c>
       <c r="H45" t="e">
         <f t="shared" si="3"/>
@@ -4496,7 +4500,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>135</v>
       </c>
@@ -4504,7 +4508,7 @@
         <v>136</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H46" t="e">
         <f t="shared" si="3"/>
@@ -4519,7 +4523,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>138</v>
       </c>
@@ -4542,7 +4546,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>141</v>
       </c>
@@ -4550,7 +4554,7 @@
         <v>142</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H48" t="e">
         <f t="shared" si="3"/>
@@ -4565,7 +4569,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>143</v>
       </c>
@@ -4573,7 +4577,7 @@
         <v>565</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H49" t="e">
         <f t="shared" si="3"/>
@@ -4588,7 +4592,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>147</v>
       </c>
@@ -4611,7 +4615,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>149</v>
       </c>
@@ -4619,7 +4623,7 @@
         <v>150</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H51" t="e">
         <f t="shared" si="3"/>
@@ -4634,7 +4638,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>152</v>
       </c>
@@ -4657,7 +4661,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>155</v>
       </c>
@@ -4680,7 +4684,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>158</v>
       </c>
@@ -4703,7 +4707,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>160</v>
       </c>
@@ -4726,7 +4730,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>162</v>
       </c>
@@ -4749,7 +4753,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>164</v>
       </c>
@@ -4772,7 +4776,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>166</v>
       </c>
@@ -4795,7 +4799,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>168</v>
       </c>
@@ -4818,7 +4822,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -4826,7 +4830,7 @@
         <v>173</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H60" t="e">
         <f t="shared" si="3"/>
@@ -4841,7 +4845,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>176</v>
       </c>
@@ -4849,7 +4853,7 @@
         <v>177</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H61" t="e">
         <f t="shared" si="3"/>
@@ -4864,7 +4868,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>178</v>
       </c>
@@ -4872,7 +4876,7 @@
         <v>179</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H62" t="e">
         <f t="shared" si="3"/>
@@ -4887,7 +4891,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>182</v>
       </c>
@@ -4895,7 +4899,7 @@
         <v>183</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H63" t="e">
         <f t="shared" si="3"/>
@@ -4910,7 +4914,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>184</v>
       </c>
@@ -4918,7 +4922,7 @@
         <v>185</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H64" t="e">
         <f t="shared" si="3"/>
@@ -4933,7 +4937,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>186</v>
       </c>
@@ -4941,7 +4945,7 @@
         <v>187</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H65" t="e">
         <f t="shared" si="3"/>
@@ -4956,7 +4960,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>189</v>
       </c>
@@ -4979,7 +4983,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>191</v>
       </c>
@@ -5002,7 +5006,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>193</v>
       </c>
@@ -5025,7 +5029,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>195</v>
       </c>
@@ -5048,7 +5052,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>197</v>
       </c>
@@ -5071,7 +5075,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>199</v>
       </c>
@@ -5094,7 +5098,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>201</v>
       </c>
@@ -5117,7 +5121,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>543</v>
       </c>
@@ -5140,7 +5144,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>541</v>
       </c>
@@ -5163,7 +5167,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>204</v>
       </c>
@@ -5186,7 +5190,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>206</v>
       </c>
@@ -5209,7 +5213,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>208</v>
       </c>
@@ -5217,7 +5221,7 @@
         <v>209</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H77" t="e">
         <f t="shared" si="6"/>
@@ -5232,7 +5236,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>210</v>
       </c>
@@ -5240,7 +5244,7 @@
         <v>211</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H78" t="e">
         <f t="shared" si="6"/>
@@ -5255,7 +5259,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>439</v>
       </c>
@@ -5278,7 +5282,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>440</v>
       </c>
@@ -5286,7 +5290,7 @@
         <v>444</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H80" t="e">
         <f t="shared" si="6"/>
@@ -5301,9 +5305,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B81" t="s">
         <v>445</v>
@@ -5312,18 +5316,18 @@
         <v>539</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B82" t="s">
         <v>446</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>545</v>
       </c>
@@ -5331,10 +5335,10 @@
         <v>544</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>547</v>
       </c>
@@ -5342,18 +5346,18 @@
         <v>546</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>549</v>
       </c>
       <c r="B85" t="s">
         <v>548</v>
       </c>
-      <c r="C85" s="22" t="s">
-        <v>573</v>
+      <c r="C85" s="21" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -5371,22 +5375,22 @@
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" style="3"/>
-    <col min="4" max="4" width="9.08984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="55.08984375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.08984375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.73046875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.53125" style="3"/>
+    <col min="4" max="4" width="9.06640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="55.06640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.46484375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.9296875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.06640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.73046875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.796875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>212</v>
       </c>
@@ -5421,7 +5425,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>221</v>
       </c>
@@ -5450,7 +5454,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>221</v>
       </c>
@@ -5479,7 +5483,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>221</v>
       </c>
@@ -5508,7 +5512,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>221</v>
       </c>
@@ -5537,7 +5541,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>221</v>
       </c>
@@ -5566,7 +5570,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>221</v>
       </c>
@@ -5595,7 +5599,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>221</v>
       </c>
@@ -5627,7 +5631,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>221</v>
       </c>
@@ -5659,7 +5663,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>221</v>
       </c>
@@ -5691,7 +5695,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>221</v>
       </c>
@@ -5720,7 +5724,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>221</v>
       </c>
@@ -5752,7 +5756,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>221</v>
       </c>
@@ -5784,7 +5788,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>221</v>
       </c>
@@ -5813,7 +5817,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>221</v>
       </c>
@@ -5842,7 +5846,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>221</v>
       </c>
@@ -5874,7 +5878,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>221</v>
       </c>
@@ -5905,7 +5909,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>221</v>
       </c>
@@ -5938,7 +5942,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>221</v>
       </c>
@@ -5968,7 +5972,7 @@
       </c>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>221</v>
       </c>
@@ -5997,7 +6001,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>221</v>
       </c>
@@ -6026,7 +6030,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>221</v>
       </c>
@@ -6058,7 +6062,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>221</v>
       </c>
@@ -6087,7 +6091,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>221</v>
       </c>
@@ -6116,7 +6120,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>221</v>
       </c>
@@ -6145,7 +6149,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>221</v>
       </c>
@@ -6174,7 +6178,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>221</v>
       </c>
@@ -6203,7 +6207,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>221</v>
       </c>
@@ -6232,7 +6236,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>221</v>
       </c>
@@ -6261,7 +6265,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>221</v>
       </c>
@@ -6293,7 +6297,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>221</v>
       </c>
@@ -6322,7 +6326,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>221</v>
       </c>
@@ -6351,7 +6355,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>221</v>
       </c>
@@ -6380,7 +6384,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>221</v>
       </c>
@@ -6409,7 +6413,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>221</v>
       </c>
@@ -6438,7 +6442,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>221</v>
       </c>
@@ -6470,7 +6474,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>221</v>
       </c>
@@ -6502,7 +6506,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>221</v>
       </c>
@@ -6534,7 +6538,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>221</v>
       </c>
@@ -6566,7 +6570,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>221</v>
       </c>
@@ -6595,7 +6599,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>221</v>
       </c>
@@ -6624,7 +6628,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>221</v>
       </c>
@@ -6653,7 +6657,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>221</v>
       </c>
@@ -6682,7 +6686,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>221</v>
       </c>
@@ -6714,7 +6718,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>221</v>
       </c>
@@ -6743,7 +6747,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>221</v>
       </c>
@@ -6772,7 +6776,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>221</v>
       </c>
@@ -6801,7 +6805,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>257</v>
       </c>
@@ -6830,7 +6834,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>257</v>
       </c>
@@ -6859,7 +6863,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>257</v>
       </c>
@@ -6888,7 +6892,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>257</v>
       </c>
@@ -6917,7 +6921,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>257</v>
       </c>
@@ -6946,7 +6950,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>257</v>
       </c>
@@ -6975,7 +6979,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>257</v>
       </c>
@@ -7004,7 +7008,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>257</v>
       </c>
@@ -7033,7 +7037,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>257</v>
       </c>
@@ -7062,7 +7066,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>257</v>
       </c>
@@ -7091,7 +7095,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>257</v>
       </c>
@@ -7120,7 +7124,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="7" t="s">
         <v>257</v>
       </c>
@@ -7151,7 +7155,7 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="7" t="s">
         <v>257</v>
       </c>
@@ -7182,7 +7186,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>257</v>
       </c>
@@ -7211,7 +7215,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>257</v>
       </c>
@@ -7240,7 +7244,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>257</v>
       </c>
@@ -7269,7 +7273,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>257</v>
       </c>
@@ -7298,7 +7302,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>257</v>
       </c>
@@ -7327,7 +7331,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>257</v>
       </c>
@@ -7356,7 +7360,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>257</v>
       </c>
@@ -7385,7 +7389,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>257</v>
       </c>
@@ -7414,7 +7418,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>257</v>
       </c>
@@ -7443,7 +7447,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>257</v>
       </c>
@@ -7472,7 +7476,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>257</v>
       </c>
@@ -7501,7 +7505,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>257</v>
       </c>
@@ -7530,7 +7534,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>257</v>
       </c>
@@ -7559,7 +7563,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>257</v>
       </c>
@@ -7588,7 +7592,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>257</v>
       </c>
@@ -7617,7 +7621,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>257</v>
       </c>
@@ -7646,7 +7650,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>257</v>
       </c>
@@ -7675,7 +7679,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>257</v>
       </c>
@@ -7704,7 +7708,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>257</v>
       </c>
@@ -7733,7 +7737,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>257</v>
       </c>
@@ -7762,7 +7766,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>257</v>
       </c>
@@ -7791,7 +7795,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>257</v>
       </c>
@@ -7820,7 +7824,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>257</v>
       </c>
@@ -7849,7 +7853,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>257</v>
       </c>
@@ -7881,7 +7885,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>257</v>
       </c>
@@ -7913,7 +7917,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>257</v>
       </c>
@@ -7942,7 +7946,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>257</v>
       </c>
@@ -7974,7 +7978,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>257</v>
       </c>
@@ -8006,7 +8010,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>257</v>
       </c>
@@ -8041,7 +8045,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>257</v>
       </c>
@@ -8073,7 +8077,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>257</v>
       </c>
@@ -8105,7 +8109,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>257</v>
       </c>
@@ -8134,7 +8138,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>257</v>
       </c>
@@ -8163,7 +8167,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>257</v>
       </c>
@@ -8192,7 +8196,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>257</v>
       </c>
@@ -8221,7 +8225,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>257</v>
       </c>
@@ -8250,7 +8254,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>257</v>
       </c>
@@ -8279,7 +8283,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>257</v>
       </c>
@@ -8308,7 +8312,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>257</v>
       </c>
@@ -8337,7 +8341,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>257</v>
       </c>
@@ -8369,7 +8373,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
         <v>257</v>
       </c>
@@ -8398,7 +8402,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>257</v>
       </c>
@@ -8427,7 +8431,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
         <v>257</v>
       </c>
@@ -8458,7 +8462,7 @@
       <c r="J103" s="7"/>
       <c r="K103" s="9"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>257</v>
       </c>
@@ -8488,7 +8492,7 @@
       </c>
       <c r="J104" s="7"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>257</v>
       </c>
@@ -8519,7 +8523,7 @@
       <c r="J105" s="7"/>
       <c r="K105" s="9"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>257</v>
       </c>
@@ -8550,7 +8554,7 @@
       <c r="J106" s="7"/>
       <c r="K106" s="9"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
         <v>257</v>
       </c>
@@ -8581,7 +8585,7 @@
       <c r="J107" s="7"/>
       <c r="K107" s="9"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>257</v>
       </c>
@@ -8612,7 +8616,7 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>257</v>
       </c>
@@ -8643,7 +8647,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>257</v>
       </c>
@@ -8674,7 +8678,7 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
         <v>257</v>
       </c>
@@ -8703,7 +8707,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>257</v>
       </c>
@@ -8732,7 +8736,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
         <v>257</v>
       </c>
@@ -8761,7 +8765,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>351</v>
       </c>
@@ -8790,7 +8794,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
         <v>351</v>
       </c>
@@ -8819,7 +8823,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>351</v>
       </c>
@@ -8848,7 +8852,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
         <v>351</v>
       </c>
@@ -8877,7 +8881,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>351</v>
       </c>
@@ -8906,7 +8910,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
         <v>351</v>
       </c>
@@ -8935,7 +8939,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>351</v>
       </c>
@@ -8964,7 +8968,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
         <v>351</v>
       </c>
@@ -8993,7 +8997,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>351</v>
       </c>
@@ -9022,7 +9026,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
         <v>351</v>
       </c>
@@ -9051,7 +9055,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>351</v>
       </c>
@@ -9080,7 +9084,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
         <v>351</v>
       </c>
@@ -9109,7 +9113,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>351</v>
       </c>
@@ -9138,7 +9142,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
         <v>351</v>
       </c>
@@ -9167,7 +9171,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>351</v>
       </c>
@@ -9196,7 +9200,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
         <v>351</v>
       </c>
@@ -9225,7 +9229,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>351</v>
       </c>
@@ -9254,7 +9258,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
         <v>351</v>
       </c>
@@ -9283,7 +9287,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>351</v>
       </c>
@@ -9312,7 +9316,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
         <v>351</v>
       </c>
@@ -9341,7 +9345,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>351</v>
       </c>
@@ -9370,7 +9374,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
         <v>351</v>
       </c>
@@ -9399,7 +9403,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>351</v>
       </c>
@@ -9428,7 +9432,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
         <v>351</v>
       </c>
@@ -9457,7 +9461,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>351</v>
       </c>
@@ -9486,7 +9490,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A139" s="3" t="s">
         <v>351</v>
       </c>
@@ -9515,7 +9519,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>351</v>
       </c>
@@ -9547,7 +9551,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
         <v>351</v>
       </c>
@@ -9576,7 +9580,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>351</v>
       </c>
@@ -9605,7 +9609,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
         <v>351</v>
       </c>
@@ -9634,7 +9638,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>351</v>
       </c>
@@ -9663,7 +9667,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
         <v>351</v>
       </c>
@@ -9692,7 +9696,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>351</v>
       </c>
@@ -9721,7 +9725,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
         <v>351</v>
       </c>
@@ -9750,7 +9754,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>351</v>
       </c>
@@ -9779,7 +9783,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
         <v>351</v>
       </c>
@@ -9808,7 +9812,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
         <v>351</v>
       </c>
@@ -9837,7 +9841,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
         <v>351</v>
       </c>
@@ -9866,7 +9870,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
         <v>351</v>
       </c>
@@ -9895,7 +9899,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
         <v>351</v>
       </c>
@@ -9924,7 +9928,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
         <v>351</v>
       </c>
@@ -9953,7 +9957,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="s">
         <v>351</v>
       </c>
@@ -9982,7 +9986,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
         <v>351</v>
       </c>
@@ -10011,7 +10015,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A157" s="3" t="s">
         <v>351</v>
       </c>
@@ -10040,7 +10044,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="s">
         <v>351</v>
       </c>
@@ -10069,7 +10073,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A159" s="3" t="s">
         <v>477</v>
       </c>
@@ -10077,7 +10081,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A160" s="7"/>
       <c r="B160" s="14"/>
       <c r="C160" s="7"/>
@@ -10090,12 +10094,12 @@
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B161" s="3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -10108,12 +10112,12 @@
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B163" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -10126,12 +10130,12 @@
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B165" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -10144,12 +10148,12 @@
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B167" s="3" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -10162,12 +10166,12 @@
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B169" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -10180,12 +10184,12 @@
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B171" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -10198,7 +10202,7 @@
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B173" s="3" t="s">
         <v>484</v>
       </c>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ratos\Documents\GitHub\Reddit_MDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96070FBB-F3B8-4CC1-B857-56DF382D752A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184A90D1-4FB8-43B0-AD3B-F271025DEB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_precision_recall" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1921,7 +1923,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2018,7 +2020,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2317,18 +2319,18 @@
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.796875" customWidth="1"/>
-    <col min="2" max="2" width="32.46484375" customWidth="1"/>
-    <col min="3" max="3" width="23.265625" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2345,7 +2347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2359,7 +2361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2373,7 +2375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2387,7 +2389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2401,7 +2403,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -2415,7 +2417,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2429,7 +2431,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2441,7 +2443,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -2453,7 +2455,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -2465,7 +2467,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -2477,7 +2479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2489,7 +2491,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
         <v>38</v>
       </c>
@@ -2500,7 +2502,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -2514,7 +2516,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2528,7 +2530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2540,7 +2542,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2554,7 +2556,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -2566,7 +2568,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -2580,7 +2582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -2594,7 +2596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -2608,7 +2610,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -2622,7 +2624,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -2634,7 +2636,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -2646,7 +2648,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
@@ -2660,7 +2662,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
@@ -2674,7 +2676,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
@@ -2688,7 +2690,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -2702,7 +2704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
@@ -2716,7 +2718,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -2730,7 +2732,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
@@ -2742,7 +2744,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>98</v>
       </c>
@@ -2754,7 +2756,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -2766,7 +2768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>102</v>
       </c>
@@ -2778,7 +2780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -2792,7 +2794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>107</v>
       </c>
@@ -2804,7 +2806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -2816,7 +2818,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -2828,7 +2830,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
@@ -2838,7 +2840,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>117</v>
       </c>
@@ -2850,7 +2852,7 @@
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>120</v>
       </c>
@@ -2862,7 +2864,7 @@
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>122</v>
       </c>
@@ -2876,7 +2878,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>125</v>
       </c>
@@ -2890,7 +2892,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>128</v>
       </c>
@@ -2902,7 +2904,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>131</v>
       </c>
@@ -2912,7 +2914,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>133</v>
       </c>
@@ -2922,7 +2924,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>135</v>
       </c>
@@ -2936,7 +2938,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>138</v>
       </c>
@@ -2950,7 +2952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>141</v>
       </c>
@@ -2960,7 +2962,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>143</v>
       </c>
@@ -2974,7 +2976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
         <v>145</v>
       </c>
@@ -2991,7 +2993,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>147</v>
       </c>
@@ -3005,7 +3007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>149</v>
       </c>
@@ -3019,7 +3021,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>152</v>
       </c>
@@ -3033,7 +3035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>155</v>
       </c>
@@ -3047,7 +3049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>158</v>
       </c>
@@ -3059,7 +3061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>160</v>
       </c>
@@ -3073,7 +3075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>162</v>
       </c>
@@ -3087,7 +3089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>164</v>
       </c>
@@ -3101,7 +3103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>166</v>
       </c>
@@ -3113,7 +3115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>168</v>
       </c>
@@ -3127,7 +3129,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>172</v>
       </c>
@@ -3141,7 +3143,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>176</v>
       </c>
@@ -3153,7 +3155,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>178</v>
       </c>
@@ -3167,7 +3169,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>182</v>
       </c>
@@ -3181,7 +3183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>184</v>
       </c>
@@ -3193,7 +3195,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>186</v>
       </c>
@@ -3205,7 +3207,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>189</v>
       </c>
@@ -3217,7 +3219,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>191</v>
       </c>
@@ -3229,7 +3231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>193</v>
       </c>
@@ -3239,7 +3241,7 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>195</v>
       </c>
@@ -3249,7 +3251,7 @@
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>197</v>
       </c>
@@ -3259,7 +3261,7 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>199</v>
       </c>
@@ -3269,7 +3271,7 @@
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>201</v>
       </c>
@@ -3283,7 +3285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>543</v>
       </c>
@@ -3293,7 +3295,7 @@
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>541</v>
       </c>
@@ -3303,7 +3305,7 @@
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>204</v>
       </c>
@@ -3315,7 +3317,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>206</v>
       </c>
@@ -3327,7 +3329,7 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>208</v>
       </c>
@@ -3339,7 +3341,7 @@
       </c>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>210</v>
       </c>
@@ -3351,7 +3353,7 @@
       </c>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>439</v>
       </c>
@@ -3363,7 +3365,7 @@
       </c>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>440</v>
       </c>
@@ -3375,7 +3377,7 @@
       </c>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>442</v>
       </c>
@@ -3386,7 +3388,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>441</v>
       </c>
@@ -3397,7 +3399,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>545</v>
       </c>
@@ -3408,7 +3410,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>547</v>
       </c>
@@ -3419,7 +3421,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>549</v>
       </c>
@@ -3441,22 +3443,22 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3488,7 +3490,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3511,7 +3513,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3534,7 +3536,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3557,7 +3559,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3580,7 +3582,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -3603,7 +3605,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -3626,7 +3628,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -3649,7 +3651,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -3672,7 +3674,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -3695,7 +3697,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -3718,7 +3720,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -3741,7 +3743,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -3764,7 +3766,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -3787,7 +3789,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -3810,7 +3812,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -3833,15 +3835,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>569</v>
+      <c r="C17" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="H17" t="e">
         <f t="shared" si="3"/>
@@ -3856,15 +3858,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>569</v>
+      <c r="C18" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="H18" t="e">
         <f t="shared" si="3"/>
@@ -3879,7 +3881,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -3902,7 +3904,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -3925,7 +3927,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -3948,7 +3950,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -3971,7 +3973,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -3994,7 +3996,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -4017,7 +4019,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
@@ -4040,15 +4042,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>569</v>
+      <c r="C26" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="H26" t="e">
         <f t="shared" si="3"/>
@@ -4063,7 +4065,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
@@ -4086,7 +4088,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -4109,7 +4111,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
@@ -4132,7 +4134,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -4155,15 +4157,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="21" t="s">
-        <v>569</v>
+      <c r="C31" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="H31" t="e">
         <f t="shared" si="3"/>
@@ -4178,15 +4180,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>569</v>
+      <c r="C32" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="H32" t="e">
         <f t="shared" si="3"/>
@@ -4201,7 +4203,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -4224,7 +4226,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>102</v>
       </c>
@@ -4247,7 +4249,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -4270,7 +4272,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>107</v>
       </c>
@@ -4293,7 +4295,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -4316,7 +4318,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -4339,7 +4341,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
@@ -4362,7 +4364,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>117</v>
       </c>
@@ -4385,7 +4387,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>120</v>
       </c>
@@ -4408,7 +4410,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>122</v>
       </c>
@@ -4431,7 +4433,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>125</v>
       </c>
@@ -4454,7 +4456,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>128</v>
       </c>
@@ -4477,7 +4479,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>133</v>
       </c>
@@ -4500,7 +4502,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>135</v>
       </c>
@@ -4523,7 +4525,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>138</v>
       </c>
@@ -4546,7 +4548,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>141</v>
       </c>
@@ -4569,7 +4571,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>143</v>
       </c>
@@ -4592,7 +4594,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>147</v>
       </c>
@@ -4615,7 +4617,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>149</v>
       </c>
@@ -4638,7 +4640,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>152</v>
       </c>
@@ -4661,7 +4663,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>155</v>
       </c>
@@ -4684,7 +4686,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>158</v>
       </c>
@@ -4707,7 +4709,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>160</v>
       </c>
@@ -4730,7 +4732,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>162</v>
       </c>
@@ -4753,7 +4755,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>164</v>
       </c>
@@ -4776,7 +4778,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>166</v>
       </c>
@@ -4799,7 +4801,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>168</v>
       </c>
@@ -4822,7 +4824,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -4845,7 +4847,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>176</v>
       </c>
@@ -4868,7 +4870,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>178</v>
       </c>
@@ -4891,7 +4893,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>182</v>
       </c>
@@ -4914,7 +4916,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>184</v>
       </c>
@@ -4937,7 +4939,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>186</v>
       </c>
@@ -4960,7 +4962,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>189</v>
       </c>
@@ -4983,7 +4985,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>191</v>
       </c>
@@ -5006,7 +5008,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>193</v>
       </c>
@@ -5029,7 +5031,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>195</v>
       </c>
@@ -5052,7 +5054,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>197</v>
       </c>
@@ -5075,7 +5077,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>199</v>
       </c>
@@ -5098,7 +5100,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>201</v>
       </c>
@@ -5121,7 +5123,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>543</v>
       </c>
@@ -5144,7 +5146,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>541</v>
       </c>
@@ -5167,7 +5169,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>204</v>
       </c>
@@ -5190,7 +5192,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>206</v>
       </c>
@@ -5213,7 +5215,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>208</v>
       </c>
@@ -5236,7 +5238,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>210</v>
       </c>
@@ -5259,7 +5261,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>439</v>
       </c>
@@ -5282,7 +5284,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>440</v>
       </c>
@@ -5305,7 +5307,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>570</v>
       </c>
@@ -5316,7 +5318,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>571</v>
       </c>
@@ -5327,7 +5329,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>545</v>
       </c>
@@ -5338,7 +5340,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>547</v>
       </c>
@@ -5349,7 +5351,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>549</v>
       </c>
@@ -5375,22 +5377,22 @@
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.73046875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.53125" style="3"/>
-    <col min="4" max="4" width="9.06640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="55.06640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.46484375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.9296875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.06640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.73046875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" style="3"/>
+    <col min="4" max="4" width="9.08984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="55.08984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.08984375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>212</v>
       </c>
@@ -5425,7 +5427,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>221</v>
       </c>
@@ -5454,7 +5456,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>221</v>
       </c>
@@ -5483,7 +5485,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>221</v>
       </c>
@@ -5512,7 +5514,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>221</v>
       </c>
@@ -5541,7 +5543,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>221</v>
       </c>
@@ -5570,7 +5572,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>221</v>
       </c>
@@ -5599,7 +5601,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>221</v>
       </c>
@@ -5631,7 +5633,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>221</v>
       </c>
@@ -5663,7 +5665,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>221</v>
       </c>
@@ -5695,7 +5697,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>221</v>
       </c>
@@ -5724,7 +5726,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>221</v>
       </c>
@@ -5756,7 +5758,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>221</v>
       </c>
@@ -5788,7 +5790,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>221</v>
       </c>
@@ -5817,7 +5819,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>221</v>
       </c>
@@ -5846,7 +5848,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>221</v>
       </c>
@@ -5878,7 +5880,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>221</v>
       </c>
@@ -5909,7 +5911,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>221</v>
       </c>
@@ -5942,7 +5944,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>221</v>
       </c>
@@ -5972,7 +5974,7 @@
       </c>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>221</v>
       </c>
@@ -6001,7 +6003,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>221</v>
       </c>
@@ -6030,7 +6032,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>221</v>
       </c>
@@ -6062,7 +6064,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>221</v>
       </c>
@@ -6091,7 +6093,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>221</v>
       </c>
@@ -6120,7 +6122,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>221</v>
       </c>
@@ -6149,7 +6151,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>221</v>
       </c>
@@ -6178,7 +6180,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>221</v>
       </c>
@@ -6207,7 +6209,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>221</v>
       </c>
@@ -6236,7 +6238,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>221</v>
       </c>
@@ -6265,7 +6267,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>221</v>
       </c>
@@ -6297,7 +6299,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>221</v>
       </c>
@@ -6326,7 +6328,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>221</v>
       </c>
@@ -6355,7 +6357,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>221</v>
       </c>
@@ -6384,7 +6386,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>221</v>
       </c>
@@ -6413,7 +6415,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>221</v>
       </c>
@@ -6442,7 +6444,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>221</v>
       </c>
@@ -6474,7 +6476,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>221</v>
       </c>
@@ -6506,7 +6508,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>221</v>
       </c>
@@ -6538,7 +6540,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>221</v>
       </c>
@@ -6570,7 +6572,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>221</v>
       </c>
@@ -6599,7 +6601,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>221</v>
       </c>
@@ -6628,7 +6630,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>221</v>
       </c>
@@ -6657,7 +6659,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>221</v>
       </c>
@@ -6686,7 +6688,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>221</v>
       </c>
@@ -6718,7 +6720,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>221</v>
       </c>
@@ -6747,7 +6749,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>221</v>
       </c>
@@ -6776,7 +6778,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>221</v>
       </c>
@@ -6805,7 +6807,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>257</v>
       </c>
@@ -6834,7 +6836,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>257</v>
       </c>
@@ -6863,7 +6865,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>257</v>
       </c>
@@ -6892,7 +6894,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>257</v>
       </c>
@@ -6921,7 +6923,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>257</v>
       </c>
@@ -6950,7 +6952,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>257</v>
       </c>
@@ -6979,7 +6981,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>257</v>
       </c>
@@ -7008,7 +7010,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>257</v>
       </c>
@@ -7037,7 +7039,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>257</v>
       </c>
@@ -7066,7 +7068,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>257</v>
       </c>
@@ -7095,7 +7097,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>257</v>
       </c>
@@ -7124,7 +7126,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>257</v>
       </c>
@@ -7155,7 +7157,7 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>257</v>
       </c>
@@ -7186,7 +7188,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>257</v>
       </c>
@@ -7215,7 +7217,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>257</v>
       </c>
@@ -7244,7 +7246,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>257</v>
       </c>
@@ -7273,7 +7275,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>257</v>
       </c>
@@ -7302,7 +7304,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>257</v>
       </c>
@@ -7331,7 +7333,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>257</v>
       </c>
@@ -7360,7 +7362,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>257</v>
       </c>
@@ -7389,7 +7391,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>257</v>
       </c>
@@ -7418,7 +7420,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>257</v>
       </c>
@@ -7447,7 +7449,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>257</v>
       </c>
@@ -7476,7 +7478,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>257</v>
       </c>
@@ -7505,7 +7507,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>257</v>
       </c>
@@ -7534,7 +7536,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>257</v>
       </c>
@@ -7563,7 +7565,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>257</v>
       </c>
@@ -7592,7 +7594,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>257</v>
       </c>
@@ -7621,7 +7623,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>257</v>
       </c>
@@ -7650,7 +7652,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>257</v>
       </c>
@@ -7679,7 +7681,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>257</v>
       </c>
@@ -7708,7 +7710,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>257</v>
       </c>
@@ -7737,7 +7739,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>257</v>
       </c>
@@ -7766,7 +7768,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>257</v>
       </c>
@@ -7795,7 +7797,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>257</v>
       </c>
@@ -7824,7 +7826,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>257</v>
       </c>
@@ -7853,7 +7855,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>257</v>
       </c>
@@ -7885,7 +7887,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>257</v>
       </c>
@@ -7917,7 +7919,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>257</v>
       </c>
@@ -7946,7 +7948,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>257</v>
       </c>
@@ -7978,7 +7980,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>257</v>
       </c>
@@ -8010,7 +8012,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>257</v>
       </c>
@@ -8045,7 +8047,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>257</v>
       </c>
@@ -8077,7 +8079,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>257</v>
       </c>
@@ -8109,7 +8111,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>257</v>
       </c>
@@ -8138,7 +8140,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>257</v>
       </c>
@@ -8167,7 +8169,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>257</v>
       </c>
@@ -8196,7 +8198,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>257</v>
       </c>
@@ -8225,7 +8227,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>257</v>
       </c>
@@ -8254,7 +8256,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>257</v>
       </c>
@@ -8283,7 +8285,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>257</v>
       </c>
@@ -8312,7 +8314,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>257</v>
       </c>
@@ -8341,7 +8343,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>257</v>
       </c>
@@ -8373,7 +8375,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>257</v>
       </c>
@@ -8402,7 +8404,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>257</v>
       </c>
@@ -8431,7 +8433,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>257</v>
       </c>
@@ -8462,7 +8464,7 @@
       <c r="J103" s="7"/>
       <c r="K103" s="9"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>257</v>
       </c>
@@ -8492,7 +8494,7 @@
       </c>
       <c r="J104" s="7"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>257</v>
       </c>
@@ -8523,7 +8525,7 @@
       <c r="J105" s="7"/>
       <c r="K105" s="9"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>257</v>
       </c>
@@ -8554,7 +8556,7 @@
       <c r="J106" s="7"/>
       <c r="K106" s="9"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>257</v>
       </c>
@@ -8585,7 +8587,7 @@
       <c r="J107" s="7"/>
       <c r="K107" s="9"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>257</v>
       </c>
@@ -8616,7 +8618,7 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>257</v>
       </c>
@@ -8647,7 +8649,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>257</v>
       </c>
@@ -8678,7 +8680,7 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>257</v>
       </c>
@@ -8707,7 +8709,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>257</v>
       </c>
@@ -8736,7 +8738,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>257</v>
       </c>
@@ -8765,7 +8767,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>351</v>
       </c>
@@ -8794,7 +8796,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>351</v>
       </c>
@@ -8823,7 +8825,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>351</v>
       </c>
@@ -8852,7 +8854,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>351</v>
       </c>
@@ -8881,7 +8883,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>351</v>
       </c>
@@ -8910,7 +8912,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>351</v>
       </c>
@@ -8939,7 +8941,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>351</v>
       </c>
@@ -8968,7 +8970,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>351</v>
       </c>
@@ -8997,7 +8999,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>351</v>
       </c>
@@ -9026,7 +9028,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>351</v>
       </c>
@@ -9055,7 +9057,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>351</v>
       </c>
@@ -9084,7 +9086,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>351</v>
       </c>
@@ -9113,7 +9115,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>351</v>
       </c>
@@ -9142,7 +9144,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>351</v>
       </c>
@@ -9171,7 +9173,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>351</v>
       </c>
@@ -9200,7 +9202,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>351</v>
       </c>
@@ -9229,7 +9231,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>351</v>
       </c>
@@ -9258,7 +9260,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>351</v>
       </c>
@@ -9287,7 +9289,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>351</v>
       </c>
@@ -9316,7 +9318,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>351</v>
       </c>
@@ -9345,7 +9347,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>351</v>
       </c>
@@ -9374,7 +9376,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>351</v>
       </c>
@@ -9403,7 +9405,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>351</v>
       </c>
@@ -9432,7 +9434,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>351</v>
       </c>
@@ -9461,7 +9463,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>351</v>
       </c>
@@ -9490,7 +9492,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>351</v>
       </c>
@@ -9519,7 +9521,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>351</v>
       </c>
@@ -9551,7 +9553,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>351</v>
       </c>
@@ -9580,7 +9582,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>351</v>
       </c>
@@ -9609,7 +9611,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>351</v>
       </c>
@@ -9638,7 +9640,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>351</v>
       </c>
@@ -9667,7 +9669,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>351</v>
       </c>
@@ -9696,7 +9698,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>351</v>
       </c>
@@ -9725,7 +9727,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>351</v>
       </c>
@@ -9754,7 +9756,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>351</v>
       </c>
@@ -9783,7 +9785,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>351</v>
       </c>
@@ -9812,7 +9814,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>351</v>
       </c>
@@ -9841,7 +9843,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>351</v>
       </c>
@@ -9870,7 +9872,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>351</v>
       </c>
@@ -9899,7 +9901,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>351</v>
       </c>
@@ -9928,7 +9930,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>351</v>
       </c>
@@ -9957,7 +9959,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>351</v>
       </c>
@@ -9986,7 +9988,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>351</v>
       </c>
@@ -10015,7 +10017,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>351</v>
       </c>
@@ -10044,7 +10046,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>351</v>
       </c>
@@ -10073,7 +10075,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>477</v>
       </c>
@@ -10081,7 +10083,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="7"/>
       <c r="B160" s="14"/>
       <c r="C160" s="7"/>
@@ -10094,12 +10096,12 @@
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B161" s="3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -10112,12 +10114,12 @@
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B163" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -10130,12 +10132,12 @@
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B165" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -10148,12 +10150,12 @@
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B167" s="3" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -10166,12 +10168,12 @@
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B169" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -10184,12 +10186,12 @@
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B171" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -10202,7 +10204,7 @@
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B173" s="3" t="s">
         <v>484</v>
       </c>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184A90D1-4FB8-43B0-AD3B-F271025DEB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B73FFD8-12D1-46D6-B0BD-814AD5F80C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3443,8 +3443,8 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4900,8 +4900,8 @@
       <c r="B63" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C63" s="21" t="s">
-        <v>569</v>
+      <c r="C63" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="H63" t="e">
         <f t="shared" si="3"/>
@@ -4923,8 +4923,8 @@
       <c r="B64" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C64" s="21" t="s">
-        <v>569</v>
+      <c r="C64" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="H64" t="e">
         <f t="shared" si="3"/>
@@ -4946,8 +4946,8 @@
       <c r="B65" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C65" s="21" t="s">
-        <v>569</v>
+      <c r="C65" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="H65" t="e">
         <f t="shared" si="3"/>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B73FFD8-12D1-46D6-B0BD-814AD5F80C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6B3CAA-10A8-4340-AC9C-5C94400D04E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3443,8 +3443,8 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4555,8 +4555,8 @@
       <c r="B48" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="21" t="s">
-        <v>569</v>
+      <c r="C48" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="H48" t="e">
         <f t="shared" si="3"/>
@@ -4831,8 +4831,8 @@
       <c r="B60" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C60" s="21" t="s">
-        <v>569</v>
+      <c r="C60" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="H60" t="e">
         <f t="shared" si="3"/>
@@ -4854,8 +4854,8 @@
       <c r="B61" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C61" s="21" t="s">
-        <v>569</v>
+      <c r="C61" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="H61" t="e">
         <f t="shared" si="3"/>
@@ -4877,8 +4877,8 @@
       <c r="B62" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C62" s="21" t="s">
-        <v>569</v>
+      <c r="C62" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="H62" t="e">
         <f t="shared" si="3"/>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6B3CAA-10A8-4340-AC9C-5C94400D04E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F053A6-3031-452F-AD19-BA5C7073732E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3443,8 +3443,8 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5291,8 +5291,8 @@
       <c r="B80" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C80" s="21" t="s">
-        <v>569</v>
+      <c r="C80" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="H80" t="e">
         <f t="shared" si="6"/>
@@ -5325,8 +5325,8 @@
       <c r="B82" t="s">
         <v>446</v>
       </c>
-      <c r="C82" s="21" t="s">
-        <v>569</v>
+      <c r="C82" s="11" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ratos\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F053A6-3031-452F-AD19-BA5C7073732E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3365EE14-0B40-4465-A153-BBA2069CA072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_precision_recall" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="578">
   <si>
     <t>Feature_name</t>
   </si>
@@ -1778,6 +1776,12 @@
   </si>
   <si>
     <t>doesn't need manual checking</t>
+  </si>
+  <si>
+    <t>RT (in the making, takes forever to find them)</t>
+  </si>
+  <si>
+    <t>RT (but have doubts)</t>
   </si>
 </sst>
 </file>
@@ -1923,7 +1927,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2020,7 +2024,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2323,14 +2327,14 @@
       <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="32.453125" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.796875" customWidth="1"/>
+    <col min="2" max="2" width="32.46484375" customWidth="1"/>
+    <col min="3" max="3" width="23.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2347,7 +2351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2361,7 +2365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2375,7 +2379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2389,7 +2393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2403,7 +2407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -2417,7 +2421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2431,7 +2435,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2443,7 +2447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -2455,7 +2459,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -2467,7 +2471,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -2479,7 +2483,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2491,7 +2495,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="20" t="s">
         <v>38</v>
       </c>
@@ -2502,7 +2506,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -2516,7 +2520,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2530,7 +2534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2542,7 +2546,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2556,7 +2560,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -2568,7 +2572,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -2582,7 +2586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -2596,7 +2600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -2610,7 +2614,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -2624,7 +2628,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -2636,7 +2640,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -2648,7 +2652,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
@@ -2662,7 +2666,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
@@ -2676,7 +2680,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
@@ -2690,7 +2694,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -2704,7 +2708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
@@ -2718,7 +2722,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -2732,7 +2736,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
@@ -2744,7 +2748,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>98</v>
       </c>
@@ -2756,7 +2760,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -2768,7 +2772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>102</v>
       </c>
@@ -2780,7 +2784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -2794,7 +2798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>107</v>
       </c>
@@ -2806,7 +2810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -2818,7 +2822,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -2830,7 +2834,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
@@ -2840,7 +2844,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>117</v>
       </c>
@@ -2852,7 +2856,7 @@
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>120</v>
       </c>
@@ -2864,7 +2868,7 @@
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>122</v>
       </c>
@@ -2878,7 +2882,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>125</v>
       </c>
@@ -2892,7 +2896,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>128</v>
       </c>
@@ -2904,7 +2908,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>131</v>
       </c>
@@ -2914,7 +2918,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>133</v>
       </c>
@@ -2924,7 +2928,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>135</v>
       </c>
@@ -2938,7 +2942,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>138</v>
       </c>
@@ -2952,7 +2956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>141</v>
       </c>
@@ -2962,7 +2966,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>143</v>
       </c>
@@ -2976,7 +2980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="18" t="s">
         <v>145</v>
       </c>
@@ -2993,7 +2997,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>147</v>
       </c>
@@ -3007,7 +3011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>149</v>
       </c>
@@ -3021,7 +3025,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>152</v>
       </c>
@@ -3035,7 +3039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>155</v>
       </c>
@@ -3049,7 +3053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>158</v>
       </c>
@@ -3061,7 +3065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>160</v>
       </c>
@@ -3075,7 +3079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>162</v>
       </c>
@@ -3089,7 +3093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>164</v>
       </c>
@@ -3103,7 +3107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>166</v>
       </c>
@@ -3115,7 +3119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>168</v>
       </c>
@@ -3129,7 +3133,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>172</v>
       </c>
@@ -3143,7 +3147,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>176</v>
       </c>
@@ -3155,7 +3159,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>178</v>
       </c>
@@ -3169,7 +3173,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>182</v>
       </c>
@@ -3183,7 +3187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>184</v>
       </c>
@@ -3195,7 +3199,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>186</v>
       </c>
@@ -3207,7 +3211,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>189</v>
       </c>
@@ -3219,7 +3223,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>191</v>
       </c>
@@ -3231,7 +3235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>193</v>
       </c>
@@ -3241,7 +3245,7 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>195</v>
       </c>
@@ -3251,7 +3255,7 @@
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>197</v>
       </c>
@@ -3261,7 +3265,7 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>199</v>
       </c>
@@ -3271,7 +3275,7 @@
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>201</v>
       </c>
@@ -3285,7 +3289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>543</v>
       </c>
@@ -3295,7 +3299,7 @@
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>541</v>
       </c>
@@ -3305,7 +3309,7 @@
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>204</v>
       </c>
@@ -3317,7 +3321,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>206</v>
       </c>
@@ -3329,7 +3333,7 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>208</v>
       </c>
@@ -3341,7 +3345,7 @@
       </c>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>210</v>
       </c>
@@ -3353,7 +3357,7 @@
       </c>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>439</v>
       </c>
@@ -3365,7 +3369,7 @@
       </c>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
         <v>440</v>
       </c>
@@ -3377,7 +3381,7 @@
       </c>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>442</v>
       </c>
@@ -3388,7 +3392,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>441</v>
       </c>
@@ -3399,7 +3403,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>545</v>
       </c>
@@ -3410,7 +3414,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>547</v>
       </c>
@@ -3421,7 +3425,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>549</v>
       </c>
@@ -3443,22 +3447,22 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.46484375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3490,7 +3494,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3513,7 +3517,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3536,7 +3540,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3544,7 +3548,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="H4" t="e">
         <f t="shared" ref="H4:H8" si="0">D4/(D4+F4)</f>
@@ -3559,7 +3563,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3582,7 +3586,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -3605,7 +3609,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -3628,7 +3632,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -3651,7 +3655,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -3674,7 +3678,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -3697,7 +3701,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -3720,7 +3724,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -3728,7 +3732,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="H12" t="e">
         <f t="shared" si="3"/>
@@ -3743,7 +3747,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -3766,7 +3770,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -3789,7 +3793,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -3812,7 +3816,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -3835,7 +3839,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -3858,7 +3862,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -3881,7 +3885,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -3904,7 +3908,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -3927,7 +3931,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -3950,7 +3954,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -3973,7 +3977,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -3996,7 +4000,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -4019,7 +4023,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
@@ -4042,7 +4046,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
@@ -4065,7 +4069,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
@@ -4088,7 +4092,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -4111,7 +4115,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
@@ -4134,7 +4138,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -4157,7 +4161,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
@@ -4180,7 +4184,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>98</v>
       </c>
@@ -4203,7 +4207,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -4226,7 +4230,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>102</v>
       </c>
@@ -4249,7 +4253,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -4272,7 +4276,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>107</v>
       </c>
@@ -4295,7 +4299,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -4318,7 +4322,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -4341,7 +4345,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
@@ -4364,7 +4368,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>117</v>
       </c>
@@ -4387,7 +4391,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>120</v>
       </c>
@@ -4410,7 +4414,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>122</v>
       </c>
@@ -4433,7 +4437,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>125</v>
       </c>
@@ -4456,7 +4460,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>128</v>
       </c>
@@ -4479,7 +4483,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>133</v>
       </c>
@@ -4502,7 +4506,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>135</v>
       </c>
@@ -4525,7 +4529,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>138</v>
       </c>
@@ -4548,7 +4552,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>141</v>
       </c>
@@ -4571,7 +4575,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>143</v>
       </c>
@@ -4594,7 +4598,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>147</v>
       </c>
@@ -4617,7 +4621,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>149</v>
       </c>
@@ -4625,7 +4629,7 @@
         <v>150</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="H51" t="e">
         <f t="shared" si="3"/>
@@ -4640,7 +4644,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>152</v>
       </c>
@@ -4663,7 +4667,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>155</v>
       </c>
@@ -4686,7 +4690,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>158</v>
       </c>
@@ -4709,7 +4713,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>160</v>
       </c>
@@ -4732,7 +4736,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>162</v>
       </c>
@@ -4755,7 +4759,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>164</v>
       </c>
@@ -4778,7 +4782,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>166</v>
       </c>
@@ -4801,7 +4805,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>168</v>
       </c>
@@ -4824,7 +4828,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -4847,7 +4851,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>176</v>
       </c>
@@ -4870,7 +4874,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>178</v>
       </c>
@@ -4893,7 +4897,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>182</v>
       </c>
@@ -4916,7 +4920,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>184</v>
       </c>
@@ -4939,7 +4943,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>186</v>
       </c>
@@ -4962,7 +4966,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>189</v>
       </c>
@@ -4985,7 +4989,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>191</v>
       </c>
@@ -5008,7 +5012,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>193</v>
       </c>
@@ -5031,7 +5035,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>195</v>
       </c>
@@ -5054,7 +5058,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>197</v>
       </c>
@@ -5077,7 +5081,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>199</v>
       </c>
@@ -5100,7 +5104,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>201</v>
       </c>
@@ -5123,7 +5127,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>543</v>
       </c>
@@ -5146,7 +5150,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>541</v>
       </c>
@@ -5169,7 +5173,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>204</v>
       </c>
@@ -5192,7 +5196,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>206</v>
       </c>
@@ -5215,7 +5219,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>208</v>
       </c>
@@ -5238,7 +5242,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>210</v>
       </c>
@@ -5261,7 +5265,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>439</v>
       </c>
@@ -5284,7 +5288,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>440</v>
       </c>
@@ -5307,7 +5311,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>570</v>
       </c>
@@ -5318,7 +5322,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>571</v>
       </c>
@@ -5329,7 +5333,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>545</v>
       </c>
@@ -5340,7 +5344,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>547</v>
       </c>
@@ -5351,7 +5355,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>549</v>
       </c>
@@ -5377,22 +5381,22 @@
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" style="3"/>
-    <col min="4" max="4" width="9.08984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="55.08984375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.08984375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.73046875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.53125" style="3"/>
+    <col min="4" max="4" width="9.06640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="55.06640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.46484375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.9296875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.06640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.73046875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.796875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>212</v>
       </c>
@@ -5427,7 +5431,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>221</v>
       </c>
@@ -5456,7 +5460,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>221</v>
       </c>
@@ -5485,7 +5489,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>221</v>
       </c>
@@ -5514,7 +5518,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>221</v>
       </c>
@@ -5543,7 +5547,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>221</v>
       </c>
@@ -5572,7 +5576,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>221</v>
       </c>
@@ -5601,7 +5605,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>221</v>
       </c>
@@ -5633,7 +5637,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>221</v>
       </c>
@@ -5665,7 +5669,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>221</v>
       </c>
@@ -5697,7 +5701,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>221</v>
       </c>
@@ -5726,7 +5730,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>221</v>
       </c>
@@ -5758,7 +5762,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>221</v>
       </c>
@@ -5790,7 +5794,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>221</v>
       </c>
@@ -5819,7 +5823,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>221</v>
       </c>
@@ -5848,7 +5852,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>221</v>
       </c>
@@ -5880,7 +5884,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>221</v>
       </c>
@@ -5911,7 +5915,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>221</v>
       </c>
@@ -5944,7 +5948,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>221</v>
       </c>
@@ -5974,7 +5978,7 @@
       </c>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>221</v>
       </c>
@@ -6003,7 +6007,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>221</v>
       </c>
@@ -6032,7 +6036,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>221</v>
       </c>
@@ -6064,7 +6068,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>221</v>
       </c>
@@ -6093,7 +6097,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>221</v>
       </c>
@@ -6122,7 +6126,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>221</v>
       </c>
@@ -6151,7 +6155,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>221</v>
       </c>
@@ -6180,7 +6184,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>221</v>
       </c>
@@ -6209,7 +6213,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>221</v>
       </c>
@@ -6238,7 +6242,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>221</v>
       </c>
@@ -6267,7 +6271,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>221</v>
       </c>
@@ -6299,7 +6303,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>221</v>
       </c>
@@ -6328,7 +6332,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>221</v>
       </c>
@@ -6357,7 +6361,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>221</v>
       </c>
@@ -6386,7 +6390,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>221</v>
       </c>
@@ -6415,7 +6419,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>221</v>
       </c>
@@ -6444,7 +6448,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>221</v>
       </c>
@@ -6476,7 +6480,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>221</v>
       </c>
@@ -6508,7 +6512,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>221</v>
       </c>
@@ -6540,7 +6544,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>221</v>
       </c>
@@ -6572,7 +6576,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>221</v>
       </c>
@@ -6601,7 +6605,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>221</v>
       </c>
@@ -6630,7 +6634,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>221</v>
       </c>
@@ -6659,7 +6663,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>221</v>
       </c>
@@ -6688,7 +6692,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>221</v>
       </c>
@@ -6720,7 +6724,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>221</v>
       </c>
@@ -6749,7 +6753,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>221</v>
       </c>
@@ -6778,7 +6782,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>221</v>
       </c>
@@ -6807,7 +6811,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>257</v>
       </c>
@@ -6836,7 +6840,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>257</v>
       </c>
@@ -6865,7 +6869,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>257</v>
       </c>
@@ -6894,7 +6898,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>257</v>
       </c>
@@ -6923,7 +6927,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>257</v>
       </c>
@@ -6952,7 +6956,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>257</v>
       </c>
@@ -6981,7 +6985,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>257</v>
       </c>
@@ -7010,7 +7014,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>257</v>
       </c>
@@ -7039,7 +7043,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>257</v>
       </c>
@@ -7068,7 +7072,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>257</v>
       </c>
@@ -7097,7 +7101,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>257</v>
       </c>
@@ -7126,7 +7130,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="7" t="s">
         <v>257</v>
       </c>
@@ -7157,7 +7161,7 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="7" t="s">
         <v>257</v>
       </c>
@@ -7188,7 +7192,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>257</v>
       </c>
@@ -7217,7 +7221,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>257</v>
       </c>
@@ -7246,7 +7250,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>257</v>
       </c>
@@ -7275,7 +7279,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>257</v>
       </c>
@@ -7304,7 +7308,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>257</v>
       </c>
@@ -7333,7 +7337,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>257</v>
       </c>
@@ -7362,7 +7366,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>257</v>
       </c>
@@ -7391,7 +7395,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>257</v>
       </c>
@@ -7420,7 +7424,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>257</v>
       </c>
@@ -7449,7 +7453,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>257</v>
       </c>
@@ -7478,7 +7482,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>257</v>
       </c>
@@ -7507,7 +7511,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>257</v>
       </c>
@@ -7536,7 +7540,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>257</v>
       </c>
@@ -7565,7 +7569,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>257</v>
       </c>
@@ -7594,7 +7598,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>257</v>
       </c>
@@ -7623,7 +7627,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>257</v>
       </c>
@@ -7652,7 +7656,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>257</v>
       </c>
@@ -7681,7 +7685,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>257</v>
       </c>
@@ -7710,7 +7714,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>257</v>
       </c>
@@ -7739,7 +7743,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>257</v>
       </c>
@@ -7768,7 +7772,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>257</v>
       </c>
@@ -7797,7 +7801,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>257</v>
       </c>
@@ -7826,7 +7830,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>257</v>
       </c>
@@ -7855,7 +7859,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>257</v>
       </c>
@@ -7887,7 +7891,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>257</v>
       </c>
@@ -7919,7 +7923,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>257</v>
       </c>
@@ -7948,7 +7952,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>257</v>
       </c>
@@ -7980,7 +7984,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>257</v>
       </c>
@@ -8012,7 +8016,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>257</v>
       </c>
@@ -8047,7 +8051,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>257</v>
       </c>
@@ -8079,7 +8083,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>257</v>
       </c>
@@ -8111,7 +8115,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>257</v>
       </c>
@@ -8140,7 +8144,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>257</v>
       </c>
@@ -8169,7 +8173,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>257</v>
       </c>
@@ -8198,7 +8202,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>257</v>
       </c>
@@ -8227,7 +8231,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>257</v>
       </c>
@@ -8256,7 +8260,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>257</v>
       </c>
@@ -8285,7 +8289,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>257</v>
       </c>
@@ -8314,7 +8318,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>257</v>
       </c>
@@ -8343,7 +8347,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>257</v>
       </c>
@@ -8375,7 +8379,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
         <v>257</v>
       </c>
@@ -8404,7 +8408,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>257</v>
       </c>
@@ -8433,7 +8437,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
         <v>257</v>
       </c>
@@ -8464,7 +8468,7 @@
       <c r="J103" s="7"/>
       <c r="K103" s="9"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>257</v>
       </c>
@@ -8494,7 +8498,7 @@
       </c>
       <c r="J104" s="7"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>257</v>
       </c>
@@ -8525,7 +8529,7 @@
       <c r="J105" s="7"/>
       <c r="K105" s="9"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>257</v>
       </c>
@@ -8556,7 +8560,7 @@
       <c r="J106" s="7"/>
       <c r="K106" s="9"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
         <v>257</v>
       </c>
@@ -8587,7 +8591,7 @@
       <c r="J107" s="7"/>
       <c r="K107" s="9"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>257</v>
       </c>
@@ -8618,7 +8622,7 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>257</v>
       </c>
@@ -8649,7 +8653,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>257</v>
       </c>
@@ -8680,7 +8684,7 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
         <v>257</v>
       </c>
@@ -8709,7 +8713,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>257</v>
       </c>
@@ -8738,7 +8742,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
         <v>257</v>
       </c>
@@ -8767,7 +8771,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>351</v>
       </c>
@@ -8796,7 +8800,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
         <v>351</v>
       </c>
@@ -8825,7 +8829,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>351</v>
       </c>
@@ -8854,7 +8858,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
         <v>351</v>
       </c>
@@ -8883,7 +8887,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>351</v>
       </c>
@@ -8912,7 +8916,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
         <v>351</v>
       </c>
@@ -8941,7 +8945,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>351</v>
       </c>
@@ -8970,7 +8974,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
         <v>351</v>
       </c>
@@ -8999,7 +9003,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>351</v>
       </c>
@@ -9028,7 +9032,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
         <v>351</v>
       </c>
@@ -9057,7 +9061,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>351</v>
       </c>
@@ -9086,7 +9090,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
         <v>351</v>
       </c>
@@ -9115,7 +9119,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>351</v>
       </c>
@@ -9144,7 +9148,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
         <v>351</v>
       </c>
@@ -9173,7 +9177,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>351</v>
       </c>
@@ -9202,7 +9206,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
         <v>351</v>
       </c>
@@ -9231,7 +9235,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>351</v>
       </c>
@@ -9260,7 +9264,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
         <v>351</v>
       </c>
@@ -9289,7 +9293,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>351</v>
       </c>
@@ -9318,7 +9322,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
         <v>351</v>
       </c>
@@ -9347,7 +9351,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>351</v>
       </c>
@@ -9376,7 +9380,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
         <v>351</v>
       </c>
@@ -9405,7 +9409,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>351</v>
       </c>
@@ -9434,7 +9438,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
         <v>351</v>
       </c>
@@ -9463,7 +9467,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>351</v>
       </c>
@@ -9492,7 +9496,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A139" s="3" t="s">
         <v>351</v>
       </c>
@@ -9521,7 +9525,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>351</v>
       </c>
@@ -9553,7 +9557,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
         <v>351</v>
       </c>
@@ -9582,7 +9586,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>351</v>
       </c>
@@ -9611,7 +9615,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
         <v>351</v>
       </c>
@@ -9640,7 +9644,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>351</v>
       </c>
@@ -9669,7 +9673,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
         <v>351</v>
       </c>
@@ -9698,7 +9702,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>351</v>
       </c>
@@ -9727,7 +9731,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
         <v>351</v>
       </c>
@@ -9756,7 +9760,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>351</v>
       </c>
@@ -9785,7 +9789,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
         <v>351</v>
       </c>
@@ -9814,7 +9818,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
         <v>351</v>
       </c>
@@ -9843,7 +9847,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
         <v>351</v>
       </c>
@@ -9872,7 +9876,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
         <v>351</v>
       </c>
@@ -9901,7 +9905,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
         <v>351</v>
       </c>
@@ -9930,7 +9934,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
         <v>351</v>
       </c>
@@ -9959,7 +9963,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="s">
         <v>351</v>
       </c>
@@ -9988,7 +9992,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
         <v>351</v>
       </c>
@@ -10017,7 +10021,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A157" s="3" t="s">
         <v>351</v>
       </c>
@@ -10046,7 +10050,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="s">
         <v>351</v>
       </c>
@@ -10075,7 +10079,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A159" s="3" t="s">
         <v>477</v>
       </c>
@@ -10083,7 +10087,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A160" s="7"/>
       <c r="B160" s="14"/>
       <c r="C160" s="7"/>
@@ -10096,12 +10100,12 @@
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B161" s="3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -10114,12 +10118,12 @@
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B163" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -10132,12 +10136,12 @@
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B165" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -10150,12 +10154,12 @@
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B167" s="3" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -10168,12 +10172,12 @@
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B169" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -10186,12 +10190,12 @@
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B171" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -10204,7 +10208,7 @@
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B173" s="3" t="s">
         <v>484</v>
       </c>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ratos\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3365EE14-0B40-4465-A153-BBA2069CA072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26185C8-3C05-433E-AE52-3063DB088F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8078" yWindow="6975" windowWidth="15391" windowHeight="9533" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_precision_recall" sheetId="1" r:id="rId1"/>
@@ -3447,14 +3447,14 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.53125" bestFit="1" customWidth="1"/>
@@ -3801,7 +3801,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="H15" t="e">
         <f t="shared" si="3"/>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ratos\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26185C8-3C05-433E-AE52-3063DB088F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797B7106-5781-4B52-AEA2-82CC1273C739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8078" yWindow="6975" windowWidth="15391" windowHeight="9533" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16665" yWindow="1185" windowWidth="13350" windowHeight="12690" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_precision_recall" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="ExterneDaten_1" localSheetId="0">Overview_precision_recall!$A$2:$B$87</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="579">
   <si>
     <t>Feature_name</t>
   </si>
@@ -1782,6 +1782,9 @@
   </si>
   <si>
     <t>RT (but have doubts)</t>
+  </si>
+  <si>
+    <t>not gonna manual code</t>
   </si>
 </sst>
 </file>
@@ -2327,14 +2330,14 @@
       <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.796875" customWidth="1"/>
-    <col min="2" max="2" width="32.46484375" customWidth="1"/>
-    <col min="3" max="3" width="23.265625" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2351,7 +2354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2379,7 +2382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2407,7 +2410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -2421,7 +2424,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2435,7 +2438,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -2459,7 +2462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -2471,7 +2474,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -2483,7 +2486,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>38</v>
       </c>
@@ -2506,7 +2509,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -2520,7 +2523,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2534,7 +2537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2546,7 +2549,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2560,7 +2563,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -2572,7 +2575,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -2586,7 +2589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -2600,7 +2603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -2614,7 +2617,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -2628,7 +2631,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -2640,7 +2643,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -2652,7 +2655,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
@@ -2666,7 +2669,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
@@ -2680,7 +2683,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
@@ -2694,7 +2697,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -2708,7 +2711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
@@ -2722,7 +2725,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -2736,7 +2739,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
@@ -2748,7 +2751,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>98</v>
       </c>
@@ -2760,7 +2763,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -2772,7 +2775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>102</v>
       </c>
@@ -2784,7 +2787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -2798,7 +2801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>107</v>
       </c>
@@ -2810,7 +2813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -2822,7 +2825,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -2834,7 +2837,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
@@ -2844,7 +2847,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>117</v>
       </c>
@@ -2856,7 +2859,7 @@
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>120</v>
       </c>
@@ -2868,7 +2871,7 @@
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>122</v>
       </c>
@@ -2882,7 +2885,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>125</v>
       </c>
@@ -2896,7 +2899,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>128</v>
       </c>
@@ -2908,7 +2911,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>131</v>
       </c>
@@ -2918,7 +2921,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>133</v>
       </c>
@@ -2928,7 +2931,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>135</v>
       </c>
@@ -2942,7 +2945,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>138</v>
       </c>
@@ -2956,7 +2959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>141</v>
       </c>
@@ -2966,7 +2969,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>143</v>
       </c>
@@ -2980,7 +2983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>145</v>
       </c>
@@ -2997,7 +3000,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>147</v>
       </c>
@@ -3011,7 +3014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>149</v>
       </c>
@@ -3025,7 +3028,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>152</v>
       </c>
@@ -3039,7 +3042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>155</v>
       </c>
@@ -3053,7 +3056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>158</v>
       </c>
@@ -3065,7 +3068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>160</v>
       </c>
@@ -3079,7 +3082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>162</v>
       </c>
@@ -3093,7 +3096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>164</v>
       </c>
@@ -3107,7 +3110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>166</v>
       </c>
@@ -3119,7 +3122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>168</v>
       </c>
@@ -3133,7 +3136,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>172</v>
       </c>
@@ -3147,7 +3150,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>176</v>
       </c>
@@ -3159,7 +3162,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>178</v>
       </c>
@@ -3173,7 +3176,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>182</v>
       </c>
@@ -3187,7 +3190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>184</v>
       </c>
@@ -3199,7 +3202,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>186</v>
       </c>
@@ -3211,7 +3214,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>189</v>
       </c>
@@ -3223,7 +3226,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>191</v>
       </c>
@@ -3235,7 +3238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>193</v>
       </c>
@@ -3245,7 +3248,7 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>195</v>
       </c>
@@ -3255,7 +3258,7 @@
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>197</v>
       </c>
@@ -3265,7 +3268,7 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>199</v>
       </c>
@@ -3275,7 +3278,7 @@
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>201</v>
       </c>
@@ -3289,7 +3292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>543</v>
       </c>
@@ -3299,7 +3302,7 @@
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>541</v>
       </c>
@@ -3309,7 +3312,7 @@
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>204</v>
       </c>
@@ -3321,7 +3324,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>206</v>
       </c>
@@ -3333,7 +3336,7 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>208</v>
       </c>
@@ -3345,7 +3348,7 @@
       </c>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>210</v>
       </c>
@@ -3357,7 +3360,7 @@
       </c>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>439</v>
       </c>
@@ -3369,7 +3372,7 @@
       </c>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>440</v>
       </c>
@@ -3381,7 +3384,7 @@
       </c>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>442</v>
       </c>
@@ -3392,7 +3395,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>441</v>
       </c>
@@ -3403,7 +3406,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>545</v>
       </c>
@@ -3414,7 +3417,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>547</v>
       </c>
@@ -3425,7 +3428,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>549</v>
       </c>
@@ -3447,22 +3450,22 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3494,7 +3497,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3517,7 +3520,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3540,7 +3543,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3563,7 +3566,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3586,7 +3589,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -3609,7 +3612,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -3632,7 +3635,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -3655,7 +3658,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -3678,7 +3681,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -3701,7 +3704,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -3724,7 +3727,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -3747,7 +3750,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -3770,7 +3773,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -3793,7 +3796,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -3816,7 +3819,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -3839,7 +3842,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -3862,7 +3865,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -3885,7 +3888,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -3908,7 +3911,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -3931,7 +3934,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -3954,7 +3957,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -3977,7 +3980,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -4000,7 +4003,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -4023,7 +4026,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
@@ -4046,7 +4049,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
@@ -4069,7 +4072,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
@@ -4092,7 +4095,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -4115,7 +4118,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
@@ -4138,7 +4141,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -4161,7 +4164,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
@@ -4184,7 +4187,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>98</v>
       </c>
@@ -4207,7 +4210,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -4230,7 +4233,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>102</v>
       </c>
@@ -4253,7 +4256,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -4276,7 +4279,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>107</v>
       </c>
@@ -4299,7 +4302,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -4322,7 +4325,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -4345,7 +4348,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
@@ -4368,7 +4371,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>117</v>
       </c>
@@ -4391,7 +4394,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>120</v>
       </c>
@@ -4414,7 +4417,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>122</v>
       </c>
@@ -4437,7 +4440,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>125</v>
       </c>
@@ -4460,7 +4463,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>128</v>
       </c>
@@ -4483,7 +4486,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>133</v>
       </c>
@@ -4506,7 +4509,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>135</v>
       </c>
@@ -4529,7 +4532,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>138</v>
       </c>
@@ -4552,7 +4555,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>141</v>
       </c>
@@ -4575,7 +4578,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>143</v>
       </c>
@@ -4598,7 +4601,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>147</v>
       </c>
@@ -4621,7 +4624,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>149</v>
       </c>
@@ -4644,7 +4647,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>152</v>
       </c>
@@ -4667,7 +4670,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>155</v>
       </c>
@@ -4690,7 +4693,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>158</v>
       </c>
@@ -4713,7 +4716,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>160</v>
       </c>
@@ -4736,7 +4739,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>162</v>
       </c>
@@ -4759,7 +4762,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>164</v>
       </c>
@@ -4782,7 +4785,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>166</v>
       </c>
@@ -4805,7 +4808,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>168</v>
       </c>
@@ -4828,7 +4831,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -4851,7 +4854,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>176</v>
       </c>
@@ -4874,7 +4877,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>178</v>
       </c>
@@ -4897,7 +4900,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>182</v>
       </c>
@@ -4920,7 +4923,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>184</v>
       </c>
@@ -4943,7 +4946,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>186</v>
       </c>
@@ -4966,7 +4969,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>189</v>
       </c>
@@ -4989,7 +4992,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>191</v>
       </c>
@@ -5012,7 +5015,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>193</v>
       </c>
@@ -5035,7 +5038,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>195</v>
       </c>
@@ -5058,7 +5061,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>197</v>
       </c>
@@ -5081,7 +5084,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>199</v>
       </c>
@@ -5104,7 +5107,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>201</v>
       </c>
@@ -5127,7 +5130,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>543</v>
       </c>
@@ -5150,7 +5153,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>541</v>
       </c>
@@ -5173,7 +5176,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>204</v>
       </c>
@@ -5196,7 +5199,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>206</v>
       </c>
@@ -5219,15 +5222,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C77" s="21" t="s">
-        <v>569</v>
+      <c r="C77" s="11" t="s">
+        <v>578</v>
       </c>
       <c r="H77" t="e">
         <f t="shared" si="6"/>
@@ -5242,15 +5245,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C78" s="21" t="s">
-        <v>569</v>
+      <c r="C78" s="11" t="s">
+        <v>578</v>
       </c>
       <c r="H78" t="e">
         <f t="shared" si="6"/>
@@ -5265,7 +5268,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>439</v>
       </c>
@@ -5288,7 +5291,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>440</v>
       </c>
@@ -5311,7 +5314,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>570</v>
       </c>
@@ -5322,7 +5325,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>571</v>
       </c>
@@ -5333,7 +5336,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>545</v>
       </c>
@@ -5344,7 +5347,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>547</v>
       </c>
@@ -5355,7 +5358,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>549</v>
       </c>
@@ -5381,22 +5384,22 @@
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.73046875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.53125" style="3"/>
-    <col min="4" max="4" width="9.06640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="55.06640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.46484375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.9296875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.06640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.73046875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="3"/>
+    <col min="4" max="4" width="9" style="4" customWidth="1"/>
+    <col min="5" max="5" width="55" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>212</v>
       </c>
@@ -5431,7 +5434,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>221</v>
       </c>
@@ -5460,7 +5463,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>221</v>
       </c>
@@ -5489,7 +5492,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>221</v>
       </c>
@@ -5518,7 +5521,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>221</v>
       </c>
@@ -5547,7 +5550,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>221</v>
       </c>
@@ -5576,7 +5579,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>221</v>
       </c>
@@ -5605,7 +5608,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>221</v>
       </c>
@@ -5637,7 +5640,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>221</v>
       </c>
@@ -5669,7 +5672,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>221</v>
       </c>
@@ -5701,7 +5704,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>221</v>
       </c>
@@ -5730,7 +5733,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>221</v>
       </c>
@@ -5762,7 +5765,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>221</v>
       </c>
@@ -5794,7 +5797,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>221</v>
       </c>
@@ -5823,7 +5826,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>221</v>
       </c>
@@ -5852,7 +5855,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>221</v>
       </c>
@@ -5884,7 +5887,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>221</v>
       </c>
@@ -5915,7 +5918,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>221</v>
       </c>
@@ -5948,7 +5951,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>221</v>
       </c>
@@ -5978,7 +5981,7 @@
       </c>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>221</v>
       </c>
@@ -6007,7 +6010,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>221</v>
       </c>
@@ -6036,7 +6039,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>221</v>
       </c>
@@ -6068,7 +6071,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>221</v>
       </c>
@@ -6097,7 +6100,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>221</v>
       </c>
@@ -6126,7 +6129,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>221</v>
       </c>
@@ -6155,7 +6158,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>221</v>
       </c>
@@ -6184,7 +6187,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>221</v>
       </c>
@@ -6213,7 +6216,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>221</v>
       </c>
@@ -6242,7 +6245,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>221</v>
       </c>
@@ -6271,7 +6274,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>221</v>
       </c>
@@ -6303,7 +6306,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>221</v>
       </c>
@@ -6332,7 +6335,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>221</v>
       </c>
@@ -6361,7 +6364,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>221</v>
       </c>
@@ -6390,7 +6393,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>221</v>
       </c>
@@ -6419,7 +6422,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>221</v>
       </c>
@@ -6448,7 +6451,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>221</v>
       </c>
@@ -6480,7 +6483,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>221</v>
       </c>
@@ -6512,7 +6515,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>221</v>
       </c>
@@ -6544,7 +6547,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>221</v>
       </c>
@@ -6576,7 +6579,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>221</v>
       </c>
@@ -6605,7 +6608,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>221</v>
       </c>
@@ -6634,7 +6637,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>221</v>
       </c>
@@ -6663,7 +6666,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>221</v>
       </c>
@@ -6692,7 +6695,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>221</v>
       </c>
@@ -6724,7 +6727,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>221</v>
       </c>
@@ -6753,7 +6756,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>221</v>
       </c>
@@ -6782,7 +6785,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>221</v>
       </c>
@@ -6811,7 +6814,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>257</v>
       </c>
@@ -6840,7 +6843,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>257</v>
       </c>
@@ -6869,7 +6872,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>257</v>
       </c>
@@ -6898,7 +6901,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>257</v>
       </c>
@@ -6927,7 +6930,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>257</v>
       </c>
@@ -6956,7 +6959,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>257</v>
       </c>
@@ -6985,7 +6988,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>257</v>
       </c>
@@ -7014,7 +7017,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>257</v>
       </c>
@@ -7043,7 +7046,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>257</v>
       </c>
@@ -7072,7 +7075,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>257</v>
       </c>
@@ -7101,7 +7104,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>257</v>
       </c>
@@ -7130,7 +7133,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>257</v>
       </c>
@@ -7161,7 +7164,7 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>257</v>
       </c>
@@ -7192,7 +7195,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>257</v>
       </c>
@@ -7221,7 +7224,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>257</v>
       </c>
@@ -7250,7 +7253,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>257</v>
       </c>
@@ -7279,7 +7282,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>257</v>
       </c>
@@ -7308,7 +7311,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>257</v>
       </c>
@@ -7337,7 +7340,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>257</v>
       </c>
@@ -7366,7 +7369,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>257</v>
       </c>
@@ -7395,7 +7398,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>257</v>
       </c>
@@ -7424,7 +7427,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>257</v>
       </c>
@@ -7453,7 +7456,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>257</v>
       </c>
@@ -7482,7 +7485,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>257</v>
       </c>
@@ -7511,7 +7514,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>257</v>
       </c>
@@ -7540,7 +7543,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>257</v>
       </c>
@@ -7569,7 +7572,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>257</v>
       </c>
@@ -7598,7 +7601,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>257</v>
       </c>
@@ -7627,7 +7630,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>257</v>
       </c>
@@ -7656,7 +7659,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>257</v>
       </c>
@@ -7685,7 +7688,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>257</v>
       </c>
@@ -7714,7 +7717,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>257</v>
       </c>
@@ -7743,7 +7746,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>257</v>
       </c>
@@ -7772,7 +7775,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>257</v>
       </c>
@@ -7801,7 +7804,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>257</v>
       </c>
@@ -7830,7 +7833,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>257</v>
       </c>
@@ -7859,7 +7862,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>257</v>
       </c>
@@ -7891,7 +7894,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>257</v>
       </c>
@@ -7923,7 +7926,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>257</v>
       </c>
@@ -7952,7 +7955,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>257</v>
       </c>
@@ -7984,7 +7987,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>257</v>
       </c>
@@ -8016,7 +8019,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>257</v>
       </c>
@@ -8051,7 +8054,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>257</v>
       </c>
@@ -8083,7 +8086,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>257</v>
       </c>
@@ -8115,7 +8118,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>257</v>
       </c>
@@ -8144,7 +8147,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>257</v>
       </c>
@@ -8173,7 +8176,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>257</v>
       </c>
@@ -8202,7 +8205,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>257</v>
       </c>
@@ -8231,7 +8234,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>257</v>
       </c>
@@ -8260,7 +8263,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>257</v>
       </c>
@@ -8289,7 +8292,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>257</v>
       </c>
@@ -8318,7 +8321,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>257</v>
       </c>
@@ -8347,7 +8350,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>257</v>
       </c>
@@ -8379,7 +8382,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>257</v>
       </c>
@@ -8408,7 +8411,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>257</v>
       </c>
@@ -8437,7 +8440,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>257</v>
       </c>
@@ -8468,7 +8471,7 @@
       <c r="J103" s="7"/>
       <c r="K103" s="9"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>257</v>
       </c>
@@ -8498,7 +8501,7 @@
       </c>
       <c r="J104" s="7"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>257</v>
       </c>
@@ -8529,7 +8532,7 @@
       <c r="J105" s="7"/>
       <c r="K105" s="9"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>257</v>
       </c>
@@ -8560,7 +8563,7 @@
       <c r="J106" s="7"/>
       <c r="K106" s="9"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>257</v>
       </c>
@@ -8591,7 +8594,7 @@
       <c r="J107" s="7"/>
       <c r="K107" s="9"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>257</v>
       </c>
@@ -8622,7 +8625,7 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>257</v>
       </c>
@@ -8653,7 +8656,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>257</v>
       </c>
@@ -8684,7 +8687,7 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>257</v>
       </c>
@@ -8713,7 +8716,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>257</v>
       </c>
@@ -8742,7 +8745,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>257</v>
       </c>
@@ -8771,7 +8774,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>351</v>
       </c>
@@ -8800,7 +8803,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>351</v>
       </c>
@@ -8829,7 +8832,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>351</v>
       </c>
@@ -8858,7 +8861,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>351</v>
       </c>
@@ -8887,7 +8890,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>351</v>
       </c>
@@ -8916,7 +8919,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>351</v>
       </c>
@@ -8945,7 +8948,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>351</v>
       </c>
@@ -8974,7 +8977,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>351</v>
       </c>
@@ -9003,7 +9006,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>351</v>
       </c>
@@ -9032,7 +9035,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>351</v>
       </c>
@@ -9061,7 +9064,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>351</v>
       </c>
@@ -9090,7 +9093,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>351</v>
       </c>
@@ -9119,7 +9122,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>351</v>
       </c>
@@ -9148,7 +9151,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>351</v>
       </c>
@@ -9177,7 +9180,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>351</v>
       </c>
@@ -9206,7 +9209,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>351</v>
       </c>
@@ -9235,7 +9238,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>351</v>
       </c>
@@ -9264,7 +9267,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>351</v>
       </c>
@@ -9293,7 +9296,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>351</v>
       </c>
@@ -9322,7 +9325,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>351</v>
       </c>
@@ -9351,7 +9354,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>351</v>
       </c>
@@ -9380,7 +9383,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>351</v>
       </c>
@@ -9409,7 +9412,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>351</v>
       </c>
@@ -9438,7 +9441,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>351</v>
       </c>
@@ -9467,7 +9470,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>351</v>
       </c>
@@ -9496,7 +9499,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>351</v>
       </c>
@@ -9525,7 +9528,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>351</v>
       </c>
@@ -9557,7 +9560,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>351</v>
       </c>
@@ -9586,7 +9589,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>351</v>
       </c>
@@ -9615,7 +9618,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>351</v>
       </c>
@@ -9644,7 +9647,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>351</v>
       </c>
@@ -9673,7 +9676,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>351</v>
       </c>
@@ -9702,7 +9705,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>351</v>
       </c>
@@ -9731,7 +9734,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>351</v>
       </c>
@@ -9760,7 +9763,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>351</v>
       </c>
@@ -9789,7 +9792,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>351</v>
       </c>
@@ -9818,7 +9821,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>351</v>
       </c>
@@ -9847,7 +9850,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>351</v>
       </c>
@@ -9876,7 +9879,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>351</v>
       </c>
@@ -9905,7 +9908,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>351</v>
       </c>
@@ -9934,7 +9937,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>351</v>
       </c>
@@ -9963,7 +9966,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>351</v>
       </c>
@@ -9992,7 +9995,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>351</v>
       </c>
@@ -10021,7 +10024,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>351</v>
       </c>
@@ -10050,7 +10053,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>351</v>
       </c>
@@ -10079,7 +10082,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>477</v>
       </c>
@@ -10087,7 +10090,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
       <c r="B160" s="14"/>
       <c r="C160" s="7"/>
@@ -10100,12 +10103,12 @@
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B161" s="3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -10118,12 +10121,12 @@
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B163" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -10136,12 +10139,12 @@
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B165" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -10154,12 +10157,12 @@
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B167" s="3" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -10172,12 +10175,12 @@
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B169" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -10190,12 +10193,12 @@
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B171" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -10208,7 +10211,7 @@
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B173" s="3" t="s">
         <v>484</v>
       </c>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ratos\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797B7106-5781-4B52-AEA2-82CC1273C739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F42FA8-04FD-408C-B3DA-7DB39F7706BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16665" yWindow="1185" windowWidth="13350" windowHeight="12690" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9615" yWindow="1350" windowWidth="13350" windowHeight="12690" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_precision_recall" sheetId="1" r:id="rId1"/>
@@ -1781,10 +1781,10 @@
     <t>RT (in the making, takes forever to find them)</t>
   </si>
   <si>
-    <t>RT (but have doubts)</t>
-  </si>
-  <si>
     <t>not gonna manual code</t>
+  </si>
+  <si>
+    <t>RT (in the making)</t>
   </si>
 </sst>
 </file>
@@ -3450,8 +3450,8 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3735,7 +3735,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H12" t="e">
         <f t="shared" si="3"/>
@@ -4632,7 +4632,7 @@
         <v>150</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H51" t="e">
         <f t="shared" si="3"/>
@@ -5230,7 +5230,7 @@
         <v>209</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H77" t="e">
         <f t="shared" si="6"/>
@@ -5253,7 +5253,7 @@
         <v>211</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H78" t="e">
         <f t="shared" si="6"/>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ratos\Documents\GitHub\Reddit_MDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F42FA8-04FD-408C-B3DA-7DB39F7706BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F16486-622C-4A0B-9051-A939C79CF415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9615" yWindow="1350" windowWidth="13350" windowHeight="12690" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_precision_recall" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="581">
   <si>
     <t>Feature_name</t>
   </si>
@@ -1748,9 +1750,6 @@
     <t xml:space="preserve"> amplifiers (+emphatics)</t>
   </si>
   <si>
-    <t>HM (needs re-doing, code aborted with Decoding-Error before sufficient hits found)</t>
-  </si>
-  <si>
     <t>missing??</t>
   </si>
   <si>
@@ -1766,15 +1765,9 @@
     <t>"superlatives_ana_215"</t>
   </si>
   <si>
-    <t xml:space="preserve">good to go (check meeting 01.04.2022 after testing if necessary) </t>
-  </si>
-  <si>
     <t>Axel is checking the function</t>
   </si>
   <si>
-    <t xml:space="preserve">good to go (discard in the likely case it is very innacurate) </t>
-  </si>
-  <si>
     <t>doesn't need manual checking</t>
   </si>
   <si>
@@ -1785,6 +1778,21 @@
   </si>
   <si>
     <t>RT (in the making)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (check meeting 01.04.2022 after testing if necessary) </t>
+  </si>
+  <si>
+    <t>good to g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(check meeting 01.04.2022 after testing if necessary) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">good to go </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (discard in the likely case it is very innacurate) </t>
   </si>
 </sst>
 </file>
@@ -1930,7 +1938,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2027,7 +2035,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2330,14 +2338,14 @@
       <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2354,7 +2362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2368,7 +2376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2382,7 +2390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2396,7 +2404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2410,7 +2418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -2424,7 +2432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2438,7 +2446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2450,7 +2458,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -2462,7 +2470,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -2474,7 +2482,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -2486,7 +2494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2498,7 +2506,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
         <v>38</v>
       </c>
@@ -2506,10 +2514,10 @@
         <v>39</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -2523,7 +2531,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2537,7 +2545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2549,7 +2557,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2563,7 +2571,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -2575,7 +2583,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -2589,7 +2597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -2603,7 +2611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -2617,7 +2625,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -2631,7 +2639,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -2643,7 +2651,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -2655,7 +2663,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
@@ -2669,7 +2677,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
@@ -2683,7 +2691,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
@@ -2697,7 +2705,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -2711,7 +2719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
@@ -2725,7 +2733,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -2739,7 +2747,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
@@ -2751,7 +2759,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>98</v>
       </c>
@@ -2763,7 +2771,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -2775,7 +2783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>102</v>
       </c>
@@ -2787,7 +2795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -2801,7 +2809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>107</v>
       </c>
@@ -2813,7 +2821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -2825,7 +2833,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -2837,7 +2845,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
@@ -2847,7 +2855,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>117</v>
       </c>
@@ -2859,7 +2867,7 @@
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>120</v>
       </c>
@@ -2871,7 +2879,7 @@
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>122</v>
       </c>
@@ -2885,7 +2893,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>125</v>
       </c>
@@ -2899,7 +2907,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>128</v>
       </c>
@@ -2911,7 +2919,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>131</v>
       </c>
@@ -2921,7 +2929,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>133</v>
       </c>
@@ -2931,7 +2939,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>135</v>
       </c>
@@ -2945,7 +2953,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>138</v>
       </c>
@@ -2959,7 +2967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>141</v>
       </c>
@@ -2969,7 +2977,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>143</v>
       </c>
@@ -2983,7 +2991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
         <v>145</v>
       </c>
@@ -3000,7 +3008,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>147</v>
       </c>
@@ -3014,7 +3022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>149</v>
       </c>
@@ -3028,7 +3036,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>152</v>
       </c>
@@ -3042,7 +3050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>155</v>
       </c>
@@ -3056,7 +3064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>158</v>
       </c>
@@ -3068,7 +3076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>160</v>
       </c>
@@ -3082,7 +3090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>162</v>
       </c>
@@ -3096,7 +3104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>164</v>
       </c>
@@ -3110,7 +3118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>166</v>
       </c>
@@ -3122,7 +3130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>168</v>
       </c>
@@ -3136,7 +3144,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>172</v>
       </c>
@@ -3150,7 +3158,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>176</v>
       </c>
@@ -3162,7 +3170,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>178</v>
       </c>
@@ -3176,7 +3184,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>182</v>
       </c>
@@ -3190,7 +3198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>184</v>
       </c>
@@ -3202,7 +3210,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>186</v>
       </c>
@@ -3214,7 +3222,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>189</v>
       </c>
@@ -3226,7 +3234,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>191</v>
       </c>
@@ -3238,7 +3246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>193</v>
       </c>
@@ -3248,7 +3256,7 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>195</v>
       </c>
@@ -3258,7 +3266,7 @@
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>197</v>
       </c>
@@ -3268,7 +3276,7 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>199</v>
       </c>
@@ -3278,7 +3286,7 @@
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>201</v>
       </c>
@@ -3292,7 +3300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>543</v>
       </c>
@@ -3302,7 +3310,7 @@
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>541</v>
       </c>
@@ -3312,7 +3320,7 @@
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>204</v>
       </c>
@@ -3324,7 +3332,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>206</v>
       </c>
@@ -3336,7 +3344,7 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>208</v>
       </c>
@@ -3348,7 +3356,7 @@
       </c>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>210</v>
       </c>
@@ -3360,7 +3368,7 @@
       </c>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>439</v>
       </c>
@@ -3372,7 +3380,7 @@
       </c>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>440</v>
       </c>
@@ -3384,7 +3392,7 @@
       </c>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>442</v>
       </c>
@@ -3395,7 +3403,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>441</v>
       </c>
@@ -3406,7 +3414,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>545</v>
       </c>
@@ -3417,7 +3425,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>547</v>
       </c>
@@ -3428,7 +3436,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>549</v>
       </c>
@@ -3447,25 +3455,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7223C10B-8642-4163-B1BD-0866630178C4}">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" customWidth="1"/>
+    <col min="3" max="4" width="7.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3475,29 +3483,29 @@
       <c r="C1" s="17" t="s">
         <v>533</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>535</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>536</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>537</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3507,20 +3515,20 @@
       <c r="C2" t="s">
         <v>539</v>
       </c>
-      <c r="H2" t="e">
-        <f>D2/(D2+F2)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="I2" t="e">
-        <f>D2/(D2+G2)</f>
+        <f>E2/(E2+G2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J2" t="e">
-        <f>2*((H2*I2)/(H2+I2))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <f>E2/(E2+H2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K2" t="e">
+        <f>2*((I2*J2)/(I2+J2))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3530,20 +3538,20 @@
       <c r="C3" t="s">
         <v>539</v>
       </c>
-      <c r="H3" t="e">
-        <f>D3/(D3+F3)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="I3" t="e">
-        <f>D3/(D3+G3)</f>
+        <f>E3/(E3+G3)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J3" t="e">
-        <f>2*((H3*I3)/(H3+I3))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <f>E3/(E3+H3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" t="e">
+        <f>2*((I3*J3)/(I3+J3))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3551,22 +3559,23 @@
         <v>13</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="H4" t="e">
-        <f t="shared" ref="H4:H8" si="0">D4/(D4+F4)</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="D4" s="21"/>
       <c r="I4" t="e">
-        <f t="shared" ref="I4:I8" si="1">D4/(D4+G4)</f>
+        <f t="shared" ref="I4:I8" si="0">E4/(E4+G4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J4" t="e">
-        <f t="shared" ref="J4:J8" si="2">2*((H4*I4)/(H4+I4))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J4:J8" si="1">E4/(E4+H4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K4" t="e">
+        <f t="shared" ref="K4:K8" si="2">2*((I4*J4)/(I4+J4))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3576,20 +3585,20 @@
       <c r="C5" t="s">
         <v>539</v>
       </c>
-      <c r="H5" t="e">
+      <c r="I5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" t="e">
+      <c r="J5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" t="e">
+      <c r="K5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -3599,20 +3608,20 @@
       <c r="C6" t="s">
         <v>560</v>
       </c>
-      <c r="H6" t="e">
+      <c r="I6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" t="e">
+      <c r="J6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" t="e">
+      <c r="K6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -3620,22 +3629,23 @@
         <v>23</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>568</v>
-      </c>
-      <c r="H7" t="e">
+        <v>567</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="I7" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" t="e">
+      <c r="J7" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" t="e">
+      <c r="K7" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -3645,20 +3655,20 @@
       <c r="C8" t="s">
         <v>539</v>
       </c>
-      <c r="H8" t="e">
+      <c r="I8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" t="e">
+      <c r="J8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" t="e">
+      <c r="K8" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -3668,20 +3678,20 @@
       <c r="C9" t="s">
         <v>539</v>
       </c>
-      <c r="H9" t="e">
-        <f t="shared" ref="H9:H70" si="3">D9/(D9+F9)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="I9" t="e">
-        <f t="shared" ref="I9:I70" si="4">D9/(D9+G9)</f>
+        <f t="shared" ref="I9:I70" si="3">E9/(E9+G9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J9" t="e">
-        <f t="shared" ref="J9:J70" si="5">2*((H9*I9)/(H9+I9))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J9:J70" si="4">E9/(E9+H9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" t="e">
+        <f t="shared" ref="K9:K70" si="5">2*((I9*J9)/(I9+J9))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -3691,20 +3701,20 @@
       <c r="C10" t="s">
         <v>539</v>
       </c>
-      <c r="H10" t="e">
+      <c r="I10" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" t="e">
+      <c r="J10" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" t="e">
+      <c r="K10" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -3714,20 +3724,20 @@
       <c r="C11" t="s">
         <v>539</v>
       </c>
-      <c r="H11" t="e">
+      <c r="I11" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" t="e">
+      <c r="J11" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" t="e">
+      <c r="K11" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -3735,22 +3745,23 @@
         <v>36</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>578</v>
-      </c>
-      <c r="H12" t="e">
+        <v>575</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="I12" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" t="e">
+      <c r="J12" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" t="e">
+      <c r="K12" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -3760,20 +3771,20 @@
       <c r="C13" t="s">
         <v>539</v>
       </c>
-      <c r="H13" t="e">
+      <c r="I13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" t="e">
+      <c r="J13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" t="e">
+      <c r="K13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -3781,45 +3792,46 @@
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>566</v>
-      </c>
-      <c r="H14" t="e">
+        <v>539</v>
+      </c>
+      <c r="I14" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" t="e">
+      <c r="J14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" t="e">
+      <c r="K14" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="H15" t="e">
+      <c r="D15" s="11"/>
+      <c r="I15" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" t="e">
+      <c r="J15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" t="e">
+      <c r="K15" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -3829,20 +3841,20 @@
       <c r="C16" t="s">
         <v>560</v>
       </c>
-      <c r="H16" t="e">
+      <c r="I16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" t="e">
+      <c r="J16" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" t="e">
+      <c r="K16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -3852,20 +3864,21 @@
       <c r="C17" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H17" t="e">
+      <c r="D17" s="11"/>
+      <c r="I17" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" t="e">
+      <c r="J17" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" t="e">
+      <c r="K17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -3875,20 +3888,21 @@
       <c r="C18" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H18" t="e">
+      <c r="D18" s="11"/>
+      <c r="I18" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" t="e">
+      <c r="J18" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" t="e">
+      <c r="K18" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -3896,45 +3910,49 @@
         <v>58</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>569</v>
-      </c>
-      <c r="H19" t="e">
+        <v>568</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="I19" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" t="e">
+      <c r="J19" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" t="e">
+      <c r="K19" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>572</v>
-      </c>
-      <c r="H20" t="e">
+      <c r="C20" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="I20" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" t="e">
+      <c r="J20" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J20" t="e">
+      <c r="K20" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -3944,20 +3962,20 @@
       <c r="C21" t="s">
         <v>539</v>
       </c>
-      <c r="H21" t="e">
+      <c r="I21" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" t="e">
+      <c r="J21" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J21" t="e">
+      <c r="K21" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -3967,66 +3985,70 @@
       <c r="C22" t="s">
         <v>539</v>
       </c>
-      <c r="H22" t="e">
+      <c r="I22" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" t="e">
+      <c r="J22" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J22" t="e">
+      <c r="K22" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>569</v>
-      </c>
-      <c r="H23" t="e">
+      <c r="C23" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="I23" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" t="e">
+      <c r="J23" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J23" t="e">
+      <c r="K23" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>572</v>
-      </c>
-      <c r="H24" t="e">
+      <c r="C24" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="I24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" t="e">
+      <c r="J24" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J24" t="e">
+      <c r="K24" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
@@ -4034,22 +4056,23 @@
         <v>76</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>569</v>
-      </c>
-      <c r="H25" t="e">
+        <v>568</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="I25" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" t="e">
+      <c r="J25" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J25" t="e">
+      <c r="K25" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
@@ -4059,20 +4082,21 @@
       <c r="C26" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H26" t="e">
+      <c r="D26" s="11"/>
+      <c r="I26" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" t="e">
+      <c r="J26" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J26" t="e">
+      <c r="K26" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
@@ -4080,91 +4104,101 @@
         <v>84</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>569</v>
-      </c>
-      <c r="H27" t="e">
+        <v>568</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="I27" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" t="e">
+      <c r="J27" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J27" t="e">
+      <c r="K27" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>572</v>
-      </c>
-      <c r="H28" t="e">
+      <c r="C28" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="I28" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" t="e">
+      <c r="J28" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J28" t="e">
+      <c r="K28" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>572</v>
-      </c>
-      <c r="H29" t="e">
+      <c r="C29" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="I29" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" t="e">
+      <c r="J29" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29" t="e">
+      <c r="K29" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="22" t="s">
-        <v>572</v>
-      </c>
-      <c r="H30" t="e">
+      <c r="C30" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="I30" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" t="e">
+      <c r="J30" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" t="e">
+      <c r="K30" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
@@ -4174,20 +4208,21 @@
       <c r="C31" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H31" t="e">
+      <c r="D31" s="11"/>
+      <c r="I31" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" t="e">
+      <c r="J31" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J31" t="e">
+      <c r="K31" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>98</v>
       </c>
@@ -4197,20 +4232,21 @@
       <c r="C32" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H32" t="e">
+      <c r="D32" s="11"/>
+      <c r="I32" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" t="e">
+      <c r="J32" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J32" t="e">
+      <c r="K32" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -4218,22 +4254,23 @@
         <v>101</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>573</v>
-      </c>
-      <c r="H33" t="e">
+        <v>571</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="I33" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" t="e">
+      <c r="J33" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J33" t="e">
+      <c r="K33" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>102</v>
       </c>
@@ -4241,22 +4278,23 @@
         <v>103</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>573</v>
-      </c>
-      <c r="H34" t="e">
+        <v>571</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="I34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" t="e">
+      <c r="J34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J34" t="e">
+      <c r="K34" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -4264,45 +4302,49 @@
         <v>105</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>569</v>
-      </c>
-      <c r="H35" t="e">
+        <v>568</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="I35" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" t="e">
+      <c r="J35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" t="e">
+      <c r="K35" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="H36" t="e">
+      <c r="C36" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="I36" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" t="e">
+      <c r="J36" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J36" t="e">
+      <c r="K36" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -4312,20 +4354,21 @@
       <c r="C37" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="H37" t="e">
+      <c r="D37" s="2"/>
+      <c r="I37" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I37" t="e">
+      <c r="J37" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J37" t="e">
+      <c r="K37" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -4335,20 +4378,21 @@
       <c r="C38" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H38" t="e">
+      <c r="D38" s="11"/>
+      <c r="I38" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" t="e">
+      <c r="J38" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J38" t="e">
+      <c r="K38" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
@@ -4358,20 +4402,21 @@
       <c r="C39" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H39" t="e">
+      <c r="D39" s="11"/>
+      <c r="I39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" t="e">
+      <c r="J39" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J39" t="e">
+      <c r="K39" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>117</v>
       </c>
@@ -4381,20 +4426,21 @@
       <c r="C40" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H40" t="e">
+      <c r="D40" s="11"/>
+      <c r="I40" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" t="e">
+      <c r="J40" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J40" t="e">
+      <c r="K40" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>120</v>
       </c>
@@ -4404,20 +4450,20 @@
       <c r="C41" t="s">
         <v>539</v>
       </c>
-      <c r="H41" t="e">
+      <c r="I41" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" t="e">
+      <c r="J41" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" t="e">
+      <c r="K41" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>122</v>
       </c>
@@ -4427,20 +4473,20 @@
       <c r="C42" t="s">
         <v>539</v>
       </c>
-      <c r="H42" t="e">
+      <c r="I42" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I42" t="e">
+      <c r="J42" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J42" t="e">
+      <c r="K42" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>125</v>
       </c>
@@ -4450,20 +4496,20 @@
       <c r="C43" t="s">
         <v>539</v>
       </c>
-      <c r="H43" t="e">
+      <c r="I43" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I43" t="e">
+      <c r="J43" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J43" t="e">
+      <c r="K43" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>128</v>
       </c>
@@ -4471,22 +4517,23 @@
         <v>129</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>569</v>
-      </c>
-      <c r="H44" t="e">
+        <v>568</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="I44" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I44" t="e">
+      <c r="J44" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J44" t="e">
+      <c r="K44" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>133</v>
       </c>
@@ -4494,22 +4541,23 @@
         <v>134</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="H45" t="e">
+        <v>572</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="I45" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I45" t="e">
+      <c r="J45" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J45" t="e">
+      <c r="K45" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>135</v>
       </c>
@@ -4517,22 +4565,23 @@
         <v>136</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>569</v>
-      </c>
-      <c r="H46" t="e">
+        <v>568</v>
+      </c>
+      <c r="D46" s="21"/>
+      <c r="I46" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I46" t="e">
+      <c r="J46" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J46" t="e">
+      <c r="K46" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>138</v>
       </c>
@@ -4542,20 +4591,21 @@
       <c r="C47" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H47" t="e">
+      <c r="D47" s="11"/>
+      <c r="I47" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I47" t="e">
+      <c r="J47" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J47" t="e">
+      <c r="K47" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>141</v>
       </c>
@@ -4565,20 +4615,21 @@
       <c r="C48" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H48" t="e">
+      <c r="D48" s="11"/>
+      <c r="I48" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I48" t="e">
+      <c r="J48" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J48" t="e">
+      <c r="K48" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>143</v>
       </c>
@@ -4586,22 +4637,23 @@
         <v>565</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>569</v>
-      </c>
-      <c r="H49" t="e">
+        <v>568</v>
+      </c>
+      <c r="D49" s="21"/>
+      <c r="I49" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I49" t="e">
+      <c r="J49" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J49" t="e">
+      <c r="K49" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>147</v>
       </c>
@@ -4611,20 +4663,21 @@
       <c r="C50" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H50" t="e">
+      <c r="D50" s="11"/>
+      <c r="I50" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I50" t="e">
+      <c r="J50" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J50" t="e">
+      <c r="K50" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>149</v>
       </c>
@@ -4632,22 +4685,23 @@
         <v>150</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>578</v>
-      </c>
-      <c r="H51" t="e">
+        <v>575</v>
+      </c>
+      <c r="D51" s="21"/>
+      <c r="I51" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I51" t="e">
+      <c r="J51" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J51" t="e">
+      <c r="K51" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>152</v>
       </c>
@@ -4657,20 +4711,20 @@
       <c r="C52" t="s">
         <v>539</v>
       </c>
-      <c r="H52" t="e">
+      <c r="I52" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I52" t="e">
+      <c r="J52" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J52" t="e">
+      <c r="K52" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>155</v>
       </c>
@@ -4680,20 +4734,21 @@
       <c r="C53" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H53" t="e">
+      <c r="D53" s="11"/>
+      <c r="I53" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I53" t="e">
+      <c r="J53" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J53" t="e">
+      <c r="K53" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>158</v>
       </c>
@@ -4703,20 +4758,20 @@
       <c r="C54" t="s">
         <v>539</v>
       </c>
-      <c r="H54" t="e">
+      <c r="I54" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I54" t="e">
+      <c r="J54" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J54" t="e">
+      <c r="K54" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>160</v>
       </c>
@@ -4726,20 +4781,20 @@
       <c r="C55" t="s">
         <v>539</v>
       </c>
-      <c r="H55" t="e">
+      <c r="I55" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I55" t="e">
+      <c r="J55" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J55" t="e">
+      <c r="K55" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>162</v>
       </c>
@@ -4749,20 +4804,20 @@
       <c r="C56" t="s">
         <v>539</v>
       </c>
-      <c r="H56" t="e">
+      <c r="I56" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I56" t="e">
+      <c r="J56" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J56" t="e">
+      <c r="K56" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>164</v>
       </c>
@@ -4772,20 +4827,20 @@
       <c r="C57" t="s">
         <v>539</v>
       </c>
-      <c r="H57" t="e">
+      <c r="I57" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I57" t="e">
+      <c r="J57" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J57" t="e">
+      <c r="K57" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>166</v>
       </c>
@@ -4795,20 +4850,20 @@
       <c r="C58" t="s">
         <v>539</v>
       </c>
-      <c r="H58" t="e">
+      <c r="I58" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I58" t="e">
+      <c r="J58" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J58" t="e">
+      <c r="K58" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>168</v>
       </c>
@@ -4818,20 +4873,20 @@
       <c r="C59" t="s">
         <v>539</v>
       </c>
-      <c r="H59" t="e">
+      <c r="I59" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I59" t="e">
+      <c r="J59" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J59" t="e">
+      <c r="K59" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -4841,20 +4896,21 @@
       <c r="C60" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H60" t="e">
+      <c r="D60" s="11"/>
+      <c r="I60" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I60" t="e">
+      <c r="J60" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J60" t="e">
+      <c r="K60" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>176</v>
       </c>
@@ -4864,20 +4920,21 @@
       <c r="C61" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H61" t="e">
+      <c r="D61" s="11"/>
+      <c r="I61" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I61" t="e">
+      <c r="J61" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J61" t="e">
+      <c r="K61" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>178</v>
       </c>
@@ -4887,20 +4944,21 @@
       <c r="C62" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H62" t="e">
+      <c r="D62" s="11"/>
+      <c r="I62" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I62" t="e">
+      <c r="J62" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J62" t="e">
+      <c r="K62" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>182</v>
       </c>
@@ -4910,20 +4968,21 @@
       <c r="C63" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H63" t="e">
+      <c r="D63" s="11"/>
+      <c r="I63" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I63" t="e">
+      <c r="J63" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J63" t="e">
+      <c r="K63" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>184</v>
       </c>
@@ -4933,20 +4992,21 @@
       <c r="C64" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H64" t="e">
+      <c r="D64" s="11"/>
+      <c r="I64" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I64" t="e">
+      <c r="J64" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J64" t="e">
+      <c r="K64" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>186</v>
       </c>
@@ -4956,20 +5016,21 @@
       <c r="C65" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H65" t="e">
+      <c r="D65" s="11"/>
+      <c r="I65" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I65" t="e">
+      <c r="J65" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J65" t="e">
+      <c r="K65" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>189</v>
       </c>
@@ -4979,20 +5040,21 @@
       <c r="C66" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H66" t="e">
+      <c r="D66" s="11"/>
+      <c r="I66" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I66" t="e">
+      <c r="J66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J66" t="e">
+      <c r="K66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>191</v>
       </c>
@@ -5002,20 +5064,21 @@
       <c r="C67" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H67" t="e">
+      <c r="D67" s="11"/>
+      <c r="I67" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I67" t="e">
+      <c r="J67" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J67" t="e">
+      <c r="K67" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>193</v>
       </c>
@@ -5025,20 +5088,20 @@
       <c r="C68" t="s">
         <v>539</v>
       </c>
-      <c r="H68" t="e">
+      <c r="I68" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I68" t="e">
+      <c r="J68" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J68" t="e">
+      <c r="K68" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>195</v>
       </c>
@@ -5048,20 +5111,20 @@
       <c r="C69" t="s">
         <v>539</v>
       </c>
-      <c r="H69" t="e">
+      <c r="I69" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I69" t="e">
+      <c r="J69" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J69" t="e">
+      <c r="K69" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>197</v>
       </c>
@@ -5071,20 +5134,21 @@
       <c r="C70" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H70" t="e">
+      <c r="D70" s="11"/>
+      <c r="I70" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I70" t="e">
+      <c r="J70" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J70" t="e">
+      <c r="K70" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>199</v>
       </c>
@@ -5094,20 +5158,21 @@
       <c r="C71" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H71" t="e">
-        <f t="shared" ref="H71:H80" si="6">D71/(D71+F71)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D71" s="11"/>
       <c r="I71" t="e">
-        <f t="shared" ref="I71:I80" si="7">D71/(D71+G71)</f>
+        <f t="shared" ref="I71:I80" si="6">E71/(E71+G71)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J71" t="e">
-        <f t="shared" ref="J71:J80" si="8">2*((H71*I71)/(H71+I71))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J71:J80" si="7">E71/(E71+H71)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K71" t="e">
+        <f t="shared" ref="K71:K80" si="8">2*((I71*J71)/(I71+J71))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>201</v>
       </c>
@@ -5117,20 +5182,21 @@
       <c r="C72" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H72" t="e">
+      <c r="D72" s="11"/>
+      <c r="I72" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I72" t="e">
+      <c r="J72" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J72" t="e">
+      <c r="K72" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>543</v>
       </c>
@@ -5140,20 +5206,21 @@
       <c r="C73" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H73" t="e">
+      <c r="D73" s="11"/>
+      <c r="I73" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I73" t="e">
+      <c r="J73" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J73" t="e">
+      <c r="K73" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>541</v>
       </c>
@@ -5163,20 +5230,21 @@
       <c r="C74" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H74" t="e">
+      <c r="D74" s="11"/>
+      <c r="I74" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I74" t="e">
+      <c r="J74" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J74" t="e">
+      <c r="K74" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>204</v>
       </c>
@@ -5186,20 +5254,20 @@
       <c r="C75" t="s">
         <v>539</v>
       </c>
-      <c r="H75" t="e">
+      <c r="I75" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I75" t="e">
+      <c r="J75" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J75" t="e">
+      <c r="K75" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>206</v>
       </c>
@@ -5209,20 +5277,20 @@
       <c r="C76" t="s">
         <v>539</v>
       </c>
-      <c r="H76" t="e">
+      <c r="I76" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I76" t="e">
+      <c r="J76" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J76" t="e">
+      <c r="K76" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>208</v>
       </c>
@@ -5230,22 +5298,23 @@
         <v>209</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="H77" t="e">
+        <v>574</v>
+      </c>
+      <c r="D77" s="11"/>
+      <c r="I77" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I77" t="e">
+      <c r="J77" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J77" t="e">
+      <c r="K77" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>210</v>
       </c>
@@ -5253,22 +5322,23 @@
         <v>211</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="H78" t="e">
+        <v>574</v>
+      </c>
+      <c r="D78" s="11"/>
+      <c r="I78" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I78" t="e">
+      <c r="J78" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J78" t="e">
+      <c r="K78" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>439</v>
       </c>
@@ -5278,20 +5348,21 @@
       <c r="C79" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H79" t="e">
+      <c r="D79" s="11"/>
+      <c r="I79" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I79" t="e">
+      <c r="J79" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J79" t="e">
+      <c r="K79" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>440</v>
       </c>
@@ -5301,22 +5372,23 @@
       <c r="C80" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="H80" t="e">
+      <c r="D80" s="11"/>
+      <c r="I80" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I80" t="e">
+      <c r="J80" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J80" t="e">
+      <c r="K80" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B81" t="s">
         <v>445</v>
@@ -5324,10 +5396,11 @@
       <c r="C81" s="11" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="11"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B82" t="s">
         <v>446</v>
@@ -5335,8 +5408,9 @@
       <c r="C82" s="11" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="11"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>545</v>
       </c>
@@ -5344,21 +5418,23 @@
         <v>544</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="D83" s="21"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>547</v>
       </c>
       <c r="B84" t="s">
         <v>546</v>
       </c>
-      <c r="C84" s="21" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="D84" s="11"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>549</v>
       </c>
@@ -5366,8 +5442,9 @@
         <v>548</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>569</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="D85" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5384,22 +5461,22 @@
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="3"/>
+    <col min="1" max="1" width="9.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" style="3"/>
     <col min="4" max="4" width="9" style="4" customWidth="1"/>
     <col min="5" max="5" width="55" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" customWidth="1"/>
     <col min="8" max="8" width="8" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>212</v>
       </c>
@@ -5434,7 +5511,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>221</v>
       </c>
@@ -5463,7 +5540,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>221</v>
       </c>
@@ -5492,7 +5569,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>221</v>
       </c>
@@ -5521,7 +5598,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>221</v>
       </c>
@@ -5550,7 +5627,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>221</v>
       </c>
@@ -5579,7 +5656,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>221</v>
       </c>
@@ -5608,7 +5685,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>221</v>
       </c>
@@ -5640,7 +5717,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>221</v>
       </c>
@@ -5672,7 +5749,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>221</v>
       </c>
@@ -5704,7 +5781,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>221</v>
       </c>
@@ -5733,7 +5810,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>221</v>
       </c>
@@ -5765,7 +5842,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>221</v>
       </c>
@@ -5797,7 +5874,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>221</v>
       </c>
@@ -5826,7 +5903,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>221</v>
       </c>
@@ -5855,7 +5932,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>221</v>
       </c>
@@ -5887,7 +5964,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>221</v>
       </c>
@@ -5918,7 +5995,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>221</v>
       </c>
@@ -5951,7 +6028,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>221</v>
       </c>
@@ -5981,7 +6058,7 @@
       </c>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>221</v>
       </c>
@@ -6010,7 +6087,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>221</v>
       </c>
@@ -6039,7 +6116,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>221</v>
       </c>
@@ -6071,7 +6148,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>221</v>
       </c>
@@ -6100,7 +6177,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>221</v>
       </c>
@@ -6129,7 +6206,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>221</v>
       </c>
@@ -6158,7 +6235,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>221</v>
       </c>
@@ -6187,7 +6264,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>221</v>
       </c>
@@ -6216,7 +6293,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>221</v>
       </c>
@@ -6245,7 +6322,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>221</v>
       </c>
@@ -6274,7 +6351,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>221</v>
       </c>
@@ -6306,7 +6383,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>221</v>
       </c>
@@ -6335,7 +6412,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>221</v>
       </c>
@@ -6364,7 +6441,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>221</v>
       </c>
@@ -6393,7 +6470,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>221</v>
       </c>
@@ -6422,7 +6499,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>221</v>
       </c>
@@ -6451,7 +6528,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>221</v>
       </c>
@@ -6483,7 +6560,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>221</v>
       </c>
@@ -6515,7 +6592,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>221</v>
       </c>
@@ -6547,7 +6624,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>221</v>
       </c>
@@ -6579,7 +6656,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>221</v>
       </c>
@@ -6608,7 +6685,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>221</v>
       </c>
@@ -6637,7 +6714,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>221</v>
       </c>
@@ -6666,7 +6743,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>221</v>
       </c>
@@ -6695,7 +6772,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>221</v>
       </c>
@@ -6727,7 +6804,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>221</v>
       </c>
@@ -6756,7 +6833,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>221</v>
       </c>
@@ -6785,7 +6862,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>221</v>
       </c>
@@ -6814,7 +6891,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>257</v>
       </c>
@@ -6843,7 +6920,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>257</v>
       </c>
@@ -6872,7 +6949,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>257</v>
       </c>
@@ -6901,7 +6978,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>257</v>
       </c>
@@ -6930,7 +7007,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>257</v>
       </c>
@@ -6959,7 +7036,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>257</v>
       </c>
@@ -6988,7 +7065,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>257</v>
       </c>
@@ -7017,7 +7094,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>257</v>
       </c>
@@ -7046,7 +7123,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>257</v>
       </c>
@@ -7075,7 +7152,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>257</v>
       </c>
@@ -7104,7 +7181,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>257</v>
       </c>
@@ -7133,7 +7210,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>257</v>
       </c>
@@ -7164,7 +7241,7 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>257</v>
       </c>
@@ -7195,7 +7272,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>257</v>
       </c>
@@ -7224,7 +7301,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>257</v>
       </c>
@@ -7253,7 +7330,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>257</v>
       </c>
@@ -7282,7 +7359,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>257</v>
       </c>
@@ -7311,7 +7388,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>257</v>
       </c>
@@ -7340,7 +7417,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>257</v>
       </c>
@@ -7369,7 +7446,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>257</v>
       </c>
@@ -7398,7 +7475,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>257</v>
       </c>
@@ -7427,7 +7504,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>257</v>
       </c>
@@ -7456,7 +7533,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>257</v>
       </c>
@@ -7485,7 +7562,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>257</v>
       </c>
@@ -7514,7 +7591,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>257</v>
       </c>
@@ -7543,7 +7620,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>257</v>
       </c>
@@ -7572,7 +7649,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>257</v>
       </c>
@@ -7601,7 +7678,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>257</v>
       </c>
@@ -7630,7 +7707,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>257</v>
       </c>
@@ -7659,7 +7736,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>257</v>
       </c>
@@ -7688,7 +7765,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>257</v>
       </c>
@@ -7717,7 +7794,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>257</v>
       </c>
@@ -7746,7 +7823,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>257</v>
       </c>
@@ -7775,7 +7852,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>257</v>
       </c>
@@ -7804,7 +7881,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>257</v>
       </c>
@@ -7833,7 +7910,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>257</v>
       </c>
@@ -7862,7 +7939,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>257</v>
       </c>
@@ -7894,7 +7971,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>257</v>
       </c>
@@ -7926,7 +8003,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>257</v>
       </c>
@@ -7955,7 +8032,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>257</v>
       </c>
@@ -7987,7 +8064,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>257</v>
       </c>
@@ -8019,7 +8096,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>257</v>
       </c>
@@ -8054,7 +8131,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>257</v>
       </c>
@@ -8086,7 +8163,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>257</v>
       </c>
@@ -8118,7 +8195,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>257</v>
       </c>
@@ -8147,7 +8224,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>257</v>
       </c>
@@ -8176,7 +8253,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>257</v>
       </c>
@@ -8205,7 +8282,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>257</v>
       </c>
@@ -8234,7 +8311,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>257</v>
       </c>
@@ -8263,7 +8340,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>257</v>
       </c>
@@ -8292,7 +8369,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>257</v>
       </c>
@@ -8321,7 +8398,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>257</v>
       </c>
@@ -8350,7 +8427,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>257</v>
       </c>
@@ -8382,7 +8459,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>257</v>
       </c>
@@ -8411,7 +8488,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>257</v>
       </c>
@@ -8440,7 +8517,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>257</v>
       </c>
@@ -8471,7 +8548,7 @@
       <c r="J103" s="7"/>
       <c r="K103" s="9"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>257</v>
       </c>
@@ -8501,7 +8578,7 @@
       </c>
       <c r="J104" s="7"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>257</v>
       </c>
@@ -8532,7 +8609,7 @@
       <c r="J105" s="7"/>
       <c r="K105" s="9"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>257</v>
       </c>
@@ -8563,7 +8640,7 @@
       <c r="J106" s="7"/>
       <c r="K106" s="9"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>257</v>
       </c>
@@ -8594,7 +8671,7 @@
       <c r="J107" s="7"/>
       <c r="K107" s="9"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>257</v>
       </c>
@@ -8625,7 +8702,7 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>257</v>
       </c>
@@ -8656,7 +8733,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>257</v>
       </c>
@@ -8687,7 +8764,7 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>257</v>
       </c>
@@ -8716,7 +8793,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>257</v>
       </c>
@@ -8745,7 +8822,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>257</v>
       </c>
@@ -8774,7 +8851,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>351</v>
       </c>
@@ -8803,7 +8880,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>351</v>
       </c>
@@ -8832,7 +8909,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>351</v>
       </c>
@@ -8861,7 +8938,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>351</v>
       </c>
@@ -8890,7 +8967,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>351</v>
       </c>
@@ -8919,7 +8996,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>351</v>
       </c>
@@ -8948,7 +9025,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>351</v>
       </c>
@@ -8977,7 +9054,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>351</v>
       </c>
@@ -9006,7 +9083,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>351</v>
       </c>
@@ -9035,7 +9112,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>351</v>
       </c>
@@ -9064,7 +9141,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>351</v>
       </c>
@@ -9093,7 +9170,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>351</v>
       </c>
@@ -9122,7 +9199,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>351</v>
       </c>
@@ -9151,7 +9228,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>351</v>
       </c>
@@ -9180,7 +9257,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>351</v>
       </c>
@@ -9209,7 +9286,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>351</v>
       </c>
@@ -9238,7 +9315,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>351</v>
       </c>
@@ -9267,7 +9344,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>351</v>
       </c>
@@ -9296,7 +9373,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>351</v>
       </c>
@@ -9325,7 +9402,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>351</v>
       </c>
@@ -9354,7 +9431,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>351</v>
       </c>
@@ -9383,7 +9460,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>351</v>
       </c>
@@ -9412,7 +9489,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>351</v>
       </c>
@@ -9441,7 +9518,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>351</v>
       </c>
@@ -9470,7 +9547,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>351</v>
       </c>
@@ -9499,7 +9576,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>351</v>
       </c>
@@ -9528,7 +9605,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>351</v>
       </c>
@@ -9560,7 +9637,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>351</v>
       </c>
@@ -9589,7 +9666,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>351</v>
       </c>
@@ -9618,7 +9695,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>351</v>
       </c>
@@ -9647,7 +9724,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>351</v>
       </c>
@@ -9676,7 +9753,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>351</v>
       </c>
@@ -9705,7 +9782,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>351</v>
       </c>
@@ -9734,7 +9811,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>351</v>
       </c>
@@ -9763,7 +9840,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>351</v>
       </c>
@@ -9792,7 +9869,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>351</v>
       </c>
@@ -9821,7 +9898,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>351</v>
       </c>
@@ -9850,7 +9927,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>351</v>
       </c>
@@ -9879,7 +9956,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>351</v>
       </c>
@@ -9908,7 +9985,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>351</v>
       </c>
@@ -9937,7 +10014,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>351</v>
       </c>
@@ -9966,7 +10043,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>351</v>
       </c>
@@ -9995,7 +10072,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>351</v>
       </c>
@@ -10024,7 +10101,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>351</v>
       </c>
@@ -10053,7 +10130,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>351</v>
       </c>
@@ -10082,7 +10159,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>477</v>
       </c>
@@ -10090,7 +10167,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="7"/>
       <c r="B160" s="14"/>
       <c r="C160" s="7"/>
@@ -10103,12 +10180,12 @@
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B161" s="3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -10121,12 +10198,12 @@
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B163" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -10139,12 +10216,12 @@
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B165" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -10157,12 +10234,12 @@
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B167" s="3" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -10175,12 +10252,12 @@
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B169" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -10193,12 +10270,12 @@
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B171" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -10211,7 +10288,7 @@
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B173" s="3" t="s">
         <v>484</v>
       </c>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F16486-622C-4A0B-9051-A939C79CF415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1861B76-713A-480A-A967-3F0B6ACAA6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3458,8 +3458,8 @@
   <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4325,8 +4325,8 @@
       <c r="B36" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="21" t="s">
-        <v>568</v>
+      <c r="C36" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>580</v>

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1861B76-713A-480A-A967-3F0B6ACAA6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E88DE7-C2D4-4163-941A-1813938339B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3458,8 +3458,8 @@
   <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3933,8 +3933,8 @@
       <c r="B20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>568</v>
+      <c r="C20" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>576</v>
@@ -4564,8 +4564,8 @@
       <c r="B46" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="21" t="s">
-        <v>568</v>
+      <c r="C46" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="D46" s="21"/>
       <c r="I46" t="e">

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E88DE7-C2D4-4163-941A-1813938339B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B466AD19-44AA-45E2-BA84-3F05C4E412C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3458,8 +3458,8 @@
   <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4103,8 +4103,8 @@
       <c r="B27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="21" t="s">
-        <v>568</v>
+      <c r="C27" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="D27" s="21"/>
       <c r="I27" t="e">

--- a/Overview_feature_extraction_precision_recall.xlsx
+++ b/Overview_feature_extraction_precision_recall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahle\Documents\GitHub\Reddit_MDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ratos\Documents\GitHub\Reddit_MDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B466AD19-44AA-45E2-BA84-3F05C4E412C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4D8E06-0389-41B8-9B42-012C975F454C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_precision_recall" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1753,9 +1751,6 @@
     <t>missing??</t>
   </si>
   <si>
-    <t>RT (re-do once Axel is done wiht the new function)</t>
-  </si>
-  <si>
     <t>good to go</t>
   </si>
   <si>
@@ -1793,6 +1788,9 @@
   </si>
   <si>
     <t xml:space="preserve"> (discard in the likely case it is very innacurate) </t>
+  </si>
+  <si>
+    <t>(re-do once Axel is done wiht the new function)</t>
   </si>
 </sst>
 </file>
@@ -1938,7 +1936,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2035,7 +2033,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2338,14 +2336,14 @@
       <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="32.453125" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.796875" customWidth="1"/>
+    <col min="2" max="2" width="32.46484375" customWidth="1"/>
+    <col min="3" max="3" width="23.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2362,7 +2360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2376,7 +2374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2390,7 +2388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2404,7 +2402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2418,7 +2416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -2432,7 +2430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2446,7 +2444,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2458,7 +2456,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -2470,7 +2468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -2482,7 +2480,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -2494,7 +2492,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2506,7 +2504,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="20" t="s">
         <v>38</v>
       </c>
@@ -2517,7 +2515,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -2531,7 +2529,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2545,7 +2543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2557,7 +2555,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2571,7 +2569,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -2583,7 +2581,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -2597,7 +2595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -2611,7 +2609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -2625,7 +2623,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -2639,7 +2637,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -2651,7 +2649,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -2663,7 +2661,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
@@ -2677,7 +2675,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
@@ -2691,7 +2689,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
@@ -2705,7 +2703,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -2719,7 +2717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
@@ -2733,7 +2731,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -2747,7 +2745,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
@@ -2759,7 +2757,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>98</v>
       </c>
@@ -2771,7 +2769,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -2783,7 +2781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>102</v>
       </c>
@@ -2795,7 +2793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -2809,7 +2807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>107</v>
       </c>
@@ -2821,7 +2819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -2833,7 +2831,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -2845,7 +2843,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
@@ -2855,7 +2853,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>117</v>
       </c>
@@ -2867,7 +2865,7 @@
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>120</v>
       </c>
@@ -2879,7 +2877,7 @@
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>122</v>
       </c>
@@ -2893,7 +2891,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>125</v>
       </c>
@@ -2907,7 +2905,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>128</v>
       </c>
@@ -2919,7 +2917,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>131</v>
       </c>
@@ -2929,7 +2927,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>133</v>
       </c>
@@ -2939,7 +2937,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>135</v>
       </c>
@@ -2953,7 +2951,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>138</v>
       </c>
@@ -2967,7 +2965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>141</v>
       </c>
@@ -2977,7 +2975,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>143</v>
       </c>
@@ -2991,7 +2989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="18" t="s">
         <v>145</v>
       </c>
@@ -3008,7 +3006,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>147</v>
       </c>
@@ -3022,7 +3020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>149</v>
       </c>
@@ -3036,7 +3034,7 @@
         <v>37</v>
       </c>
     </row